--- a/output/Combined_Docks_Consumption_AbsPlusNorm.xlsx
+++ b/output/Combined_Docks_Consumption_AbsPlusNorm.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="24">
   <si>
     <t>GMLID</t>
   </si>
@@ -85,9 +85,6 @@
   <si>
     <t>IGN_BATIMENT0000000246490873</t>
   </si>
-  <si>
-    <t>IGN_BATIMENT0000000246490893</t>
-  </si>
 </sst>
 </file>
 
@@ -189,31 +186,31 @@
         <v>2695.0</v>
       </c>
       <c r="D2" t="n">
-        <v>6787.0</v>
+        <v>7598.0</v>
       </c>
       <c r="E2" t="n">
-        <v>2189.3548387096776</v>
+        <v>2819.294990723562</v>
       </c>
       <c r="F2" t="n">
-        <v>221.1579365079365</v>
+        <v>222.61772486772483</v>
       </c>
       <c r="G2" t="n">
-        <v>303.0</v>
+        <v>305.0</v>
       </c>
       <c r="H2" t="n">
-        <v>94.78197278911564</v>
+        <v>95.40759637188206</v>
       </c>
       <c r="I2" t="n">
-        <v>129.85714285714286</v>
+        <v>130.71428571428572</v>
       </c>
       <c r="J2" t="n">
-        <v>78.69399999999999</v>
+        <v>134.75</v>
       </c>
       <c r="K2" t="n">
-        <v>29.2</v>
+        <v>50.0</v>
       </c>
       <c r="L2" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="M2" t="n">
         <v>2016.0</v>
@@ -230,31 +227,31 @@
         <v>2695.0</v>
       </c>
       <c r="D3" t="n">
-        <v>5509.0</v>
+        <v>6787.0</v>
       </c>
       <c r="E3" t="n">
-        <v>2044.155844155844</v>
+        <v>2189.3548387096776</v>
       </c>
       <c r="F3" t="n">
-        <v>230.64656084656082</v>
+        <v>221.1579365079365</v>
       </c>
       <c r="G3" t="n">
         <v>303.0</v>
       </c>
       <c r="H3" t="n">
-        <v>89.69588477366254</v>
+        <v>94.78197278911564</v>
       </c>
       <c r="I3" t="n">
-        <v>122.88888888888889</v>
+        <v>129.85714285714286</v>
       </c>
       <c r="J3" t="n">
-        <v>52.822</v>
+        <v>78.69399999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>19.6</v>
+        <v>29.2</v>
       </c>
       <c r="L3" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="M3" t="n">
         <v>2016.0</v>
@@ -271,31 +268,31 @@
         <v>2695.0</v>
       </c>
       <c r="D4" t="n">
-        <v>2587.0</v>
+        <v>5509.0</v>
       </c>
       <c r="E4" t="n">
-        <v>711.6428498519955</v>
+        <v>2044.155844155844</v>
       </c>
       <c r="F4" t="n">
-        <v>244.51455026455028</v>
+        <v>230.64656084656082</v>
       </c>
       <c r="G4" t="n">
-        <v>335.0</v>
+        <v>303.0</v>
       </c>
       <c r="H4" t="n">
-        <v>64.99753867791843</v>
+        <v>89.69588477366254</v>
       </c>
       <c r="I4" t="n">
-        <v>89.0506329113924</v>
+        <v>122.88888888888889</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0</v>
+        <v>52.822</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0</v>
+        <v>19.6</v>
       </c>
       <c r="L4" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="M4" t="n">
         <v>2016.0</v>
@@ -312,22 +309,22 @@
         <v>2695.0</v>
       </c>
       <c r="D5" t="n">
-        <v>3298.0</v>
+        <v>2587.0</v>
       </c>
       <c r="E5" t="n">
-        <v>1169.7959989470914</v>
+        <v>711.6428498519955</v>
       </c>
       <c r="F5" t="n">
-        <v>245.9743386243386</v>
+        <v>244.51455026455028</v>
       </c>
       <c r="G5" t="n">
-        <v>337.0</v>
+        <v>335.0</v>
       </c>
       <c r="H5" t="n">
-        <v>74.86175523349436</v>
+        <v>64.99753867791843</v>
       </c>
       <c r="I5" t="n">
-        <v>102.56521739130434</v>
+        <v>89.0506329113924</v>
       </c>
       <c r="J5" t="n">
         <v>0.0</v>
@@ -336,7 +333,7 @@
         <v>0.0</v>
       </c>
       <c r="L5" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="M5" t="n">
         <v>2016.0</v>
@@ -353,22 +350,22 @@
         <v>2695.0</v>
       </c>
       <c r="D6" t="n">
-        <v>4159.0</v>
+        <v>3298.0</v>
       </c>
       <c r="E6" t="n">
-        <v>1899.646382790629</v>
+        <v>1169.7959989470914</v>
       </c>
       <c r="F6" t="n">
-        <v>239.405291005291</v>
+        <v>245.9743386243386</v>
       </c>
       <c r="G6" t="n">
-        <v>328.0</v>
+        <v>337.0</v>
       </c>
       <c r="H6" t="n">
-        <v>79.80176366843034</v>
+        <v>74.86175523349436</v>
       </c>
       <c r="I6" t="n">
-        <v>109.33333333333333</v>
+        <v>102.56521739130434</v>
       </c>
       <c r="J6" t="n">
         <v>0.0</v>
@@ -377,7 +374,7 @@
         <v>0.0</v>
       </c>
       <c r="L6" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="M6" t="n">
         <v>2016.0</v>
@@ -394,31 +391,31 @@
         <v>2695.0</v>
       </c>
       <c r="D7" t="n">
-        <v>5954.0</v>
+        <v>4159.0</v>
       </c>
       <c r="E7" t="n">
-        <v>2209.2764378478664</v>
+        <v>1899.646382790629</v>
       </c>
       <c r="F7" t="n">
-        <v>233.56613756613754</v>
+        <v>239.405291005291</v>
       </c>
       <c r="G7" t="n">
-        <v>320.0</v>
+        <v>328.0</v>
       </c>
       <c r="H7" t="n">
-        <v>95.40025337208435</v>
+        <v>79.80176366843034</v>
       </c>
       <c r="I7" t="n">
-        <v>130.70422535211267</v>
+        <v>109.33333333333333</v>
       </c>
       <c r="J7" t="n">
-        <v>25.872</v>
+        <v>0.0</v>
       </c>
       <c r="K7" t="n">
-        <v>9.6</v>
+        <v>0.0</v>
       </c>
       <c r="L7" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="M7" t="n">
         <v>2016.0</v>
@@ -435,31 +432,31 @@
         <v>2695.0</v>
       </c>
       <c r="D8" t="n">
-        <v>7128.0</v>
+        <v>5954.0</v>
       </c>
       <c r="E8" t="n">
-        <v>2644.8979591836733</v>
+        <v>2209.2764378478664</v>
       </c>
       <c r="F8" t="n">
-        <v>228.45687830687828</v>
+        <v>233.56613756613754</v>
       </c>
       <c r="G8" t="n">
-        <v>313.0</v>
+        <v>320.0</v>
       </c>
       <c r="H8" t="n">
-        <v>94.07047930283224</v>
+        <v>95.40025337208435</v>
       </c>
       <c r="I8" t="n">
-        <v>128.88235294117646</v>
+        <v>130.70422535211267</v>
       </c>
       <c r="J8" t="n">
-        <v>75.46000000000001</v>
+        <v>25.872</v>
       </c>
       <c r="K8" t="n">
-        <v>28.000000000000004</v>
+        <v>9.6</v>
       </c>
       <c r="L8" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="M8" t="n">
         <v>2016.0</v>
@@ -476,31 +473,31 @@
         <v>2695.0</v>
       </c>
       <c r="D9" t="n">
-        <v>8597.0</v>
+        <v>7128.0</v>
       </c>
       <c r="E9" t="n">
-        <v>3189.9814471243044</v>
+        <v>2644.8979591836733</v>
       </c>
       <c r="F9" t="n">
-        <v>226.99708994708996</v>
+        <v>228.45687830687828</v>
       </c>
       <c r="G9" t="n">
-        <v>311.0</v>
+        <v>313.0</v>
       </c>
       <c r="H9" t="n">
-        <v>97.28446712018142</v>
+        <v>94.07047930283224</v>
       </c>
       <c r="I9" t="n">
-        <v>133.28571428571428</v>
+        <v>128.88235294117646</v>
       </c>
       <c r="J9" t="n">
-        <v>107.80000000000001</v>
+        <v>75.46000000000001</v>
       </c>
       <c r="K9" t="n">
-        <v>40.0</v>
+        <v>28.000000000000004</v>
       </c>
       <c r="L9" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="M9" t="n">
         <v>2016.0</v>
@@ -517,31 +514,31 @@
         <v>2695.0</v>
       </c>
       <c r="D10" t="n">
-        <v>10159.0</v>
+        <v>8597.0</v>
       </c>
       <c r="E10" t="n">
-        <v>3769.5732838589984</v>
+        <v>3189.9814471243044</v>
       </c>
       <c r="F10" t="n">
-        <v>225.53730158730156</v>
+        <v>226.99708994708996</v>
       </c>
       <c r="G10" t="n">
-        <v>309.0</v>
+        <v>311.0</v>
       </c>
       <c r="H10" t="n">
-        <v>101.32835288704852</v>
+        <v>97.28446712018142</v>
       </c>
       <c r="I10" t="n">
-        <v>138.82608695652175</v>
+        <v>133.28571428571428</v>
       </c>
       <c r="J10" t="n">
-        <v>210.21</v>
+        <v>107.80000000000001</v>
       </c>
       <c r="K10" t="n">
-        <v>78.0</v>
+        <v>40.0</v>
       </c>
       <c r="L10" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="M10" t="n">
         <v>2016.0</v>
@@ -558,31 +555,31 @@
         <v>2695.0</v>
       </c>
       <c r="D11" t="n">
-        <v>10850.0</v>
+        <v>10159.0</v>
       </c>
       <c r="E11" t="n">
-        <v>4025.974025974026</v>
+        <v>3769.5732838589984</v>
       </c>
       <c r="F11" t="n">
-        <v>219.69814814814814</v>
+        <v>225.53730158730156</v>
       </c>
       <c r="G11" t="n">
-        <v>301.0</v>
+        <v>309.0</v>
       </c>
       <c r="H11" t="n">
-        <v>103.38736383442266</v>
+        <v>101.32835288704852</v>
       </c>
       <c r="I11" t="n">
-        <v>141.64705882352942</v>
+        <v>138.82608695652175</v>
       </c>
       <c r="J11" t="n">
-        <v>203.742</v>
+        <v>210.21</v>
       </c>
       <c r="K11" t="n">
-        <v>75.6</v>
+        <v>78.0</v>
       </c>
       <c r="L11" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="M11" t="n">
         <v>2016.0</v>
@@ -599,34 +596,34 @@
         <v>2695.0</v>
       </c>
       <c r="D12" t="n">
-        <v>9797.0</v>
+        <v>10850.0</v>
       </c>
       <c r="E12" t="n">
-        <v>3635.2504638218925</v>
+        <v>4025.974025974026</v>
       </c>
       <c r="F12" t="n">
-        <v>220.42804232804232</v>
+        <v>219.69814814814814</v>
       </c>
       <c r="G12" t="n">
-        <v>302.0</v>
+        <v>301.0</v>
       </c>
       <c r="H12" t="n">
-        <v>99.03288858216393</v>
+        <v>103.38736383442266</v>
       </c>
       <c r="I12" t="n">
-        <v>135.68115942028984</v>
+        <v>141.64705882352942</v>
       </c>
       <c r="J12" t="n">
-        <v>188.64999999999998</v>
+        <v>203.742</v>
       </c>
       <c r="K12" t="n">
-        <v>70.0</v>
+        <v>75.6</v>
       </c>
       <c r="L12" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="M12" t="n">
-        <v>2015.0</v>
+        <v>2016.0</v>
       </c>
     </row>
     <row r="13">
@@ -640,34 +637,34 @@
         <v>2695.0</v>
       </c>
       <c r="D13" t="n">
-        <v>7598.0</v>
+        <v>9797.0</v>
       </c>
       <c r="E13" t="n">
-        <v>2819.294990723562</v>
+        <v>3635.2504638218925</v>
       </c>
       <c r="F13" t="n">
-        <v>222.61772486772483</v>
+        <v>220.42804232804232</v>
       </c>
       <c r="G13" t="n">
-        <v>305.0</v>
+        <v>302.0</v>
       </c>
       <c r="H13" t="n">
-        <v>95.40759637188206</v>
+        <v>99.03288858216393</v>
       </c>
       <c r="I13" t="n">
-        <v>130.71428571428572</v>
+        <v>135.68115942028984</v>
       </c>
       <c r="J13" t="n">
-        <v>134.75</v>
+        <v>188.64999999999998</v>
       </c>
       <c r="K13" t="n">
-        <v>50.0</v>
+        <v>70.0</v>
       </c>
       <c r="L13" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="M13" t="n">
-        <v>2016.0</v>
+        <v>2015.0</v>
       </c>
     </row>
     <row r="14">
@@ -681,31 +678,31 @@
         <v>3100.0</v>
       </c>
       <c r="D14" t="n">
-        <v>7698.0</v>
+        <v>8496.0</v>
       </c>
       <c r="E14" t="n">
-        <v>2483.2258064516127</v>
+        <v>2740.6451612903224</v>
       </c>
       <c r="F14" t="n">
-        <v>359.4927140255009</v>
+        <v>364.53233151183974</v>
       </c>
       <c r="G14" t="n">
-        <v>428.0</v>
+        <v>434.0</v>
       </c>
       <c r="H14" t="n">
-        <v>154.06830601092895</v>
+        <v>156.22814207650276</v>
       </c>
       <c r="I14" t="n">
-        <v>148.0</v>
+        <v>151.0</v>
       </c>
       <c r="J14" t="n">
-        <v>54.25000000000001</v>
+        <v>116.25</v>
       </c>
       <c r="K14" t="n">
-        <v>17.5</v>
+        <v>37.5</v>
       </c>
       <c r="L14" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="M14" t="n">
         <v>2016.0</v>
@@ -722,31 +719,31 @@
         <v>3100.0</v>
       </c>
       <c r="D15" t="n">
-        <v>6654.0</v>
+        <v>7698.0</v>
       </c>
       <c r="E15" t="n">
-        <v>2146.451612903226</v>
+        <v>2483.2258064516127</v>
       </c>
       <c r="F15" t="n">
-        <v>279.69877049180326</v>
+        <v>359.4927140255009</v>
       </c>
       <c r="G15" t="n">
         <v>428.0</v>
       </c>
       <c r="H15" t="n">
-        <v>108.77174408014571</v>
+        <v>154.06830601092895</v>
       </c>
       <c r="I15" t="n">
-        <v>129.5</v>
+        <v>148.0</v>
       </c>
       <c r="J15" t="n">
-        <v>32.550000000000004</v>
+        <v>54.25000000000001</v>
       </c>
       <c r="K15" t="n">
-        <v>10.5</v>
+        <v>17.5</v>
       </c>
       <c r="L15" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="M15" t="n">
         <v>2016.0</v>
@@ -763,31 +760,31 @@
         <v>3100.0</v>
       </c>
       <c r="D16" t="n">
-        <v>3529.0</v>
+        <v>6654.0</v>
       </c>
       <c r="E16" t="n">
-        <v>1022.7073011124614</v>
+        <v>2146.451612903226</v>
       </c>
       <c r="F16" t="n">
-        <v>305.73679417122037</v>
+        <v>279.69877049180326</v>
       </c>
       <c r="G16" t="n">
-        <v>364.0</v>
+        <v>428.0</v>
       </c>
       <c r="H16" t="n">
-        <v>81.27180604551428</v>
+        <v>108.77174408014571</v>
       </c>
       <c r="I16" t="n">
-        <v>96.75949367088607</v>
+        <v>129.5</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0</v>
+        <v>32.550000000000004</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0</v>
+        <v>10.5</v>
       </c>
       <c r="L16" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="M16" t="n">
         <v>2016.0</v>
@@ -804,10 +801,10 @@
         <v>3100.0</v>
       </c>
       <c r="D17" t="n">
-        <v>4084.0</v>
+        <v>3529.0</v>
       </c>
       <c r="E17" t="n">
-        <v>1317.4193548387098</v>
+        <v>1022.7073011124614</v>
       </c>
       <c r="F17" t="n">
         <v>305.73679417122037</v>
@@ -816,10 +813,10 @@
         <v>364.0</v>
       </c>
       <c r="H17" t="n">
-        <v>93.0503286608062</v>
+        <v>81.27180604551428</v>
       </c>
       <c r="I17" t="n">
-        <v>110.78260869565217</v>
+        <v>96.75949367088607</v>
       </c>
       <c r="J17" t="n">
         <v>0.0</v>
@@ -828,7 +825,7 @@
         <v>0.0</v>
       </c>
       <c r="L17" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="M17" t="n">
         <v>2016.0</v>
@@ -845,22 +842,22 @@
         <v>3100.0</v>
       </c>
       <c r="D18" t="n">
-        <v>5102.0</v>
+        <v>4084.0</v>
       </c>
       <c r="E18" t="n">
-        <v>2054.5856066510783</v>
+        <v>1317.4193548387098</v>
       </c>
       <c r="F18" t="n">
-        <v>293.1377504553734</v>
+        <v>305.73679417122037</v>
       </c>
       <c r="G18" t="n">
-        <v>349.0</v>
+        <v>364.0</v>
       </c>
       <c r="H18" t="n">
-        <v>97.71258348512447</v>
+        <v>93.0503286608062</v>
       </c>
       <c r="I18" t="n">
-        <v>116.33333333333333</v>
+        <v>110.78260869565217</v>
       </c>
       <c r="J18" t="n">
         <v>0.0</v>
@@ -869,7 +866,7 @@
         <v>0.0</v>
       </c>
       <c r="L18" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="M18" t="n">
         <v>2016.0</v>
@@ -886,31 +883,31 @@
         <v>3100.0</v>
       </c>
       <c r="D19" t="n">
-        <v>6889.0</v>
+        <v>5102.0</v>
       </c>
       <c r="E19" t="n">
-        <v>2222.2580645161293</v>
+        <v>2054.5856066510783</v>
       </c>
       <c r="F19" t="n">
-        <v>288.93806921675775</v>
+        <v>293.1377504553734</v>
       </c>
       <c r="G19" t="n">
-        <v>344.0</v>
+        <v>349.0</v>
       </c>
       <c r="H19" t="n">
-        <v>118.01695784909823</v>
+        <v>97.71258348512447</v>
       </c>
       <c r="I19" t="n">
-        <v>140.50704225352112</v>
+        <v>116.33333333333333</v>
       </c>
       <c r="J19" t="n">
-        <v>17.825</v>
+        <v>0.0</v>
       </c>
       <c r="K19" t="n">
-        <v>5.75</v>
+        <v>0.0</v>
       </c>
       <c r="L19" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="M19" t="n">
         <v>2016.0</v>
@@ -927,31 +924,31 @@
         <v>3100.0</v>
       </c>
       <c r="D20" t="n">
-        <v>7969.0</v>
+        <v>6889.0</v>
       </c>
       <c r="E20" t="n">
-        <v>2570.6451612903224</v>
+        <v>2222.2580645161293</v>
       </c>
       <c r="F20" t="n">
-        <v>284.7383879781421</v>
+        <v>288.93806921675775</v>
       </c>
       <c r="G20" t="n">
-        <v>339.0</v>
+        <v>344.0</v>
       </c>
       <c r="H20" t="n">
-        <v>117.24521857923499</v>
+        <v>118.01695784909823</v>
       </c>
       <c r="I20" t="n">
-        <v>139.58823529411765</v>
+        <v>140.50704225352112</v>
       </c>
       <c r="J20" t="n">
-        <v>62.0</v>
+        <v>17.825</v>
       </c>
       <c r="K20" t="n">
-        <v>20.0</v>
+        <v>5.75</v>
       </c>
       <c r="L20" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="M20" t="n">
         <v>2016.0</v>
@@ -968,31 +965,31 @@
         <v>3100.0</v>
       </c>
       <c r="D21" t="n">
-        <v>9723.0</v>
+        <v>7969.0</v>
       </c>
       <c r="E21" t="n">
-        <v>3136.451612903226</v>
+        <v>2570.6451612903224</v>
       </c>
       <c r="F21" t="n">
-        <v>278.85883424408013</v>
+        <v>284.7383879781421</v>
       </c>
       <c r="G21" t="n">
-        <v>332.0</v>
+        <v>339.0</v>
       </c>
       <c r="H21" t="n">
-        <v>119.51092896174863</v>
+        <v>117.24521857923499</v>
       </c>
       <c r="I21" t="n">
-        <v>142.28571428571428</v>
+        <v>139.58823529411765</v>
       </c>
       <c r="J21" t="n">
-        <v>85.25</v>
+        <v>62.0</v>
       </c>
       <c r="K21" t="n">
-        <v>27.5</v>
+        <v>20.0</v>
       </c>
       <c r="L21" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="M21" t="n">
         <v>2016.0</v>
@@ -1009,31 +1006,31 @@
         <v>3100.0</v>
       </c>
       <c r="D22" t="n">
-        <v>11387.0</v>
+        <v>9723.0</v>
       </c>
       <c r="E22" t="n">
-        <v>3673.2258064516127</v>
+        <v>3136.451612903226</v>
       </c>
       <c r="F22" t="n">
-        <v>277.17896174863387</v>
+        <v>278.85883424408013</v>
       </c>
       <c r="G22" t="n">
-        <v>330.0</v>
+        <v>332.0</v>
       </c>
       <c r="H22" t="n">
-        <v>124.52967846677754</v>
+        <v>119.51092896174863</v>
       </c>
       <c r="I22" t="n">
-        <v>148.2608695652174</v>
+        <v>142.28571428571428</v>
       </c>
       <c r="J22" t="n">
-        <v>155.0</v>
+        <v>85.25</v>
       </c>
       <c r="K22" t="n">
-        <v>50.0</v>
+        <v>27.5</v>
       </c>
       <c r="L22" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="M22" t="n">
         <v>2016.0</v>
@@ -1050,31 +1047,31 @@
         <v>3100.0</v>
       </c>
       <c r="D23" t="n">
-        <v>11882.0</v>
+        <v>11387.0</v>
       </c>
       <c r="E23" t="n">
-        <v>3832.9032258064517</v>
+        <v>3673.2258064516127</v>
       </c>
       <c r="F23" t="n">
-        <v>276.33902550091074</v>
+        <v>277.17896174863387</v>
       </c>
       <c r="G23" t="n">
-        <v>329.0</v>
+        <v>330.0</v>
       </c>
       <c r="H23" t="n">
-        <v>130.04189435336977</v>
+        <v>124.52967846677754</v>
       </c>
       <c r="I23" t="n">
-        <v>154.8235294117647</v>
+        <v>148.2608695652174</v>
       </c>
       <c r="J23" t="n">
-        <v>127.875</v>
+        <v>155.0</v>
       </c>
       <c r="K23" t="n">
-        <v>41.25</v>
+        <v>50.0</v>
       </c>
       <c r="L23" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="M23" t="n">
         <v>2016.0</v>
@@ -1091,34 +1088,34 @@
         <v>3100.0</v>
       </c>
       <c r="D24" t="n">
-        <v>10697.0</v>
+        <v>11882.0</v>
       </c>
       <c r="E24" t="n">
-        <v>3450.6451612903224</v>
+        <v>3832.9032258064517</v>
       </c>
       <c r="F24" t="n">
-        <v>374.6115664845173</v>
+        <v>276.33902550091074</v>
       </c>
       <c r="G24" t="n">
-        <v>446.0</v>
+        <v>329.0</v>
       </c>
       <c r="H24" t="n">
-        <v>168.30374726115997</v>
+        <v>130.04189435336977</v>
       </c>
       <c r="I24" t="n">
-        <v>200.3768115942029</v>
+        <v>154.8235294117647</v>
       </c>
       <c r="J24" t="n">
-        <v>124.0</v>
+        <v>127.875</v>
       </c>
       <c r="K24" t="n">
-        <v>40.0</v>
+        <v>41.25</v>
       </c>
       <c r="L24" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="M24" t="n">
-        <v>2015.0</v>
+        <v>2016.0</v>
       </c>
     </row>
     <row r="25">
@@ -1132,34 +1129,34 @@
         <v>3100.0</v>
       </c>
       <c r="D25" t="n">
-        <v>8496.0</v>
+        <v>10697.0</v>
       </c>
       <c r="E25" t="n">
-        <v>2740.6451612903224</v>
+        <v>3450.6451612903224</v>
       </c>
       <c r="F25" t="n">
-        <v>364.53233151183974</v>
+        <v>374.6115664845173</v>
       </c>
       <c r="G25" t="n">
-        <v>434.0</v>
+        <v>446.0</v>
       </c>
       <c r="H25" t="n">
-        <v>156.22814207650276</v>
+        <v>168.30374726115997</v>
       </c>
       <c r="I25" t="n">
-        <v>151.0</v>
+        <v>200.3768115942029</v>
       </c>
       <c r="J25" t="n">
-        <v>116.25</v>
+        <v>124.0</v>
       </c>
       <c r="K25" t="n">
-        <v>37.5</v>
+        <v>40.0</v>
       </c>
       <c r="L25" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="M25" t="n">
-        <v>2016.0</v>
+        <v>2015.0</v>
       </c>
     </row>
     <row r="26">
@@ -1173,31 +1170,31 @@
         <v>2800.0</v>
       </c>
       <c r="D26" t="n">
-        <v>6954.0</v>
+        <v>7885.0</v>
       </c>
       <c r="E26" t="n">
-        <v>2483.5714285714284</v>
+        <v>2816.0714285714284</v>
       </c>
       <c r="F26" t="n">
-        <v>304.0319865319865</v>
+        <v>306.43223905723903</v>
       </c>
       <c r="G26" t="n">
-        <v>380.0</v>
+        <v>383.0</v>
       </c>
       <c r="H26" t="n">
-        <v>130.29942279942279</v>
+        <v>131.32810245310245</v>
       </c>
       <c r="I26" t="n">
-        <v>162.85714285714286</v>
+        <v>164.14285714285714</v>
       </c>
       <c r="J26" t="n">
-        <v>54.809999999999995</v>
+        <v>113.39999999999999</v>
       </c>
       <c r="K26" t="n">
-        <v>19.575</v>
+        <v>40.5</v>
       </c>
       <c r="L26" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="M26" t="n">
         <v>2016.0</v>
@@ -1214,31 +1211,31 @@
         <v>2800.0</v>
       </c>
       <c r="D27" t="n">
-        <v>6389.0</v>
+        <v>6954.0</v>
       </c>
       <c r="E27" t="n">
-        <v>2281.785714285714</v>
+        <v>2483.5714285714284</v>
       </c>
       <c r="F27" t="n">
-        <v>319.23358585858585</v>
+        <v>304.0319865319865</v>
       </c>
       <c r="G27" t="n">
         <v>380.0</v>
       </c>
       <c r="H27" t="n">
-        <v>124.14639450056117</v>
+        <v>130.29942279942279</v>
       </c>
       <c r="I27" t="n">
-        <v>155.16666666666666</v>
+        <v>162.85714285714286</v>
       </c>
       <c r="J27" t="n">
-        <v>34.019999999999996</v>
+        <v>54.809999999999995</v>
       </c>
       <c r="K27" t="n">
-        <v>12.15</v>
+        <v>19.575</v>
       </c>
       <c r="L27" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="M27" t="n">
         <v>2016.0</v>
@@ -1255,31 +1252,31 @@
         <v>2800.0</v>
       </c>
       <c r="D28" t="n">
-        <v>2810.0</v>
+        <v>6389.0</v>
       </c>
       <c r="E28" t="n">
-        <v>1003.5714285714286</v>
+        <v>2281.785714285714</v>
       </c>
       <c r="F28" t="n">
-        <v>340.03577441077437</v>
+        <v>319.23358585858585</v>
       </c>
       <c r="G28" t="n">
-        <v>425.0</v>
+        <v>380.0</v>
       </c>
       <c r="H28" t="n">
-        <v>90.38925648894002</v>
+        <v>124.14639450056117</v>
       </c>
       <c r="I28" t="n">
-        <v>112.9746835443038</v>
+        <v>155.16666666666666</v>
       </c>
       <c r="J28" t="n">
-        <v>0.0</v>
+        <v>34.019999999999996</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0</v>
+        <v>12.15</v>
       </c>
       <c r="L28" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="M28" t="n">
         <v>2016.0</v>
@@ -1296,22 +1293,22 @@
         <v>2800.0</v>
       </c>
       <c r="D29" t="n">
-        <v>3385.0</v>
+        <v>2810.0</v>
       </c>
       <c r="E29" t="n">
-        <v>1208.9285714285713</v>
+        <v>1003.5714285714286</v>
       </c>
       <c r="F29" t="n">
-        <v>337.6355218855219</v>
+        <v>340.03577441077437</v>
       </c>
       <c r="G29" t="n">
-        <v>422.0</v>
+        <v>425.0</v>
       </c>
       <c r="H29" t="n">
-        <v>102.75863709559361</v>
+        <v>90.38925648894002</v>
       </c>
       <c r="I29" t="n">
-        <v>128.43478260869566</v>
+        <v>112.9746835443038</v>
       </c>
       <c r="J29" t="n">
         <v>0.0</v>
@@ -1320,7 +1317,7 @@
         <v>0.0</v>
       </c>
       <c r="L29" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="M29" t="n">
         <v>2016.0</v>
@@ -1337,22 +1334,22 @@
         <v>2800.0</v>
       </c>
       <c r="D30" t="n">
-        <v>4395.0</v>
+        <v>3385.0</v>
       </c>
       <c r="E30" t="n">
-        <v>1569.642857142857</v>
+        <v>1208.9285714285713</v>
       </c>
       <c r="F30" t="n">
-        <v>332.0349326599327</v>
+        <v>337.6355218855219</v>
       </c>
       <c r="G30" t="n">
-        <v>415.0</v>
+        <v>422.0</v>
       </c>
       <c r="H30" t="n">
-        <v>110.67831088664423</v>
+        <v>102.75863709559361</v>
       </c>
       <c r="I30" t="n">
-        <v>138.33333333333334</v>
+        <v>128.43478260869566</v>
       </c>
       <c r="J30" t="n">
         <v>0.0</v>
@@ -1361,7 +1358,7 @@
         <v>0.0</v>
       </c>
       <c r="L30" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="M30" t="n">
         <v>2016.0</v>
@@ -1378,31 +1375,31 @@
         <v>2800.0</v>
       </c>
       <c r="D31" t="n">
-        <v>6128.0</v>
+        <v>4395.0</v>
       </c>
       <c r="E31" t="n">
-        <v>2188.5714285714284</v>
+        <v>1569.642857142857</v>
       </c>
       <c r="F31" t="n">
-        <v>322.4339225589225</v>
+        <v>332.0349326599327</v>
       </c>
       <c r="G31" t="n">
-        <v>403.0</v>
+        <v>415.0</v>
       </c>
       <c r="H31" t="n">
-        <v>131.69836273533457</v>
+        <v>110.67831088664423</v>
       </c>
       <c r="I31" t="n">
-        <v>164.6056338028169</v>
+        <v>138.33333333333334</v>
       </c>
       <c r="J31" t="n">
-        <v>20.79</v>
+        <v>0.0</v>
       </c>
       <c r="K31" t="n">
-        <v>7.425</v>
+        <v>0.0</v>
       </c>
       <c r="L31" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="M31" t="n">
         <v>2016.0</v>
@@ -1419,31 +1416,31 @@
         <v>2800.0</v>
       </c>
       <c r="D32" t="n">
-        <v>7302.0</v>
+        <v>6128.0</v>
       </c>
       <c r="E32" t="n">
-        <v>2607.8571428571427</v>
+        <v>2188.5714285714284</v>
       </c>
       <c r="F32" t="n">
-        <v>316.0332491582492</v>
+        <v>322.4339225589225</v>
       </c>
       <c r="G32" t="n">
-        <v>395.0</v>
+        <v>403.0</v>
       </c>
       <c r="H32" t="n">
-        <v>130.13133788869084</v>
+        <v>131.69836273533457</v>
       </c>
       <c r="I32" t="n">
-        <v>162.64705882352942</v>
+        <v>164.6056338028169</v>
       </c>
       <c r="J32" t="n">
-        <v>45.36</v>
+        <v>20.79</v>
       </c>
       <c r="K32" t="n">
-        <v>16.2</v>
+        <v>7.425</v>
       </c>
       <c r="L32" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="M32" t="n">
         <v>2016.0</v>
@@ -1460,31 +1457,31 @@
         <v>2800.0</v>
       </c>
       <c r="D33" t="n">
-        <v>8864.0</v>
+        <v>7302.0</v>
       </c>
       <c r="E33" t="n">
-        <v>3165.714285714286</v>
+        <v>2607.8571428571427</v>
       </c>
       <c r="F33" t="n">
-        <v>311.2327441077441</v>
+        <v>316.0332491582492</v>
       </c>
       <c r="G33" t="n">
-        <v>389.0</v>
+        <v>395.0</v>
       </c>
       <c r="H33" t="n">
-        <v>133.38546176046177</v>
+        <v>130.13133788869084</v>
       </c>
       <c r="I33" t="n">
-        <v>166.71428571428572</v>
+        <v>162.64705882352942</v>
       </c>
       <c r="J33" t="n">
-        <v>75.60000000000001</v>
+        <v>45.36</v>
       </c>
       <c r="K33" t="n">
-        <v>27.0</v>
+        <v>16.2</v>
       </c>
       <c r="L33" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="M33" t="n">
         <v>2016.0</v>
@@ -1501,31 +1498,31 @@
         <v>2800.0</v>
       </c>
       <c r="D34" t="n">
-        <v>10459.0</v>
+        <v>8864.0</v>
       </c>
       <c r="E34" t="n">
-        <v>3735.3571428571427</v>
+        <v>3165.714285714286</v>
       </c>
       <c r="F34" t="n">
-        <v>304.8320707070707</v>
+        <v>311.2327441077441</v>
       </c>
       <c r="G34" t="n">
-        <v>381.0</v>
+        <v>389.0</v>
       </c>
       <c r="H34" t="n">
-        <v>136.95353901332163</v>
+        <v>133.38546176046177</v>
       </c>
       <c r="I34" t="n">
-        <v>171.17391304347825</v>
+        <v>166.71428571428572</v>
       </c>
       <c r="J34" t="n">
-        <v>139.85999999999999</v>
+        <v>75.60000000000001</v>
       </c>
       <c r="K34" t="n">
-        <v>49.95</v>
+        <v>27.0</v>
       </c>
       <c r="L34" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="M34" t="n">
         <v>2016.0</v>
@@ -1542,31 +1539,31 @@
         <v>2800.0</v>
       </c>
       <c r="D35" t="n">
-        <v>10985.0</v>
+        <v>10459.0</v>
       </c>
       <c r="E35" t="n">
-        <v>3923.214285714286</v>
+        <v>3735.3571428571427</v>
       </c>
       <c r="F35" t="n">
-        <v>303.23190235690237</v>
+        <v>304.8320707070707</v>
       </c>
       <c r="G35" t="n">
-        <v>379.0</v>
+        <v>381.0</v>
       </c>
       <c r="H35" t="n">
-        <v>142.6973658150129</v>
+        <v>136.95353901332163</v>
       </c>
       <c r="I35" t="n">
-        <v>178.35294117647058</v>
+        <v>171.17391304347825</v>
       </c>
       <c r="J35" t="n">
-        <v>136.07999999999998</v>
+        <v>139.85999999999999</v>
       </c>
       <c r="K35" t="n">
-        <v>48.6</v>
+        <v>49.95</v>
       </c>
       <c r="L35" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="M35" t="n">
         <v>2016.0</v>
@@ -1583,22 +1580,22 @@
         <v>2800.0</v>
       </c>
       <c r="D36" t="n">
-        <v>10069.0</v>
+        <v>10985.0</v>
       </c>
       <c r="E36" t="n">
-        <v>3596.0714285714284</v>
+        <v>3923.214285714286</v>
       </c>
       <c r="F36" t="n">
-        <v>304.8320707070707</v>
+        <v>303.23190235690237</v>
       </c>
       <c r="G36" t="n">
-        <v>381.0</v>
+        <v>379.0</v>
       </c>
       <c r="H36" t="n">
-        <v>136.95353901332163</v>
+        <v>142.6973658150129</v>
       </c>
       <c r="I36" t="n">
-        <v>171.17391304347825</v>
+        <v>178.35294117647058</v>
       </c>
       <c r="J36" t="n">
         <v>136.07999999999998</v>
@@ -1607,10 +1604,10 @@
         <v>48.6</v>
       </c>
       <c r="L36" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="M36" t="n">
-        <v>2015.0</v>
+        <v>2016.0</v>
       </c>
     </row>
     <row r="37">
@@ -1624,34 +1621,34 @@
         <v>2800.0</v>
       </c>
       <c r="D37" t="n">
-        <v>7885.0</v>
+        <v>10069.0</v>
       </c>
       <c r="E37" t="n">
-        <v>2816.0714285714284</v>
+        <v>3596.0714285714284</v>
       </c>
       <c r="F37" t="n">
-        <v>306.43223905723903</v>
+        <v>304.8320707070707</v>
       </c>
       <c r="G37" t="n">
-        <v>383.0</v>
+        <v>381.0</v>
       </c>
       <c r="H37" t="n">
-        <v>131.32810245310245</v>
+        <v>136.95353901332163</v>
       </c>
       <c r="I37" t="n">
-        <v>164.14285714285714</v>
+        <v>171.17391304347825</v>
       </c>
       <c r="J37" t="n">
-        <v>113.39999999999999</v>
+        <v>136.07999999999998</v>
       </c>
       <c r="K37" t="n">
-        <v>40.5</v>
+        <v>48.6</v>
       </c>
       <c r="L37" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="M37" t="n">
-        <v>2016.0</v>
+        <v>2015.0</v>
       </c>
     </row>
     <row r="38">
@@ -1665,31 +1662,31 @@
         <v>6150.0</v>
       </c>
       <c r="D38" t="n">
-        <v>14358.0</v>
+        <v>17696.0</v>
       </c>
       <c r="E38" t="n">
-        <v>2334.6341463414633</v>
+        <v>2877.39837398374</v>
       </c>
       <c r="F38" t="n">
-        <v>406.05442176870747</v>
+        <v>407.4943310657597</v>
       </c>
       <c r="G38" t="n">
-        <v>282.0</v>
+        <v>283.0</v>
       </c>
       <c r="H38" t="n">
-        <v>174.02332361516034</v>
+        <v>174.6404275996113</v>
       </c>
       <c r="I38" t="n">
-        <v>120.85714285714286</v>
+        <v>121.28571428571429</v>
       </c>
       <c r="J38" t="n">
-        <v>82.9635</v>
+        <v>169.43249999999998</v>
       </c>
       <c r="K38" t="n">
-        <v>13.489999999999998</v>
+        <v>27.549999999999997</v>
       </c>
       <c r="L38" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="M38" t="n">
         <v>2016.0</v>
@@ -1706,31 +1703,31 @@
         <v>6150.0</v>
       </c>
       <c r="D39" t="n">
-        <v>12112.0</v>
+        <v>14358.0</v>
       </c>
       <c r="E39" t="n">
-        <v>1969.4308943089432</v>
+        <v>2334.6341463414633</v>
       </c>
       <c r="F39" t="n">
-        <v>416.13378684807265</v>
+        <v>406.05442176870747</v>
       </c>
       <c r="G39" t="n">
         <v>282.0</v>
       </c>
       <c r="H39" t="n">
-        <v>161.8298059964727</v>
+        <v>174.02332361516034</v>
       </c>
       <c r="I39" t="n">
-        <v>112.38888888888889</v>
+        <v>120.85714285714286</v>
       </c>
       <c r="J39" t="n">
-        <v>37.392</v>
+        <v>82.9635</v>
       </c>
       <c r="K39" t="n">
-        <v>6.08</v>
+        <v>13.489999999999998</v>
       </c>
       <c r="L39" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="M39" t="n">
         <v>2016.0</v>
@@ -1747,31 +1744,31 @@
         <v>6150.0</v>
       </c>
       <c r="D40" t="n">
-        <v>7287.0</v>
+        <v>12112.0</v>
       </c>
       <c r="E40" t="n">
-        <v>1184.878048780488</v>
+        <v>1969.4308943089432</v>
       </c>
       <c r="F40" t="n">
-        <v>455.0113378684807</v>
+        <v>416.13378684807265</v>
       </c>
       <c r="G40" t="n">
-        <v>316.0</v>
+        <v>282.0</v>
       </c>
       <c r="H40" t="n">
-        <v>120.95238095238095</v>
+        <v>161.8298059964727</v>
       </c>
       <c r="I40" t="n">
-        <v>84.0</v>
+        <v>112.38888888888889</v>
       </c>
       <c r="J40" t="n">
-        <v>0.0</v>
+        <v>37.392</v>
       </c>
       <c r="K40" t="n">
-        <v>0.0</v>
+        <v>6.08</v>
       </c>
       <c r="L40" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="M40" t="n">
         <v>2016.0</v>
@@ -1788,22 +1785,22 @@
         <v>6150.0</v>
       </c>
       <c r="D41" t="n">
-        <v>8628.0</v>
+        <v>7287.0</v>
       </c>
       <c r="E41" t="n">
-        <v>1402.9268292682927</v>
+        <v>1184.878048780488</v>
       </c>
       <c r="F41" t="n">
-        <v>456.45124716553283</v>
+        <v>455.0113378684807</v>
       </c>
       <c r="G41" t="n">
-        <v>317.0</v>
+        <v>316.0</v>
       </c>
       <c r="H41" t="n">
-        <v>138.91994478951</v>
+        <v>120.95238095238095</v>
       </c>
       <c r="I41" t="n">
-        <v>96.47826086956522</v>
+        <v>84.0</v>
       </c>
       <c r="J41" t="n">
         <v>0.0</v>
@@ -1812,7 +1809,7 @@
         <v>0.0</v>
       </c>
       <c r="L41" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="M41" t="n">
         <v>2016.0</v>
@@ -1829,22 +1826,22 @@
         <v>6150.0</v>
       </c>
       <c r="D42" t="n">
-        <v>11359.0</v>
+        <v>8628.0</v>
       </c>
       <c r="E42" t="n">
-        <v>1846.9918699186992</v>
+        <v>1402.9268292682927</v>
       </c>
       <c r="F42" t="n">
-        <v>444.9319727891156</v>
+        <v>456.45124716553283</v>
       </c>
       <c r="G42" t="n">
-        <v>309.0</v>
+        <v>317.0</v>
       </c>
       <c r="H42" t="n">
-        <v>148.31065759637187</v>
+        <v>138.91994478951</v>
       </c>
       <c r="I42" t="n">
-        <v>103.0</v>
+        <v>96.47826086956522</v>
       </c>
       <c r="J42" t="n">
         <v>0.0</v>
@@ -1853,7 +1850,7 @@
         <v>0.0</v>
       </c>
       <c r="L42" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="M42" t="n">
         <v>2016.0</v>
@@ -1870,31 +1867,31 @@
         <v>6150.0</v>
       </c>
       <c r="D43" t="n">
-        <v>14269.0</v>
+        <v>11359.0</v>
       </c>
       <c r="E43" t="n">
-        <v>2320.162601626016</v>
+        <v>1846.9918699186992</v>
       </c>
       <c r="F43" t="n">
-        <v>439.1723356009071</v>
+        <v>444.9319727891156</v>
       </c>
       <c r="G43" t="n">
-        <v>305.0</v>
+        <v>309.0</v>
       </c>
       <c r="H43" t="n">
-        <v>179.38024975248317</v>
+        <v>148.31065759637187</v>
       </c>
       <c r="I43" t="n">
-        <v>124.5774647887324</v>
+        <v>103.0</v>
       </c>
       <c r="J43" t="n">
-        <v>31.5495</v>
+        <v>0.0</v>
       </c>
       <c r="K43" t="n">
-        <v>5.13</v>
+        <v>0.0</v>
       </c>
       <c r="L43" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="M43" t="n">
         <v>2016.0</v>
@@ -1911,31 +1908,31 @@
         <v>6150.0</v>
       </c>
       <c r="D44" t="n">
-        <v>16389.0</v>
+        <v>14269.0</v>
       </c>
       <c r="E44" t="n">
-        <v>2664.878048780488</v>
+        <v>2320.162601626016</v>
       </c>
       <c r="F44" t="n">
-        <v>416.13378684807265</v>
+        <v>439.1723356009071</v>
       </c>
       <c r="G44" t="n">
-        <v>289.0</v>
+        <v>305.0</v>
       </c>
       <c r="H44" t="n">
-        <v>171.34920634920638</v>
+        <v>179.38024975248317</v>
       </c>
       <c r="I44" t="n">
-        <v>119.0</v>
+        <v>124.5774647887324</v>
       </c>
       <c r="J44" t="n">
-        <v>78.2895</v>
+        <v>31.5495</v>
       </c>
       <c r="K44" t="n">
-        <v>12.73</v>
+        <v>5.13</v>
       </c>
       <c r="L44" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="M44" t="n">
         <v>2016.0</v>
@@ -1952,31 +1949,31 @@
         <v>6150.0</v>
       </c>
       <c r="D45" t="n">
-        <v>19093.0</v>
+        <v>16389.0</v>
       </c>
       <c r="E45" t="n">
-        <v>3104.5528455284552</v>
+        <v>2664.878048780488</v>
       </c>
       <c r="F45" t="n">
-        <v>411.81405895691614</v>
+        <v>416.13378684807265</v>
       </c>
       <c r="G45" t="n">
-        <v>286.0</v>
+        <v>289.0</v>
       </c>
       <c r="H45" t="n">
-        <v>176.49173955296408</v>
+        <v>171.34920634920638</v>
       </c>
       <c r="I45" t="n">
-        <v>122.57142857142857</v>
+        <v>119.0</v>
       </c>
       <c r="J45" t="n">
-        <v>132.0405</v>
+        <v>78.2895</v>
       </c>
       <c r="K45" t="n">
-        <v>21.47</v>
+        <v>12.73</v>
       </c>
       <c r="L45" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="M45" t="n">
         <v>2016.0</v>
@@ -1993,31 +1990,31 @@
         <v>6150.0</v>
       </c>
       <c r="D46" t="n">
-        <v>22184.0</v>
+        <v>19093.0</v>
       </c>
       <c r="E46" t="n">
-        <v>3607.1544715447153</v>
+        <v>3104.5528455284552</v>
       </c>
       <c r="F46" t="n">
-        <v>408.93424036281175</v>
+        <v>411.81405895691614</v>
       </c>
       <c r="G46" t="n">
-        <v>284.0</v>
+        <v>286.0</v>
       </c>
       <c r="H46" t="n">
-        <v>183.7240790035821</v>
+        <v>176.49173955296408</v>
       </c>
       <c r="I46" t="n">
-        <v>127.59420289855072</v>
+        <v>122.57142857142857</v>
       </c>
       <c r="J46" t="n">
-        <v>219.678</v>
+        <v>132.0405</v>
       </c>
       <c r="K46" t="n">
-        <v>35.72</v>
+        <v>21.47</v>
       </c>
       <c r="L46" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="M46" t="n">
         <v>2016.0</v>
@@ -2034,10 +2031,10 @@
         <v>6150.0</v>
       </c>
       <c r="D47" t="n">
-        <v>23646.0</v>
+        <v>22184.0</v>
       </c>
       <c r="E47" t="n">
-        <v>3844.878048780488</v>
+        <v>3607.1544715447153</v>
       </c>
       <c r="F47" t="n">
         <v>408.93424036281175</v>
@@ -2046,19 +2043,19 @@
         <v>284.0</v>
       </c>
       <c r="H47" t="n">
-        <v>192.43964252367613</v>
+        <v>183.7240790035821</v>
       </c>
       <c r="I47" t="n">
-        <v>133.64705882352942</v>
+        <v>127.59420289855072</v>
       </c>
       <c r="J47" t="n">
-        <v>212.667</v>
+        <v>219.678</v>
       </c>
       <c r="K47" t="n">
-        <v>34.58</v>
+        <v>35.72</v>
       </c>
       <c r="L47" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="M47" t="n">
         <v>2016.0</v>
@@ -2075,10 +2072,10 @@
         <v>6150.0</v>
       </c>
       <c r="D48" t="n">
-        <v>21938.0</v>
+        <v>23646.0</v>
       </c>
       <c r="E48" t="n">
-        <v>3567.1544715447153</v>
+        <v>3844.878048780488</v>
       </c>
       <c r="F48" t="n">
         <v>408.93424036281175</v>
@@ -2087,22 +2084,22 @@
         <v>284.0</v>
       </c>
       <c r="H48" t="n">
-        <v>183.7240790035821</v>
+        <v>192.43964252367613</v>
       </c>
       <c r="I48" t="n">
-        <v>127.59420289855072</v>
+        <v>133.64705882352942</v>
       </c>
       <c r="J48" t="n">
-        <v>204.48749999999998</v>
+        <v>212.667</v>
       </c>
       <c r="K48" t="n">
-        <v>33.25</v>
+        <v>34.58</v>
       </c>
       <c r="L48" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="M48" t="n">
-        <v>2015.0</v>
+        <v>2016.0</v>
       </c>
     </row>
     <row r="49">
@@ -2116,34 +2113,34 @@
         <v>6150.0</v>
       </c>
       <c r="D49" t="n">
-        <v>17696.0</v>
+        <v>21938.0</v>
       </c>
       <c r="E49" t="n">
-        <v>2877.39837398374</v>
+        <v>3567.1544715447153</v>
       </c>
       <c r="F49" t="n">
-        <v>407.4943310657597</v>
+        <v>408.93424036281175</v>
       </c>
       <c r="G49" t="n">
-        <v>283.0</v>
+        <v>284.0</v>
       </c>
       <c r="H49" t="n">
-        <v>174.6404275996113</v>
+        <v>183.7240790035821</v>
       </c>
       <c r="I49" t="n">
-        <v>121.28571428571429</v>
+        <v>127.59420289855072</v>
       </c>
       <c r="J49" t="n">
-        <v>169.43249999999998</v>
+        <v>204.48749999999998</v>
       </c>
       <c r="K49" t="n">
-        <v>27.549999999999997</v>
+        <v>33.25</v>
       </c>
       <c r="L49" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="M49" t="n">
-        <v>2016.0</v>
+        <v>2015.0</v>
       </c>
     </row>
     <row r="50">
@@ -2157,31 +2154,31 @@
         <v>6430.0</v>
       </c>
       <c r="D50" t="n">
-        <v>15421.0</v>
+        <v>18769.0</v>
       </c>
       <c r="E50" t="n">
-        <v>2398.2892690513218</v>
+        <v>2918.9735614307933</v>
       </c>
       <c r="F50" t="n">
-        <v>447.0064724919094</v>
+        <v>449.9865156418554</v>
       </c>
       <c r="G50" t="n">
-        <v>300.0</v>
+        <v>302.0</v>
       </c>
       <c r="H50" t="n">
-        <v>191.5742024965326</v>
+        <v>192.85136384650946</v>
       </c>
       <c r="I50" t="n">
-        <v>128.57142857142858</v>
+        <v>129.42857142857142</v>
       </c>
       <c r="J50" t="n">
-        <v>138.50220000000002</v>
+        <v>279.705</v>
       </c>
       <c r="K50" t="n">
-        <v>21.54</v>
+        <v>43.5</v>
       </c>
       <c r="L50" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="M50" t="n">
         <v>2016.0</v>
@@ -2198,31 +2195,31 @@
         <v>6430.0</v>
       </c>
       <c r="D51" t="n">
-        <v>13259.0</v>
+        <v>15421.0</v>
       </c>
       <c r="E51" t="n">
-        <v>2062.052877138414</v>
+        <v>2398.2892690513218</v>
       </c>
       <c r="F51" t="n">
-        <v>469.3567961165048</v>
+        <v>447.0064724919094</v>
       </c>
       <c r="G51" t="n">
         <v>300.0</v>
       </c>
       <c r="H51" t="n">
-        <v>182.5276429341963</v>
+        <v>191.5742024965326</v>
       </c>
       <c r="I51" t="n">
-        <v>122.5</v>
+        <v>128.57142857142858</v>
       </c>
       <c r="J51" t="n">
-        <v>81.018</v>
+        <v>138.50220000000002</v>
       </c>
       <c r="K51" t="n">
-        <v>12.600000000000001</v>
+        <v>21.54</v>
       </c>
       <c r="L51" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="M51" t="n">
         <v>2016.0</v>
@@ -2239,31 +2236,31 @@
         <v>6430.0</v>
       </c>
       <c r="D52" t="n">
-        <v>7801.0</v>
+        <v>13259.0</v>
       </c>
       <c r="E52" t="n">
-        <v>1213.2192846034216</v>
+        <v>2062.052877138414</v>
       </c>
       <c r="F52" t="n">
-        <v>496.1771844660194</v>
+        <v>469.3567961165048</v>
       </c>
       <c r="G52" t="n">
-        <v>333.0</v>
+        <v>300.0</v>
       </c>
       <c r="H52" t="n">
-        <v>131.89520093400515</v>
+        <v>182.5276429341963</v>
       </c>
       <c r="I52" t="n">
-        <v>88.51898734177215</v>
+        <v>122.5</v>
       </c>
       <c r="J52" t="n">
-        <v>0.0</v>
+        <v>81.018</v>
       </c>
       <c r="K52" t="n">
-        <v>0.0</v>
+        <v>12.600000000000001</v>
       </c>
       <c r="L52" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="M52" t="n">
         <v>2016.0</v>
@@ -2280,22 +2277,22 @@
         <v>6430.0</v>
       </c>
       <c r="D53" t="n">
-        <v>9602.0</v>
+        <v>7801.0</v>
       </c>
       <c r="E53" t="n">
-        <v>1493.3125972006221</v>
+        <v>1213.2192846034216</v>
       </c>
       <c r="F53" t="n">
-        <v>497.6672060409925</v>
+        <v>496.1771844660194</v>
       </c>
       <c r="G53" t="n">
-        <v>334.0</v>
+        <v>333.0</v>
       </c>
       <c r="H53" t="n">
-        <v>151.46393227334553</v>
+        <v>131.89520093400515</v>
       </c>
       <c r="I53" t="n">
-        <v>101.65217391304348</v>
+        <v>88.51898734177215</v>
       </c>
       <c r="J53" t="n">
         <v>0.0</v>
@@ -2304,7 +2301,7 @@
         <v>0.0</v>
       </c>
       <c r="L53" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="M53" t="n">
         <v>2016.0</v>
@@ -2321,22 +2318,22 @@
         <v>6430.0</v>
       </c>
       <c r="D54" t="n">
-        <v>12325.0</v>
+        <v>9602.0</v>
       </c>
       <c r="E54" t="n">
-        <v>1916.796267496112</v>
+        <v>1493.3125972006221</v>
       </c>
       <c r="F54" t="n">
-        <v>464.8867313915858</v>
+        <v>497.6672060409925</v>
       </c>
       <c r="G54" t="n">
-        <v>312.0</v>
+        <v>334.0</v>
       </c>
       <c r="H54" t="n">
-        <v>154.96224379719527</v>
+        <v>151.46393227334553</v>
       </c>
       <c r="I54" t="n">
-        <v>104.0</v>
+        <v>101.65217391304348</v>
       </c>
       <c r="J54" t="n">
         <v>0.0</v>
@@ -2345,7 +2342,7 @@
         <v>0.0</v>
       </c>
       <c r="L54" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="M54" t="n">
         <v>2016.0</v>
@@ -2362,31 +2359,31 @@
         <v>6430.0</v>
       </c>
       <c r="D55" t="n">
-        <v>15212.0</v>
+        <v>12325.0</v>
       </c>
       <c r="E55" t="n">
-        <v>2365.7853810264387</v>
+        <v>1916.796267496112</v>
       </c>
       <c r="F55" t="n">
-        <v>458.9266450916937</v>
+        <v>464.8867313915858</v>
       </c>
       <c r="G55" t="n">
-        <v>308.0</v>
+        <v>312.0</v>
       </c>
       <c r="H55" t="n">
-        <v>187.44891137548052</v>
+        <v>154.96224379719527</v>
       </c>
       <c r="I55" t="n">
-        <v>125.80281690140845</v>
+        <v>104.0</v>
       </c>
       <c r="J55" t="n">
-        <v>60.184799999999996</v>
+        <v>0.0</v>
       </c>
       <c r="K55" t="n">
-        <v>9.36</v>
+        <v>0.0</v>
       </c>
       <c r="L55" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="M55" t="n">
         <v>2016.0</v>
@@ -2403,31 +2400,31 @@
         <v>6430.0</v>
       </c>
       <c r="D56" t="n">
-        <v>17060.0</v>
+        <v>15212.0</v>
       </c>
       <c r="E56" t="n">
-        <v>2653.1881804043546</v>
+        <v>2365.7853810264387</v>
       </c>
       <c r="F56" t="n">
-        <v>449.9865156418554</v>
+        <v>458.9266450916937</v>
       </c>
       <c r="G56" t="n">
-        <v>302.0</v>
+        <v>308.0</v>
       </c>
       <c r="H56" t="n">
-        <v>185.2885652642934</v>
+        <v>187.44891137548052</v>
       </c>
       <c r="I56" t="n">
-        <v>124.3529411764706</v>
+        <v>125.80281690140845</v>
       </c>
       <c r="J56" t="n">
-        <v>125.385</v>
+        <v>60.184799999999996</v>
       </c>
       <c r="K56" t="n">
-        <v>19.5</v>
+        <v>9.36</v>
       </c>
       <c r="L56" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="M56" t="n">
         <v>2016.0</v>
@@ -2444,31 +2441,31 @@
         <v>6430.0</v>
       </c>
       <c r="D57" t="n">
-        <v>20098.0</v>
+        <v>17060.0</v>
       </c>
       <c r="E57" t="n">
-        <v>3125.660964230171</v>
+        <v>2653.1881804043546</v>
       </c>
       <c r="F57" t="n">
-        <v>447.0064724919094</v>
+        <v>449.9865156418554</v>
       </c>
       <c r="G57" t="n">
-        <v>300.0</v>
+        <v>302.0</v>
       </c>
       <c r="H57" t="n">
-        <v>191.5742024965326</v>
+        <v>185.2885652642934</v>
       </c>
       <c r="I57" t="n">
-        <v>128.57142857142858</v>
+        <v>124.3529411764706</v>
       </c>
       <c r="J57" t="n">
-        <v>216.048</v>
+        <v>125.385</v>
       </c>
       <c r="K57" t="n">
-        <v>33.6</v>
+        <v>19.5</v>
       </c>
       <c r="L57" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="M57" t="n">
         <v>2016.0</v>
@@ -2485,31 +2482,31 @@
         <v>6430.0</v>
       </c>
       <c r="D58" t="n">
-        <v>23189.0</v>
+        <v>20098.0</v>
       </c>
       <c r="E58" t="n">
-        <v>3606.3763608087093</v>
+        <v>3125.660964230171</v>
       </c>
       <c r="F58" t="n">
-        <v>448.49649406688235</v>
+        <v>447.0064724919094</v>
       </c>
       <c r="G58" t="n">
-        <v>301.0</v>
+        <v>300.0</v>
       </c>
       <c r="H58" t="n">
-        <v>201.49842487062833</v>
+        <v>191.5742024965326</v>
       </c>
       <c r="I58" t="n">
-        <v>135.231884057971</v>
+        <v>128.57142857142858</v>
       </c>
       <c r="J58" t="n">
-        <v>362.652</v>
+        <v>216.048</v>
       </c>
       <c r="K58" t="n">
-        <v>56.4</v>
+        <v>33.6</v>
       </c>
       <c r="L58" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="M58" t="n">
         <v>2016.0</v>
@@ -2526,10 +2523,10 @@
         <v>6430.0</v>
       </c>
       <c r="D59" t="n">
-        <v>24623.0</v>
+        <v>23189.0</v>
       </c>
       <c r="E59" t="n">
-        <v>3829.393468118196</v>
+        <v>3606.3763608087093</v>
       </c>
       <c r="F59" t="n">
         <v>448.49649406688235</v>
@@ -2538,19 +2535,19 @@
         <v>301.0</v>
       </c>
       <c r="H59" t="n">
-        <v>211.05717367853288</v>
+        <v>201.49842487062833</v>
       </c>
       <c r="I59" t="n">
-        <v>141.64705882352942</v>
+        <v>135.231884057971</v>
       </c>
       <c r="J59" t="n">
-        <v>343.36199999999997</v>
+        <v>362.652</v>
       </c>
       <c r="K59" t="n">
-        <v>53.4</v>
+        <v>56.4</v>
       </c>
       <c r="L59" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="M59" t="n">
         <v>2016.0</v>
@@ -2567,34 +2564,34 @@
         <v>6430.0</v>
       </c>
       <c r="D60" t="n">
-        <v>21903.0</v>
+        <v>24623.0</v>
       </c>
       <c r="E60" t="n">
-        <v>3406.3763608087093</v>
+        <v>3829.393468118196</v>
       </c>
       <c r="F60" t="n">
-        <v>447.0064724919094</v>
+        <v>448.49649406688235</v>
       </c>
       <c r="G60" t="n">
-        <v>300.0</v>
+        <v>301.0</v>
       </c>
       <c r="H60" t="n">
-        <v>200.82899488766944</v>
+        <v>211.05717367853288</v>
       </c>
       <c r="I60" t="n">
-        <v>134.7826086956522</v>
+        <v>141.64705882352942</v>
       </c>
       <c r="J60" t="n">
-        <v>322.14300000000003</v>
+        <v>343.36199999999997</v>
       </c>
       <c r="K60" t="n">
-        <v>50.1</v>
+        <v>53.4</v>
       </c>
       <c r="L60" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="M60" t="n">
-        <v>2015.0</v>
+        <v>2016.0</v>
       </c>
     </row>
     <row r="61">
@@ -2608,34 +2605,34 @@
         <v>6430.0</v>
       </c>
       <c r="D61" t="n">
-        <v>18769.0</v>
+        <v>21903.0</v>
       </c>
       <c r="E61" t="n">
-        <v>2918.9735614307933</v>
+        <v>3406.3763608087093</v>
       </c>
       <c r="F61" t="n">
-        <v>449.9865156418554</v>
+        <v>447.0064724919094</v>
       </c>
       <c r="G61" t="n">
-        <v>302.0</v>
+        <v>300.0</v>
       </c>
       <c r="H61" t="n">
-        <v>192.85136384650946</v>
+        <v>200.82899488766944</v>
       </c>
       <c r="I61" t="n">
-        <v>129.42857142857142</v>
+        <v>134.7826086956522</v>
       </c>
       <c r="J61" t="n">
-        <v>279.705</v>
+        <v>322.14300000000003</v>
       </c>
       <c r="K61" t="n">
-        <v>43.5</v>
+        <v>50.1</v>
       </c>
       <c r="L61" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="M61" t="n">
-        <v>2016.0</v>
+        <v>2015.0</v>
       </c>
     </row>
     <row r="62">
@@ -2649,31 +2646,31 @@
         <v>6435.0</v>
       </c>
       <c r="D62" t="n">
-        <v>15682.0</v>
+        <v>19002.0</v>
       </c>
       <c r="E62" t="n">
-        <v>2436.985236985237</v>
+        <v>2952.913752913753</v>
       </c>
       <c r="F62" t="n">
-        <v>342.70409356725145</v>
+        <v>341.44415204678364</v>
       </c>
       <c r="G62" t="n">
-        <v>272.0</v>
+        <v>271.0</v>
       </c>
       <c r="H62" t="n">
-        <v>146.87318295739348</v>
+        <v>146.33320802005014</v>
       </c>
       <c r="I62" t="n">
-        <v>116.57142857142857</v>
+        <v>116.14285714285714</v>
       </c>
       <c r="J62" t="n">
-        <v>107.78625000000001</v>
+        <v>225.22500000000002</v>
       </c>
       <c r="K62" t="n">
-        <v>16.75</v>
+        <v>35.0</v>
       </c>
       <c r="L62" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="M62" t="n">
         <v>2016.0</v>
@@ -2690,31 +2687,31 @@
         <v>6435.0</v>
       </c>
       <c r="D63" t="n">
-        <v>13597.0</v>
+        <v>15682.0</v>
       </c>
       <c r="E63" t="n">
-        <v>2112.975912975913</v>
+        <v>2436.985236985237</v>
       </c>
       <c r="F63" t="n">
-        <v>360.3432748538011</v>
+        <v>342.70409356725145</v>
       </c>
       <c r="G63" t="n">
         <v>272.0</v>
       </c>
       <c r="H63" t="n">
-        <v>140.1334957764782</v>
+        <v>146.87318295739348</v>
       </c>
       <c r="I63" t="n">
-        <v>111.22222222222223</v>
+        <v>116.57142857142857</v>
       </c>
       <c r="J63" t="n">
-        <v>59.52375</v>
+        <v>107.78625000000001</v>
       </c>
       <c r="K63" t="n">
-        <v>9.25</v>
+        <v>16.75</v>
       </c>
       <c r="L63" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="M63" t="n">
         <v>2016.0</v>
@@ -2731,31 +2728,31 @@
         <v>6435.0</v>
       </c>
       <c r="D64" t="n">
-        <v>8264.0</v>
+        <v>13597.0</v>
       </c>
       <c r="E64" t="n">
-        <v>1284.2268842268843</v>
+        <v>2112.975912975913</v>
       </c>
       <c r="F64" t="n">
-        <v>393.1017543859649</v>
+        <v>360.3432748538011</v>
       </c>
       <c r="G64" t="n">
-        <v>312.0</v>
+        <v>272.0</v>
       </c>
       <c r="H64" t="n">
-        <v>104.49540306462359</v>
+        <v>140.1334957764782</v>
       </c>
       <c r="I64" t="n">
-        <v>82.9367088607595</v>
+        <v>111.22222222222223</v>
       </c>
       <c r="J64" t="n">
-        <v>0.0</v>
+        <v>59.52375</v>
       </c>
       <c r="K64" t="n">
-        <v>0.0</v>
+        <v>9.25</v>
       </c>
       <c r="L64" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="M64" t="n">
         <v>2016.0</v>
@@ -2772,22 +2769,22 @@
         <v>6435.0</v>
       </c>
       <c r="D65" t="n">
-        <v>9992.0</v>
+        <v>8264.0</v>
       </c>
       <c r="E65" t="n">
-        <v>1552.7583527583527</v>
+        <v>1284.2268842268843</v>
       </c>
       <c r="F65" t="n">
-        <v>390.5818713450292</v>
+        <v>393.1017543859649</v>
       </c>
       <c r="G65" t="n">
-        <v>310.0</v>
+        <v>312.0</v>
       </c>
       <c r="H65" t="n">
-        <v>118.87274345283497</v>
+        <v>104.49540306462359</v>
       </c>
       <c r="I65" t="n">
-        <v>94.34782608695652</v>
+        <v>82.9367088607595</v>
       </c>
       <c r="J65" t="n">
         <v>0.0</v>
@@ -2796,7 +2793,7 @@
         <v>0.0</v>
       </c>
       <c r="L65" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="M65" t="n">
         <v>2016.0</v>
@@ -2813,22 +2810,22 @@
         <v>6435.0</v>
       </c>
       <c r="D66" t="n">
-        <v>12759.0</v>
+        <v>9992.0</v>
       </c>
       <c r="E66" t="n">
-        <v>1982.7505827505827</v>
+        <v>1552.7583527583527</v>
       </c>
       <c r="F66" t="n">
-        <v>365.38304093567245</v>
+        <v>390.5818713450292</v>
       </c>
       <c r="G66" t="n">
-        <v>290.0</v>
+        <v>310.0</v>
       </c>
       <c r="H66" t="n">
-        <v>121.79434697855748</v>
+        <v>118.87274345283497</v>
       </c>
       <c r="I66" t="n">
-        <v>96.66666666666667</v>
+        <v>94.34782608695652</v>
       </c>
       <c r="J66" t="n">
         <v>0.0</v>
@@ -2837,7 +2834,7 @@
         <v>0.0</v>
       </c>
       <c r="L66" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="M66" t="n">
         <v>2016.0</v>
@@ -2854,31 +2851,31 @@
         <v>6435.0</v>
       </c>
       <c r="D67" t="n">
-        <v>15503.0</v>
+        <v>12759.0</v>
       </c>
       <c r="E67" t="n">
-        <v>2409.1686091686092</v>
+        <v>1982.7505827505827</v>
       </c>
       <c r="F67" t="n">
-        <v>359.08333333333337</v>
+        <v>365.38304093567245</v>
       </c>
       <c r="G67" t="n">
-        <v>285.0</v>
+        <v>290.0</v>
       </c>
       <c r="H67" t="n">
-        <v>146.66784037558688</v>
+        <v>121.79434697855748</v>
       </c>
       <c r="I67" t="n">
-        <v>116.40845070422536</v>
+        <v>96.66666666666667</v>
       </c>
       <c r="J67" t="n">
-        <v>43.43625</v>
+        <v>0.0</v>
       </c>
       <c r="K67" t="n">
-        <v>6.75</v>
+        <v>0.0</v>
       </c>
       <c r="L67" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="M67" t="n">
         <v>2016.0</v>
@@ -2895,31 +2892,31 @@
         <v>6435.0</v>
       </c>
       <c r="D68" t="n">
-        <v>17264.0</v>
+        <v>15503.0</v>
       </c>
       <c r="E68" t="n">
-        <v>2682.8282828282827</v>
+        <v>2409.1686091686092</v>
       </c>
       <c r="F68" t="n">
-        <v>355.30350877192984</v>
+        <v>359.08333333333337</v>
       </c>
       <c r="G68" t="n">
-        <v>282.0</v>
+        <v>285.0</v>
       </c>
       <c r="H68" t="n">
-        <v>146.3014447884417</v>
+        <v>146.66784037558688</v>
       </c>
       <c r="I68" t="n">
-        <v>116.11764705882354</v>
+        <v>116.40845070422536</v>
       </c>
       <c r="J68" t="n">
-        <v>123.87375</v>
+        <v>43.43625</v>
       </c>
       <c r="K68" t="n">
-        <v>19.25</v>
+        <v>6.75</v>
       </c>
       <c r="L68" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="M68" t="n">
         <v>2016.0</v>
@@ -2936,31 +2933,31 @@
         <v>6435.0</v>
       </c>
       <c r="D69" t="n">
-        <v>20264.0</v>
+        <v>17264.0</v>
       </c>
       <c r="E69" t="n">
-        <v>3149.028749028749</v>
+        <v>2682.8282828282827</v>
       </c>
       <c r="F69" t="n">
-        <v>352.7836257309942</v>
+        <v>355.30350877192984</v>
       </c>
       <c r="G69" t="n">
-        <v>280.0</v>
+        <v>282.0</v>
       </c>
       <c r="H69" t="n">
-        <v>151.19298245614036</v>
+        <v>146.3014447884417</v>
       </c>
       <c r="I69" t="n">
-        <v>120.0</v>
+        <v>116.11764705882354</v>
       </c>
       <c r="J69" t="n">
-        <v>168.91875</v>
+        <v>123.87375</v>
       </c>
       <c r="K69" t="n">
-        <v>26.25</v>
+        <v>19.25</v>
       </c>
       <c r="L69" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="M69" t="n">
         <v>2016.0</v>
@@ -2977,31 +2974,31 @@
         <v>6435.0</v>
       </c>
       <c r="D70" t="n">
-        <v>23421.0</v>
+        <v>20264.0</v>
       </c>
       <c r="E70" t="n">
-        <v>3639.6270396270397</v>
+        <v>3149.028749028749</v>
       </c>
       <c r="F70" t="n">
-        <v>351.52368421052626</v>
+        <v>352.7836257309942</v>
       </c>
       <c r="G70" t="n">
-        <v>279.0</v>
+        <v>280.0</v>
       </c>
       <c r="H70" t="n">
-        <v>157.93093058733788</v>
+        <v>151.19298245614036</v>
       </c>
       <c r="I70" t="n">
-        <v>125.34782608695652</v>
+        <v>120.0</v>
       </c>
       <c r="J70" t="n">
-        <v>305.6625</v>
+        <v>168.91875</v>
       </c>
       <c r="K70" t="n">
-        <v>47.5</v>
+        <v>26.25</v>
       </c>
       <c r="L70" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="M70" t="n">
         <v>2016.0</v>
@@ -3018,31 +3015,31 @@
         <v>6435.0</v>
       </c>
       <c r="D71" t="n">
-        <v>24856.0</v>
+        <v>23421.0</v>
       </c>
       <c r="E71" t="n">
-        <v>3862.626262626263</v>
+        <v>3639.6270396270397</v>
       </c>
       <c r="F71" t="n">
-        <v>349.0038011695906</v>
+        <v>351.52368421052626</v>
       </c>
       <c r="G71" t="n">
-        <v>277.0</v>
+        <v>279.0</v>
       </c>
       <c r="H71" t="n">
-        <v>164.23708290333676</v>
+        <v>157.93093058733788</v>
       </c>
       <c r="I71" t="n">
-        <v>130.35294117647058</v>
+        <v>125.34782608695652</v>
       </c>
       <c r="J71" t="n">
-        <v>292.7925</v>
+        <v>305.6625</v>
       </c>
       <c r="K71" t="n">
-        <v>45.5</v>
+        <v>47.5</v>
       </c>
       <c r="L71" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="M71" t="n">
         <v>2016.0</v>
@@ -3059,34 +3056,34 @@
         <v>6435.0</v>
       </c>
       <c r="D72" t="n">
-        <v>22231.0</v>
+        <v>24856.0</v>
       </c>
       <c r="E72" t="n">
-        <v>3454.7008547008545</v>
+        <v>3862.626262626263</v>
       </c>
       <c r="F72" t="n">
-        <v>347.74385964912284</v>
+        <v>349.0038011695906</v>
       </c>
       <c r="G72" t="n">
-        <v>276.0</v>
+        <v>277.0</v>
       </c>
       <c r="H72" t="n">
-        <v>156.23274853801172</v>
+        <v>164.23708290333676</v>
       </c>
       <c r="I72" t="n">
-        <v>124.0</v>
+        <v>130.35294117647058</v>
       </c>
       <c r="J72" t="n">
-        <v>281.53125</v>
+        <v>292.7925</v>
       </c>
       <c r="K72" t="n">
-        <v>43.75</v>
+        <v>45.5</v>
       </c>
       <c r="L72" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="M72" t="n">
-        <v>2015.0</v>
+        <v>2016.0</v>
       </c>
     </row>
     <row r="73">
@@ -3100,34 +3097,34 @@
         <v>6435.0</v>
       </c>
       <c r="D73" t="n">
-        <v>19002.0</v>
+        <v>22231.0</v>
       </c>
       <c r="E73" t="n">
-        <v>2952.913752913753</v>
+        <v>3454.7008547008545</v>
       </c>
       <c r="F73" t="n">
-        <v>341.44415204678364</v>
+        <v>347.74385964912284</v>
       </c>
       <c r="G73" t="n">
-        <v>271.0</v>
+        <v>276.0</v>
       </c>
       <c r="H73" t="n">
-        <v>146.33320802005014</v>
+        <v>156.23274853801172</v>
       </c>
       <c r="I73" t="n">
-        <v>116.14285714285714</v>
+        <v>124.0</v>
       </c>
       <c r="J73" t="n">
-        <v>225.22500000000002</v>
+        <v>281.53125</v>
       </c>
       <c r="K73" t="n">
-        <v>35.0</v>
+        <v>43.75</v>
       </c>
       <c r="L73" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="M73" t="n">
-        <v>2016.0</v>
+        <v>2015.0</v>
       </c>
     </row>
     <row r="74">
@@ -3141,31 +3138,31 @@
         <v>5890.0</v>
       </c>
       <c r="D74" t="n">
-        <v>13859.0</v>
+        <v>17059.0</v>
       </c>
       <c r="E74" t="n">
-        <v>2352.9711375212223</v>
+        <v>2896.264855687606</v>
       </c>
       <c r="F74" t="n">
-        <v>393.03675645342315</v>
+        <v>390.31677890011224</v>
       </c>
       <c r="G74" t="n">
-        <v>289.0</v>
+        <v>287.0</v>
       </c>
       <c r="H74" t="n">
-        <v>168.4443241943242</v>
+        <v>167.27861952861952</v>
       </c>
       <c r="I74" t="n">
-        <v>123.85714285714286</v>
+        <v>123.0</v>
       </c>
       <c r="J74" t="n">
-        <v>97.5384</v>
+        <v>189.65800000000002</v>
       </c>
       <c r="K74" t="n">
-        <v>16.56</v>
+        <v>32.2</v>
       </c>
       <c r="L74" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="M74" t="n">
         <v>2016.0</v>
@@ -3182,31 +3179,31 @@
         <v>5890.0</v>
       </c>
       <c r="D75" t="n">
-        <v>11598.0</v>
+        <v>13859.0</v>
       </c>
       <c r="E75" t="n">
-        <v>1969.100169779287</v>
+        <v>2352.9711375212223</v>
       </c>
       <c r="F75" t="n">
-        <v>406.63664421997754</v>
+        <v>393.03675645342315</v>
       </c>
       <c r="G75" t="n">
         <v>289.0</v>
       </c>
       <c r="H75" t="n">
-        <v>158.1364727522135</v>
+        <v>168.4443241943242</v>
       </c>
       <c r="I75" t="n">
-        <v>116.27777777777777</v>
+        <v>123.85714285714286</v>
       </c>
       <c r="J75" t="n">
-        <v>42.67305</v>
+        <v>97.5384</v>
       </c>
       <c r="K75" t="n">
-        <v>7.245</v>
+        <v>16.56</v>
       </c>
       <c r="L75" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="M75" t="n">
         <v>2016.0</v>
@@ -3223,31 +3220,31 @@
         <v>5890.0</v>
       </c>
       <c r="D76" t="n">
-        <v>6921.0</v>
+        <v>11598.0</v>
       </c>
       <c r="E76" t="n">
-        <v>1175.0424448217318</v>
+        <v>1969.100169779287</v>
       </c>
       <c r="F76" t="n">
-        <v>436.55639730639734</v>
+        <v>406.63664421997754</v>
       </c>
       <c r="G76" t="n">
-        <v>321.0</v>
+        <v>289.0</v>
       </c>
       <c r="H76" t="n">
-        <v>116.04663725866259</v>
+        <v>158.1364727522135</v>
       </c>
       <c r="I76" t="n">
-        <v>85.32911392405063</v>
+        <v>116.27777777777777</v>
       </c>
       <c r="J76" t="n">
-        <v>0.0</v>
+        <v>42.67305</v>
       </c>
       <c r="K76" t="n">
-        <v>0.0</v>
+        <v>7.245</v>
       </c>
       <c r="L76" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="M76" t="n">
         <v>2016.0</v>
@@ -3264,22 +3261,22 @@
         <v>5890.0</v>
       </c>
       <c r="D77" t="n">
-        <v>8169.0</v>
+        <v>6921.0</v>
       </c>
       <c r="E77" t="n">
-        <v>1386.9269949066213</v>
+        <v>1175.0424448217318</v>
       </c>
       <c r="F77" t="n">
-        <v>432.47643097643095</v>
+        <v>436.55639730639734</v>
       </c>
       <c r="G77" t="n">
-        <v>318.0</v>
+        <v>321.0</v>
       </c>
       <c r="H77" t="n">
-        <v>131.62326160152244</v>
+        <v>116.04663725866259</v>
       </c>
       <c r="I77" t="n">
-        <v>96.78260869565217</v>
+        <v>85.32911392405063</v>
       </c>
       <c r="J77" t="n">
         <v>0.0</v>
@@ -3288,7 +3285,7 @@
         <v>0.0</v>
       </c>
       <c r="L77" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="M77" t="n">
         <v>2016.0</v>
@@ -3305,22 +3302,22 @@
         <v>5890.0</v>
       </c>
       <c r="D78" t="n">
-        <v>10759.0</v>
+        <v>8169.0</v>
       </c>
       <c r="E78" t="n">
-        <v>1826.6553480475382</v>
+        <v>1386.9269949066213</v>
       </c>
       <c r="F78" t="n">
-        <v>410.7166105499439</v>
+        <v>432.47643097643095</v>
       </c>
       <c r="G78" t="n">
-        <v>302.0</v>
+        <v>318.0</v>
       </c>
       <c r="H78" t="n">
-        <v>136.9055368499813</v>
+        <v>131.62326160152244</v>
       </c>
       <c r="I78" t="n">
-        <v>100.66666666666667</v>
+        <v>96.78260869565217</v>
       </c>
       <c r="J78" t="n">
         <v>0.0</v>
@@ -3329,7 +3326,7 @@
         <v>0.0</v>
       </c>
       <c r="L78" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="M78" t="n">
         <v>2016.0</v>
@@ -3346,31 +3343,31 @@
         <v>5890.0</v>
       </c>
       <c r="D79" t="n">
-        <v>13864.0</v>
+        <v>10759.0</v>
       </c>
       <c r="E79" t="n">
-        <v>2353.8200339558575</v>
+        <v>1826.6553480475382</v>
       </c>
       <c r="F79" t="n">
-        <v>405.27665544332217</v>
+        <v>410.7166105499439</v>
       </c>
       <c r="G79" t="n">
-        <v>298.0</v>
+        <v>302.0</v>
       </c>
       <c r="H79" t="n">
-        <v>165.53553532192032</v>
+        <v>136.9055368499813</v>
       </c>
       <c r="I79" t="n">
-        <v>121.71830985915493</v>
+        <v>100.66666666666667</v>
       </c>
       <c r="J79" t="n">
-        <v>37.25425</v>
+        <v>0.0</v>
       </c>
       <c r="K79" t="n">
-        <v>6.325</v>
+        <v>0.0</v>
       </c>
       <c r="L79" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="M79" t="n">
         <v>2016.0</v>
@@ -3387,31 +3384,31 @@
         <v>5890.0</v>
       </c>
       <c r="D80" t="n">
-        <v>15526.0</v>
+        <v>13864.0</v>
       </c>
       <c r="E80" t="n">
-        <v>2635.9932088285227</v>
+        <v>2353.8200339558575</v>
       </c>
       <c r="F80" t="n">
-        <v>403.91666666666674</v>
+        <v>405.27665544332217</v>
       </c>
       <c r="G80" t="n">
-        <v>297.0</v>
+        <v>298.0</v>
       </c>
       <c r="H80" t="n">
-        <v>166.31862745098042</v>
+        <v>165.53553532192032</v>
       </c>
       <c r="I80" t="n">
-        <v>122.29411764705883</v>
+        <v>121.71830985915493</v>
       </c>
       <c r="J80" t="n">
-        <v>97.5384</v>
+        <v>37.25425</v>
       </c>
       <c r="K80" t="n">
-        <v>16.56</v>
+        <v>6.325</v>
       </c>
       <c r="L80" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="M80" t="n">
         <v>2016.0</v>
@@ -3428,31 +3425,31 @@
         <v>5890.0</v>
       </c>
       <c r="D81" t="n">
-        <v>18529.0</v>
+        <v>15526.0</v>
       </c>
       <c r="E81" t="n">
-        <v>3145.8404074702885</v>
+        <v>2635.9932088285227</v>
       </c>
       <c r="F81" t="n">
-        <v>395.75673400673395</v>
+        <v>403.91666666666674</v>
       </c>
       <c r="G81" t="n">
-        <v>291.0</v>
+        <v>297.0</v>
       </c>
       <c r="H81" t="n">
-        <v>169.61002886002882</v>
+        <v>166.31862745098042</v>
       </c>
       <c r="I81" t="n">
-        <v>124.71428571428571</v>
+        <v>122.29411764705883</v>
       </c>
       <c r="J81" t="n">
-        <v>155.7905</v>
+        <v>97.5384</v>
       </c>
       <c r="K81" t="n">
-        <v>26.450000000000003</v>
+        <v>16.56</v>
       </c>
       <c r="L81" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="M81" t="n">
         <v>2016.0</v>
@@ -3469,31 +3466,31 @@
         <v>5890.0</v>
       </c>
       <c r="D82" t="n">
-        <v>21789.0</v>
+        <v>18529.0</v>
       </c>
       <c r="E82" t="n">
-        <v>3699.320882852292</v>
+        <v>3145.8404074702885</v>
       </c>
       <c r="F82" t="n">
-        <v>391.6767676767677</v>
+        <v>395.75673400673395</v>
       </c>
       <c r="G82" t="n">
-        <v>288.0</v>
+        <v>291.0</v>
       </c>
       <c r="H82" t="n">
-        <v>175.97072170985214</v>
+        <v>169.61002886002882</v>
       </c>
       <c r="I82" t="n">
-        <v>129.3913043478261</v>
+        <v>124.71428571428571</v>
       </c>
       <c r="J82" t="n">
-        <v>250.61950000000002</v>
+        <v>155.7905</v>
       </c>
       <c r="K82" t="n">
-        <v>42.55</v>
+        <v>26.450000000000003</v>
       </c>
       <c r="L82" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="M82" t="n">
         <v>2016.0</v>
@@ -3510,10 +3507,10 @@
         <v>5890.0</v>
       </c>
       <c r="D83" t="n">
-        <v>23589.0</v>
+        <v>21789.0</v>
       </c>
       <c r="E83" t="n">
-        <v>4004.9235993208827</v>
+        <v>3699.320882852292</v>
       </c>
       <c r="F83" t="n">
         <v>391.6767676767677</v>
@@ -3522,19 +3519,19 @@
         <v>288.0</v>
       </c>
       <c r="H83" t="n">
-        <v>184.31847890671423</v>
+        <v>175.97072170985214</v>
       </c>
       <c r="I83" t="n">
-        <v>135.52941176470588</v>
+        <v>129.3913043478261</v>
       </c>
       <c r="J83" t="n">
-        <v>246.5554</v>
+        <v>250.61950000000002</v>
       </c>
       <c r="K83" t="n">
-        <v>41.86</v>
+        <v>42.55</v>
       </c>
       <c r="L83" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="M83" t="n">
         <v>2016.0</v>
@@ -3551,34 +3548,34 @@
         <v>5890.0</v>
       </c>
       <c r="D84" t="n">
-        <v>21498.0</v>
+        <v>23589.0</v>
       </c>
       <c r="E84" t="n">
-        <v>3649.9151103565364</v>
+        <v>4004.9235993208827</v>
       </c>
       <c r="F84" t="n">
-        <v>388.9567901234568</v>
+        <v>391.6767676767677</v>
       </c>
       <c r="G84" t="n">
-        <v>286.0</v>
+        <v>288.0</v>
       </c>
       <c r="H84" t="n">
-        <v>174.74870280908928</v>
+        <v>184.31847890671423</v>
       </c>
       <c r="I84" t="n">
-        <v>128.4927536231884</v>
+        <v>135.52941176470588</v>
       </c>
       <c r="J84" t="n">
-        <v>237.0725</v>
+        <v>246.5554</v>
       </c>
       <c r="K84" t="n">
-        <v>40.25</v>
+        <v>41.86</v>
       </c>
       <c r="L84" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="M84" t="n">
-        <v>2015.0</v>
+        <v>2016.0</v>
       </c>
     </row>
     <row r="85">
@@ -3592,34 +3589,34 @@
         <v>5890.0</v>
       </c>
       <c r="D85" t="n">
-        <v>17059.0</v>
+        <v>21498.0</v>
       </c>
       <c r="E85" t="n">
-        <v>2896.264855687606</v>
+        <v>3649.9151103565364</v>
       </c>
       <c r="F85" t="n">
-        <v>390.31677890011224</v>
+        <v>388.9567901234568</v>
       </c>
       <c r="G85" t="n">
-        <v>287.0</v>
+        <v>286.0</v>
       </c>
       <c r="H85" t="n">
-        <v>167.27861952861952</v>
+        <v>174.74870280908928</v>
       </c>
       <c r="I85" t="n">
-        <v>123.0</v>
+        <v>128.4927536231884</v>
       </c>
       <c r="J85" t="n">
-        <v>189.65800000000002</v>
+        <v>237.0725</v>
       </c>
       <c r="K85" t="n">
-        <v>32.2</v>
+        <v>40.25</v>
       </c>
       <c r="L85" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="M85" t="n">
-        <v>2016.0</v>
+        <v>2015.0</v>
       </c>
     </row>
     <row r="86">
@@ -3633,31 +3630,31 @@
         <v>4980.0</v>
       </c>
       <c r="D86" t="n">
-        <v>12098.0</v>
+        <v>15074.0</v>
       </c>
       <c r="E86" t="n">
-        <v>2429.3172690763054</v>
+        <v>3026.9076305220883</v>
       </c>
       <c r="F86" t="n">
-        <v>333.46809680968096</v>
+        <v>334.61798679867985</v>
       </c>
       <c r="G86" t="n">
-        <v>290.0</v>
+        <v>291.0</v>
       </c>
       <c r="H86" t="n">
-        <v>142.91489863272042</v>
+        <v>143.40770862800565</v>
       </c>
       <c r="I86" t="n">
-        <v>124.28571428571429</v>
+        <v>124.71428571428571</v>
       </c>
       <c r="J86" t="n">
-        <v>132.468</v>
+        <v>259.707</v>
       </c>
       <c r="K86" t="n">
-        <v>26.599999999999998</v>
+        <v>52.15</v>
       </c>
       <c r="L86" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="M86" t="n">
         <v>2016.0</v>
@@ -3674,31 +3671,31 @@
         <v>4980.0</v>
       </c>
       <c r="D87" t="n">
-        <v>11194.0</v>
+        <v>12098.0</v>
       </c>
       <c r="E87" t="n">
-        <v>2247.7911646586344</v>
+        <v>2429.3172690763054</v>
       </c>
       <c r="F87" t="n">
-        <v>342.66721672167216</v>
+        <v>333.46809680968096</v>
       </c>
       <c r="G87" t="n">
         <v>290.0</v>
       </c>
       <c r="H87" t="n">
-        <v>133.25947316953918</v>
+        <v>142.91489863272042</v>
       </c>
       <c r="I87" t="n">
-        <v>115.88888888888889</v>
+        <v>124.28571428571429</v>
       </c>
       <c r="J87" t="n">
-        <v>69.72</v>
+        <v>132.468</v>
       </c>
       <c r="K87" t="n">
-        <v>14.0</v>
+        <v>26.599999999999998</v>
       </c>
       <c r="L87" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="M87" t="n">
         <v>2016.0</v>
@@ -3715,31 +3712,31 @@
         <v>4980.0</v>
       </c>
       <c r="D88" t="n">
-        <v>4028.0</v>
+        <v>11194.0</v>
       </c>
       <c r="E88" t="n">
-        <v>808.8353413654619</v>
+        <v>2247.7911646586344</v>
       </c>
       <c r="F88" t="n">
-        <v>378.313806380638</v>
+        <v>342.66721672167216</v>
       </c>
       <c r="G88" t="n">
-        <v>329.0</v>
+        <v>290.0</v>
       </c>
       <c r="H88" t="n">
-        <v>100.56442954422023</v>
+        <v>133.25947316953918</v>
       </c>
       <c r="I88" t="n">
-        <v>87.45569620253164</v>
+        <v>115.88888888888889</v>
       </c>
       <c r="J88" t="n">
-        <v>0.0</v>
+        <v>69.72</v>
       </c>
       <c r="K88" t="n">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="L88" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="M88" t="n">
         <v>2016.0</v>
@@ -3756,22 +3753,22 @@
         <v>4980.0</v>
       </c>
       <c r="D89" t="n">
-        <v>5597.0</v>
+        <v>4028.0</v>
       </c>
       <c r="E89" t="n">
-        <v>1123.8955823293172</v>
+        <v>808.8353413654619</v>
       </c>
       <c r="F89" t="n">
-        <v>382.9133663366337</v>
+        <v>378.313806380638</v>
       </c>
       <c r="G89" t="n">
-        <v>333.0</v>
+        <v>329.0</v>
       </c>
       <c r="H89" t="n">
-        <v>116.53885062419288</v>
+        <v>100.56442954422023</v>
       </c>
       <c r="I89" t="n">
-        <v>101.34782608695652</v>
+        <v>87.45569620253164</v>
       </c>
       <c r="J89" t="n">
         <v>0.0</v>
@@ -3780,7 +3777,7 @@
         <v>0.0</v>
       </c>
       <c r="L89" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="M89" t="n">
         <v>2016.0</v>
@@ -3797,22 +3794,22 @@
         <v>4980.0</v>
       </c>
       <c r="D90" t="n">
-        <v>8279.0</v>
+        <v>5597.0</v>
       </c>
       <c r="E90" t="n">
-        <v>1662.4497991967871</v>
+        <v>1123.8955823293172</v>
       </c>
       <c r="F90" t="n">
-        <v>366.8149064906491</v>
+        <v>382.9133663366337</v>
       </c>
       <c r="G90" t="n">
-        <v>319.0</v>
+        <v>333.0</v>
       </c>
       <c r="H90" t="n">
-        <v>122.27163549688302</v>
+        <v>116.53885062419288</v>
       </c>
       <c r="I90" t="n">
-        <v>106.33333333333333</v>
+        <v>101.34782608695652</v>
       </c>
       <c r="J90" t="n">
         <v>0.0</v>
@@ -3821,7 +3818,7 @@
         <v>0.0</v>
       </c>
       <c r="L90" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="M90" t="n">
         <v>2016.0</v>
@@ -3838,31 +3835,31 @@
         <v>4980.0</v>
       </c>
       <c r="D91" t="n">
-        <v>11299.0</v>
+        <v>8279.0</v>
       </c>
       <c r="E91" t="n">
-        <v>2268.875502008032</v>
+        <v>1662.4497991967871</v>
       </c>
       <c r="F91" t="n">
-        <v>358.7656765676568</v>
+        <v>366.8149064906491</v>
       </c>
       <c r="G91" t="n">
-        <v>312.0</v>
+        <v>319.0</v>
       </c>
       <c r="H91" t="n">
-        <v>146.53809324594434</v>
+        <v>122.27163549688302</v>
       </c>
       <c r="I91" t="n">
-        <v>127.43661971830986</v>
+        <v>106.33333333333333</v>
       </c>
       <c r="J91" t="n">
-        <v>47.061</v>
+        <v>0.0</v>
       </c>
       <c r="K91" t="n">
-        <v>9.45</v>
+        <v>0.0</v>
       </c>
       <c r="L91" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="M91" t="n">
         <v>2016.0</v>
@@ -3879,31 +3876,31 @@
         <v>4980.0</v>
       </c>
       <c r="D92" t="n">
-        <v>14038.0</v>
+        <v>11299.0</v>
       </c>
       <c r="E92" t="n">
-        <v>2818.875502008032</v>
+        <v>2268.875502008032</v>
       </c>
       <c r="F92" t="n">
-        <v>344.96699669967</v>
+        <v>358.7656765676568</v>
       </c>
       <c r="G92" t="n">
-        <v>300.0</v>
+        <v>312.0</v>
       </c>
       <c r="H92" t="n">
-        <v>142.04523393515825</v>
+        <v>146.53809324594434</v>
       </c>
       <c r="I92" t="n">
-        <v>123.52941176470588</v>
+        <v>127.43661971830986</v>
       </c>
       <c r="J92" t="n">
-        <v>104.58</v>
+        <v>47.061</v>
       </c>
       <c r="K92" t="n">
-        <v>21.0</v>
+        <v>9.45</v>
       </c>
       <c r="L92" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="M92" t="n">
         <v>2016.0</v>
@@ -3920,31 +3917,31 @@
         <v>4980.0</v>
       </c>
       <c r="D93" t="n">
-        <v>16199.0</v>
+        <v>14038.0</v>
       </c>
       <c r="E93" t="n">
-        <v>3252.8112449799196</v>
+        <v>2818.875502008032</v>
       </c>
       <c r="F93" t="n">
-        <v>338.06765676567653</v>
+        <v>344.96699669967</v>
       </c>
       <c r="G93" t="n">
-        <v>294.0</v>
+        <v>300.0</v>
       </c>
       <c r="H93" t="n">
-        <v>144.88613861386136</v>
+        <v>142.04523393515825</v>
       </c>
       <c r="I93" t="n">
-        <v>126.0</v>
+        <v>123.52941176470588</v>
       </c>
       <c r="J93" t="n">
-        <v>174.3</v>
+        <v>104.58</v>
       </c>
       <c r="K93" t="n">
-        <v>35.0</v>
+        <v>21.0</v>
       </c>
       <c r="L93" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="M93" t="n">
         <v>2016.0</v>
@@ -3961,31 +3958,31 @@
         <v>4980.0</v>
       </c>
       <c r="D94" t="n">
-        <v>19789.0</v>
+        <v>16199.0</v>
       </c>
       <c r="E94" t="n">
-        <v>3973.6947791164657</v>
+        <v>3252.8112449799196</v>
       </c>
       <c r="F94" t="n">
-        <v>334.61798679867985</v>
+        <v>338.06765676567653</v>
       </c>
       <c r="G94" t="n">
-        <v>291.0</v>
+        <v>294.0</v>
       </c>
       <c r="H94" t="n">
-        <v>150.33561725737792</v>
+        <v>144.88613861386136</v>
       </c>
       <c r="I94" t="n">
-        <v>130.7391304347826</v>
+        <v>126.0</v>
       </c>
       <c r="J94" t="n">
-        <v>313.74</v>
+        <v>174.3</v>
       </c>
       <c r="K94" t="n">
-        <v>63.0</v>
+        <v>35.0</v>
       </c>
       <c r="L94" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="M94" t="n">
         <v>2016.0</v>
@@ -4002,31 +3999,31 @@
         <v>4980.0</v>
       </c>
       <c r="D95" t="n">
-        <v>21498.0</v>
+        <v>19789.0</v>
       </c>
       <c r="E95" t="n">
-        <v>4316.8674698795185</v>
+        <v>3973.6947791164657</v>
       </c>
       <c r="F95" t="n">
-        <v>332.318206820682</v>
+        <v>334.61798679867985</v>
       </c>
       <c r="G95" t="n">
-        <v>289.0</v>
+        <v>291.0</v>
       </c>
       <c r="H95" t="n">
-        <v>156.38503850385035</v>
+        <v>150.33561725737792</v>
       </c>
       <c r="I95" t="n">
-        <v>136.0</v>
+        <v>130.7391304347826</v>
       </c>
       <c r="J95" t="n">
-        <v>329.427</v>
+        <v>313.74</v>
       </c>
       <c r="K95" t="n">
-        <v>66.15</v>
+        <v>63.0</v>
       </c>
       <c r="L95" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="M95" t="n">
         <v>2016.0</v>
@@ -4043,34 +4040,34 @@
         <v>4980.0</v>
       </c>
       <c r="D96" t="n">
-        <v>18898.0</v>
+        <v>21498.0</v>
       </c>
       <c r="E96" t="n">
-        <v>3794.7791164658634</v>
+        <v>4316.8674698795185</v>
       </c>
       <c r="F96" t="n">
-        <v>333.46809680968096</v>
+        <v>332.318206820682</v>
       </c>
       <c r="G96" t="n">
-        <v>290.0</v>
+        <v>289.0</v>
       </c>
       <c r="H96" t="n">
-        <v>149.8190000159436</v>
+        <v>156.38503850385035</v>
       </c>
       <c r="I96" t="n">
-        <v>130.28985507246378</v>
+        <v>136.0</v>
       </c>
       <c r="J96" t="n">
-        <v>311.997</v>
+        <v>329.427</v>
       </c>
       <c r="K96" t="n">
-        <v>62.65</v>
+        <v>66.15</v>
       </c>
       <c r="L96" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="M96" t="n">
-        <v>2015.0</v>
+        <v>2016.0</v>
       </c>
     </row>
     <row r="97">
@@ -4084,34 +4081,34 @@
         <v>4980.0</v>
       </c>
       <c r="D97" t="n">
-        <v>15074.0</v>
+        <v>18898.0</v>
       </c>
       <c r="E97" t="n">
-        <v>3026.9076305220883</v>
+        <v>3794.7791164658634</v>
       </c>
       <c r="F97" t="n">
-        <v>334.61798679867985</v>
+        <v>333.46809680968096</v>
       </c>
       <c r="G97" t="n">
-        <v>291.0</v>
+        <v>290.0</v>
       </c>
       <c r="H97" t="n">
-        <v>143.40770862800565</v>
+        <v>149.8190000159436</v>
       </c>
       <c r="I97" t="n">
-        <v>124.71428571428571</v>
+        <v>130.28985507246378</v>
       </c>
       <c r="J97" t="n">
-        <v>259.707</v>
+        <v>311.997</v>
       </c>
       <c r="K97" t="n">
-        <v>52.15</v>
+        <v>62.65</v>
       </c>
       <c r="L97" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="M97" t="n">
-        <v>2016.0</v>
+        <v>2015.0</v>
       </c>
     </row>
     <row r="98">
@@ -4125,31 +4122,31 @@
         <v>7020.0</v>
       </c>
       <c r="D98" t="n">
-        <v>18128.0</v>
+        <v>20629.0</v>
       </c>
       <c r="E98" t="n">
-        <v>2582.3361823361824</v>
+        <v>2938.6039886039885</v>
       </c>
       <c r="F98" t="n">
-        <v>674.92</v>
+        <v>678.68</v>
       </c>
       <c r="G98" t="n">
-        <v>359.0</v>
+        <v>361.0</v>
       </c>
       <c r="H98" t="n">
-        <v>289.25142857142856</v>
+        <v>290.86285714285714</v>
       </c>
       <c r="I98" t="n">
-        <v>153.85714285714286</v>
+        <v>154.71428571428572</v>
       </c>
       <c r="J98" t="n">
-        <v>154.7208</v>
+        <v>285.012</v>
       </c>
       <c r="K98" t="n">
-        <v>22.04</v>
+        <v>40.6</v>
       </c>
       <c r="L98" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="M98" t="n">
         <v>2016.0</v>
@@ -4166,31 +4163,31 @@
         <v>7020.0</v>
       </c>
       <c r="D99" t="n">
-        <v>15520.0</v>
+        <v>18128.0</v>
       </c>
       <c r="E99" t="n">
-        <v>2210.8262108262106</v>
+        <v>2582.3361823361824</v>
       </c>
       <c r="F99" t="n">
-        <v>712.52</v>
+        <v>674.92</v>
       </c>
       <c r="G99" t="n">
         <v>359.0</v>
       </c>
       <c r="H99" t="n">
-        <v>277.0911111111111</v>
+        <v>289.25142857142856</v>
       </c>
       <c r="I99" t="n">
-        <v>147.38888888888889</v>
+        <v>153.85714285714286</v>
       </c>
       <c r="J99" t="n">
-        <v>69.2172</v>
+        <v>154.7208</v>
       </c>
       <c r="K99" t="n">
-        <v>9.860000000000001</v>
+        <v>22.04</v>
       </c>
       <c r="L99" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="M99" t="n">
         <v>2016.0</v>
@@ -4207,31 +4204,31 @@
         <v>7020.0</v>
       </c>
       <c r="D100" t="n">
-        <v>6123.0</v>
+        <v>15520.0</v>
       </c>
       <c r="E100" t="n">
-        <v>872.2222222222222</v>
+        <v>2210.8262108262106</v>
       </c>
       <c r="F100" t="n">
-        <v>746.36</v>
+        <v>712.52</v>
       </c>
       <c r="G100" t="n">
-        <v>397.0</v>
+        <v>359.0</v>
       </c>
       <c r="H100" t="n">
-        <v>198.39949367088607</v>
+        <v>277.0911111111111</v>
       </c>
       <c r="I100" t="n">
-        <v>105.53164556962025</v>
+        <v>147.38888888888889</v>
       </c>
       <c r="J100" t="n">
-        <v>0.0</v>
+        <v>69.2172</v>
       </c>
       <c r="K100" t="n">
-        <v>0.0</v>
+        <v>9.860000000000001</v>
       </c>
       <c r="L100" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="M100" t="n">
         <v>2016.0</v>
@@ -4248,22 +4245,22 @@
         <v>7020.0</v>
       </c>
       <c r="D101" t="n">
-        <v>9216.0</v>
+        <v>6123.0</v>
       </c>
       <c r="E101" t="n">
-        <v>1312.820512820513</v>
+        <v>872.2222222222222</v>
       </c>
       <c r="F101" t="n">
-        <v>753.88</v>
+        <v>746.36</v>
       </c>
       <c r="G101" t="n">
-        <v>401.0</v>
+        <v>397.0</v>
       </c>
       <c r="H101" t="n">
-        <v>229.44173913043477</v>
+        <v>198.39949367088607</v>
       </c>
       <c r="I101" t="n">
-        <v>122.04347826086956</v>
+        <v>105.53164556962025</v>
       </c>
       <c r="J101" t="n">
         <v>0.0</v>
@@ -4272,7 +4269,7 @@
         <v>0.0</v>
       </c>
       <c r="L101" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="M101" t="n">
         <v>2016.0</v>
@@ -4289,22 +4286,22 @@
         <v>7020.0</v>
       </c>
       <c r="D102" t="n">
-        <v>13016.0</v>
+        <v>9216.0</v>
       </c>
       <c r="E102" t="n">
-        <v>1854.131054131054</v>
+        <v>1312.820512820513</v>
       </c>
       <c r="F102" t="n">
-        <v>735.08</v>
+        <v>753.88</v>
       </c>
       <c r="G102" t="n">
-        <v>391.0</v>
+        <v>401.0</v>
       </c>
       <c r="H102" t="n">
-        <v>245.02666666666667</v>
+        <v>229.44173913043477</v>
       </c>
       <c r="I102" t="n">
-        <v>130.33333333333334</v>
+        <v>122.04347826086956</v>
       </c>
       <c r="J102" t="n">
         <v>0.0</v>
@@ -4313,7 +4310,7 @@
         <v>0.0</v>
       </c>
       <c r="L102" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="M102" t="n">
         <v>2016.0</v>
@@ -4330,31 +4327,31 @@
         <v>7020.0</v>
       </c>
       <c r="D103" t="n">
-        <v>15823.0</v>
+        <v>13016.0</v>
       </c>
       <c r="E103" t="n">
-        <v>2253.988603988604</v>
+        <v>1854.131054131054</v>
       </c>
       <c r="F103" t="n">
-        <v>723.8</v>
+        <v>735.08</v>
       </c>
       <c r="G103" t="n">
-        <v>385.0</v>
+        <v>391.0</v>
       </c>
       <c r="H103" t="n">
-        <v>295.6366197183098</v>
+        <v>245.02666666666667</v>
       </c>
       <c r="I103" t="n">
-        <v>157.25352112676057</v>
+        <v>130.33333333333334</v>
       </c>
       <c r="J103" t="n">
-        <v>61.074</v>
+        <v>0.0</v>
       </c>
       <c r="K103" t="n">
-        <v>8.7</v>
+        <v>0.0</v>
       </c>
       <c r="L103" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="M103" t="n">
         <v>2016.0</v>
@@ -4371,31 +4368,31 @@
         <v>7020.0</v>
       </c>
       <c r="D104" t="n">
-        <v>19024.0</v>
+        <v>15823.0</v>
       </c>
       <c r="E104" t="n">
-        <v>2709.97150997151</v>
+        <v>2253.988603988604</v>
       </c>
       <c r="F104" t="n">
-        <v>714.4</v>
+        <v>723.8</v>
       </c>
       <c r="G104" t="n">
-        <v>380.0</v>
+        <v>385.0</v>
       </c>
       <c r="H104" t="n">
-        <v>294.16470588235296</v>
+        <v>295.6366197183098</v>
       </c>
       <c r="I104" t="n">
-        <v>156.47058823529412</v>
+        <v>157.25352112676057</v>
       </c>
       <c r="J104" t="n">
-        <v>132.327</v>
+        <v>61.074</v>
       </c>
       <c r="K104" t="n">
-        <v>18.85</v>
+        <v>8.7</v>
       </c>
       <c r="L104" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="M104" t="n">
         <v>2016.0</v>
@@ -4412,31 +4409,31 @@
         <v>7020.0</v>
       </c>
       <c r="D105" t="n">
-        <v>21526.0</v>
+        <v>19024.0</v>
       </c>
       <c r="E105" t="n">
-        <v>3066.3817663817663</v>
+        <v>2709.97150997151</v>
       </c>
       <c r="F105" t="n">
-        <v>682.44</v>
+        <v>714.4</v>
       </c>
       <c r="G105" t="n">
-        <v>363.0</v>
+        <v>380.0</v>
       </c>
       <c r="H105" t="n">
-        <v>292.4742857142857</v>
+        <v>294.16470588235296</v>
       </c>
       <c r="I105" t="n">
-        <v>155.57142857142858</v>
+        <v>156.47058823529412</v>
       </c>
       <c r="J105" t="n">
-        <v>234.11700000000002</v>
+        <v>132.327</v>
       </c>
       <c r="K105" t="n">
-        <v>33.35</v>
+        <v>18.85</v>
       </c>
       <c r="L105" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="M105" t="n">
         <v>2016.0</v>
@@ -4453,31 +4450,31 @@
         <v>7020.0</v>
       </c>
       <c r="D106" t="n">
-        <v>25126.0</v>
+        <v>21526.0</v>
       </c>
       <c r="E106" t="n">
-        <v>3579.202279202279</v>
+        <v>3066.3817663817663</v>
       </c>
       <c r="F106" t="n">
-        <v>676.8</v>
+        <v>682.44</v>
       </c>
       <c r="G106" t="n">
-        <v>360.0</v>
+        <v>363.0</v>
       </c>
       <c r="H106" t="n">
-        <v>304.0695652173913</v>
+        <v>292.4742857142857</v>
       </c>
       <c r="I106" t="n">
-        <v>161.7391304347826</v>
+        <v>155.57142857142858</v>
       </c>
       <c r="J106" t="n">
-        <v>407.16</v>
+        <v>234.11700000000002</v>
       </c>
       <c r="K106" t="n">
-        <v>58.0</v>
+        <v>33.35</v>
       </c>
       <c r="L106" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="M106" t="n">
         <v>2016.0</v>
@@ -4494,31 +4491,31 @@
         <v>7020.0</v>
       </c>
       <c r="D107" t="n">
-        <v>25925.0</v>
+        <v>25126.0</v>
       </c>
       <c r="E107" t="n">
-        <v>3693.019943019943</v>
+        <v>3579.202279202279</v>
       </c>
       <c r="F107" t="n">
-        <v>682.44</v>
+        <v>676.8</v>
       </c>
       <c r="G107" t="n">
-        <v>363.0</v>
+        <v>360.0</v>
       </c>
       <c r="H107" t="n">
-        <v>321.1482352941177</v>
+        <v>304.0695652173913</v>
       </c>
       <c r="I107" t="n">
-        <v>170.8235294117647</v>
+        <v>161.7391304347826</v>
       </c>
       <c r="J107" t="n">
-        <v>356.265</v>
+        <v>407.16</v>
       </c>
       <c r="K107" t="n">
-        <v>50.75</v>
+        <v>58.0</v>
       </c>
       <c r="L107" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="M107" t="n">
         <v>2016.0</v>
@@ -4535,34 +4532,34 @@
         <v>7020.0</v>
       </c>
       <c r="D108" t="n">
-        <v>23210.0</v>
+        <v>25925.0</v>
       </c>
       <c r="E108" t="n">
-        <v>3306.2678062678065</v>
+        <v>3693.019943019943</v>
       </c>
       <c r="F108" t="n">
-        <v>678.68</v>
+        <v>682.44</v>
       </c>
       <c r="G108" t="n">
-        <v>361.0</v>
+        <v>363.0</v>
       </c>
       <c r="H108" t="n">
-        <v>304.9142028985507</v>
+        <v>321.1482352941177</v>
       </c>
       <c r="I108" t="n">
-        <v>162.18840579710144</v>
+        <v>170.8235294117647</v>
       </c>
       <c r="J108" t="n">
-        <v>335.907</v>
+        <v>356.265</v>
       </c>
       <c r="K108" t="n">
-        <v>47.85</v>
+        <v>50.75</v>
       </c>
       <c r="L108" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="M108" t="n">
-        <v>2015.0</v>
+        <v>2016.0</v>
       </c>
     </row>
     <row r="109">
@@ -4576,10 +4573,10 @@
         <v>7020.0</v>
       </c>
       <c r="D109" t="n">
-        <v>20629.0</v>
+        <v>23210.0</v>
       </c>
       <c r="E109" t="n">
-        <v>2938.6039886039885</v>
+        <v>3306.2678062678065</v>
       </c>
       <c r="F109" t="n">
         <v>678.68</v>
@@ -4588,22 +4585,22 @@
         <v>361.0</v>
       </c>
       <c r="H109" t="n">
-        <v>290.86285714285714</v>
+        <v>304.9142028985507</v>
       </c>
       <c r="I109" t="n">
-        <v>154.71428571428572</v>
+        <v>162.18840579710144</v>
       </c>
       <c r="J109" t="n">
-        <v>285.012</v>
+        <v>335.907</v>
       </c>
       <c r="K109" t="n">
-        <v>40.6</v>
+        <v>47.85</v>
       </c>
       <c r="L109" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="M109" t="n">
-        <v>2016.0</v>
+        <v>2015.0</v>
       </c>
     </row>
     <row r="110">
@@ -4617,31 +4614,31 @@
         <v>5320.0</v>
       </c>
       <c r="D110" t="n">
-        <v>12396.0</v>
+        <v>15249.0</v>
       </c>
       <c r="E110" t="n">
-        <v>2330.0751879699246</v>
+        <v>2866.3533834586465</v>
       </c>
       <c r="F110" t="n">
-        <v>332.60740740740744</v>
+        <v>327.5679012345679</v>
       </c>
       <c r="G110" t="n">
-        <v>264.0</v>
+        <v>260.0</v>
       </c>
       <c r="H110" t="n">
-        <v>142.54603174603176</v>
+        <v>140.38624338624336</v>
       </c>
       <c r="I110" t="n">
-        <v>113.14285714285714</v>
+        <v>111.42857142857143</v>
       </c>
       <c r="J110" t="n">
-        <v>96.82400000000001</v>
+        <v>201.39392</v>
       </c>
       <c r="K110" t="n">
-        <v>18.200000000000003</v>
+        <v>37.856</v>
       </c>
       <c r="L110" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="M110" t="n">
         <v>2016.0</v>
@@ -4658,31 +4655,31 @@
         <v>5320.0</v>
       </c>
       <c r="D111" t="n">
-        <v>10026.0</v>
+        <v>12396.0</v>
       </c>
       <c r="E111" t="n">
-        <v>1884.5864661654136</v>
+        <v>2330.0751879699246</v>
       </c>
       <c r="F111" t="n">
-        <v>337.6469135802469</v>
+        <v>332.60740740740744</v>
       </c>
       <c r="G111" t="n">
         <v>264.0</v>
       </c>
       <c r="H111" t="n">
-        <v>131.30713305898493</v>
+        <v>142.54603174603176</v>
       </c>
       <c r="I111" t="n">
-        <v>104.22222222222223</v>
+        <v>113.14285714285714</v>
       </c>
       <c r="J111" t="n">
-        <v>55.1152</v>
+        <v>96.82400000000001</v>
       </c>
       <c r="K111" t="n">
-        <v>10.360000000000001</v>
+        <v>18.200000000000003</v>
       </c>
       <c r="L111" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="M111" t="n">
         <v>2016.0</v>
@@ -4699,31 +4696,31 @@
         <v>5320.0</v>
       </c>
       <c r="D112" t="n">
-        <v>5365.0</v>
+        <v>10026.0</v>
       </c>
       <c r="E112" t="n">
-        <v>1008.4586466165414</v>
+        <v>1884.5864661654136</v>
       </c>
       <c r="F112" t="n">
-        <v>364.1043209876544</v>
+        <v>337.6469135802469</v>
       </c>
       <c r="G112" t="n">
-        <v>289.0</v>
+        <v>264.0</v>
       </c>
       <c r="H112" t="n">
-        <v>96.7872245663385</v>
+        <v>131.30713305898493</v>
       </c>
       <c r="I112" t="n">
-        <v>76.82278481012658</v>
+        <v>104.22222222222223</v>
       </c>
       <c r="J112" t="n">
-        <v>0.0</v>
+        <v>55.1152</v>
       </c>
       <c r="K112" t="n">
-        <v>0.0</v>
+        <v>10.360000000000001</v>
       </c>
       <c r="L112" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="M112" t="n">
         <v>2016.0</v>
@@ -4740,22 +4737,22 @@
         <v>5320.0</v>
       </c>
       <c r="D113" t="n">
-        <v>6765.0</v>
+        <v>5365.0</v>
       </c>
       <c r="E113" t="n">
-        <v>1271.6165413533834</v>
+        <v>1008.4586466165414</v>
       </c>
       <c r="F113" t="n">
-        <v>367.8839506172839</v>
+        <v>364.1043209876544</v>
       </c>
       <c r="G113" t="n">
-        <v>292.0</v>
+        <v>289.0</v>
       </c>
       <c r="H113" t="n">
-        <v>111.96468062265163</v>
+        <v>96.7872245663385</v>
       </c>
       <c r="I113" t="n">
-        <v>88.8695652173913</v>
+        <v>76.82278481012658</v>
       </c>
       <c r="J113" t="n">
         <v>0.0</v>
@@ -4764,7 +4761,7 @@
         <v>0.0</v>
       </c>
       <c r="L113" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="M113" t="n">
         <v>2016.0</v>
@@ -4781,22 +4778,22 @@
         <v>5320.0</v>
       </c>
       <c r="D114" t="n">
-        <v>9365.0</v>
+        <v>6765.0</v>
       </c>
       <c r="E114" t="n">
-        <v>1760.3383458646617</v>
+        <v>1271.6165413533834</v>
       </c>
       <c r="F114" t="n">
-        <v>352.76543209876536</v>
+        <v>367.8839506172839</v>
       </c>
       <c r="G114" t="n">
-        <v>280.0</v>
+        <v>292.0</v>
       </c>
       <c r="H114" t="n">
-        <v>117.58847736625512</v>
+        <v>111.96468062265163</v>
       </c>
       <c r="I114" t="n">
-        <v>93.33333333333333</v>
+        <v>88.8695652173913</v>
       </c>
       <c r="J114" t="n">
         <v>0.0</v>
@@ -4805,7 +4802,7 @@
         <v>0.0</v>
       </c>
       <c r="L114" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="M114" t="n">
         <v>2016.0</v>
@@ -4822,31 +4819,31 @@
         <v>5320.0</v>
       </c>
       <c r="D115" t="n">
-        <v>12028.0</v>
+        <v>9365.0</v>
       </c>
       <c r="E115" t="n">
-        <v>2260.902255639098</v>
+        <v>1760.3383458646617</v>
       </c>
       <c r="F115" t="n">
-        <v>347.72592592592594</v>
+        <v>352.76543209876536</v>
       </c>
       <c r="G115" t="n">
-        <v>276.0</v>
+        <v>280.0</v>
       </c>
       <c r="H115" t="n">
-        <v>142.0288993218571</v>
+        <v>117.58847736625512</v>
       </c>
       <c r="I115" t="n">
-        <v>112.73239436619718</v>
+        <v>93.33333333333333</v>
       </c>
       <c r="J115" t="n">
-        <v>41.41088</v>
+        <v>0.0</v>
       </c>
       <c r="K115" t="n">
-        <v>7.784000000000001</v>
+        <v>0.0</v>
       </c>
       <c r="L115" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="M115" t="n">
         <v>2016.0</v>
@@ -4863,31 +4860,31 @@
         <v>5320.0</v>
       </c>
       <c r="D116" t="n">
-        <v>13836.0</v>
+        <v>12028.0</v>
       </c>
       <c r="E116" t="n">
-        <v>2600.751879699248</v>
+        <v>2260.902255639098</v>
       </c>
       <c r="F116" t="n">
-        <v>336.38703703703703</v>
+        <v>347.72592592592594</v>
       </c>
       <c r="G116" t="n">
-        <v>267.0</v>
+        <v>276.0</v>
       </c>
       <c r="H116" t="n">
-        <v>138.51230936819172</v>
+        <v>142.0288993218571</v>
       </c>
       <c r="I116" t="n">
-        <v>109.94117647058823</v>
+        <v>112.73239436619718</v>
       </c>
       <c r="J116" t="n">
-        <v>104.27200000000002</v>
+        <v>41.41088</v>
       </c>
       <c r="K116" t="n">
-        <v>19.600000000000005</v>
+        <v>7.784000000000001</v>
       </c>
       <c r="L116" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="M116" t="n">
         <v>2016.0</v>
@@ -4904,31 +4901,31 @@
         <v>5320.0</v>
       </c>
       <c r="D117" t="n">
-        <v>16821.0</v>
+        <v>13836.0</v>
       </c>
       <c r="E117" t="n">
-        <v>3161.842105263158</v>
+        <v>2600.751879699248</v>
       </c>
       <c r="F117" t="n">
-        <v>332.60740740740744</v>
+        <v>336.38703703703703</v>
       </c>
       <c r="G117" t="n">
-        <v>264.0</v>
+        <v>267.0</v>
       </c>
       <c r="H117" t="n">
-        <v>142.54603174603176</v>
+        <v>138.51230936819172</v>
       </c>
       <c r="I117" t="n">
-        <v>113.14285714285714</v>
+        <v>109.94117647058823</v>
       </c>
       <c r="J117" t="n">
-        <v>171.30400000000003</v>
+        <v>104.27200000000002</v>
       </c>
       <c r="K117" t="n">
-        <v>32.20000000000001</v>
+        <v>19.600000000000005</v>
       </c>
       <c r="L117" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="M117" t="n">
         <v>2016.0</v>
@@ -4945,31 +4942,31 @@
         <v>5320.0</v>
       </c>
       <c r="D118" t="n">
-        <v>20485.0</v>
+        <v>16821.0</v>
       </c>
       <c r="E118" t="n">
-        <v>3850.563909774436</v>
+        <v>3161.842105263158</v>
       </c>
       <c r="F118" t="n">
-        <v>330.08765432098767</v>
+        <v>332.60740740740744</v>
       </c>
       <c r="G118" t="n">
-        <v>262.0</v>
+        <v>264.0</v>
       </c>
       <c r="H118" t="n">
-        <v>148.30025049203795</v>
+        <v>142.54603174603176</v>
       </c>
       <c r="I118" t="n">
-        <v>117.71014492753623</v>
+        <v>113.14285714285714</v>
       </c>
       <c r="J118" t="n">
-        <v>283.024</v>
+        <v>171.30400000000003</v>
       </c>
       <c r="K118" t="n">
-        <v>53.20000000000001</v>
+        <v>32.20000000000001</v>
       </c>
       <c r="L118" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="M118" t="n">
         <v>2016.0</v>
@@ -4986,31 +4983,31 @@
         <v>5320.0</v>
       </c>
       <c r="D119" t="n">
-        <v>21603.0</v>
+        <v>20485.0</v>
       </c>
       <c r="E119" t="n">
-        <v>4060.714285714286</v>
+        <v>3850.563909774436</v>
       </c>
       <c r="F119" t="n">
-        <v>327.5679012345679</v>
+        <v>330.08765432098767</v>
       </c>
       <c r="G119" t="n">
-        <v>260.0</v>
+        <v>262.0</v>
       </c>
       <c r="H119" t="n">
-        <v>154.14960058097313</v>
+        <v>148.30025049203795</v>
       </c>
       <c r="I119" t="n">
-        <v>122.3529411764706</v>
+        <v>117.71014492753623</v>
       </c>
       <c r="J119" t="n">
-        <v>275.576</v>
+        <v>283.024</v>
       </c>
       <c r="K119" t="n">
-        <v>51.80000000000001</v>
+        <v>53.20000000000001</v>
       </c>
       <c r="L119" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="M119" t="n">
         <v>2016.0</v>
@@ -5027,34 +5024,34 @@
         <v>5320.0</v>
       </c>
       <c r="D120" t="n">
-        <v>19503.0</v>
+        <v>21603.0</v>
       </c>
       <c r="E120" t="n">
-        <v>3665.9774436090224</v>
+        <v>4060.714285714286</v>
       </c>
       <c r="F120" t="n">
-        <v>325.04814814814813</v>
+        <v>327.5679012345679</v>
       </c>
       <c r="G120" t="n">
-        <v>258.0</v>
+        <v>260.0</v>
       </c>
       <c r="H120" t="n">
-        <v>146.03612453032744</v>
+        <v>154.14960058097313</v>
       </c>
       <c r="I120" t="n">
-        <v>115.91304347826087</v>
+        <v>122.3529411764706</v>
       </c>
       <c r="J120" t="n">
-        <v>260.68</v>
+        <v>275.576</v>
       </c>
       <c r="K120" t="n">
-        <v>49.00000000000001</v>
+        <v>51.80000000000001</v>
       </c>
       <c r="L120" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="M120" t="n">
-        <v>2015.0</v>
+        <v>2016.0</v>
       </c>
     </row>
     <row r="121">
@@ -5068,34 +5065,34 @@
         <v>5320.0</v>
       </c>
       <c r="D121" t="n">
-        <v>15249.0</v>
+        <v>19503.0</v>
       </c>
       <c r="E121" t="n">
-        <v>2866.3533834586465</v>
+        <v>3665.9774436090224</v>
       </c>
       <c r="F121" t="n">
-        <v>327.5679012345679</v>
+        <v>325.04814814814813</v>
       </c>
       <c r="G121" t="n">
-        <v>260.0</v>
+        <v>258.0</v>
       </c>
       <c r="H121" t="n">
-        <v>140.38624338624336</v>
+        <v>146.03612453032744</v>
       </c>
       <c r="I121" t="n">
-        <v>111.42857142857143</v>
+        <v>115.91304347826087</v>
       </c>
       <c r="J121" t="n">
-        <v>201.39392</v>
+        <v>260.68</v>
       </c>
       <c r="K121" t="n">
-        <v>37.856</v>
+        <v>49.00000000000001</v>
       </c>
       <c r="L121" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="M121" t="n">
-        <v>2016.0</v>
+        <v>2015.0</v>
       </c>
     </row>
     <row r="122">
@@ -5109,31 +5106,31 @@
         <v>3570.0</v>
       </c>
       <c r="D122" t="n">
-        <v>12089.0</v>
+        <v>15514.0</v>
       </c>
       <c r="E122" t="n">
-        <v>3386.274509803922</v>
+        <v>4345.658263305322</v>
       </c>
       <c r="F122" t="n">
-        <v>221.10831837223216</v>
+        <v>219.34649910233392</v>
       </c>
       <c r="G122" t="n">
-        <v>251.0</v>
+        <v>249.0</v>
       </c>
       <c r="H122" t="n">
-        <v>94.76070787381379</v>
+        <v>94.00564247242883</v>
       </c>
       <c r="I122" t="n">
-        <v>107.57142857142857</v>
+        <v>106.71428571428571</v>
       </c>
       <c r="J122" t="n">
-        <v>66.8736</v>
+        <v>130.032</v>
       </c>
       <c r="K122" t="n">
-        <v>17.279999999999998</v>
+        <v>33.6</v>
       </c>
       <c r="L122" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="M122" t="n">
         <v>2016.0</v>
@@ -5150,31 +5147,31 @@
         <v>3570.0</v>
       </c>
       <c r="D123" t="n">
-        <v>9652.0</v>
+        <v>12089.0</v>
       </c>
       <c r="E123" t="n">
-        <v>2703.641456582633</v>
+        <v>3386.274509803922</v>
       </c>
       <c r="F123" t="n">
-        <v>231.6792339916218</v>
+        <v>221.10831837223216</v>
       </c>
       <c r="G123" t="n">
         <v>251.0</v>
       </c>
       <c r="H123" t="n">
-        <v>90.09747988563069</v>
+        <v>94.76070787381379</v>
       </c>
       <c r="I123" t="n">
-        <v>102.27777777777777</v>
+        <v>107.57142857142857</v>
       </c>
       <c r="J123" t="n">
-        <v>37.152</v>
+        <v>66.8736</v>
       </c>
       <c r="K123" t="n">
-        <v>9.6</v>
+        <v>17.279999999999998</v>
       </c>
       <c r="L123" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="M123" t="n">
         <v>2016.0</v>
@@ -5191,31 +5188,31 @@
         <v>3570.0</v>
       </c>
       <c r="D124" t="n">
-        <v>2889.0</v>
+        <v>9652.0</v>
       </c>
       <c r="E124" t="n">
-        <v>809.2436974789916</v>
+        <v>2703.641456582633</v>
       </c>
       <c r="F124" t="n">
-        <v>310.0801915020946</v>
+        <v>231.6792339916218</v>
       </c>
       <c r="G124" t="n">
-        <v>352.0</v>
+        <v>251.0</v>
       </c>
       <c r="H124" t="n">
-        <v>82.42638001954413</v>
+        <v>90.09747988563069</v>
       </c>
       <c r="I124" t="n">
-        <v>93.56962025316456</v>
+        <v>102.27777777777777</v>
       </c>
       <c r="J124" t="n">
-        <v>0.0</v>
+        <v>37.152</v>
       </c>
       <c r="K124" t="n">
-        <v>0.0</v>
+        <v>9.6</v>
       </c>
       <c r="L124" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="M124" t="n">
         <v>2016.0</v>
@@ -5232,22 +5229,22 @@
         <v>3570.0</v>
       </c>
       <c r="D125" t="n">
-        <v>4423.0</v>
+        <v>2889.0</v>
       </c>
       <c r="E125" t="n">
-        <v>1238.9355742296918</v>
+        <v>809.2436974789916</v>
       </c>
       <c r="F125" t="n">
-        <v>298.6283662477558</v>
+        <v>310.0801915020946</v>
       </c>
       <c r="G125" t="n">
-        <v>339.0</v>
+        <v>352.0</v>
       </c>
       <c r="H125" t="n">
-        <v>90.88689407540396</v>
+        <v>82.42638001954413</v>
       </c>
       <c r="I125" t="n">
-        <v>103.17391304347827</v>
+        <v>93.56962025316456</v>
       </c>
       <c r="J125" t="n">
         <v>0.0</v>
@@ -5256,7 +5253,7 @@
         <v>0.0</v>
       </c>
       <c r="L125" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="M125" t="n">
         <v>2016.0</v>
@@ -5273,22 +5270,22 @@
         <v>3570.0</v>
       </c>
       <c r="D126" t="n">
-        <v>7162.0</v>
+        <v>4423.0</v>
       </c>
       <c r="E126" t="n">
-        <v>2006.1624649859943</v>
+        <v>1238.9355742296918</v>
       </c>
       <c r="F126" t="n">
-        <v>284.53381208856973</v>
+        <v>298.6283662477558</v>
       </c>
       <c r="G126" t="n">
-        <v>323.0</v>
+        <v>339.0</v>
       </c>
       <c r="H126" t="n">
-        <v>94.84460402952324</v>
+        <v>90.88689407540396</v>
       </c>
       <c r="I126" t="n">
-        <v>107.66666666666667</v>
+        <v>103.17391304347827</v>
       </c>
       <c r="J126" t="n">
         <v>0.0</v>
@@ -5297,7 +5294,7 @@
         <v>0.0</v>
       </c>
       <c r="L126" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="M126" t="n">
         <v>2016.0</v>
@@ -5314,31 +5311,31 @@
         <v>3570.0</v>
       </c>
       <c r="D127" t="n">
-        <v>10256.0</v>
+        <v>7162.0</v>
       </c>
       <c r="E127" t="n">
-        <v>2872.829131652661</v>
+        <v>2006.1624649859943</v>
       </c>
       <c r="F127" t="n">
-        <v>257.2256134051466</v>
+        <v>284.53381208856973</v>
       </c>
       <c r="G127" t="n">
-        <v>292.0</v>
+        <v>323.0</v>
       </c>
       <c r="H127" t="n">
-        <v>105.0639829401303</v>
+        <v>94.84460402952324</v>
       </c>
       <c r="I127" t="n">
-        <v>119.26760563380282</v>
+        <v>107.66666666666667</v>
       </c>
       <c r="J127" t="n">
-        <v>27.863999999999997</v>
+        <v>0.0</v>
       </c>
       <c r="K127" t="n">
-        <v>7.199999999999999</v>
+        <v>0.0</v>
       </c>
       <c r="L127" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="M127" t="n">
         <v>2016.0</v>
@@ -5355,31 +5352,31 @@
         <v>3570.0</v>
       </c>
       <c r="D128" t="n">
-        <v>12859.0</v>
+        <v>10256.0</v>
       </c>
       <c r="E128" t="n">
-        <v>3601.9607843137255</v>
+        <v>2872.829131652661</v>
       </c>
       <c r="F128" t="n">
-        <v>233.44105326152004</v>
+        <v>257.2256134051466</v>
       </c>
       <c r="G128" t="n">
-        <v>265.0</v>
+        <v>292.0</v>
       </c>
       <c r="H128" t="n">
-        <v>96.1227866370965</v>
+        <v>105.0639829401303</v>
       </c>
       <c r="I128" t="n">
-        <v>109.11764705882354</v>
+        <v>119.26760563380282</v>
       </c>
       <c r="J128" t="n">
-        <v>74.304</v>
+        <v>27.863999999999997</v>
       </c>
       <c r="K128" t="n">
-        <v>19.2</v>
+        <v>7.199999999999999</v>
       </c>
       <c r="L128" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="M128" t="n">
         <v>2016.0</v>
@@ -5396,31 +5393,31 @@
         <v>3570.0</v>
       </c>
       <c r="D129" t="n">
-        <v>15123.0</v>
+        <v>12859.0</v>
       </c>
       <c r="E129" t="n">
-        <v>4236.134453781513</v>
+        <v>3601.9607843137255</v>
       </c>
       <c r="F129" t="n">
-        <v>223.7510472770796</v>
+        <v>233.44105326152004</v>
       </c>
       <c r="G129" t="n">
-        <v>254.0</v>
+        <v>265.0</v>
       </c>
       <c r="H129" t="n">
-        <v>95.89330597589127</v>
+        <v>96.1227866370965</v>
       </c>
       <c r="I129" t="n">
-        <v>108.85714285714286</v>
+        <v>109.11764705882354</v>
       </c>
       <c r="J129" t="n">
-        <v>83.592</v>
+        <v>74.304</v>
       </c>
       <c r="K129" t="n">
-        <v>21.599999999999998</v>
+        <v>19.2</v>
       </c>
       <c r="L129" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="M129" t="n">
         <v>2016.0</v>
@@ -5437,31 +5434,31 @@
         <v>3570.0</v>
       </c>
       <c r="D130" t="n">
-        <v>18636.0</v>
+        <v>15123.0</v>
       </c>
       <c r="E130" t="n">
-        <v>5220.16806722689</v>
+        <v>4236.134453781513</v>
       </c>
       <c r="F130" t="n">
-        <v>220.22740873728304</v>
+        <v>223.7510472770796</v>
       </c>
       <c r="G130" t="n">
-        <v>250.0</v>
+        <v>254.0</v>
       </c>
       <c r="H130" t="n">
-        <v>98.94274885298223</v>
+        <v>95.89330597589127</v>
       </c>
       <c r="I130" t="n">
-        <v>112.31884057971014</v>
+        <v>108.85714285714286</v>
       </c>
       <c r="J130" t="n">
-        <v>167.184</v>
+        <v>83.592</v>
       </c>
       <c r="K130" t="n">
-        <v>43.199999999999996</v>
+        <v>21.599999999999998</v>
       </c>
       <c r="L130" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="M130" t="n">
         <v>2016.0</v>
@@ -5478,31 +5475,31 @@
         <v>3570.0</v>
       </c>
       <c r="D131" t="n">
-        <v>19256.0</v>
+        <v>18636.0</v>
       </c>
       <c r="E131" t="n">
-        <v>5393.837535014006</v>
+        <v>5220.16806722689</v>
       </c>
       <c r="F131" t="n">
-        <v>221.10831837223216</v>
+        <v>220.22740873728304</v>
       </c>
       <c r="G131" t="n">
-        <v>251.0</v>
+        <v>250.0</v>
       </c>
       <c r="H131" t="n">
-        <v>104.05097335163866</v>
+        <v>98.94274885298223</v>
       </c>
       <c r="I131" t="n">
-        <v>118.11764705882354</v>
+        <v>112.31884057971014</v>
       </c>
       <c r="J131" t="n">
-        <v>175.54319999999998</v>
+        <v>167.184</v>
       </c>
       <c r="K131" t="n">
-        <v>45.36</v>
+        <v>43.199999999999996</v>
       </c>
       <c r="L131" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="M131" t="n">
         <v>2016.0</v>
@@ -5519,34 +5516,34 @@
         <v>3570.0</v>
       </c>
       <c r="D132" t="n">
-        <v>17396.0</v>
+        <v>19256.0</v>
       </c>
       <c r="E132" t="n">
-        <v>4872.829131652661</v>
+        <v>5393.837535014006</v>
       </c>
       <c r="F132" t="n">
-        <v>222.87013764213046</v>
+        <v>221.10831837223216</v>
       </c>
       <c r="G132" t="n">
-        <v>253.0</v>
+        <v>251.0</v>
       </c>
       <c r="H132" t="n">
-        <v>100.13006183921803</v>
+        <v>104.05097335163866</v>
       </c>
       <c r="I132" t="n">
-        <v>113.66666666666667</v>
+        <v>118.11764705882354</v>
       </c>
       <c r="J132" t="n">
-        <v>166.25519999999997</v>
+        <v>175.54319999999998</v>
       </c>
       <c r="K132" t="n">
-        <v>42.96</v>
+        <v>45.36</v>
       </c>
       <c r="L132" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="M132" t="n">
-        <v>2015.0</v>
+        <v>2016.0</v>
       </c>
     </row>
     <row r="133">
@@ -5560,526 +5557,34 @@
         <v>3570.0</v>
       </c>
       <c r="D133" t="n">
-        <v>15514.0</v>
+        <v>17396.0</v>
       </c>
       <c r="E133" t="n">
-        <v>4345.658263305322</v>
+        <v>4872.829131652661</v>
       </c>
       <c r="F133" t="n">
-        <v>219.34649910233392</v>
+        <v>222.87013764213046</v>
       </c>
       <c r="G133" t="n">
-        <v>249.0</v>
+        <v>253.0</v>
       </c>
       <c r="H133" t="n">
-        <v>94.00564247242883</v>
+        <v>100.13006183921803</v>
       </c>
       <c r="I133" t="n">
-        <v>106.71428571428571</v>
+        <v>113.66666666666667</v>
       </c>
       <c r="J133" t="n">
-        <v>130.032</v>
+        <v>166.25519999999997</v>
       </c>
       <c r="K133" t="n">
-        <v>33.6</v>
+        <v>42.96</v>
       </c>
       <c r="L133" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="M133" t="n">
-        <v>2016.0</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="s">
-        <v>24</v>
-      </c>
-      <c r="B134" t="n">
-        <v>98.0</v>
-      </c>
-      <c r="C134" t="n">
-        <v>7356.0</v>
-      </c>
-      <c r="D134" t="n">
-        <v>18596.0</v>
-      </c>
-      <c r="E134" t="n">
-        <v>2528.004350190321</v>
-      </c>
-      <c r="F134" t="n">
-        <v>467.04419889502765</v>
-      </c>
-      <c r="G134" t="n">
-        <v>232.0</v>
-      </c>
-      <c r="H134" t="n">
-        <v>200.1617995264404</v>
-      </c>
-      <c r="I134" t="n">
-        <v>99.42857142857143</v>
-      </c>
-      <c r="J134" t="n">
-        <v>106.58844</v>
-      </c>
-      <c r="K134" t="n">
-        <v>14.490000000000002</v>
-      </c>
-      <c r="L134" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="M134" t="n">
-        <v>2016.0</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="s">
-        <v>24</v>
-      </c>
-      <c r="B135" t="n">
-        <v>98.0</v>
-      </c>
-      <c r="C135" t="n">
-        <v>7356.0</v>
-      </c>
-      <c r="D135" t="n">
-        <v>16267.0</v>
-      </c>
-      <c r="E135" t="n">
-        <v>2211.3920609026645</v>
-      </c>
-      <c r="F135" t="n">
-        <v>477.1098066298342</v>
-      </c>
-      <c r="G135" t="n">
-        <v>232.0</v>
-      </c>
-      <c r="H135" t="n">
-        <v>185.54270257826886</v>
-      </c>
-      <c r="I135" t="n">
-        <v>92.16666666666667</v>
-      </c>
-      <c r="J135" t="n">
-        <v>84.9618</v>
-      </c>
-      <c r="K135" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="L135" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="M135" t="n">
-        <v>2016.0</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="s">
-        <v>24</v>
-      </c>
-      <c r="B136" t="n">
-        <v>98.0</v>
-      </c>
-      <c r="C136" t="n">
-        <v>7356.0</v>
-      </c>
-      <c r="D136" t="n">
-        <v>7896.0</v>
-      </c>
-      <c r="E136" t="n">
-        <v>1073.4094616639477</v>
-      </c>
-      <c r="F136" t="n">
-        <v>513.345994475138</v>
-      </c>
-      <c r="G136" t="n">
-        <v>255.0</v>
-      </c>
-      <c r="H136" t="n">
-        <v>136.45906182250505</v>
-      </c>
-      <c r="I136" t="n">
-        <v>67.78481012658227</v>
-      </c>
-      <c r="J136" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K136" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L136" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="M136" t="n">
-        <v>2016.0</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="s">
-        <v>24</v>
-      </c>
-      <c r="B137" t="n">
-        <v>98.0</v>
-      </c>
-      <c r="C137" t="n">
-        <v>7356.0</v>
-      </c>
-      <c r="D137" t="n">
-        <v>10298.0</v>
-      </c>
-      <c r="E137" t="n">
-        <v>1399.9456226209898</v>
-      </c>
-      <c r="F137" t="n">
-        <v>507.3066298342542</v>
-      </c>
-      <c r="G137" t="n">
-        <v>252.0</v>
-      </c>
-      <c r="H137" t="n">
-        <v>154.39766994955562</v>
-      </c>
-      <c r="I137" t="n">
-        <v>76.69565217391305</v>
-      </c>
-      <c r="J137" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K137" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L137" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="M137" t="n">
-        <v>2016.0</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="s">
-        <v>24</v>
-      </c>
-      <c r="B138" t="n">
-        <v>98.0</v>
-      </c>
-      <c r="C138" t="n">
-        <v>7356.0</v>
-      </c>
-      <c r="D138" t="n">
-        <v>15002.0</v>
-      </c>
-      <c r="E138" t="n">
-        <v>2039.4235997824906</v>
-      </c>
-      <c r="F138" t="n">
-        <v>489.1885359116022</v>
-      </c>
-      <c r="G138" t="n">
-        <v>243.0</v>
-      </c>
-      <c r="H138" t="n">
-        <v>163.0628453038674</v>
-      </c>
-      <c r="I138" t="n">
-        <v>81.0</v>
-      </c>
-      <c r="J138" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K138" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L138" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="M138" t="n">
-        <v>2016.0</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="s">
-        <v>24</v>
-      </c>
-      <c r="B139" t="n">
-        <v>98.0</v>
-      </c>
-      <c r="C139" t="n">
-        <v>7356.0</v>
-      </c>
-      <c r="D139" t="n">
-        <v>16493.0</v>
-      </c>
-      <c r="E139" t="n">
-        <v>2242.115280043502</v>
-      </c>
-      <c r="F139" t="n">
-        <v>481.13604972375686</v>
-      </c>
-      <c r="G139" t="n">
-        <v>239.0</v>
-      </c>
-      <c r="H139" t="n">
-        <v>196.5203583378725</v>
-      </c>
-      <c r="I139" t="n">
-        <v>97.61971830985915</v>
-      </c>
-      <c r="J139" t="n">
-        <v>43.253280000000004</v>
-      </c>
-      <c r="K139" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="L139" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="M139" t="n">
-        <v>2016.0</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="s">
-        <v>24</v>
-      </c>
-      <c r="B140" t="n">
-        <v>98.0</v>
-      </c>
-      <c r="C140" t="n">
-        <v>7356.0</v>
-      </c>
-      <c r="D140" t="n">
-        <v>20569.0</v>
-      </c>
-      <c r="E140" t="n">
-        <v>2796.220772158782</v>
-      </c>
-      <c r="F140" t="n">
-        <v>535.4903314917127</v>
-      </c>
-      <c r="G140" t="n">
-        <v>266.0</v>
-      </c>
-      <c r="H140" t="n">
-        <v>220.49601884952875</v>
-      </c>
-      <c r="I140" t="n">
-        <v>109.52941176470588</v>
-      </c>
-      <c r="J140" t="n">
-        <v>108.13320000000002</v>
-      </c>
-      <c r="K140" t="n">
-        <v>14.700000000000001</v>
-      </c>
-      <c r="L140" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="M140" t="n">
-        <v>2016.0</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="s">
-        <v>24</v>
-      </c>
-      <c r="B141" t="n">
-        <v>98.0</v>
-      </c>
-      <c r="C141" t="n">
-        <v>7356.0</v>
-      </c>
-      <c r="D141" t="n">
-        <v>22569.0</v>
-      </c>
-      <c r="E141" t="n">
-        <v>3068.1076672104405</v>
-      </c>
-      <c r="F141" t="n">
-        <v>509.31975138121544</v>
-      </c>
-      <c r="G141" t="n">
-        <v>253.0</v>
-      </c>
-      <c r="H141" t="n">
-        <v>218.27989344909233</v>
-      </c>
-      <c r="I141" t="n">
-        <v>98.0</v>
-      </c>
-      <c r="J141" t="n">
-        <v>169.9236</v>
-      </c>
-      <c r="K141" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L141" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="M141" t="n">
-        <v>2016.0</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="s">
-        <v>24</v>
-      </c>
-      <c r="B142" t="n">
-        <v>98.0</v>
-      </c>
-      <c r="C142" t="n">
-        <v>7356.0</v>
-      </c>
-      <c r="D142" t="n">
-        <v>26998.0</v>
-      </c>
-      <c r="E142" t="n">
-        <v>3670.2011963023383</v>
-      </c>
-      <c r="F142" t="n">
-        <v>461.00483425414365</v>
-      </c>
-      <c r="G142" t="n">
-        <v>229.0</v>
-      </c>
-      <c r="H142" t="n">
-        <v>207.11811394026745</v>
-      </c>
-      <c r="I142" t="n">
-        <v>102.8840579710145</v>
-      </c>
-      <c r="J142" t="n">
-        <v>293.5044</v>
-      </c>
-      <c r="K142" t="n">
-        <v>39.9</v>
-      </c>
-      <c r="L142" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="M142" t="n">
-        <v>2016.0</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="s">
-        <v>24</v>
-      </c>
-      <c r="B143" t="n">
-        <v>98.0</v>
-      </c>
-      <c r="C143" t="n">
-        <v>7356.0</v>
-      </c>
-      <c r="D143" t="n">
-        <v>26832.0</v>
-      </c>
-      <c r="E143" t="n">
-        <v>3647.6345840130507</v>
-      </c>
-      <c r="F143" t="n">
-        <v>458.99171270718233</v>
-      </c>
-      <c r="G143" t="n">
-        <v>228.0</v>
-      </c>
-      <c r="H143" t="n">
-        <v>215.99610009749756</v>
-      </c>
-      <c r="I143" t="n">
-        <v>107.29411764705883</v>
-      </c>
-      <c r="J143" t="n">
-        <v>278.0568</v>
-      </c>
-      <c r="K143" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="L143" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M143" t="n">
-        <v>2016.0</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="s">
-        <v>24</v>
-      </c>
-      <c r="B144" t="n">
-        <v>98.0</v>
-      </c>
-      <c r="C144" t="n">
-        <v>7356.0</v>
-      </c>
-      <c r="D144" t="n">
-        <v>23985.0</v>
-      </c>
-      <c r="E144" t="n">
-        <v>3260.6035889070145</v>
-      </c>
-      <c r="F144" t="n">
-        <v>467.04419889502765</v>
-      </c>
-      <c r="G144" t="n">
-        <v>232.0</v>
-      </c>
-      <c r="H144" t="n">
-        <v>209.8314516774762</v>
-      </c>
-      <c r="I144" t="n">
-        <v>104.23188405797102</v>
-      </c>
-      <c r="J144" t="n">
-        <v>247.1616</v>
-      </c>
-      <c r="K144" t="n">
-        <v>33.6</v>
-      </c>
-      <c r="L144" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="M144" t="n">
         <v>2015.0</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="s">
-        <v>24</v>
-      </c>
-      <c r="B145" t="n">
-        <v>98.0</v>
-      </c>
-      <c r="C145" t="n">
-        <v>7356.0</v>
-      </c>
-      <c r="D145" t="n">
-        <v>21231.0</v>
-      </c>
-      <c r="E145" t="n">
-        <v>2886.215334420881</v>
-      </c>
-      <c r="F145" t="n">
-        <v>463.01795580110496</v>
-      </c>
-      <c r="G145" t="n">
-        <v>230.0</v>
-      </c>
-      <c r="H145" t="n">
-        <v>198.43626677190213</v>
-      </c>
-      <c r="I145" t="n">
-        <v>98.57142857142857</v>
-      </c>
-      <c r="J145" t="n">
-        <v>213.17688</v>
-      </c>
-      <c r="K145" t="n">
-        <v>28.980000000000004</v>
-      </c>
-      <c r="L145" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="M145" t="n">
-        <v>2016.0</v>
       </c>
     </row>
   </sheetData>

--- a/output/Combined_Docks_Consumption_AbsPlusNorm.xlsx
+++ b/output/Combined_Docks_Consumption_AbsPlusNorm.xlsx
@@ -186,31 +186,31 @@
         <v>2695.0</v>
       </c>
       <c r="D2" t="n">
-        <v>7598.0</v>
+        <v>9797.0</v>
       </c>
       <c r="E2" t="n">
-        <v>2819.294990723562</v>
+        <v>3635.2504638218925</v>
       </c>
       <c r="F2" t="n">
-        <v>222.61772486772483</v>
+        <v>220.42804232804232</v>
       </c>
       <c r="G2" t="n">
-        <v>305.0</v>
+        <v>302.0</v>
       </c>
       <c r="H2" t="n">
-        <v>95.40759637188206</v>
+        <v>99.03288858216393</v>
       </c>
       <c r="I2" t="n">
-        <v>130.71428571428572</v>
+        <v>135.68115942028984</v>
       </c>
       <c r="J2" t="n">
-        <v>134.75</v>
+        <v>188.64999999999998</v>
       </c>
       <c r="K2" t="n">
-        <v>50.0</v>
+        <v>70.0</v>
       </c>
       <c r="L2" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="M2" t="n">
         <v>2016.0</v>
@@ -227,31 +227,31 @@
         <v>2695.0</v>
       </c>
       <c r="D3" t="n">
-        <v>6787.0</v>
+        <v>7598.0</v>
       </c>
       <c r="E3" t="n">
-        <v>2189.3548387096776</v>
+        <v>2819.294990723562</v>
       </c>
       <c r="F3" t="n">
-        <v>221.1579365079365</v>
+        <v>222.61772486772483</v>
       </c>
       <c r="G3" t="n">
-        <v>303.0</v>
+        <v>305.0</v>
       </c>
       <c r="H3" t="n">
-        <v>94.78197278911564</v>
+        <v>95.40759637188206</v>
       </c>
       <c r="I3" t="n">
-        <v>129.85714285714286</v>
+        <v>130.71428571428572</v>
       </c>
       <c r="J3" t="n">
-        <v>78.69399999999999</v>
+        <v>134.75</v>
       </c>
       <c r="K3" t="n">
-        <v>29.2</v>
+        <v>50.0</v>
       </c>
       <c r="L3" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="M3" t="n">
         <v>2016.0</v>
@@ -268,31 +268,31 @@
         <v>2695.0</v>
       </c>
       <c r="D4" t="n">
-        <v>5509.0</v>
+        <v>6787.0</v>
       </c>
       <c r="E4" t="n">
-        <v>2044.155844155844</v>
+        <v>2189.3548387096776</v>
       </c>
       <c r="F4" t="n">
-        <v>230.64656084656082</v>
+        <v>221.1579365079365</v>
       </c>
       <c r="G4" t="n">
         <v>303.0</v>
       </c>
       <c r="H4" t="n">
-        <v>89.69588477366254</v>
+        <v>94.78197278911564</v>
       </c>
       <c r="I4" t="n">
-        <v>122.88888888888889</v>
+        <v>129.85714285714286</v>
       </c>
       <c r="J4" t="n">
-        <v>52.822</v>
+        <v>78.69399999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>19.6</v>
+        <v>29.2</v>
       </c>
       <c r="L4" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="M4" t="n">
         <v>2016.0</v>
@@ -309,31 +309,31 @@
         <v>2695.0</v>
       </c>
       <c r="D5" t="n">
-        <v>2587.0</v>
+        <v>5509.0</v>
       </c>
       <c r="E5" t="n">
-        <v>711.6428498519955</v>
+        <v>2044.155844155844</v>
       </c>
       <c r="F5" t="n">
-        <v>244.51455026455028</v>
+        <v>230.64656084656082</v>
       </c>
       <c r="G5" t="n">
-        <v>335.0</v>
+        <v>303.0</v>
       </c>
       <c r="H5" t="n">
-        <v>64.99753867791843</v>
+        <v>89.69588477366254</v>
       </c>
       <c r="I5" t="n">
-        <v>89.0506329113924</v>
+        <v>122.88888888888889</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0</v>
+        <v>52.822</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0</v>
+        <v>19.6</v>
       </c>
       <c r="L5" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="M5" t="n">
         <v>2016.0</v>
@@ -350,22 +350,22 @@
         <v>2695.0</v>
       </c>
       <c r="D6" t="n">
-        <v>3298.0</v>
+        <v>2587.0</v>
       </c>
       <c r="E6" t="n">
-        <v>1169.7959989470914</v>
+        <v>711.6428498519955</v>
       </c>
       <c r="F6" t="n">
-        <v>245.9743386243386</v>
+        <v>244.51455026455028</v>
       </c>
       <c r="G6" t="n">
-        <v>337.0</v>
+        <v>335.0</v>
       </c>
       <c r="H6" t="n">
-        <v>74.86175523349436</v>
+        <v>64.99753867791843</v>
       </c>
       <c r="I6" t="n">
-        <v>102.56521739130434</v>
+        <v>89.0506329113924</v>
       </c>
       <c r="J6" t="n">
         <v>0.0</v>
@@ -374,7 +374,7 @@
         <v>0.0</v>
       </c>
       <c r="L6" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="M6" t="n">
         <v>2016.0</v>
@@ -391,22 +391,22 @@
         <v>2695.0</v>
       </c>
       <c r="D7" t="n">
-        <v>4159.0</v>
+        <v>3298.0</v>
       </c>
       <c r="E7" t="n">
-        <v>1899.646382790629</v>
+        <v>1169.7959989470914</v>
       </c>
       <c r="F7" t="n">
-        <v>239.405291005291</v>
+        <v>245.9743386243386</v>
       </c>
       <c r="G7" t="n">
-        <v>328.0</v>
+        <v>337.0</v>
       </c>
       <c r="H7" t="n">
-        <v>79.80176366843034</v>
+        <v>74.86175523349436</v>
       </c>
       <c r="I7" t="n">
-        <v>109.33333333333333</v>
+        <v>102.56521739130434</v>
       </c>
       <c r="J7" t="n">
         <v>0.0</v>
@@ -415,7 +415,7 @@
         <v>0.0</v>
       </c>
       <c r="L7" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="M7" t="n">
         <v>2016.0</v>
@@ -432,31 +432,31 @@
         <v>2695.0</v>
       </c>
       <c r="D8" t="n">
-        <v>5954.0</v>
+        <v>4159.0</v>
       </c>
       <c r="E8" t="n">
-        <v>2209.2764378478664</v>
+        <v>1899.646382790629</v>
       </c>
       <c r="F8" t="n">
-        <v>233.56613756613754</v>
+        <v>239.405291005291</v>
       </c>
       <c r="G8" t="n">
-        <v>320.0</v>
+        <v>328.0</v>
       </c>
       <c r="H8" t="n">
-        <v>95.40025337208435</v>
+        <v>79.80176366843034</v>
       </c>
       <c r="I8" t="n">
-        <v>130.70422535211267</v>
+        <v>109.33333333333333</v>
       </c>
       <c r="J8" t="n">
-        <v>25.872</v>
+        <v>0.0</v>
       </c>
       <c r="K8" t="n">
-        <v>9.6</v>
+        <v>0.0</v>
       </c>
       <c r="L8" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="M8" t="n">
         <v>2016.0</v>
@@ -473,31 +473,31 @@
         <v>2695.0</v>
       </c>
       <c r="D9" t="n">
-        <v>7128.0</v>
+        <v>5954.0</v>
       </c>
       <c r="E9" t="n">
-        <v>2644.8979591836733</v>
+        <v>2209.2764378478664</v>
       </c>
       <c r="F9" t="n">
-        <v>228.45687830687828</v>
+        <v>233.56613756613754</v>
       </c>
       <c r="G9" t="n">
-        <v>313.0</v>
+        <v>320.0</v>
       </c>
       <c r="H9" t="n">
-        <v>94.07047930283224</v>
+        <v>95.40025337208435</v>
       </c>
       <c r="I9" t="n">
-        <v>128.88235294117646</v>
+        <v>130.70422535211267</v>
       </c>
       <c r="J9" t="n">
-        <v>75.46000000000001</v>
+        <v>25.872</v>
       </c>
       <c r="K9" t="n">
-        <v>28.000000000000004</v>
+        <v>9.6</v>
       </c>
       <c r="L9" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="M9" t="n">
         <v>2016.0</v>
@@ -514,31 +514,31 @@
         <v>2695.0</v>
       </c>
       <c r="D10" t="n">
-        <v>8597.0</v>
+        <v>7128.0</v>
       </c>
       <c r="E10" t="n">
-        <v>3189.9814471243044</v>
+        <v>2644.8979591836733</v>
       </c>
       <c r="F10" t="n">
-        <v>226.99708994708996</v>
+        <v>228.45687830687828</v>
       </c>
       <c r="G10" t="n">
-        <v>311.0</v>
+        <v>313.0</v>
       </c>
       <c r="H10" t="n">
-        <v>97.28446712018142</v>
+        <v>94.07047930283224</v>
       </c>
       <c r="I10" t="n">
-        <v>133.28571428571428</v>
+        <v>128.88235294117646</v>
       </c>
       <c r="J10" t="n">
-        <v>107.80000000000001</v>
+        <v>75.46000000000001</v>
       </c>
       <c r="K10" t="n">
-        <v>40.0</v>
+        <v>28.000000000000004</v>
       </c>
       <c r="L10" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="M10" t="n">
         <v>2016.0</v>
@@ -555,31 +555,31 @@
         <v>2695.0</v>
       </c>
       <c r="D11" t="n">
-        <v>10159.0</v>
+        <v>8597.0</v>
       </c>
       <c r="E11" t="n">
-        <v>3769.5732838589984</v>
+        <v>3189.9814471243044</v>
       </c>
       <c r="F11" t="n">
-        <v>225.53730158730156</v>
+        <v>226.99708994708996</v>
       </c>
       <c r="G11" t="n">
-        <v>309.0</v>
+        <v>311.0</v>
       </c>
       <c r="H11" t="n">
-        <v>101.32835288704852</v>
+        <v>97.28446712018142</v>
       </c>
       <c r="I11" t="n">
-        <v>138.82608695652175</v>
+        <v>133.28571428571428</v>
       </c>
       <c r="J11" t="n">
-        <v>210.21</v>
+        <v>107.80000000000001</v>
       </c>
       <c r="K11" t="n">
-        <v>78.0</v>
+        <v>40.0</v>
       </c>
       <c r="L11" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="M11" t="n">
         <v>2016.0</v>
@@ -596,31 +596,31 @@
         <v>2695.0</v>
       </c>
       <c r="D12" t="n">
-        <v>10850.0</v>
+        <v>10159.0</v>
       </c>
       <c r="E12" t="n">
-        <v>4025.974025974026</v>
+        <v>3769.5732838589984</v>
       </c>
       <c r="F12" t="n">
-        <v>219.69814814814814</v>
+        <v>225.53730158730156</v>
       </c>
       <c r="G12" t="n">
-        <v>301.0</v>
+        <v>309.0</v>
       </c>
       <c r="H12" t="n">
-        <v>103.38736383442266</v>
+        <v>101.32835288704852</v>
       </c>
       <c r="I12" t="n">
-        <v>141.64705882352942</v>
+        <v>138.82608695652175</v>
       </c>
       <c r="J12" t="n">
-        <v>203.742</v>
+        <v>210.21</v>
       </c>
       <c r="K12" t="n">
-        <v>75.6</v>
+        <v>78.0</v>
       </c>
       <c r="L12" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="M12" t="n">
         <v>2016.0</v>
@@ -637,34 +637,34 @@
         <v>2695.0</v>
       </c>
       <c r="D13" t="n">
-        <v>9797.0</v>
+        <v>10850.0</v>
       </c>
       <c r="E13" t="n">
-        <v>3635.2504638218925</v>
+        <v>4025.974025974026</v>
       </c>
       <c r="F13" t="n">
-        <v>220.42804232804232</v>
+        <v>219.69814814814814</v>
       </c>
       <c r="G13" t="n">
-        <v>302.0</v>
+        <v>301.0</v>
       </c>
       <c r="H13" t="n">
-        <v>99.03288858216393</v>
+        <v>103.38736383442266</v>
       </c>
       <c r="I13" t="n">
-        <v>135.68115942028984</v>
+        <v>141.64705882352942</v>
       </c>
       <c r="J13" t="n">
-        <v>188.64999999999998</v>
+        <v>203.742</v>
       </c>
       <c r="K13" t="n">
-        <v>70.0</v>
+        <v>75.6</v>
       </c>
       <c r="L13" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="M13" t="n">
-        <v>2015.0</v>
+        <v>2016.0</v>
       </c>
     </row>
     <row r="14">
@@ -678,31 +678,31 @@
         <v>3100.0</v>
       </c>
       <c r="D14" t="n">
-        <v>8496.0</v>
+        <v>10697.0</v>
       </c>
       <c r="E14" t="n">
-        <v>2740.6451612903224</v>
+        <v>3450.6451612903224</v>
       </c>
       <c r="F14" t="n">
-        <v>364.53233151183974</v>
+        <v>374.6115664845173</v>
       </c>
       <c r="G14" t="n">
-        <v>434.0</v>
+        <v>446.0</v>
       </c>
       <c r="H14" t="n">
-        <v>156.22814207650276</v>
+        <v>168.30374726115997</v>
       </c>
       <c r="I14" t="n">
-        <v>151.0</v>
+        <v>200.3768115942029</v>
       </c>
       <c r="J14" t="n">
-        <v>116.25</v>
+        <v>124.0</v>
       </c>
       <c r="K14" t="n">
-        <v>37.5</v>
+        <v>40.0</v>
       </c>
       <c r="L14" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="M14" t="n">
         <v>2016.0</v>
@@ -719,31 +719,31 @@
         <v>3100.0</v>
       </c>
       <c r="D15" t="n">
-        <v>7698.0</v>
+        <v>8496.0</v>
       </c>
       <c r="E15" t="n">
-        <v>2483.2258064516127</v>
+        <v>2740.6451612903224</v>
       </c>
       <c r="F15" t="n">
-        <v>359.4927140255009</v>
+        <v>364.53233151183974</v>
       </c>
       <c r="G15" t="n">
-        <v>428.0</v>
+        <v>434.0</v>
       </c>
       <c r="H15" t="n">
-        <v>154.06830601092895</v>
+        <v>156.22814207650276</v>
       </c>
       <c r="I15" t="n">
-        <v>148.0</v>
+        <v>151.0</v>
       </c>
       <c r="J15" t="n">
-        <v>54.25000000000001</v>
+        <v>116.25</v>
       </c>
       <c r="K15" t="n">
-        <v>17.5</v>
+        <v>37.5</v>
       </c>
       <c r="L15" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="M15" t="n">
         <v>2016.0</v>
@@ -760,31 +760,31 @@
         <v>3100.0</v>
       </c>
       <c r="D16" t="n">
-        <v>6654.0</v>
+        <v>7698.0</v>
       </c>
       <c r="E16" t="n">
-        <v>2146.451612903226</v>
+        <v>2483.2258064516127</v>
       </c>
       <c r="F16" t="n">
-        <v>279.69877049180326</v>
+        <v>359.4927140255009</v>
       </c>
       <c r="G16" t="n">
         <v>428.0</v>
       </c>
       <c r="H16" t="n">
-        <v>108.77174408014571</v>
+        <v>154.06830601092895</v>
       </c>
       <c r="I16" t="n">
-        <v>129.5</v>
+        <v>148.0</v>
       </c>
       <c r="J16" t="n">
-        <v>32.550000000000004</v>
+        <v>54.25000000000001</v>
       </c>
       <c r="K16" t="n">
-        <v>10.5</v>
+        <v>17.5</v>
       </c>
       <c r="L16" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="M16" t="n">
         <v>2016.0</v>
@@ -801,31 +801,31 @@
         <v>3100.0</v>
       </c>
       <c r="D17" t="n">
-        <v>3529.0</v>
+        <v>6654.0</v>
       </c>
       <c r="E17" t="n">
-        <v>1022.7073011124614</v>
+        <v>2146.451612903226</v>
       </c>
       <c r="F17" t="n">
-        <v>305.73679417122037</v>
+        <v>279.69877049180326</v>
       </c>
       <c r="G17" t="n">
-        <v>364.0</v>
+        <v>428.0</v>
       </c>
       <c r="H17" t="n">
-        <v>81.27180604551428</v>
+        <v>108.77174408014571</v>
       </c>
       <c r="I17" t="n">
-        <v>96.75949367088607</v>
+        <v>129.5</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0</v>
+        <v>32.550000000000004</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0</v>
+        <v>10.5</v>
       </c>
       <c r="L17" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="M17" t="n">
         <v>2016.0</v>
@@ -842,10 +842,10 @@
         <v>3100.0</v>
       </c>
       <c r="D18" t="n">
-        <v>4084.0</v>
+        <v>3529.0</v>
       </c>
       <c r="E18" t="n">
-        <v>1317.4193548387098</v>
+        <v>1022.7073011124614</v>
       </c>
       <c r="F18" t="n">
         <v>305.73679417122037</v>
@@ -854,10 +854,10 @@
         <v>364.0</v>
       </c>
       <c r="H18" t="n">
-        <v>93.0503286608062</v>
+        <v>81.27180604551428</v>
       </c>
       <c r="I18" t="n">
-        <v>110.78260869565217</v>
+        <v>96.75949367088607</v>
       </c>
       <c r="J18" t="n">
         <v>0.0</v>
@@ -866,7 +866,7 @@
         <v>0.0</v>
       </c>
       <c r="L18" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="M18" t="n">
         <v>2016.0</v>
@@ -883,22 +883,22 @@
         <v>3100.0</v>
       </c>
       <c r="D19" t="n">
-        <v>5102.0</v>
+        <v>4084.0</v>
       </c>
       <c r="E19" t="n">
-        <v>2054.5856066510783</v>
+        <v>1317.4193548387098</v>
       </c>
       <c r="F19" t="n">
-        <v>293.1377504553734</v>
+        <v>305.73679417122037</v>
       </c>
       <c r="G19" t="n">
-        <v>349.0</v>
+        <v>364.0</v>
       </c>
       <c r="H19" t="n">
-        <v>97.71258348512447</v>
+        <v>93.0503286608062</v>
       </c>
       <c r="I19" t="n">
-        <v>116.33333333333333</v>
+        <v>110.78260869565217</v>
       </c>
       <c r="J19" t="n">
         <v>0.0</v>
@@ -907,7 +907,7 @@
         <v>0.0</v>
       </c>
       <c r="L19" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="M19" t="n">
         <v>2016.0</v>
@@ -924,31 +924,31 @@
         <v>3100.0</v>
       </c>
       <c r="D20" t="n">
-        <v>6889.0</v>
+        <v>5102.0</v>
       </c>
       <c r="E20" t="n">
-        <v>2222.2580645161293</v>
+        <v>2054.5856066510783</v>
       </c>
       <c r="F20" t="n">
-        <v>288.93806921675775</v>
+        <v>293.1377504553734</v>
       </c>
       <c r="G20" t="n">
-        <v>344.0</v>
+        <v>349.0</v>
       </c>
       <c r="H20" t="n">
-        <v>118.01695784909823</v>
+        <v>97.71258348512447</v>
       </c>
       <c r="I20" t="n">
-        <v>140.50704225352112</v>
+        <v>116.33333333333333</v>
       </c>
       <c r="J20" t="n">
-        <v>17.825</v>
+        <v>0.0</v>
       </c>
       <c r="K20" t="n">
-        <v>5.75</v>
+        <v>0.0</v>
       </c>
       <c r="L20" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="M20" t="n">
         <v>2016.0</v>
@@ -965,31 +965,31 @@
         <v>3100.0</v>
       </c>
       <c r="D21" t="n">
-        <v>7969.0</v>
+        <v>6889.0</v>
       </c>
       <c r="E21" t="n">
-        <v>2570.6451612903224</v>
+        <v>2222.2580645161293</v>
       </c>
       <c r="F21" t="n">
-        <v>284.7383879781421</v>
+        <v>288.93806921675775</v>
       </c>
       <c r="G21" t="n">
-        <v>339.0</v>
+        <v>344.0</v>
       </c>
       <c r="H21" t="n">
-        <v>117.24521857923499</v>
+        <v>118.01695784909823</v>
       </c>
       <c r="I21" t="n">
-        <v>139.58823529411765</v>
+        <v>140.50704225352112</v>
       </c>
       <c r="J21" t="n">
-        <v>62.0</v>
+        <v>17.825</v>
       </c>
       <c r="K21" t="n">
-        <v>20.0</v>
+        <v>5.75</v>
       </c>
       <c r="L21" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="M21" t="n">
         <v>2016.0</v>
@@ -1006,31 +1006,31 @@
         <v>3100.0</v>
       </c>
       <c r="D22" t="n">
-        <v>9723.0</v>
+        <v>7969.0</v>
       </c>
       <c r="E22" t="n">
-        <v>3136.451612903226</v>
+        <v>2570.6451612903224</v>
       </c>
       <c r="F22" t="n">
-        <v>278.85883424408013</v>
+        <v>284.7383879781421</v>
       </c>
       <c r="G22" t="n">
-        <v>332.0</v>
+        <v>339.0</v>
       </c>
       <c r="H22" t="n">
-        <v>119.51092896174863</v>
+        <v>117.24521857923499</v>
       </c>
       <c r="I22" t="n">
-        <v>142.28571428571428</v>
+        <v>139.58823529411765</v>
       </c>
       <c r="J22" t="n">
-        <v>85.25</v>
+        <v>62.0</v>
       </c>
       <c r="K22" t="n">
-        <v>27.5</v>
+        <v>20.0</v>
       </c>
       <c r="L22" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="M22" t="n">
         <v>2016.0</v>
@@ -1047,31 +1047,31 @@
         <v>3100.0</v>
       </c>
       <c r="D23" t="n">
-        <v>11387.0</v>
+        <v>9723.0</v>
       </c>
       <c r="E23" t="n">
-        <v>3673.2258064516127</v>
+        <v>3136.451612903226</v>
       </c>
       <c r="F23" t="n">
-        <v>277.17896174863387</v>
+        <v>278.85883424408013</v>
       </c>
       <c r="G23" t="n">
-        <v>330.0</v>
+        <v>332.0</v>
       </c>
       <c r="H23" t="n">
-        <v>124.52967846677754</v>
+        <v>119.51092896174863</v>
       </c>
       <c r="I23" t="n">
-        <v>148.2608695652174</v>
+        <v>142.28571428571428</v>
       </c>
       <c r="J23" t="n">
-        <v>155.0</v>
+        <v>85.25</v>
       </c>
       <c r="K23" t="n">
-        <v>50.0</v>
+        <v>27.5</v>
       </c>
       <c r="L23" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="M23" t="n">
         <v>2016.0</v>
@@ -1088,31 +1088,31 @@
         <v>3100.0</v>
       </c>
       <c r="D24" t="n">
-        <v>11882.0</v>
+        <v>11387.0</v>
       </c>
       <c r="E24" t="n">
-        <v>3832.9032258064517</v>
+        <v>3673.2258064516127</v>
       </c>
       <c r="F24" t="n">
-        <v>276.33902550091074</v>
+        <v>277.17896174863387</v>
       </c>
       <c r="G24" t="n">
-        <v>329.0</v>
+        <v>330.0</v>
       </c>
       <c r="H24" t="n">
-        <v>130.04189435336977</v>
+        <v>124.52967846677754</v>
       </c>
       <c r="I24" t="n">
-        <v>154.8235294117647</v>
+        <v>148.2608695652174</v>
       </c>
       <c r="J24" t="n">
-        <v>127.875</v>
+        <v>155.0</v>
       </c>
       <c r="K24" t="n">
-        <v>41.25</v>
+        <v>50.0</v>
       </c>
       <c r="L24" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="M24" t="n">
         <v>2016.0</v>
@@ -1129,34 +1129,34 @@
         <v>3100.0</v>
       </c>
       <c r="D25" t="n">
-        <v>10697.0</v>
+        <v>11882.0</v>
       </c>
       <c r="E25" t="n">
-        <v>3450.6451612903224</v>
+        <v>3832.9032258064517</v>
       </c>
       <c r="F25" t="n">
-        <v>374.6115664845173</v>
+        <v>276.33902550091074</v>
       </c>
       <c r="G25" t="n">
-        <v>446.0</v>
+        <v>329.0</v>
       </c>
       <c r="H25" t="n">
-        <v>168.30374726115997</v>
+        <v>130.04189435336977</v>
       </c>
       <c r="I25" t="n">
-        <v>200.3768115942029</v>
+        <v>154.8235294117647</v>
       </c>
       <c r="J25" t="n">
-        <v>124.0</v>
+        <v>127.875</v>
       </c>
       <c r="K25" t="n">
-        <v>40.0</v>
+        <v>41.25</v>
       </c>
       <c r="L25" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="M25" t="n">
-        <v>2015.0</v>
+        <v>2016.0</v>
       </c>
     </row>
     <row r="26">
@@ -1170,31 +1170,31 @@
         <v>2800.0</v>
       </c>
       <c r="D26" t="n">
-        <v>7885.0</v>
+        <v>10069.0</v>
       </c>
       <c r="E26" t="n">
-        <v>2816.0714285714284</v>
+        <v>3596.0714285714284</v>
       </c>
       <c r="F26" t="n">
-        <v>306.43223905723903</v>
+        <v>304.8320707070707</v>
       </c>
       <c r="G26" t="n">
-        <v>383.0</v>
+        <v>381.0</v>
       </c>
       <c r="H26" t="n">
-        <v>131.32810245310245</v>
+        <v>136.95353901332163</v>
       </c>
       <c r="I26" t="n">
-        <v>164.14285714285714</v>
+        <v>171.17391304347825</v>
       </c>
       <c r="J26" t="n">
-        <v>113.39999999999999</v>
+        <v>136.07999999999998</v>
       </c>
       <c r="K26" t="n">
-        <v>40.5</v>
+        <v>48.6</v>
       </c>
       <c r="L26" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="M26" t="n">
         <v>2016.0</v>
@@ -1211,31 +1211,31 @@
         <v>2800.0</v>
       </c>
       <c r="D27" t="n">
-        <v>6954.0</v>
+        <v>7885.0</v>
       </c>
       <c r="E27" t="n">
-        <v>2483.5714285714284</v>
+        <v>2816.0714285714284</v>
       </c>
       <c r="F27" t="n">
-        <v>304.0319865319865</v>
+        <v>306.43223905723903</v>
       </c>
       <c r="G27" t="n">
-        <v>380.0</v>
+        <v>383.0</v>
       </c>
       <c r="H27" t="n">
-        <v>130.29942279942279</v>
+        <v>131.32810245310245</v>
       </c>
       <c r="I27" t="n">
-        <v>162.85714285714286</v>
+        <v>164.14285714285714</v>
       </c>
       <c r="J27" t="n">
-        <v>54.809999999999995</v>
+        <v>113.39999999999999</v>
       </c>
       <c r="K27" t="n">
-        <v>19.575</v>
+        <v>40.5</v>
       </c>
       <c r="L27" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="M27" t="n">
         <v>2016.0</v>
@@ -1252,31 +1252,31 @@
         <v>2800.0</v>
       </c>
       <c r="D28" t="n">
-        <v>6389.0</v>
+        <v>6954.0</v>
       </c>
       <c r="E28" t="n">
-        <v>2281.785714285714</v>
+        <v>2483.5714285714284</v>
       </c>
       <c r="F28" t="n">
-        <v>319.23358585858585</v>
+        <v>304.0319865319865</v>
       </c>
       <c r="G28" t="n">
         <v>380.0</v>
       </c>
       <c r="H28" t="n">
-        <v>124.14639450056117</v>
+        <v>130.29942279942279</v>
       </c>
       <c r="I28" t="n">
-        <v>155.16666666666666</v>
+        <v>162.85714285714286</v>
       </c>
       <c r="J28" t="n">
-        <v>34.019999999999996</v>
+        <v>54.809999999999995</v>
       </c>
       <c r="K28" t="n">
-        <v>12.15</v>
+        <v>19.575</v>
       </c>
       <c r="L28" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="M28" t="n">
         <v>2016.0</v>
@@ -1293,31 +1293,31 @@
         <v>2800.0</v>
       </c>
       <c r="D29" t="n">
-        <v>2810.0</v>
+        <v>6389.0</v>
       </c>
       <c r="E29" t="n">
-        <v>1003.5714285714286</v>
+        <v>2281.785714285714</v>
       </c>
       <c r="F29" t="n">
-        <v>340.03577441077437</v>
+        <v>319.23358585858585</v>
       </c>
       <c r="G29" t="n">
-        <v>425.0</v>
+        <v>380.0</v>
       </c>
       <c r="H29" t="n">
-        <v>90.38925648894002</v>
+        <v>124.14639450056117</v>
       </c>
       <c r="I29" t="n">
-        <v>112.9746835443038</v>
+        <v>155.16666666666666</v>
       </c>
       <c r="J29" t="n">
-        <v>0.0</v>
+        <v>34.019999999999996</v>
       </c>
       <c r="K29" t="n">
-        <v>0.0</v>
+        <v>12.15</v>
       </c>
       <c r="L29" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="M29" t="n">
         <v>2016.0</v>
@@ -1334,22 +1334,22 @@
         <v>2800.0</v>
       </c>
       <c r="D30" t="n">
-        <v>3385.0</v>
+        <v>2810.0</v>
       </c>
       <c r="E30" t="n">
-        <v>1208.9285714285713</v>
+        <v>1003.5714285714286</v>
       </c>
       <c r="F30" t="n">
-        <v>337.6355218855219</v>
+        <v>340.03577441077437</v>
       </c>
       <c r="G30" t="n">
-        <v>422.0</v>
+        <v>425.0</v>
       </c>
       <c r="H30" t="n">
-        <v>102.75863709559361</v>
+        <v>90.38925648894002</v>
       </c>
       <c r="I30" t="n">
-        <v>128.43478260869566</v>
+        <v>112.9746835443038</v>
       </c>
       <c r="J30" t="n">
         <v>0.0</v>
@@ -1358,7 +1358,7 @@
         <v>0.0</v>
       </c>
       <c r="L30" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="M30" t="n">
         <v>2016.0</v>
@@ -1375,22 +1375,22 @@
         <v>2800.0</v>
       </c>
       <c r="D31" t="n">
-        <v>4395.0</v>
+        <v>3385.0</v>
       </c>
       <c r="E31" t="n">
-        <v>1569.642857142857</v>
+        <v>1208.9285714285713</v>
       </c>
       <c r="F31" t="n">
-        <v>332.0349326599327</v>
+        <v>337.6355218855219</v>
       </c>
       <c r="G31" t="n">
-        <v>415.0</v>
+        <v>422.0</v>
       </c>
       <c r="H31" t="n">
-        <v>110.67831088664423</v>
+        <v>102.75863709559361</v>
       </c>
       <c r="I31" t="n">
-        <v>138.33333333333334</v>
+        <v>128.43478260869566</v>
       </c>
       <c r="J31" t="n">
         <v>0.0</v>
@@ -1399,7 +1399,7 @@
         <v>0.0</v>
       </c>
       <c r="L31" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="M31" t="n">
         <v>2016.0</v>
@@ -1416,31 +1416,31 @@
         <v>2800.0</v>
       </c>
       <c r="D32" t="n">
-        <v>6128.0</v>
+        <v>4395.0</v>
       </c>
       <c r="E32" t="n">
-        <v>2188.5714285714284</v>
+        <v>1569.642857142857</v>
       </c>
       <c r="F32" t="n">
-        <v>322.4339225589225</v>
+        <v>332.0349326599327</v>
       </c>
       <c r="G32" t="n">
-        <v>403.0</v>
+        <v>415.0</v>
       </c>
       <c r="H32" t="n">
-        <v>131.69836273533457</v>
+        <v>110.67831088664423</v>
       </c>
       <c r="I32" t="n">
-        <v>164.6056338028169</v>
+        <v>138.33333333333334</v>
       </c>
       <c r="J32" t="n">
-        <v>20.79</v>
+        <v>0.0</v>
       </c>
       <c r="K32" t="n">
-        <v>7.425</v>
+        <v>0.0</v>
       </c>
       <c r="L32" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="M32" t="n">
         <v>2016.0</v>
@@ -1457,31 +1457,31 @@
         <v>2800.0</v>
       </c>
       <c r="D33" t="n">
-        <v>7302.0</v>
+        <v>6128.0</v>
       </c>
       <c r="E33" t="n">
-        <v>2607.8571428571427</v>
+        <v>2188.5714285714284</v>
       </c>
       <c r="F33" t="n">
-        <v>316.0332491582492</v>
+        <v>322.4339225589225</v>
       </c>
       <c r="G33" t="n">
-        <v>395.0</v>
+        <v>403.0</v>
       </c>
       <c r="H33" t="n">
-        <v>130.13133788869084</v>
+        <v>131.69836273533457</v>
       </c>
       <c r="I33" t="n">
-        <v>162.64705882352942</v>
+        <v>164.6056338028169</v>
       </c>
       <c r="J33" t="n">
-        <v>45.36</v>
+        <v>20.79</v>
       </c>
       <c r="K33" t="n">
-        <v>16.2</v>
+        <v>7.425</v>
       </c>
       <c r="L33" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="M33" t="n">
         <v>2016.0</v>
@@ -1498,31 +1498,31 @@
         <v>2800.0</v>
       </c>
       <c r="D34" t="n">
-        <v>8864.0</v>
+        <v>7302.0</v>
       </c>
       <c r="E34" t="n">
-        <v>3165.714285714286</v>
+        <v>2607.8571428571427</v>
       </c>
       <c r="F34" t="n">
-        <v>311.2327441077441</v>
+        <v>316.0332491582492</v>
       </c>
       <c r="G34" t="n">
-        <v>389.0</v>
+        <v>395.0</v>
       </c>
       <c r="H34" t="n">
-        <v>133.38546176046177</v>
+        <v>130.13133788869084</v>
       </c>
       <c r="I34" t="n">
-        <v>166.71428571428572</v>
+        <v>162.64705882352942</v>
       </c>
       <c r="J34" t="n">
-        <v>75.60000000000001</v>
+        <v>45.36</v>
       </c>
       <c r="K34" t="n">
-        <v>27.0</v>
+        <v>16.2</v>
       </c>
       <c r="L34" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="M34" t="n">
         <v>2016.0</v>
@@ -1539,31 +1539,31 @@
         <v>2800.0</v>
       </c>
       <c r="D35" t="n">
-        <v>10459.0</v>
+        <v>8864.0</v>
       </c>
       <c r="E35" t="n">
-        <v>3735.3571428571427</v>
+        <v>3165.714285714286</v>
       </c>
       <c r="F35" t="n">
-        <v>304.8320707070707</v>
+        <v>311.2327441077441</v>
       </c>
       <c r="G35" t="n">
-        <v>381.0</v>
+        <v>389.0</v>
       </c>
       <c r="H35" t="n">
-        <v>136.95353901332163</v>
+        <v>133.38546176046177</v>
       </c>
       <c r="I35" t="n">
-        <v>171.17391304347825</v>
+        <v>166.71428571428572</v>
       </c>
       <c r="J35" t="n">
-        <v>139.85999999999999</v>
+        <v>75.60000000000001</v>
       </c>
       <c r="K35" t="n">
-        <v>49.95</v>
+        <v>27.0</v>
       </c>
       <c r="L35" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="M35" t="n">
         <v>2016.0</v>
@@ -1580,31 +1580,31 @@
         <v>2800.0</v>
       </c>
       <c r="D36" t="n">
-        <v>10985.0</v>
+        <v>10459.0</v>
       </c>
       <c r="E36" t="n">
-        <v>3923.214285714286</v>
+        <v>3735.3571428571427</v>
       </c>
       <c r="F36" t="n">
-        <v>303.23190235690237</v>
+        <v>304.8320707070707</v>
       </c>
       <c r="G36" t="n">
-        <v>379.0</v>
+        <v>381.0</v>
       </c>
       <c r="H36" t="n">
-        <v>142.6973658150129</v>
+        <v>136.95353901332163</v>
       </c>
       <c r="I36" t="n">
-        <v>178.35294117647058</v>
+        <v>171.17391304347825</v>
       </c>
       <c r="J36" t="n">
-        <v>136.07999999999998</v>
+        <v>139.85999999999999</v>
       </c>
       <c r="K36" t="n">
-        <v>48.6</v>
+        <v>49.95</v>
       </c>
       <c r="L36" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="M36" t="n">
         <v>2016.0</v>
@@ -1621,22 +1621,22 @@
         <v>2800.0</v>
       </c>
       <c r="D37" t="n">
-        <v>10069.0</v>
+        <v>10985.0</v>
       </c>
       <c r="E37" t="n">
-        <v>3596.0714285714284</v>
+        <v>3923.214285714286</v>
       </c>
       <c r="F37" t="n">
-        <v>304.8320707070707</v>
+        <v>303.23190235690237</v>
       </c>
       <c r="G37" t="n">
-        <v>381.0</v>
+        <v>379.0</v>
       </c>
       <c r="H37" t="n">
-        <v>136.95353901332163</v>
+        <v>142.6973658150129</v>
       </c>
       <c r="I37" t="n">
-        <v>171.17391304347825</v>
+        <v>178.35294117647058</v>
       </c>
       <c r="J37" t="n">
         <v>136.07999999999998</v>
@@ -1645,10 +1645,10 @@
         <v>48.6</v>
       </c>
       <c r="L37" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="M37" t="n">
-        <v>2015.0</v>
+        <v>2016.0</v>
       </c>
     </row>
     <row r="38">
@@ -1662,31 +1662,31 @@
         <v>6150.0</v>
       </c>
       <c r="D38" t="n">
-        <v>17696.0</v>
+        <v>21938.0</v>
       </c>
       <c r="E38" t="n">
-        <v>2877.39837398374</v>
+        <v>3567.1544715447153</v>
       </c>
       <c r="F38" t="n">
-        <v>407.4943310657597</v>
+        <v>408.93424036281175</v>
       </c>
       <c r="G38" t="n">
-        <v>283.0</v>
+        <v>284.0</v>
       </c>
       <c r="H38" t="n">
-        <v>174.6404275996113</v>
+        <v>183.7240790035821</v>
       </c>
       <c r="I38" t="n">
-        <v>121.28571428571429</v>
+        <v>127.59420289855072</v>
       </c>
       <c r="J38" t="n">
-        <v>169.43249999999998</v>
+        <v>204.48749999999998</v>
       </c>
       <c r="K38" t="n">
-        <v>27.549999999999997</v>
+        <v>33.25</v>
       </c>
       <c r="L38" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="M38" t="n">
         <v>2016.0</v>
@@ -1703,31 +1703,31 @@
         <v>6150.0</v>
       </c>
       <c r="D39" t="n">
-        <v>14358.0</v>
+        <v>17696.0</v>
       </c>
       <c r="E39" t="n">
-        <v>2334.6341463414633</v>
+        <v>2877.39837398374</v>
       </c>
       <c r="F39" t="n">
-        <v>406.05442176870747</v>
+        <v>407.4943310657597</v>
       </c>
       <c r="G39" t="n">
-        <v>282.0</v>
+        <v>283.0</v>
       </c>
       <c r="H39" t="n">
-        <v>174.02332361516034</v>
+        <v>174.6404275996113</v>
       </c>
       <c r="I39" t="n">
-        <v>120.85714285714286</v>
+        <v>121.28571428571429</v>
       </c>
       <c r="J39" t="n">
-        <v>82.9635</v>
+        <v>169.43249999999998</v>
       </c>
       <c r="K39" t="n">
-        <v>13.489999999999998</v>
+        <v>27.549999999999997</v>
       </c>
       <c r="L39" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="M39" t="n">
         <v>2016.0</v>
@@ -1744,31 +1744,31 @@
         <v>6150.0</v>
       </c>
       <c r="D40" t="n">
-        <v>12112.0</v>
+        <v>14358.0</v>
       </c>
       <c r="E40" t="n">
-        <v>1969.4308943089432</v>
+        <v>2334.6341463414633</v>
       </c>
       <c r="F40" t="n">
-        <v>416.13378684807265</v>
+        <v>406.05442176870747</v>
       </c>
       <c r="G40" t="n">
         <v>282.0</v>
       </c>
       <c r="H40" t="n">
-        <v>161.8298059964727</v>
+        <v>174.02332361516034</v>
       </c>
       <c r="I40" t="n">
-        <v>112.38888888888889</v>
+        <v>120.85714285714286</v>
       </c>
       <c r="J40" t="n">
-        <v>37.392</v>
+        <v>82.9635</v>
       </c>
       <c r="K40" t="n">
-        <v>6.08</v>
+        <v>13.489999999999998</v>
       </c>
       <c r="L40" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="M40" t="n">
         <v>2016.0</v>
@@ -1785,31 +1785,31 @@
         <v>6150.0</v>
       </c>
       <c r="D41" t="n">
-        <v>7287.0</v>
+        <v>12112.0</v>
       </c>
       <c r="E41" t="n">
-        <v>1184.878048780488</v>
+        <v>1969.4308943089432</v>
       </c>
       <c r="F41" t="n">
-        <v>455.0113378684807</v>
+        <v>416.13378684807265</v>
       </c>
       <c r="G41" t="n">
-        <v>316.0</v>
+        <v>282.0</v>
       </c>
       <c r="H41" t="n">
-        <v>120.95238095238095</v>
+        <v>161.8298059964727</v>
       </c>
       <c r="I41" t="n">
-        <v>84.0</v>
+        <v>112.38888888888889</v>
       </c>
       <c r="J41" t="n">
-        <v>0.0</v>
+        <v>37.392</v>
       </c>
       <c r="K41" t="n">
-        <v>0.0</v>
+        <v>6.08</v>
       </c>
       <c r="L41" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="M41" t="n">
         <v>2016.0</v>
@@ -1826,22 +1826,22 @@
         <v>6150.0</v>
       </c>
       <c r="D42" t="n">
-        <v>8628.0</v>
+        <v>7287.0</v>
       </c>
       <c r="E42" t="n">
-        <v>1402.9268292682927</v>
+        <v>1184.878048780488</v>
       </c>
       <c r="F42" t="n">
-        <v>456.45124716553283</v>
+        <v>455.0113378684807</v>
       </c>
       <c r="G42" t="n">
-        <v>317.0</v>
+        <v>316.0</v>
       </c>
       <c r="H42" t="n">
-        <v>138.91994478951</v>
+        <v>120.95238095238095</v>
       </c>
       <c r="I42" t="n">
-        <v>96.47826086956522</v>
+        <v>84.0</v>
       </c>
       <c r="J42" t="n">
         <v>0.0</v>
@@ -1850,7 +1850,7 @@
         <v>0.0</v>
       </c>
       <c r="L42" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="M42" t="n">
         <v>2016.0</v>
@@ -1867,22 +1867,22 @@
         <v>6150.0</v>
       </c>
       <c r="D43" t="n">
-        <v>11359.0</v>
+        <v>8628.0</v>
       </c>
       <c r="E43" t="n">
-        <v>1846.9918699186992</v>
+        <v>1402.9268292682927</v>
       </c>
       <c r="F43" t="n">
-        <v>444.9319727891156</v>
+        <v>456.45124716553283</v>
       </c>
       <c r="G43" t="n">
-        <v>309.0</v>
+        <v>317.0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.31065759637187</v>
+        <v>138.91994478951</v>
       </c>
       <c r="I43" t="n">
-        <v>103.0</v>
+        <v>96.47826086956522</v>
       </c>
       <c r="J43" t="n">
         <v>0.0</v>
@@ -1891,7 +1891,7 @@
         <v>0.0</v>
       </c>
       <c r="L43" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="M43" t="n">
         <v>2016.0</v>
@@ -1908,31 +1908,31 @@
         <v>6150.0</v>
       </c>
       <c r="D44" t="n">
-        <v>14269.0</v>
+        <v>11359.0</v>
       </c>
       <c r="E44" t="n">
-        <v>2320.162601626016</v>
+        <v>1846.9918699186992</v>
       </c>
       <c r="F44" t="n">
-        <v>439.1723356009071</v>
+        <v>444.9319727891156</v>
       </c>
       <c r="G44" t="n">
-        <v>305.0</v>
+        <v>309.0</v>
       </c>
       <c r="H44" t="n">
-        <v>179.38024975248317</v>
+        <v>148.31065759637187</v>
       </c>
       <c r="I44" t="n">
-        <v>124.5774647887324</v>
+        <v>103.0</v>
       </c>
       <c r="J44" t="n">
-        <v>31.5495</v>
+        <v>0.0</v>
       </c>
       <c r="K44" t="n">
-        <v>5.13</v>
+        <v>0.0</v>
       </c>
       <c r="L44" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="M44" t="n">
         <v>2016.0</v>
@@ -1949,31 +1949,31 @@
         <v>6150.0</v>
       </c>
       <c r="D45" t="n">
-        <v>16389.0</v>
+        <v>14269.0</v>
       </c>
       <c r="E45" t="n">
-        <v>2664.878048780488</v>
+        <v>2320.162601626016</v>
       </c>
       <c r="F45" t="n">
-        <v>416.13378684807265</v>
+        <v>439.1723356009071</v>
       </c>
       <c r="G45" t="n">
-        <v>289.0</v>
+        <v>305.0</v>
       </c>
       <c r="H45" t="n">
-        <v>171.34920634920638</v>
+        <v>179.38024975248317</v>
       </c>
       <c r="I45" t="n">
-        <v>119.0</v>
+        <v>124.5774647887324</v>
       </c>
       <c r="J45" t="n">
-        <v>78.2895</v>
+        <v>31.5495</v>
       </c>
       <c r="K45" t="n">
-        <v>12.73</v>
+        <v>5.13</v>
       </c>
       <c r="L45" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="M45" t="n">
         <v>2016.0</v>
@@ -1990,31 +1990,31 @@
         <v>6150.0</v>
       </c>
       <c r="D46" t="n">
-        <v>19093.0</v>
+        <v>16389.0</v>
       </c>
       <c r="E46" t="n">
-        <v>3104.5528455284552</v>
+        <v>2664.878048780488</v>
       </c>
       <c r="F46" t="n">
-        <v>411.81405895691614</v>
+        <v>416.13378684807265</v>
       </c>
       <c r="G46" t="n">
-        <v>286.0</v>
+        <v>289.0</v>
       </c>
       <c r="H46" t="n">
-        <v>176.49173955296408</v>
+        <v>171.34920634920638</v>
       </c>
       <c r="I46" t="n">
-        <v>122.57142857142857</v>
+        <v>119.0</v>
       </c>
       <c r="J46" t="n">
-        <v>132.0405</v>
+        <v>78.2895</v>
       </c>
       <c r="K46" t="n">
-        <v>21.47</v>
+        <v>12.73</v>
       </c>
       <c r="L46" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="M46" t="n">
         <v>2016.0</v>
@@ -2031,31 +2031,31 @@
         <v>6150.0</v>
       </c>
       <c r="D47" t="n">
-        <v>22184.0</v>
+        <v>19093.0</v>
       </c>
       <c r="E47" t="n">
-        <v>3607.1544715447153</v>
+        <v>3104.5528455284552</v>
       </c>
       <c r="F47" t="n">
-        <v>408.93424036281175</v>
+        <v>411.81405895691614</v>
       </c>
       <c r="G47" t="n">
-        <v>284.0</v>
+        <v>286.0</v>
       </c>
       <c r="H47" t="n">
-        <v>183.7240790035821</v>
+        <v>176.49173955296408</v>
       </c>
       <c r="I47" t="n">
-        <v>127.59420289855072</v>
+        <v>122.57142857142857</v>
       </c>
       <c r="J47" t="n">
-        <v>219.678</v>
+        <v>132.0405</v>
       </c>
       <c r="K47" t="n">
-        <v>35.72</v>
+        <v>21.47</v>
       </c>
       <c r="L47" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="M47" t="n">
         <v>2016.0</v>
@@ -2072,10 +2072,10 @@
         <v>6150.0</v>
       </c>
       <c r="D48" t="n">
-        <v>23646.0</v>
+        <v>22184.0</v>
       </c>
       <c r="E48" t="n">
-        <v>3844.878048780488</v>
+        <v>3607.1544715447153</v>
       </c>
       <c r="F48" t="n">
         <v>408.93424036281175</v>
@@ -2084,19 +2084,19 @@
         <v>284.0</v>
       </c>
       <c r="H48" t="n">
-        <v>192.43964252367613</v>
+        <v>183.7240790035821</v>
       </c>
       <c r="I48" t="n">
-        <v>133.64705882352942</v>
+        <v>127.59420289855072</v>
       </c>
       <c r="J48" t="n">
-        <v>212.667</v>
+        <v>219.678</v>
       </c>
       <c r="K48" t="n">
-        <v>34.58</v>
+        <v>35.72</v>
       </c>
       <c r="L48" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="M48" t="n">
         <v>2016.0</v>
@@ -2113,10 +2113,10 @@
         <v>6150.0</v>
       </c>
       <c r="D49" t="n">
-        <v>21938.0</v>
+        <v>23646.0</v>
       </c>
       <c r="E49" t="n">
-        <v>3567.1544715447153</v>
+        <v>3844.878048780488</v>
       </c>
       <c r="F49" t="n">
         <v>408.93424036281175</v>
@@ -2125,22 +2125,22 @@
         <v>284.0</v>
       </c>
       <c r="H49" t="n">
-        <v>183.7240790035821</v>
+        <v>192.43964252367613</v>
       </c>
       <c r="I49" t="n">
-        <v>127.59420289855072</v>
+        <v>133.64705882352942</v>
       </c>
       <c r="J49" t="n">
-        <v>204.48749999999998</v>
+        <v>212.667</v>
       </c>
       <c r="K49" t="n">
-        <v>33.25</v>
+        <v>34.58</v>
       </c>
       <c r="L49" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="M49" t="n">
-        <v>2015.0</v>
+        <v>2016.0</v>
       </c>
     </row>
     <row r="50">
@@ -2154,31 +2154,31 @@
         <v>6430.0</v>
       </c>
       <c r="D50" t="n">
-        <v>18769.0</v>
+        <v>21903.0</v>
       </c>
       <c r="E50" t="n">
-        <v>2918.9735614307933</v>
+        <v>3406.3763608087093</v>
       </c>
       <c r="F50" t="n">
-        <v>449.9865156418554</v>
+        <v>447.0064724919094</v>
       </c>
       <c r="G50" t="n">
-        <v>302.0</v>
+        <v>300.0</v>
       </c>
       <c r="H50" t="n">
-        <v>192.85136384650946</v>
+        <v>200.82899488766944</v>
       </c>
       <c r="I50" t="n">
-        <v>129.42857142857142</v>
+        <v>134.7826086956522</v>
       </c>
       <c r="J50" t="n">
-        <v>279.705</v>
+        <v>322.14300000000003</v>
       </c>
       <c r="K50" t="n">
-        <v>43.5</v>
+        <v>50.1</v>
       </c>
       <c r="L50" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="M50" t="n">
         <v>2016.0</v>
@@ -2195,31 +2195,31 @@
         <v>6430.0</v>
       </c>
       <c r="D51" t="n">
-        <v>15421.0</v>
+        <v>18769.0</v>
       </c>
       <c r="E51" t="n">
-        <v>2398.2892690513218</v>
+        <v>2918.9735614307933</v>
       </c>
       <c r="F51" t="n">
-        <v>447.0064724919094</v>
+        <v>449.9865156418554</v>
       </c>
       <c r="G51" t="n">
-        <v>300.0</v>
+        <v>302.0</v>
       </c>
       <c r="H51" t="n">
-        <v>191.5742024965326</v>
+        <v>192.85136384650946</v>
       </c>
       <c r="I51" t="n">
-        <v>128.57142857142858</v>
+        <v>129.42857142857142</v>
       </c>
       <c r="J51" t="n">
-        <v>138.50220000000002</v>
+        <v>279.705</v>
       </c>
       <c r="K51" t="n">
-        <v>21.54</v>
+        <v>43.5</v>
       </c>
       <c r="L51" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="M51" t="n">
         <v>2016.0</v>
@@ -2236,31 +2236,31 @@
         <v>6430.0</v>
       </c>
       <c r="D52" t="n">
-        <v>13259.0</v>
+        <v>15421.0</v>
       </c>
       <c r="E52" t="n">
-        <v>2062.052877138414</v>
+        <v>2398.2892690513218</v>
       </c>
       <c r="F52" t="n">
-        <v>469.3567961165048</v>
+        <v>447.0064724919094</v>
       </c>
       <c r="G52" t="n">
         <v>300.0</v>
       </c>
       <c r="H52" t="n">
-        <v>182.5276429341963</v>
+        <v>191.5742024965326</v>
       </c>
       <c r="I52" t="n">
-        <v>122.5</v>
+        <v>128.57142857142858</v>
       </c>
       <c r="J52" t="n">
-        <v>81.018</v>
+        <v>138.50220000000002</v>
       </c>
       <c r="K52" t="n">
-        <v>12.600000000000001</v>
+        <v>21.54</v>
       </c>
       <c r="L52" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="M52" t="n">
         <v>2016.0</v>
@@ -2277,31 +2277,31 @@
         <v>6430.0</v>
       </c>
       <c r="D53" t="n">
-        <v>7801.0</v>
+        <v>13259.0</v>
       </c>
       <c r="E53" t="n">
-        <v>1213.2192846034216</v>
+        <v>2062.052877138414</v>
       </c>
       <c r="F53" t="n">
-        <v>496.1771844660194</v>
+        <v>469.3567961165048</v>
       </c>
       <c r="G53" t="n">
-        <v>333.0</v>
+        <v>300.0</v>
       </c>
       <c r="H53" t="n">
-        <v>131.89520093400515</v>
+        <v>182.5276429341963</v>
       </c>
       <c r="I53" t="n">
-        <v>88.51898734177215</v>
+        <v>122.5</v>
       </c>
       <c r="J53" t="n">
-        <v>0.0</v>
+        <v>81.018</v>
       </c>
       <c r="K53" t="n">
-        <v>0.0</v>
+        <v>12.600000000000001</v>
       </c>
       <c r="L53" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="M53" t="n">
         <v>2016.0</v>
@@ -2318,22 +2318,22 @@
         <v>6430.0</v>
       </c>
       <c r="D54" t="n">
-        <v>9602.0</v>
+        <v>7801.0</v>
       </c>
       <c r="E54" t="n">
-        <v>1493.3125972006221</v>
+        <v>1213.2192846034216</v>
       </c>
       <c r="F54" t="n">
-        <v>497.6672060409925</v>
+        <v>496.1771844660194</v>
       </c>
       <c r="G54" t="n">
-        <v>334.0</v>
+        <v>333.0</v>
       </c>
       <c r="H54" t="n">
-        <v>151.46393227334553</v>
+        <v>131.89520093400515</v>
       </c>
       <c r="I54" t="n">
-        <v>101.65217391304348</v>
+        <v>88.51898734177215</v>
       </c>
       <c r="J54" t="n">
         <v>0.0</v>
@@ -2342,7 +2342,7 @@
         <v>0.0</v>
       </c>
       <c r="L54" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="M54" t="n">
         <v>2016.0</v>
@@ -2359,22 +2359,22 @@
         <v>6430.0</v>
       </c>
       <c r="D55" t="n">
-        <v>12325.0</v>
+        <v>9602.0</v>
       </c>
       <c r="E55" t="n">
-        <v>1916.796267496112</v>
+        <v>1493.3125972006221</v>
       </c>
       <c r="F55" t="n">
-        <v>464.8867313915858</v>
+        <v>497.6672060409925</v>
       </c>
       <c r="G55" t="n">
-        <v>312.0</v>
+        <v>334.0</v>
       </c>
       <c r="H55" t="n">
-        <v>154.96224379719527</v>
+        <v>151.46393227334553</v>
       </c>
       <c r="I55" t="n">
-        <v>104.0</v>
+        <v>101.65217391304348</v>
       </c>
       <c r="J55" t="n">
         <v>0.0</v>
@@ -2383,7 +2383,7 @@
         <v>0.0</v>
       </c>
       <c r="L55" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="M55" t="n">
         <v>2016.0</v>
@@ -2400,31 +2400,31 @@
         <v>6430.0</v>
       </c>
       <c r="D56" t="n">
-        <v>15212.0</v>
+        <v>12325.0</v>
       </c>
       <c r="E56" t="n">
-        <v>2365.7853810264387</v>
+        <v>1916.796267496112</v>
       </c>
       <c r="F56" t="n">
-        <v>458.9266450916937</v>
+        <v>464.8867313915858</v>
       </c>
       <c r="G56" t="n">
-        <v>308.0</v>
+        <v>312.0</v>
       </c>
       <c r="H56" t="n">
-        <v>187.44891137548052</v>
+        <v>154.96224379719527</v>
       </c>
       <c r="I56" t="n">
-        <v>125.80281690140845</v>
+        <v>104.0</v>
       </c>
       <c r="J56" t="n">
-        <v>60.184799999999996</v>
+        <v>0.0</v>
       </c>
       <c r="K56" t="n">
-        <v>9.36</v>
+        <v>0.0</v>
       </c>
       <c r="L56" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="M56" t="n">
         <v>2016.0</v>
@@ -2441,31 +2441,31 @@
         <v>6430.0</v>
       </c>
       <c r="D57" t="n">
-        <v>17060.0</v>
+        <v>15212.0</v>
       </c>
       <c r="E57" t="n">
-        <v>2653.1881804043546</v>
+        <v>2365.7853810264387</v>
       </c>
       <c r="F57" t="n">
-        <v>449.9865156418554</v>
+        <v>458.9266450916937</v>
       </c>
       <c r="G57" t="n">
-        <v>302.0</v>
+        <v>308.0</v>
       </c>
       <c r="H57" t="n">
-        <v>185.2885652642934</v>
+        <v>187.44891137548052</v>
       </c>
       <c r="I57" t="n">
-        <v>124.3529411764706</v>
+        <v>125.80281690140845</v>
       </c>
       <c r="J57" t="n">
-        <v>125.385</v>
+        <v>60.184799999999996</v>
       </c>
       <c r="K57" t="n">
-        <v>19.5</v>
+        <v>9.36</v>
       </c>
       <c r="L57" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="M57" t="n">
         <v>2016.0</v>
@@ -2482,31 +2482,31 @@
         <v>6430.0</v>
       </c>
       <c r="D58" t="n">
-        <v>20098.0</v>
+        <v>17060.0</v>
       </c>
       <c r="E58" t="n">
-        <v>3125.660964230171</v>
+        <v>2653.1881804043546</v>
       </c>
       <c r="F58" t="n">
-        <v>447.0064724919094</v>
+        <v>449.9865156418554</v>
       </c>
       <c r="G58" t="n">
-        <v>300.0</v>
+        <v>302.0</v>
       </c>
       <c r="H58" t="n">
-        <v>191.5742024965326</v>
+        <v>185.2885652642934</v>
       </c>
       <c r="I58" t="n">
-        <v>128.57142857142858</v>
+        <v>124.3529411764706</v>
       </c>
       <c r="J58" t="n">
-        <v>216.048</v>
+        <v>125.385</v>
       </c>
       <c r="K58" t="n">
-        <v>33.6</v>
+        <v>19.5</v>
       </c>
       <c r="L58" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="M58" t="n">
         <v>2016.0</v>
@@ -2523,31 +2523,31 @@
         <v>6430.0</v>
       </c>
       <c r="D59" t="n">
-        <v>23189.0</v>
+        <v>20098.0</v>
       </c>
       <c r="E59" t="n">
-        <v>3606.3763608087093</v>
+        <v>3125.660964230171</v>
       </c>
       <c r="F59" t="n">
-        <v>448.49649406688235</v>
+        <v>447.0064724919094</v>
       </c>
       <c r="G59" t="n">
-        <v>301.0</v>
+        <v>300.0</v>
       </c>
       <c r="H59" t="n">
-        <v>201.49842487062833</v>
+        <v>191.5742024965326</v>
       </c>
       <c r="I59" t="n">
-        <v>135.231884057971</v>
+        <v>128.57142857142858</v>
       </c>
       <c r="J59" t="n">
-        <v>362.652</v>
+        <v>216.048</v>
       </c>
       <c r="K59" t="n">
-        <v>56.4</v>
+        <v>33.6</v>
       </c>
       <c r="L59" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="M59" t="n">
         <v>2016.0</v>
@@ -2564,10 +2564,10 @@
         <v>6430.0</v>
       </c>
       <c r="D60" t="n">
-        <v>24623.0</v>
+        <v>23189.0</v>
       </c>
       <c r="E60" t="n">
-        <v>3829.393468118196</v>
+        <v>3606.3763608087093</v>
       </c>
       <c r="F60" t="n">
         <v>448.49649406688235</v>
@@ -2576,19 +2576,19 @@
         <v>301.0</v>
       </c>
       <c r="H60" t="n">
-        <v>211.05717367853288</v>
+        <v>201.49842487062833</v>
       </c>
       <c r="I60" t="n">
-        <v>141.64705882352942</v>
+        <v>135.231884057971</v>
       </c>
       <c r="J60" t="n">
-        <v>343.36199999999997</v>
+        <v>362.652</v>
       </c>
       <c r="K60" t="n">
-        <v>53.4</v>
+        <v>56.4</v>
       </c>
       <c r="L60" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="M60" t="n">
         <v>2016.0</v>
@@ -2605,34 +2605,34 @@
         <v>6430.0</v>
       </c>
       <c r="D61" t="n">
-        <v>21903.0</v>
+        <v>24623.0</v>
       </c>
       <c r="E61" t="n">
-        <v>3406.3763608087093</v>
+        <v>3829.393468118196</v>
       </c>
       <c r="F61" t="n">
-        <v>447.0064724919094</v>
+        <v>448.49649406688235</v>
       </c>
       <c r="G61" t="n">
-        <v>300.0</v>
+        <v>301.0</v>
       </c>
       <c r="H61" t="n">
-        <v>200.82899488766944</v>
+        <v>211.05717367853288</v>
       </c>
       <c r="I61" t="n">
-        <v>134.7826086956522</v>
+        <v>141.64705882352942</v>
       </c>
       <c r="J61" t="n">
-        <v>322.14300000000003</v>
+        <v>343.36199999999997</v>
       </c>
       <c r="K61" t="n">
-        <v>50.1</v>
+        <v>53.4</v>
       </c>
       <c r="L61" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="M61" t="n">
-        <v>2015.0</v>
+        <v>2016.0</v>
       </c>
     </row>
     <row r="62">
@@ -2646,31 +2646,31 @@
         <v>6435.0</v>
       </c>
       <c r="D62" t="n">
-        <v>19002.0</v>
+        <v>22231.0</v>
       </c>
       <c r="E62" t="n">
-        <v>2952.913752913753</v>
+        <v>3454.7008547008545</v>
       </c>
       <c r="F62" t="n">
-        <v>341.44415204678364</v>
+        <v>347.74385964912284</v>
       </c>
       <c r="G62" t="n">
-        <v>271.0</v>
+        <v>276.0</v>
       </c>
       <c r="H62" t="n">
-        <v>146.33320802005014</v>
+        <v>156.23274853801172</v>
       </c>
       <c r="I62" t="n">
-        <v>116.14285714285714</v>
+        <v>124.0</v>
       </c>
       <c r="J62" t="n">
-        <v>225.22500000000002</v>
+        <v>281.53125</v>
       </c>
       <c r="K62" t="n">
-        <v>35.0</v>
+        <v>43.75</v>
       </c>
       <c r="L62" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="M62" t="n">
         <v>2016.0</v>
@@ -2687,31 +2687,31 @@
         <v>6435.0</v>
       </c>
       <c r="D63" t="n">
-        <v>15682.0</v>
+        <v>19002.0</v>
       </c>
       <c r="E63" t="n">
-        <v>2436.985236985237</v>
+        <v>2952.913752913753</v>
       </c>
       <c r="F63" t="n">
-        <v>342.70409356725145</v>
+        <v>341.44415204678364</v>
       </c>
       <c r="G63" t="n">
-        <v>272.0</v>
+        <v>271.0</v>
       </c>
       <c r="H63" t="n">
-        <v>146.87318295739348</v>
+        <v>146.33320802005014</v>
       </c>
       <c r="I63" t="n">
-        <v>116.57142857142857</v>
+        <v>116.14285714285714</v>
       </c>
       <c r="J63" t="n">
-        <v>107.78625000000001</v>
+        <v>225.22500000000002</v>
       </c>
       <c r="K63" t="n">
-        <v>16.75</v>
+        <v>35.0</v>
       </c>
       <c r="L63" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="M63" t="n">
         <v>2016.0</v>
@@ -2728,31 +2728,31 @@
         <v>6435.0</v>
       </c>
       <c r="D64" t="n">
-        <v>13597.0</v>
+        <v>15682.0</v>
       </c>
       <c r="E64" t="n">
-        <v>2112.975912975913</v>
+        <v>2436.985236985237</v>
       </c>
       <c r="F64" t="n">
-        <v>360.3432748538011</v>
+        <v>342.70409356725145</v>
       </c>
       <c r="G64" t="n">
         <v>272.0</v>
       </c>
       <c r="H64" t="n">
-        <v>140.1334957764782</v>
+        <v>146.87318295739348</v>
       </c>
       <c r="I64" t="n">
-        <v>111.22222222222223</v>
+        <v>116.57142857142857</v>
       </c>
       <c r="J64" t="n">
-        <v>59.52375</v>
+        <v>107.78625000000001</v>
       </c>
       <c r="K64" t="n">
-        <v>9.25</v>
+        <v>16.75</v>
       </c>
       <c r="L64" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="M64" t="n">
         <v>2016.0</v>
@@ -2769,31 +2769,31 @@
         <v>6435.0</v>
       </c>
       <c r="D65" t="n">
-        <v>8264.0</v>
+        <v>13597.0</v>
       </c>
       <c r="E65" t="n">
-        <v>1284.2268842268843</v>
+        <v>2112.975912975913</v>
       </c>
       <c r="F65" t="n">
-        <v>393.1017543859649</v>
+        <v>360.3432748538011</v>
       </c>
       <c r="G65" t="n">
-        <v>312.0</v>
+        <v>272.0</v>
       </c>
       <c r="H65" t="n">
-        <v>104.49540306462359</v>
+        <v>140.1334957764782</v>
       </c>
       <c r="I65" t="n">
-        <v>82.9367088607595</v>
+        <v>111.22222222222223</v>
       </c>
       <c r="J65" t="n">
-        <v>0.0</v>
+        <v>59.52375</v>
       </c>
       <c r="K65" t="n">
-        <v>0.0</v>
+        <v>9.25</v>
       </c>
       <c r="L65" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="M65" t="n">
         <v>2016.0</v>
@@ -2810,22 +2810,22 @@
         <v>6435.0</v>
       </c>
       <c r="D66" t="n">
-        <v>9992.0</v>
+        <v>8264.0</v>
       </c>
       <c r="E66" t="n">
-        <v>1552.7583527583527</v>
+        <v>1284.2268842268843</v>
       </c>
       <c r="F66" t="n">
-        <v>390.5818713450292</v>
+        <v>393.1017543859649</v>
       </c>
       <c r="G66" t="n">
-        <v>310.0</v>
+        <v>312.0</v>
       </c>
       <c r="H66" t="n">
-        <v>118.87274345283497</v>
+        <v>104.49540306462359</v>
       </c>
       <c r="I66" t="n">
-        <v>94.34782608695652</v>
+        <v>82.9367088607595</v>
       </c>
       <c r="J66" t="n">
         <v>0.0</v>
@@ -2834,7 +2834,7 @@
         <v>0.0</v>
       </c>
       <c r="L66" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="M66" t="n">
         <v>2016.0</v>
@@ -2851,22 +2851,22 @@
         <v>6435.0</v>
       </c>
       <c r="D67" t="n">
-        <v>12759.0</v>
+        <v>9992.0</v>
       </c>
       <c r="E67" t="n">
-        <v>1982.7505827505827</v>
+        <v>1552.7583527583527</v>
       </c>
       <c r="F67" t="n">
-        <v>365.38304093567245</v>
+        <v>390.5818713450292</v>
       </c>
       <c r="G67" t="n">
-        <v>290.0</v>
+        <v>310.0</v>
       </c>
       <c r="H67" t="n">
-        <v>121.79434697855748</v>
+        <v>118.87274345283497</v>
       </c>
       <c r="I67" t="n">
-        <v>96.66666666666667</v>
+        <v>94.34782608695652</v>
       </c>
       <c r="J67" t="n">
         <v>0.0</v>
@@ -2875,7 +2875,7 @@
         <v>0.0</v>
       </c>
       <c r="L67" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="M67" t="n">
         <v>2016.0</v>
@@ -2892,31 +2892,31 @@
         <v>6435.0</v>
       </c>
       <c r="D68" t="n">
-        <v>15503.0</v>
+        <v>12759.0</v>
       </c>
       <c r="E68" t="n">
-        <v>2409.1686091686092</v>
+        <v>1982.7505827505827</v>
       </c>
       <c r="F68" t="n">
-        <v>359.08333333333337</v>
+        <v>365.38304093567245</v>
       </c>
       <c r="G68" t="n">
-        <v>285.0</v>
+        <v>290.0</v>
       </c>
       <c r="H68" t="n">
-        <v>146.66784037558688</v>
+        <v>121.79434697855748</v>
       </c>
       <c r="I68" t="n">
-        <v>116.40845070422536</v>
+        <v>96.66666666666667</v>
       </c>
       <c r="J68" t="n">
-        <v>43.43625</v>
+        <v>0.0</v>
       </c>
       <c r="K68" t="n">
-        <v>6.75</v>
+        <v>0.0</v>
       </c>
       <c r="L68" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="M68" t="n">
         <v>2016.0</v>
@@ -2933,31 +2933,31 @@
         <v>6435.0</v>
       </c>
       <c r="D69" t="n">
-        <v>17264.0</v>
+        <v>15503.0</v>
       </c>
       <c r="E69" t="n">
-        <v>2682.8282828282827</v>
+        <v>2409.1686091686092</v>
       </c>
       <c r="F69" t="n">
-        <v>355.30350877192984</v>
+        <v>359.08333333333337</v>
       </c>
       <c r="G69" t="n">
-        <v>282.0</v>
+        <v>285.0</v>
       </c>
       <c r="H69" t="n">
-        <v>146.3014447884417</v>
+        <v>146.66784037558688</v>
       </c>
       <c r="I69" t="n">
-        <v>116.11764705882354</v>
+        <v>116.40845070422536</v>
       </c>
       <c r="J69" t="n">
-        <v>123.87375</v>
+        <v>43.43625</v>
       </c>
       <c r="K69" t="n">
-        <v>19.25</v>
+        <v>6.75</v>
       </c>
       <c r="L69" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="M69" t="n">
         <v>2016.0</v>
@@ -2974,31 +2974,31 @@
         <v>6435.0</v>
       </c>
       <c r="D70" t="n">
-        <v>20264.0</v>
+        <v>17264.0</v>
       </c>
       <c r="E70" t="n">
-        <v>3149.028749028749</v>
+        <v>2682.8282828282827</v>
       </c>
       <c r="F70" t="n">
-        <v>352.7836257309942</v>
+        <v>355.30350877192984</v>
       </c>
       <c r="G70" t="n">
-        <v>280.0</v>
+        <v>282.0</v>
       </c>
       <c r="H70" t="n">
-        <v>151.19298245614036</v>
+        <v>146.3014447884417</v>
       </c>
       <c r="I70" t="n">
-        <v>120.0</v>
+        <v>116.11764705882354</v>
       </c>
       <c r="J70" t="n">
-        <v>168.91875</v>
+        <v>123.87375</v>
       </c>
       <c r="K70" t="n">
-        <v>26.25</v>
+        <v>19.25</v>
       </c>
       <c r="L70" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="M70" t="n">
         <v>2016.0</v>
@@ -3015,31 +3015,31 @@
         <v>6435.0</v>
       </c>
       <c r="D71" t="n">
-        <v>23421.0</v>
+        <v>20264.0</v>
       </c>
       <c r="E71" t="n">
-        <v>3639.6270396270397</v>
+        <v>3149.028749028749</v>
       </c>
       <c r="F71" t="n">
-        <v>351.52368421052626</v>
+        <v>352.7836257309942</v>
       </c>
       <c r="G71" t="n">
-        <v>279.0</v>
+        <v>280.0</v>
       </c>
       <c r="H71" t="n">
-        <v>157.93093058733788</v>
+        <v>151.19298245614036</v>
       </c>
       <c r="I71" t="n">
-        <v>125.34782608695652</v>
+        <v>120.0</v>
       </c>
       <c r="J71" t="n">
-        <v>305.6625</v>
+        <v>168.91875</v>
       </c>
       <c r="K71" t="n">
-        <v>47.5</v>
+        <v>26.25</v>
       </c>
       <c r="L71" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="M71" t="n">
         <v>2016.0</v>
@@ -3056,31 +3056,31 @@
         <v>6435.0</v>
       </c>
       <c r="D72" t="n">
-        <v>24856.0</v>
+        <v>23421.0</v>
       </c>
       <c r="E72" t="n">
-        <v>3862.626262626263</v>
+        <v>3639.6270396270397</v>
       </c>
       <c r="F72" t="n">
-        <v>349.0038011695906</v>
+        <v>351.52368421052626</v>
       </c>
       <c r="G72" t="n">
-        <v>277.0</v>
+        <v>279.0</v>
       </c>
       <c r="H72" t="n">
-        <v>164.23708290333676</v>
+        <v>157.93093058733788</v>
       </c>
       <c r="I72" t="n">
-        <v>130.35294117647058</v>
+        <v>125.34782608695652</v>
       </c>
       <c r="J72" t="n">
-        <v>292.7925</v>
+        <v>305.6625</v>
       </c>
       <c r="K72" t="n">
-        <v>45.5</v>
+        <v>47.5</v>
       </c>
       <c r="L72" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="M72" t="n">
         <v>2016.0</v>
@@ -3097,34 +3097,34 @@
         <v>6435.0</v>
       </c>
       <c r="D73" t="n">
-        <v>22231.0</v>
+        <v>24856.0</v>
       </c>
       <c r="E73" t="n">
-        <v>3454.7008547008545</v>
+        <v>3862.626262626263</v>
       </c>
       <c r="F73" t="n">
-        <v>347.74385964912284</v>
+        <v>349.0038011695906</v>
       </c>
       <c r="G73" t="n">
-        <v>276.0</v>
+        <v>277.0</v>
       </c>
       <c r="H73" t="n">
-        <v>156.23274853801172</v>
+        <v>164.23708290333676</v>
       </c>
       <c r="I73" t="n">
-        <v>124.0</v>
+        <v>130.35294117647058</v>
       </c>
       <c r="J73" t="n">
-        <v>281.53125</v>
+        <v>292.7925</v>
       </c>
       <c r="K73" t="n">
-        <v>43.75</v>
+        <v>45.5</v>
       </c>
       <c r="L73" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="M73" t="n">
-        <v>2015.0</v>
+        <v>2016.0</v>
       </c>
     </row>
     <row r="74">
@@ -3138,31 +3138,31 @@
         <v>5890.0</v>
       </c>
       <c r="D74" t="n">
-        <v>17059.0</v>
+        <v>21498.0</v>
       </c>
       <c r="E74" t="n">
-        <v>2896.264855687606</v>
+        <v>3649.9151103565364</v>
       </c>
       <c r="F74" t="n">
-        <v>390.31677890011224</v>
+        <v>388.9567901234568</v>
       </c>
       <c r="G74" t="n">
-        <v>287.0</v>
+        <v>286.0</v>
       </c>
       <c r="H74" t="n">
-        <v>167.27861952861952</v>
+        <v>174.74870280908928</v>
       </c>
       <c r="I74" t="n">
-        <v>123.0</v>
+        <v>128.4927536231884</v>
       </c>
       <c r="J74" t="n">
-        <v>189.65800000000002</v>
+        <v>237.0725</v>
       </c>
       <c r="K74" t="n">
-        <v>32.2</v>
+        <v>40.25</v>
       </c>
       <c r="L74" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="M74" t="n">
         <v>2016.0</v>
@@ -3179,31 +3179,31 @@
         <v>5890.0</v>
       </c>
       <c r="D75" t="n">
-        <v>13859.0</v>
+        <v>17059.0</v>
       </c>
       <c r="E75" t="n">
-        <v>2352.9711375212223</v>
+        <v>2896.264855687606</v>
       </c>
       <c r="F75" t="n">
-        <v>393.03675645342315</v>
+        <v>390.31677890011224</v>
       </c>
       <c r="G75" t="n">
-        <v>289.0</v>
+        <v>287.0</v>
       </c>
       <c r="H75" t="n">
-        <v>168.4443241943242</v>
+        <v>167.27861952861952</v>
       </c>
       <c r="I75" t="n">
-        <v>123.85714285714286</v>
+        <v>123.0</v>
       </c>
       <c r="J75" t="n">
-        <v>97.5384</v>
+        <v>189.65800000000002</v>
       </c>
       <c r="K75" t="n">
-        <v>16.56</v>
+        <v>32.2</v>
       </c>
       <c r="L75" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="M75" t="n">
         <v>2016.0</v>
@@ -3220,31 +3220,31 @@
         <v>5890.0</v>
       </c>
       <c r="D76" t="n">
-        <v>11598.0</v>
+        <v>13859.0</v>
       </c>
       <c r="E76" t="n">
-        <v>1969.100169779287</v>
+        <v>2352.9711375212223</v>
       </c>
       <c r="F76" t="n">
-        <v>406.63664421997754</v>
+        <v>393.03675645342315</v>
       </c>
       <c r="G76" t="n">
         <v>289.0</v>
       </c>
       <c r="H76" t="n">
-        <v>158.1364727522135</v>
+        <v>168.4443241943242</v>
       </c>
       <c r="I76" t="n">
-        <v>116.27777777777777</v>
+        <v>123.85714285714286</v>
       </c>
       <c r="J76" t="n">
-        <v>42.67305</v>
+        <v>97.5384</v>
       </c>
       <c r="K76" t="n">
-        <v>7.245</v>
+        <v>16.56</v>
       </c>
       <c r="L76" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="M76" t="n">
         <v>2016.0</v>
@@ -3261,31 +3261,31 @@
         <v>5890.0</v>
       </c>
       <c r="D77" t="n">
-        <v>6921.0</v>
+        <v>11598.0</v>
       </c>
       <c r="E77" t="n">
-        <v>1175.0424448217318</v>
+        <v>1969.100169779287</v>
       </c>
       <c r="F77" t="n">
-        <v>436.55639730639734</v>
+        <v>406.63664421997754</v>
       </c>
       <c r="G77" t="n">
-        <v>321.0</v>
+        <v>289.0</v>
       </c>
       <c r="H77" t="n">
-        <v>116.04663725866259</v>
+        <v>158.1364727522135</v>
       </c>
       <c r="I77" t="n">
-        <v>85.32911392405063</v>
+        <v>116.27777777777777</v>
       </c>
       <c r="J77" t="n">
-        <v>0.0</v>
+        <v>42.67305</v>
       </c>
       <c r="K77" t="n">
-        <v>0.0</v>
+        <v>7.245</v>
       </c>
       <c r="L77" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="M77" t="n">
         <v>2016.0</v>
@@ -3302,22 +3302,22 @@
         <v>5890.0</v>
       </c>
       <c r="D78" t="n">
-        <v>8169.0</v>
+        <v>6921.0</v>
       </c>
       <c r="E78" t="n">
-        <v>1386.9269949066213</v>
+        <v>1175.0424448217318</v>
       </c>
       <c r="F78" t="n">
-        <v>432.47643097643095</v>
+        <v>436.55639730639734</v>
       </c>
       <c r="G78" t="n">
-        <v>318.0</v>
+        <v>321.0</v>
       </c>
       <c r="H78" t="n">
-        <v>131.62326160152244</v>
+        <v>116.04663725866259</v>
       </c>
       <c r="I78" t="n">
-        <v>96.78260869565217</v>
+        <v>85.32911392405063</v>
       </c>
       <c r="J78" t="n">
         <v>0.0</v>
@@ -3326,7 +3326,7 @@
         <v>0.0</v>
       </c>
       <c r="L78" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="M78" t="n">
         <v>2016.0</v>
@@ -3343,22 +3343,22 @@
         <v>5890.0</v>
       </c>
       <c r="D79" t="n">
-        <v>10759.0</v>
+        <v>8169.0</v>
       </c>
       <c r="E79" t="n">
-        <v>1826.6553480475382</v>
+        <v>1386.9269949066213</v>
       </c>
       <c r="F79" t="n">
-        <v>410.7166105499439</v>
+        <v>432.47643097643095</v>
       </c>
       <c r="G79" t="n">
-        <v>302.0</v>
+        <v>318.0</v>
       </c>
       <c r="H79" t="n">
-        <v>136.9055368499813</v>
+        <v>131.62326160152244</v>
       </c>
       <c r="I79" t="n">
-        <v>100.66666666666667</v>
+        <v>96.78260869565217</v>
       </c>
       <c r="J79" t="n">
         <v>0.0</v>
@@ -3367,7 +3367,7 @@
         <v>0.0</v>
       </c>
       <c r="L79" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="M79" t="n">
         <v>2016.0</v>
@@ -3384,31 +3384,31 @@
         <v>5890.0</v>
       </c>
       <c r="D80" t="n">
-        <v>13864.0</v>
+        <v>10759.0</v>
       </c>
       <c r="E80" t="n">
-        <v>2353.8200339558575</v>
+        <v>1826.6553480475382</v>
       </c>
       <c r="F80" t="n">
-        <v>405.27665544332217</v>
+        <v>410.7166105499439</v>
       </c>
       <c r="G80" t="n">
-        <v>298.0</v>
+        <v>302.0</v>
       </c>
       <c r="H80" t="n">
-        <v>165.53553532192032</v>
+        <v>136.9055368499813</v>
       </c>
       <c r="I80" t="n">
-        <v>121.71830985915493</v>
+        <v>100.66666666666667</v>
       </c>
       <c r="J80" t="n">
-        <v>37.25425</v>
+        <v>0.0</v>
       </c>
       <c r="K80" t="n">
-        <v>6.325</v>
+        <v>0.0</v>
       </c>
       <c r="L80" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="M80" t="n">
         <v>2016.0</v>
@@ -3425,31 +3425,31 @@
         <v>5890.0</v>
       </c>
       <c r="D81" t="n">
-        <v>15526.0</v>
+        <v>13864.0</v>
       </c>
       <c r="E81" t="n">
-        <v>2635.9932088285227</v>
+        <v>2353.8200339558575</v>
       </c>
       <c r="F81" t="n">
-        <v>403.91666666666674</v>
+        <v>405.27665544332217</v>
       </c>
       <c r="G81" t="n">
-        <v>297.0</v>
+        <v>298.0</v>
       </c>
       <c r="H81" t="n">
-        <v>166.31862745098042</v>
+        <v>165.53553532192032</v>
       </c>
       <c r="I81" t="n">
-        <v>122.29411764705883</v>
+        <v>121.71830985915493</v>
       </c>
       <c r="J81" t="n">
-        <v>97.5384</v>
+        <v>37.25425</v>
       </c>
       <c r="K81" t="n">
-        <v>16.56</v>
+        <v>6.325</v>
       </c>
       <c r="L81" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="M81" t="n">
         <v>2016.0</v>
@@ -3466,31 +3466,31 @@
         <v>5890.0</v>
       </c>
       <c r="D82" t="n">
-        <v>18529.0</v>
+        <v>15526.0</v>
       </c>
       <c r="E82" t="n">
-        <v>3145.8404074702885</v>
+        <v>2635.9932088285227</v>
       </c>
       <c r="F82" t="n">
-        <v>395.75673400673395</v>
+        <v>403.91666666666674</v>
       </c>
       <c r="G82" t="n">
-        <v>291.0</v>
+        <v>297.0</v>
       </c>
       <c r="H82" t="n">
-        <v>169.61002886002882</v>
+        <v>166.31862745098042</v>
       </c>
       <c r="I82" t="n">
-        <v>124.71428571428571</v>
+        <v>122.29411764705883</v>
       </c>
       <c r="J82" t="n">
-        <v>155.7905</v>
+        <v>97.5384</v>
       </c>
       <c r="K82" t="n">
-        <v>26.450000000000003</v>
+        <v>16.56</v>
       </c>
       <c r="L82" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="M82" t="n">
         <v>2016.0</v>
@@ -3507,31 +3507,31 @@
         <v>5890.0</v>
       </c>
       <c r="D83" t="n">
-        <v>21789.0</v>
+        <v>18529.0</v>
       </c>
       <c r="E83" t="n">
-        <v>3699.320882852292</v>
+        <v>3145.8404074702885</v>
       </c>
       <c r="F83" t="n">
-        <v>391.6767676767677</v>
+        <v>395.75673400673395</v>
       </c>
       <c r="G83" t="n">
-        <v>288.0</v>
+        <v>291.0</v>
       </c>
       <c r="H83" t="n">
-        <v>175.97072170985214</v>
+        <v>169.61002886002882</v>
       </c>
       <c r="I83" t="n">
-        <v>129.3913043478261</v>
+        <v>124.71428571428571</v>
       </c>
       <c r="J83" t="n">
-        <v>250.61950000000002</v>
+        <v>155.7905</v>
       </c>
       <c r="K83" t="n">
-        <v>42.55</v>
+        <v>26.450000000000003</v>
       </c>
       <c r="L83" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="M83" t="n">
         <v>2016.0</v>
@@ -3548,10 +3548,10 @@
         <v>5890.0</v>
       </c>
       <c r="D84" t="n">
-        <v>23589.0</v>
+        <v>21789.0</v>
       </c>
       <c r="E84" t="n">
-        <v>4004.9235993208827</v>
+        <v>3699.320882852292</v>
       </c>
       <c r="F84" t="n">
         <v>391.6767676767677</v>
@@ -3560,19 +3560,19 @@
         <v>288.0</v>
       </c>
       <c r="H84" t="n">
-        <v>184.31847890671423</v>
+        <v>175.97072170985214</v>
       </c>
       <c r="I84" t="n">
-        <v>135.52941176470588</v>
+        <v>129.3913043478261</v>
       </c>
       <c r="J84" t="n">
-        <v>246.5554</v>
+        <v>250.61950000000002</v>
       </c>
       <c r="K84" t="n">
-        <v>41.86</v>
+        <v>42.55</v>
       </c>
       <c r="L84" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="M84" t="n">
         <v>2016.0</v>
@@ -3589,34 +3589,34 @@
         <v>5890.0</v>
       </c>
       <c r="D85" t="n">
-        <v>21498.0</v>
+        <v>23589.0</v>
       </c>
       <c r="E85" t="n">
-        <v>3649.9151103565364</v>
+        <v>4004.9235993208827</v>
       </c>
       <c r="F85" t="n">
-        <v>388.9567901234568</v>
+        <v>391.6767676767677</v>
       </c>
       <c r="G85" t="n">
-        <v>286.0</v>
+        <v>288.0</v>
       </c>
       <c r="H85" t="n">
-        <v>174.74870280908928</v>
+        <v>184.31847890671423</v>
       </c>
       <c r="I85" t="n">
-        <v>128.4927536231884</v>
+        <v>135.52941176470588</v>
       </c>
       <c r="J85" t="n">
-        <v>237.0725</v>
+        <v>246.5554</v>
       </c>
       <c r="K85" t="n">
-        <v>40.25</v>
+        <v>41.86</v>
       </c>
       <c r="L85" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="M85" t="n">
-        <v>2015.0</v>
+        <v>2016.0</v>
       </c>
     </row>
     <row r="86">
@@ -3630,31 +3630,31 @@
         <v>4980.0</v>
       </c>
       <c r="D86" t="n">
-        <v>15074.0</v>
+        <v>18898.0</v>
       </c>
       <c r="E86" t="n">
-        <v>3026.9076305220883</v>
+        <v>3794.7791164658634</v>
       </c>
       <c r="F86" t="n">
-        <v>334.61798679867985</v>
+        <v>333.46809680968096</v>
       </c>
       <c r="G86" t="n">
-        <v>291.0</v>
+        <v>290.0</v>
       </c>
       <c r="H86" t="n">
-        <v>143.40770862800565</v>
+        <v>149.8190000159436</v>
       </c>
       <c r="I86" t="n">
-        <v>124.71428571428571</v>
+        <v>130.28985507246378</v>
       </c>
       <c r="J86" t="n">
-        <v>259.707</v>
+        <v>311.997</v>
       </c>
       <c r="K86" t="n">
-        <v>52.15</v>
+        <v>62.65</v>
       </c>
       <c r="L86" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="M86" t="n">
         <v>2016.0</v>
@@ -3671,31 +3671,31 @@
         <v>4980.0</v>
       </c>
       <c r="D87" t="n">
-        <v>12098.0</v>
+        <v>15074.0</v>
       </c>
       <c r="E87" t="n">
-        <v>2429.3172690763054</v>
+        <v>3026.9076305220883</v>
       </c>
       <c r="F87" t="n">
-        <v>333.46809680968096</v>
+        <v>334.61798679867985</v>
       </c>
       <c r="G87" t="n">
-        <v>290.0</v>
+        <v>291.0</v>
       </c>
       <c r="H87" t="n">
-        <v>142.91489863272042</v>
+        <v>143.40770862800565</v>
       </c>
       <c r="I87" t="n">
-        <v>124.28571428571429</v>
+        <v>124.71428571428571</v>
       </c>
       <c r="J87" t="n">
-        <v>132.468</v>
+        <v>259.707</v>
       </c>
       <c r="K87" t="n">
-        <v>26.599999999999998</v>
+        <v>52.15</v>
       </c>
       <c r="L87" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="M87" t="n">
         <v>2016.0</v>
@@ -3712,31 +3712,31 @@
         <v>4980.0</v>
       </c>
       <c r="D88" t="n">
-        <v>11194.0</v>
+        <v>12098.0</v>
       </c>
       <c r="E88" t="n">
-        <v>2247.7911646586344</v>
+        <v>2429.3172690763054</v>
       </c>
       <c r="F88" t="n">
-        <v>342.66721672167216</v>
+        <v>333.46809680968096</v>
       </c>
       <c r="G88" t="n">
         <v>290.0</v>
       </c>
       <c r="H88" t="n">
-        <v>133.25947316953918</v>
+        <v>142.91489863272042</v>
       </c>
       <c r="I88" t="n">
-        <v>115.88888888888889</v>
+        <v>124.28571428571429</v>
       </c>
       <c r="J88" t="n">
-        <v>69.72</v>
+        <v>132.468</v>
       </c>
       <c r="K88" t="n">
-        <v>14.0</v>
+        <v>26.599999999999998</v>
       </c>
       <c r="L88" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="M88" t="n">
         <v>2016.0</v>
@@ -3753,31 +3753,31 @@
         <v>4980.0</v>
       </c>
       <c r="D89" t="n">
-        <v>4028.0</v>
+        <v>11194.0</v>
       </c>
       <c r="E89" t="n">
-        <v>808.8353413654619</v>
+        <v>2247.7911646586344</v>
       </c>
       <c r="F89" t="n">
-        <v>378.313806380638</v>
+        <v>342.66721672167216</v>
       </c>
       <c r="G89" t="n">
-        <v>329.0</v>
+        <v>290.0</v>
       </c>
       <c r="H89" t="n">
-        <v>100.56442954422023</v>
+        <v>133.25947316953918</v>
       </c>
       <c r="I89" t="n">
-        <v>87.45569620253164</v>
+        <v>115.88888888888889</v>
       </c>
       <c r="J89" t="n">
-        <v>0.0</v>
+        <v>69.72</v>
       </c>
       <c r="K89" t="n">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="L89" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="M89" t="n">
         <v>2016.0</v>
@@ -3794,22 +3794,22 @@
         <v>4980.0</v>
       </c>
       <c r="D90" t="n">
-        <v>5597.0</v>
+        <v>4028.0</v>
       </c>
       <c r="E90" t="n">
-        <v>1123.8955823293172</v>
+        <v>808.8353413654619</v>
       </c>
       <c r="F90" t="n">
-        <v>382.9133663366337</v>
+        <v>378.313806380638</v>
       </c>
       <c r="G90" t="n">
-        <v>333.0</v>
+        <v>329.0</v>
       </c>
       <c r="H90" t="n">
-        <v>116.53885062419288</v>
+        <v>100.56442954422023</v>
       </c>
       <c r="I90" t="n">
-        <v>101.34782608695652</v>
+        <v>87.45569620253164</v>
       </c>
       <c r="J90" t="n">
         <v>0.0</v>
@@ -3818,7 +3818,7 @@
         <v>0.0</v>
       </c>
       <c r="L90" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="M90" t="n">
         <v>2016.0</v>
@@ -3835,22 +3835,22 @@
         <v>4980.0</v>
       </c>
       <c r="D91" t="n">
-        <v>8279.0</v>
+        <v>5597.0</v>
       </c>
       <c r="E91" t="n">
-        <v>1662.4497991967871</v>
+        <v>1123.8955823293172</v>
       </c>
       <c r="F91" t="n">
-        <v>366.8149064906491</v>
+        <v>382.9133663366337</v>
       </c>
       <c r="G91" t="n">
-        <v>319.0</v>
+        <v>333.0</v>
       </c>
       <c r="H91" t="n">
-        <v>122.27163549688302</v>
+        <v>116.53885062419288</v>
       </c>
       <c r="I91" t="n">
-        <v>106.33333333333333</v>
+        <v>101.34782608695652</v>
       </c>
       <c r="J91" t="n">
         <v>0.0</v>
@@ -3859,7 +3859,7 @@
         <v>0.0</v>
       </c>
       <c r="L91" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="M91" t="n">
         <v>2016.0</v>
@@ -3876,31 +3876,31 @@
         <v>4980.0</v>
       </c>
       <c r="D92" t="n">
-        <v>11299.0</v>
+        <v>8279.0</v>
       </c>
       <c r="E92" t="n">
-        <v>2268.875502008032</v>
+        <v>1662.4497991967871</v>
       </c>
       <c r="F92" t="n">
-        <v>358.7656765676568</v>
+        <v>366.8149064906491</v>
       </c>
       <c r="G92" t="n">
-        <v>312.0</v>
+        <v>319.0</v>
       </c>
       <c r="H92" t="n">
-        <v>146.53809324594434</v>
+        <v>122.27163549688302</v>
       </c>
       <c r="I92" t="n">
-        <v>127.43661971830986</v>
+        <v>106.33333333333333</v>
       </c>
       <c r="J92" t="n">
-        <v>47.061</v>
+        <v>0.0</v>
       </c>
       <c r="K92" t="n">
-        <v>9.45</v>
+        <v>0.0</v>
       </c>
       <c r="L92" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="M92" t="n">
         <v>2016.0</v>
@@ -3917,31 +3917,31 @@
         <v>4980.0</v>
       </c>
       <c r="D93" t="n">
-        <v>14038.0</v>
+        <v>11299.0</v>
       </c>
       <c r="E93" t="n">
-        <v>2818.875502008032</v>
+        <v>2268.875502008032</v>
       </c>
       <c r="F93" t="n">
-        <v>344.96699669967</v>
+        <v>358.7656765676568</v>
       </c>
       <c r="G93" t="n">
-        <v>300.0</v>
+        <v>312.0</v>
       </c>
       <c r="H93" t="n">
-        <v>142.04523393515825</v>
+        <v>146.53809324594434</v>
       </c>
       <c r="I93" t="n">
-        <v>123.52941176470588</v>
+        <v>127.43661971830986</v>
       </c>
       <c r="J93" t="n">
-        <v>104.58</v>
+        <v>47.061</v>
       </c>
       <c r="K93" t="n">
-        <v>21.0</v>
+        <v>9.45</v>
       </c>
       <c r="L93" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="M93" t="n">
         <v>2016.0</v>
@@ -3958,31 +3958,31 @@
         <v>4980.0</v>
       </c>
       <c r="D94" t="n">
-        <v>16199.0</v>
+        <v>14038.0</v>
       </c>
       <c r="E94" t="n">
-        <v>3252.8112449799196</v>
+        <v>2818.875502008032</v>
       </c>
       <c r="F94" t="n">
-        <v>338.06765676567653</v>
+        <v>344.96699669967</v>
       </c>
       <c r="G94" t="n">
-        <v>294.0</v>
+        <v>300.0</v>
       </c>
       <c r="H94" t="n">
-        <v>144.88613861386136</v>
+        <v>142.04523393515825</v>
       </c>
       <c r="I94" t="n">
-        <v>126.0</v>
+        <v>123.52941176470588</v>
       </c>
       <c r="J94" t="n">
-        <v>174.3</v>
+        <v>104.58</v>
       </c>
       <c r="K94" t="n">
-        <v>35.0</v>
+        <v>21.0</v>
       </c>
       <c r="L94" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="M94" t="n">
         <v>2016.0</v>
@@ -3999,31 +3999,31 @@
         <v>4980.0</v>
       </c>
       <c r="D95" t="n">
-        <v>19789.0</v>
+        <v>16199.0</v>
       </c>
       <c r="E95" t="n">
-        <v>3973.6947791164657</v>
+        <v>3252.8112449799196</v>
       </c>
       <c r="F95" t="n">
-        <v>334.61798679867985</v>
+        <v>338.06765676567653</v>
       </c>
       <c r="G95" t="n">
-        <v>291.0</v>
+        <v>294.0</v>
       </c>
       <c r="H95" t="n">
-        <v>150.33561725737792</v>
+        <v>144.88613861386136</v>
       </c>
       <c r="I95" t="n">
-        <v>130.7391304347826</v>
+        <v>126.0</v>
       </c>
       <c r="J95" t="n">
-        <v>313.74</v>
+        <v>174.3</v>
       </c>
       <c r="K95" t="n">
-        <v>63.0</v>
+        <v>35.0</v>
       </c>
       <c r="L95" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="M95" t="n">
         <v>2016.0</v>
@@ -4040,31 +4040,31 @@
         <v>4980.0</v>
       </c>
       <c r="D96" t="n">
-        <v>21498.0</v>
+        <v>19789.0</v>
       </c>
       <c r="E96" t="n">
-        <v>4316.8674698795185</v>
+        <v>3973.6947791164657</v>
       </c>
       <c r="F96" t="n">
-        <v>332.318206820682</v>
+        <v>334.61798679867985</v>
       </c>
       <c r="G96" t="n">
-        <v>289.0</v>
+        <v>291.0</v>
       </c>
       <c r="H96" t="n">
-        <v>156.38503850385035</v>
+        <v>150.33561725737792</v>
       </c>
       <c r="I96" t="n">
-        <v>136.0</v>
+        <v>130.7391304347826</v>
       </c>
       <c r="J96" t="n">
-        <v>329.427</v>
+        <v>313.74</v>
       </c>
       <c r="K96" t="n">
-        <v>66.15</v>
+        <v>63.0</v>
       </c>
       <c r="L96" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="M96" t="n">
         <v>2016.0</v>
@@ -4081,34 +4081,34 @@
         <v>4980.0</v>
       </c>
       <c r="D97" t="n">
-        <v>18898.0</v>
+        <v>21498.0</v>
       </c>
       <c r="E97" t="n">
-        <v>3794.7791164658634</v>
+        <v>4316.8674698795185</v>
       </c>
       <c r="F97" t="n">
-        <v>333.46809680968096</v>
+        <v>332.318206820682</v>
       </c>
       <c r="G97" t="n">
-        <v>290.0</v>
+        <v>289.0</v>
       </c>
       <c r="H97" t="n">
-        <v>149.8190000159436</v>
+        <v>156.38503850385035</v>
       </c>
       <c r="I97" t="n">
-        <v>130.28985507246378</v>
+        <v>136.0</v>
       </c>
       <c r="J97" t="n">
-        <v>311.997</v>
+        <v>329.427</v>
       </c>
       <c r="K97" t="n">
-        <v>62.65</v>
+        <v>66.15</v>
       </c>
       <c r="L97" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="M97" t="n">
-        <v>2015.0</v>
+        <v>2016.0</v>
       </c>
     </row>
     <row r="98">
@@ -4122,10 +4122,10 @@
         <v>7020.0</v>
       </c>
       <c r="D98" t="n">
-        <v>20629.0</v>
+        <v>23210.0</v>
       </c>
       <c r="E98" t="n">
-        <v>2938.6039886039885</v>
+        <v>3306.2678062678065</v>
       </c>
       <c r="F98" t="n">
         <v>678.68</v>
@@ -4134,19 +4134,19 @@
         <v>361.0</v>
       </c>
       <c r="H98" t="n">
-        <v>290.86285714285714</v>
+        <v>304.9142028985507</v>
       </c>
       <c r="I98" t="n">
-        <v>154.71428571428572</v>
+        <v>162.18840579710144</v>
       </c>
       <c r="J98" t="n">
-        <v>285.012</v>
+        <v>335.907</v>
       </c>
       <c r="K98" t="n">
-        <v>40.6</v>
+        <v>47.85</v>
       </c>
       <c r="L98" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="M98" t="n">
         <v>2016.0</v>
@@ -4163,31 +4163,31 @@
         <v>7020.0</v>
       </c>
       <c r="D99" t="n">
-        <v>18128.0</v>
+        <v>20629.0</v>
       </c>
       <c r="E99" t="n">
-        <v>2582.3361823361824</v>
+        <v>2938.6039886039885</v>
       </c>
       <c r="F99" t="n">
-        <v>674.92</v>
+        <v>678.68</v>
       </c>
       <c r="G99" t="n">
-        <v>359.0</v>
+        <v>361.0</v>
       </c>
       <c r="H99" t="n">
-        <v>289.25142857142856</v>
+        <v>290.86285714285714</v>
       </c>
       <c r="I99" t="n">
-        <v>153.85714285714286</v>
+        <v>154.71428571428572</v>
       </c>
       <c r="J99" t="n">
-        <v>154.7208</v>
+        <v>285.012</v>
       </c>
       <c r="K99" t="n">
-        <v>22.04</v>
+        <v>40.6</v>
       </c>
       <c r="L99" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="M99" t="n">
         <v>2016.0</v>
@@ -4204,31 +4204,31 @@
         <v>7020.0</v>
       </c>
       <c r="D100" t="n">
-        <v>15520.0</v>
+        <v>18128.0</v>
       </c>
       <c r="E100" t="n">
-        <v>2210.8262108262106</v>
+        <v>2582.3361823361824</v>
       </c>
       <c r="F100" t="n">
-        <v>712.52</v>
+        <v>674.92</v>
       </c>
       <c r="G100" t="n">
         <v>359.0</v>
       </c>
       <c r="H100" t="n">
-        <v>277.0911111111111</v>
+        <v>289.25142857142856</v>
       </c>
       <c r="I100" t="n">
-        <v>147.38888888888889</v>
+        <v>153.85714285714286</v>
       </c>
       <c r="J100" t="n">
-        <v>69.2172</v>
+        <v>154.7208</v>
       </c>
       <c r="K100" t="n">
-        <v>9.860000000000001</v>
+        <v>22.04</v>
       </c>
       <c r="L100" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="M100" t="n">
         <v>2016.0</v>
@@ -4245,31 +4245,31 @@
         <v>7020.0</v>
       </c>
       <c r="D101" t="n">
-        <v>6123.0</v>
+        <v>15520.0</v>
       </c>
       <c r="E101" t="n">
-        <v>872.2222222222222</v>
+        <v>2210.8262108262106</v>
       </c>
       <c r="F101" t="n">
-        <v>746.36</v>
+        <v>712.52</v>
       </c>
       <c r="G101" t="n">
-        <v>397.0</v>
+        <v>359.0</v>
       </c>
       <c r="H101" t="n">
-        <v>198.39949367088607</v>
+        <v>277.0911111111111</v>
       </c>
       <c r="I101" t="n">
-        <v>105.53164556962025</v>
+        <v>147.38888888888889</v>
       </c>
       <c r="J101" t="n">
-        <v>0.0</v>
+        <v>69.2172</v>
       </c>
       <c r="K101" t="n">
-        <v>0.0</v>
+        <v>9.860000000000001</v>
       </c>
       <c r="L101" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="M101" t="n">
         <v>2016.0</v>
@@ -4286,22 +4286,22 @@
         <v>7020.0</v>
       </c>
       <c r="D102" t="n">
-        <v>9216.0</v>
+        <v>6123.0</v>
       </c>
       <c r="E102" t="n">
-        <v>1312.820512820513</v>
+        <v>872.2222222222222</v>
       </c>
       <c r="F102" t="n">
-        <v>753.88</v>
+        <v>746.36</v>
       </c>
       <c r="G102" t="n">
-        <v>401.0</v>
+        <v>397.0</v>
       </c>
       <c r="H102" t="n">
-        <v>229.44173913043477</v>
+        <v>198.39949367088607</v>
       </c>
       <c r="I102" t="n">
-        <v>122.04347826086956</v>
+        <v>105.53164556962025</v>
       </c>
       <c r="J102" t="n">
         <v>0.0</v>
@@ -4310,7 +4310,7 @@
         <v>0.0</v>
       </c>
       <c r="L102" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="M102" t="n">
         <v>2016.0</v>
@@ -4327,22 +4327,22 @@
         <v>7020.0</v>
       </c>
       <c r="D103" t="n">
-        <v>13016.0</v>
+        <v>9216.0</v>
       </c>
       <c r="E103" t="n">
-        <v>1854.131054131054</v>
+        <v>1312.820512820513</v>
       </c>
       <c r="F103" t="n">
-        <v>735.08</v>
+        <v>753.88</v>
       </c>
       <c r="G103" t="n">
-        <v>391.0</v>
+        <v>401.0</v>
       </c>
       <c r="H103" t="n">
-        <v>245.02666666666667</v>
+        <v>229.44173913043477</v>
       </c>
       <c r="I103" t="n">
-        <v>130.33333333333334</v>
+        <v>122.04347826086956</v>
       </c>
       <c r="J103" t="n">
         <v>0.0</v>
@@ -4351,7 +4351,7 @@
         <v>0.0</v>
       </c>
       <c r="L103" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="M103" t="n">
         <v>2016.0</v>
@@ -4368,31 +4368,31 @@
         <v>7020.0</v>
       </c>
       <c r="D104" t="n">
-        <v>15823.0</v>
+        <v>13016.0</v>
       </c>
       <c r="E104" t="n">
-        <v>2253.988603988604</v>
+        <v>1854.131054131054</v>
       </c>
       <c r="F104" t="n">
-        <v>723.8</v>
+        <v>735.08</v>
       </c>
       <c r="G104" t="n">
-        <v>385.0</v>
+        <v>391.0</v>
       </c>
       <c r="H104" t="n">
-        <v>295.6366197183098</v>
+        <v>245.02666666666667</v>
       </c>
       <c r="I104" t="n">
-        <v>157.25352112676057</v>
+        <v>130.33333333333334</v>
       </c>
       <c r="J104" t="n">
-        <v>61.074</v>
+        <v>0.0</v>
       </c>
       <c r="K104" t="n">
-        <v>8.7</v>
+        <v>0.0</v>
       </c>
       <c r="L104" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="M104" t="n">
         <v>2016.0</v>
@@ -4409,31 +4409,31 @@
         <v>7020.0</v>
       </c>
       <c r="D105" t="n">
-        <v>19024.0</v>
+        <v>15823.0</v>
       </c>
       <c r="E105" t="n">
-        <v>2709.97150997151</v>
+        <v>2253.988603988604</v>
       </c>
       <c r="F105" t="n">
-        <v>714.4</v>
+        <v>723.8</v>
       </c>
       <c r="G105" t="n">
-        <v>380.0</v>
+        <v>385.0</v>
       </c>
       <c r="H105" t="n">
-        <v>294.16470588235296</v>
+        <v>295.6366197183098</v>
       </c>
       <c r="I105" t="n">
-        <v>156.47058823529412</v>
+        <v>157.25352112676057</v>
       </c>
       <c r="J105" t="n">
-        <v>132.327</v>
+        <v>61.074</v>
       </c>
       <c r="K105" t="n">
-        <v>18.85</v>
+        <v>8.7</v>
       </c>
       <c r="L105" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="M105" t="n">
         <v>2016.0</v>
@@ -4450,31 +4450,31 @@
         <v>7020.0</v>
       </c>
       <c r="D106" t="n">
-        <v>21526.0</v>
+        <v>19024.0</v>
       </c>
       <c r="E106" t="n">
-        <v>3066.3817663817663</v>
+        <v>2709.97150997151</v>
       </c>
       <c r="F106" t="n">
-        <v>682.44</v>
+        <v>714.4</v>
       </c>
       <c r="G106" t="n">
-        <v>363.0</v>
+        <v>380.0</v>
       </c>
       <c r="H106" t="n">
-        <v>292.4742857142857</v>
+        <v>294.16470588235296</v>
       </c>
       <c r="I106" t="n">
-        <v>155.57142857142858</v>
+        <v>156.47058823529412</v>
       </c>
       <c r="J106" t="n">
-        <v>234.11700000000002</v>
+        <v>132.327</v>
       </c>
       <c r="K106" t="n">
-        <v>33.35</v>
+        <v>18.85</v>
       </c>
       <c r="L106" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="M106" t="n">
         <v>2016.0</v>
@@ -4491,31 +4491,31 @@
         <v>7020.0</v>
       </c>
       <c r="D107" t="n">
-        <v>25126.0</v>
+        <v>21526.0</v>
       </c>
       <c r="E107" t="n">
-        <v>3579.202279202279</v>
+        <v>3066.3817663817663</v>
       </c>
       <c r="F107" t="n">
-        <v>676.8</v>
+        <v>682.44</v>
       </c>
       <c r="G107" t="n">
-        <v>360.0</v>
+        <v>363.0</v>
       </c>
       <c r="H107" t="n">
-        <v>304.0695652173913</v>
+        <v>292.4742857142857</v>
       </c>
       <c r="I107" t="n">
-        <v>161.7391304347826</v>
+        <v>155.57142857142858</v>
       </c>
       <c r="J107" t="n">
-        <v>407.16</v>
+        <v>234.11700000000002</v>
       </c>
       <c r="K107" t="n">
-        <v>58.0</v>
+        <v>33.35</v>
       </c>
       <c r="L107" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="M107" t="n">
         <v>2016.0</v>
@@ -4532,31 +4532,31 @@
         <v>7020.0</v>
       </c>
       <c r="D108" t="n">
-        <v>25925.0</v>
+        <v>25126.0</v>
       </c>
       <c r="E108" t="n">
-        <v>3693.019943019943</v>
+        <v>3579.202279202279</v>
       </c>
       <c r="F108" t="n">
-        <v>682.44</v>
+        <v>676.8</v>
       </c>
       <c r="G108" t="n">
-        <v>363.0</v>
+        <v>360.0</v>
       </c>
       <c r="H108" t="n">
-        <v>321.1482352941177</v>
+        <v>304.0695652173913</v>
       </c>
       <c r="I108" t="n">
-        <v>170.8235294117647</v>
+        <v>161.7391304347826</v>
       </c>
       <c r="J108" t="n">
-        <v>356.265</v>
+        <v>407.16</v>
       </c>
       <c r="K108" t="n">
-        <v>50.75</v>
+        <v>58.0</v>
       </c>
       <c r="L108" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="M108" t="n">
         <v>2016.0</v>
@@ -4573,34 +4573,34 @@
         <v>7020.0</v>
       </c>
       <c r="D109" t="n">
-        <v>23210.0</v>
+        <v>25925.0</v>
       </c>
       <c r="E109" t="n">
-        <v>3306.2678062678065</v>
+        <v>3693.019943019943</v>
       </c>
       <c r="F109" t="n">
-        <v>678.68</v>
+        <v>682.44</v>
       </c>
       <c r="G109" t="n">
-        <v>361.0</v>
+        <v>363.0</v>
       </c>
       <c r="H109" t="n">
-        <v>304.9142028985507</v>
+        <v>321.1482352941177</v>
       </c>
       <c r="I109" t="n">
-        <v>162.18840579710144</v>
+        <v>170.8235294117647</v>
       </c>
       <c r="J109" t="n">
-        <v>335.907</v>
+        <v>356.265</v>
       </c>
       <c r="K109" t="n">
-        <v>47.85</v>
+        <v>50.75</v>
       </c>
       <c r="L109" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="M109" t="n">
-        <v>2015.0</v>
+        <v>2016.0</v>
       </c>
     </row>
     <row r="110">
@@ -4614,31 +4614,31 @@
         <v>5320.0</v>
       </c>
       <c r="D110" t="n">
-        <v>15249.0</v>
+        <v>19503.0</v>
       </c>
       <c r="E110" t="n">
-        <v>2866.3533834586465</v>
+        <v>3665.9774436090224</v>
       </c>
       <c r="F110" t="n">
-        <v>327.5679012345679</v>
+        <v>325.04814814814813</v>
       </c>
       <c r="G110" t="n">
-        <v>260.0</v>
+        <v>258.0</v>
       </c>
       <c r="H110" t="n">
-        <v>140.38624338624336</v>
+        <v>146.03612453032744</v>
       </c>
       <c r="I110" t="n">
-        <v>111.42857142857143</v>
+        <v>115.91304347826087</v>
       </c>
       <c r="J110" t="n">
-        <v>201.39392</v>
+        <v>260.68</v>
       </c>
       <c r="K110" t="n">
-        <v>37.856</v>
+        <v>49.00000000000001</v>
       </c>
       <c r="L110" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="M110" t="n">
         <v>2016.0</v>
@@ -4655,31 +4655,31 @@
         <v>5320.0</v>
       </c>
       <c r="D111" t="n">
-        <v>12396.0</v>
+        <v>15249.0</v>
       </c>
       <c r="E111" t="n">
-        <v>2330.0751879699246</v>
+        <v>2866.3533834586465</v>
       </c>
       <c r="F111" t="n">
-        <v>332.60740740740744</v>
+        <v>327.5679012345679</v>
       </c>
       <c r="G111" t="n">
-        <v>264.0</v>
+        <v>260.0</v>
       </c>
       <c r="H111" t="n">
-        <v>142.54603174603176</v>
+        <v>140.38624338624336</v>
       </c>
       <c r="I111" t="n">
-        <v>113.14285714285714</v>
+        <v>111.42857142857143</v>
       </c>
       <c r="J111" t="n">
-        <v>96.82400000000001</v>
+        <v>201.39392</v>
       </c>
       <c r="K111" t="n">
-        <v>18.200000000000003</v>
+        <v>37.856</v>
       </c>
       <c r="L111" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="M111" t="n">
         <v>2016.0</v>
@@ -4696,31 +4696,31 @@
         <v>5320.0</v>
       </c>
       <c r="D112" t="n">
-        <v>10026.0</v>
+        <v>12396.0</v>
       </c>
       <c r="E112" t="n">
-        <v>1884.5864661654136</v>
+        <v>2330.0751879699246</v>
       </c>
       <c r="F112" t="n">
-        <v>337.6469135802469</v>
+        <v>332.60740740740744</v>
       </c>
       <c r="G112" t="n">
         <v>264.0</v>
       </c>
       <c r="H112" t="n">
-        <v>131.30713305898493</v>
+        <v>142.54603174603176</v>
       </c>
       <c r="I112" t="n">
-        <v>104.22222222222223</v>
+        <v>113.14285714285714</v>
       </c>
       <c r="J112" t="n">
-        <v>55.1152</v>
+        <v>96.82400000000001</v>
       </c>
       <c r="K112" t="n">
-        <v>10.360000000000001</v>
+        <v>18.200000000000003</v>
       </c>
       <c r="L112" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="M112" t="n">
         <v>2016.0</v>
@@ -4737,31 +4737,31 @@
         <v>5320.0</v>
       </c>
       <c r="D113" t="n">
-        <v>5365.0</v>
+        <v>10026.0</v>
       </c>
       <c r="E113" t="n">
-        <v>1008.4586466165414</v>
+        <v>1884.5864661654136</v>
       </c>
       <c r="F113" t="n">
-        <v>364.1043209876544</v>
+        <v>337.6469135802469</v>
       </c>
       <c r="G113" t="n">
-        <v>289.0</v>
+        <v>264.0</v>
       </c>
       <c r="H113" t="n">
-        <v>96.7872245663385</v>
+        <v>131.30713305898493</v>
       </c>
       <c r="I113" t="n">
-        <v>76.82278481012658</v>
+        <v>104.22222222222223</v>
       </c>
       <c r="J113" t="n">
-        <v>0.0</v>
+        <v>55.1152</v>
       </c>
       <c r="K113" t="n">
-        <v>0.0</v>
+        <v>10.360000000000001</v>
       </c>
       <c r="L113" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="M113" t="n">
         <v>2016.0</v>
@@ -4778,22 +4778,22 @@
         <v>5320.0</v>
       </c>
       <c r="D114" t="n">
-        <v>6765.0</v>
+        <v>5365.0</v>
       </c>
       <c r="E114" t="n">
-        <v>1271.6165413533834</v>
+        <v>1008.4586466165414</v>
       </c>
       <c r="F114" t="n">
-        <v>367.8839506172839</v>
+        <v>364.1043209876544</v>
       </c>
       <c r="G114" t="n">
-        <v>292.0</v>
+        <v>289.0</v>
       </c>
       <c r="H114" t="n">
-        <v>111.96468062265163</v>
+        <v>96.7872245663385</v>
       </c>
       <c r="I114" t="n">
-        <v>88.8695652173913</v>
+        <v>76.82278481012658</v>
       </c>
       <c r="J114" t="n">
         <v>0.0</v>
@@ -4802,7 +4802,7 @@
         <v>0.0</v>
       </c>
       <c r="L114" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="M114" t="n">
         <v>2016.0</v>
@@ -4819,22 +4819,22 @@
         <v>5320.0</v>
       </c>
       <c r="D115" t="n">
-        <v>9365.0</v>
+        <v>6765.0</v>
       </c>
       <c r="E115" t="n">
-        <v>1760.3383458646617</v>
+        <v>1271.6165413533834</v>
       </c>
       <c r="F115" t="n">
-        <v>352.76543209876536</v>
+        <v>367.8839506172839</v>
       </c>
       <c r="G115" t="n">
-        <v>280.0</v>
+        <v>292.0</v>
       </c>
       <c r="H115" t="n">
-        <v>117.58847736625512</v>
+        <v>111.96468062265163</v>
       </c>
       <c r="I115" t="n">
-        <v>93.33333333333333</v>
+        <v>88.8695652173913</v>
       </c>
       <c r="J115" t="n">
         <v>0.0</v>
@@ -4843,7 +4843,7 @@
         <v>0.0</v>
       </c>
       <c r="L115" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="M115" t="n">
         <v>2016.0</v>
@@ -4860,31 +4860,31 @@
         <v>5320.0</v>
       </c>
       <c r="D116" t="n">
-        <v>12028.0</v>
+        <v>9365.0</v>
       </c>
       <c r="E116" t="n">
-        <v>2260.902255639098</v>
+        <v>1760.3383458646617</v>
       </c>
       <c r="F116" t="n">
-        <v>347.72592592592594</v>
+        <v>352.76543209876536</v>
       </c>
       <c r="G116" t="n">
-        <v>276.0</v>
+        <v>280.0</v>
       </c>
       <c r="H116" t="n">
-        <v>142.0288993218571</v>
+        <v>117.58847736625512</v>
       </c>
       <c r="I116" t="n">
-        <v>112.73239436619718</v>
+        <v>93.33333333333333</v>
       </c>
       <c r="J116" t="n">
-        <v>41.41088</v>
+        <v>0.0</v>
       </c>
       <c r="K116" t="n">
-        <v>7.784000000000001</v>
+        <v>0.0</v>
       </c>
       <c r="L116" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="M116" t="n">
         <v>2016.0</v>
@@ -4901,31 +4901,31 @@
         <v>5320.0</v>
       </c>
       <c r="D117" t="n">
-        <v>13836.0</v>
+        <v>12028.0</v>
       </c>
       <c r="E117" t="n">
-        <v>2600.751879699248</v>
+        <v>2260.902255639098</v>
       </c>
       <c r="F117" t="n">
-        <v>336.38703703703703</v>
+        <v>347.72592592592594</v>
       </c>
       <c r="G117" t="n">
-        <v>267.0</v>
+        <v>276.0</v>
       </c>
       <c r="H117" t="n">
-        <v>138.51230936819172</v>
+        <v>142.0288993218571</v>
       </c>
       <c r="I117" t="n">
-        <v>109.94117647058823</v>
+        <v>112.73239436619718</v>
       </c>
       <c r="J117" t="n">
-        <v>104.27200000000002</v>
+        <v>41.41088</v>
       </c>
       <c r="K117" t="n">
-        <v>19.600000000000005</v>
+        <v>7.784000000000001</v>
       </c>
       <c r="L117" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="M117" t="n">
         <v>2016.0</v>
@@ -4942,31 +4942,31 @@
         <v>5320.0</v>
       </c>
       <c r="D118" t="n">
-        <v>16821.0</v>
+        <v>13836.0</v>
       </c>
       <c r="E118" t="n">
-        <v>3161.842105263158</v>
+        <v>2600.751879699248</v>
       </c>
       <c r="F118" t="n">
-        <v>332.60740740740744</v>
+        <v>336.38703703703703</v>
       </c>
       <c r="G118" t="n">
-        <v>264.0</v>
+        <v>267.0</v>
       </c>
       <c r="H118" t="n">
-        <v>142.54603174603176</v>
+        <v>138.51230936819172</v>
       </c>
       <c r="I118" t="n">
-        <v>113.14285714285714</v>
+        <v>109.94117647058823</v>
       </c>
       <c r="J118" t="n">
-        <v>171.30400000000003</v>
+        <v>104.27200000000002</v>
       </c>
       <c r="K118" t="n">
-        <v>32.20000000000001</v>
+        <v>19.600000000000005</v>
       </c>
       <c r="L118" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="M118" t="n">
         <v>2016.0</v>
@@ -4983,31 +4983,31 @@
         <v>5320.0</v>
       </c>
       <c r="D119" t="n">
-        <v>20485.0</v>
+        <v>16821.0</v>
       </c>
       <c r="E119" t="n">
-        <v>3850.563909774436</v>
+        <v>3161.842105263158</v>
       </c>
       <c r="F119" t="n">
-        <v>330.08765432098767</v>
+        <v>332.60740740740744</v>
       </c>
       <c r="G119" t="n">
-        <v>262.0</v>
+        <v>264.0</v>
       </c>
       <c r="H119" t="n">
-        <v>148.30025049203795</v>
+        <v>142.54603174603176</v>
       </c>
       <c r="I119" t="n">
-        <v>117.71014492753623</v>
+        <v>113.14285714285714</v>
       </c>
       <c r="J119" t="n">
-        <v>283.024</v>
+        <v>171.30400000000003</v>
       </c>
       <c r="K119" t="n">
-        <v>53.20000000000001</v>
+        <v>32.20000000000001</v>
       </c>
       <c r="L119" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="M119" t="n">
         <v>2016.0</v>
@@ -5024,31 +5024,31 @@
         <v>5320.0</v>
       </c>
       <c r="D120" t="n">
-        <v>21603.0</v>
+        <v>20485.0</v>
       </c>
       <c r="E120" t="n">
-        <v>4060.714285714286</v>
+        <v>3850.563909774436</v>
       </c>
       <c r="F120" t="n">
-        <v>327.5679012345679</v>
+        <v>330.08765432098767</v>
       </c>
       <c r="G120" t="n">
-        <v>260.0</v>
+        <v>262.0</v>
       </c>
       <c r="H120" t="n">
-        <v>154.14960058097313</v>
+        <v>148.30025049203795</v>
       </c>
       <c r="I120" t="n">
-        <v>122.3529411764706</v>
+        <v>117.71014492753623</v>
       </c>
       <c r="J120" t="n">
-        <v>275.576</v>
+        <v>283.024</v>
       </c>
       <c r="K120" t="n">
-        <v>51.80000000000001</v>
+        <v>53.20000000000001</v>
       </c>
       <c r="L120" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="M120" t="n">
         <v>2016.0</v>
@@ -5065,34 +5065,34 @@
         <v>5320.0</v>
       </c>
       <c r="D121" t="n">
-        <v>19503.0</v>
+        <v>21603.0</v>
       </c>
       <c r="E121" t="n">
-        <v>3665.9774436090224</v>
+        <v>4060.714285714286</v>
       </c>
       <c r="F121" t="n">
-        <v>325.04814814814813</v>
+        <v>327.5679012345679</v>
       </c>
       <c r="G121" t="n">
-        <v>258.0</v>
+        <v>260.0</v>
       </c>
       <c r="H121" t="n">
-        <v>146.03612453032744</v>
+        <v>154.14960058097313</v>
       </c>
       <c r="I121" t="n">
-        <v>115.91304347826087</v>
+        <v>122.3529411764706</v>
       </c>
       <c r="J121" t="n">
-        <v>260.68</v>
+        <v>275.576</v>
       </c>
       <c r="K121" t="n">
-        <v>49.00000000000001</v>
+        <v>51.80000000000001</v>
       </c>
       <c r="L121" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="M121" t="n">
-        <v>2015.0</v>
+        <v>2016.0</v>
       </c>
     </row>
     <row r="122">
@@ -5106,31 +5106,31 @@
         <v>3570.0</v>
       </c>
       <c r="D122" t="n">
-        <v>15514.0</v>
+        <v>17396.0</v>
       </c>
       <c r="E122" t="n">
-        <v>4345.658263305322</v>
+        <v>4872.829131652661</v>
       </c>
       <c r="F122" t="n">
-        <v>219.34649910233392</v>
+        <v>222.87013764213046</v>
       </c>
       <c r="G122" t="n">
-        <v>249.0</v>
+        <v>253.0</v>
       </c>
       <c r="H122" t="n">
-        <v>94.00564247242883</v>
+        <v>100.13006183921803</v>
       </c>
       <c r="I122" t="n">
-        <v>106.71428571428571</v>
+        <v>113.66666666666667</v>
       </c>
       <c r="J122" t="n">
-        <v>130.032</v>
+        <v>166.25519999999997</v>
       </c>
       <c r="K122" t="n">
-        <v>33.6</v>
+        <v>42.96</v>
       </c>
       <c r="L122" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="M122" t="n">
         <v>2016.0</v>
@@ -5147,31 +5147,31 @@
         <v>3570.0</v>
       </c>
       <c r="D123" t="n">
-        <v>12089.0</v>
+        <v>15514.0</v>
       </c>
       <c r="E123" t="n">
-        <v>3386.274509803922</v>
+        <v>4345.658263305322</v>
       </c>
       <c r="F123" t="n">
-        <v>221.10831837223216</v>
+        <v>219.34649910233392</v>
       </c>
       <c r="G123" t="n">
-        <v>251.0</v>
+        <v>249.0</v>
       </c>
       <c r="H123" t="n">
-        <v>94.76070787381379</v>
+        <v>94.00564247242883</v>
       </c>
       <c r="I123" t="n">
-        <v>107.57142857142857</v>
+        <v>106.71428571428571</v>
       </c>
       <c r="J123" t="n">
-        <v>66.8736</v>
+        <v>130.032</v>
       </c>
       <c r="K123" t="n">
-        <v>17.279999999999998</v>
+        <v>33.6</v>
       </c>
       <c r="L123" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="M123" t="n">
         <v>2016.0</v>
@@ -5188,31 +5188,31 @@
         <v>3570.0</v>
       </c>
       <c r="D124" t="n">
-        <v>9652.0</v>
+        <v>12089.0</v>
       </c>
       <c r="E124" t="n">
-        <v>2703.641456582633</v>
+        <v>3386.274509803922</v>
       </c>
       <c r="F124" t="n">
-        <v>231.6792339916218</v>
+        <v>221.10831837223216</v>
       </c>
       <c r="G124" t="n">
         <v>251.0</v>
       </c>
       <c r="H124" t="n">
-        <v>90.09747988563069</v>
+        <v>94.76070787381379</v>
       </c>
       <c r="I124" t="n">
-        <v>102.27777777777777</v>
+        <v>107.57142857142857</v>
       </c>
       <c r="J124" t="n">
-        <v>37.152</v>
+        <v>66.8736</v>
       </c>
       <c r="K124" t="n">
-        <v>9.6</v>
+        <v>17.279999999999998</v>
       </c>
       <c r="L124" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="M124" t="n">
         <v>2016.0</v>
@@ -5229,31 +5229,31 @@
         <v>3570.0</v>
       </c>
       <c r="D125" t="n">
-        <v>2889.0</v>
+        <v>9652.0</v>
       </c>
       <c r="E125" t="n">
-        <v>809.2436974789916</v>
+        <v>2703.641456582633</v>
       </c>
       <c r="F125" t="n">
-        <v>310.0801915020946</v>
+        <v>231.6792339916218</v>
       </c>
       <c r="G125" t="n">
-        <v>352.0</v>
+        <v>251.0</v>
       </c>
       <c r="H125" t="n">
-        <v>82.42638001954413</v>
+        <v>90.09747988563069</v>
       </c>
       <c r="I125" t="n">
-        <v>93.56962025316456</v>
+        <v>102.27777777777777</v>
       </c>
       <c r="J125" t="n">
-        <v>0.0</v>
+        <v>37.152</v>
       </c>
       <c r="K125" t="n">
-        <v>0.0</v>
+        <v>9.6</v>
       </c>
       <c r="L125" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="M125" t="n">
         <v>2016.0</v>
@@ -5270,22 +5270,22 @@
         <v>3570.0</v>
       </c>
       <c r="D126" t="n">
-        <v>4423.0</v>
+        <v>2889.0</v>
       </c>
       <c r="E126" t="n">
-        <v>1238.9355742296918</v>
+        <v>809.2436974789916</v>
       </c>
       <c r="F126" t="n">
-        <v>298.6283662477558</v>
+        <v>310.0801915020946</v>
       </c>
       <c r="G126" t="n">
-        <v>339.0</v>
+        <v>352.0</v>
       </c>
       <c r="H126" t="n">
-        <v>90.88689407540396</v>
+        <v>82.42638001954413</v>
       </c>
       <c r="I126" t="n">
-        <v>103.17391304347827</v>
+        <v>93.56962025316456</v>
       </c>
       <c r="J126" t="n">
         <v>0.0</v>
@@ -5294,7 +5294,7 @@
         <v>0.0</v>
       </c>
       <c r="L126" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="M126" t="n">
         <v>2016.0</v>
@@ -5311,22 +5311,22 @@
         <v>3570.0</v>
       </c>
       <c r="D127" t="n">
-        <v>7162.0</v>
+        <v>4423.0</v>
       </c>
       <c r="E127" t="n">
-        <v>2006.1624649859943</v>
+        <v>1238.9355742296918</v>
       </c>
       <c r="F127" t="n">
-        <v>284.53381208856973</v>
+        <v>298.6283662477558</v>
       </c>
       <c r="G127" t="n">
-        <v>323.0</v>
+        <v>339.0</v>
       </c>
       <c r="H127" t="n">
-        <v>94.84460402952324</v>
+        <v>90.88689407540396</v>
       </c>
       <c r="I127" t="n">
-        <v>107.66666666666667</v>
+        <v>103.17391304347827</v>
       </c>
       <c r="J127" t="n">
         <v>0.0</v>
@@ -5335,7 +5335,7 @@
         <v>0.0</v>
       </c>
       <c r="L127" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="M127" t="n">
         <v>2016.0</v>
@@ -5352,31 +5352,31 @@
         <v>3570.0</v>
       </c>
       <c r="D128" t="n">
-        <v>10256.0</v>
+        <v>7162.0</v>
       </c>
       <c r="E128" t="n">
-        <v>2872.829131652661</v>
+        <v>2006.1624649859943</v>
       </c>
       <c r="F128" t="n">
-        <v>257.2256134051466</v>
+        <v>284.53381208856973</v>
       </c>
       <c r="G128" t="n">
-        <v>292.0</v>
+        <v>323.0</v>
       </c>
       <c r="H128" t="n">
-        <v>105.0639829401303</v>
+        <v>94.84460402952324</v>
       </c>
       <c r="I128" t="n">
-        <v>119.26760563380282</v>
+        <v>107.66666666666667</v>
       </c>
       <c r="J128" t="n">
-        <v>27.863999999999997</v>
+        <v>0.0</v>
       </c>
       <c r="K128" t="n">
-        <v>7.199999999999999</v>
+        <v>0.0</v>
       </c>
       <c r="L128" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="M128" t="n">
         <v>2016.0</v>
@@ -5393,31 +5393,31 @@
         <v>3570.0</v>
       </c>
       <c r="D129" t="n">
-        <v>12859.0</v>
+        <v>10256.0</v>
       </c>
       <c r="E129" t="n">
-        <v>3601.9607843137255</v>
+        <v>2872.829131652661</v>
       </c>
       <c r="F129" t="n">
-        <v>233.44105326152004</v>
+        <v>257.2256134051466</v>
       </c>
       <c r="G129" t="n">
-        <v>265.0</v>
+        <v>292.0</v>
       </c>
       <c r="H129" t="n">
-        <v>96.1227866370965</v>
+        <v>105.0639829401303</v>
       </c>
       <c r="I129" t="n">
-        <v>109.11764705882354</v>
+        <v>119.26760563380282</v>
       </c>
       <c r="J129" t="n">
-        <v>74.304</v>
+        <v>27.863999999999997</v>
       </c>
       <c r="K129" t="n">
-        <v>19.2</v>
+        <v>7.199999999999999</v>
       </c>
       <c r="L129" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="M129" t="n">
         <v>2016.0</v>
@@ -5434,31 +5434,31 @@
         <v>3570.0</v>
       </c>
       <c r="D130" t="n">
-        <v>15123.0</v>
+        <v>12859.0</v>
       </c>
       <c r="E130" t="n">
-        <v>4236.134453781513</v>
+        <v>3601.9607843137255</v>
       </c>
       <c r="F130" t="n">
-        <v>223.7510472770796</v>
+        <v>233.44105326152004</v>
       </c>
       <c r="G130" t="n">
-        <v>254.0</v>
+        <v>265.0</v>
       </c>
       <c r="H130" t="n">
-        <v>95.89330597589127</v>
+        <v>96.1227866370965</v>
       </c>
       <c r="I130" t="n">
-        <v>108.85714285714286</v>
+        <v>109.11764705882354</v>
       </c>
       <c r="J130" t="n">
-        <v>83.592</v>
+        <v>74.304</v>
       </c>
       <c r="K130" t="n">
-        <v>21.599999999999998</v>
+        <v>19.2</v>
       </c>
       <c r="L130" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="M130" t="n">
         <v>2016.0</v>
@@ -5475,31 +5475,31 @@
         <v>3570.0</v>
       </c>
       <c r="D131" t="n">
-        <v>18636.0</v>
+        <v>15123.0</v>
       </c>
       <c r="E131" t="n">
-        <v>5220.16806722689</v>
+        <v>4236.134453781513</v>
       </c>
       <c r="F131" t="n">
-        <v>220.22740873728304</v>
+        <v>223.7510472770796</v>
       </c>
       <c r="G131" t="n">
-        <v>250.0</v>
+        <v>254.0</v>
       </c>
       <c r="H131" t="n">
-        <v>98.94274885298223</v>
+        <v>95.89330597589127</v>
       </c>
       <c r="I131" t="n">
-        <v>112.31884057971014</v>
+        <v>108.85714285714286</v>
       </c>
       <c r="J131" t="n">
-        <v>167.184</v>
+        <v>83.592</v>
       </c>
       <c r="K131" t="n">
-        <v>43.199999999999996</v>
+        <v>21.599999999999998</v>
       </c>
       <c r="L131" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="M131" t="n">
         <v>2016.0</v>
@@ -5516,31 +5516,31 @@
         <v>3570.0</v>
       </c>
       <c r="D132" t="n">
-        <v>19256.0</v>
+        <v>18636.0</v>
       </c>
       <c r="E132" t="n">
-        <v>5393.837535014006</v>
+        <v>5220.16806722689</v>
       </c>
       <c r="F132" t="n">
-        <v>221.10831837223216</v>
+        <v>220.22740873728304</v>
       </c>
       <c r="G132" t="n">
-        <v>251.0</v>
+        <v>250.0</v>
       </c>
       <c r="H132" t="n">
-        <v>104.05097335163866</v>
+        <v>98.94274885298223</v>
       </c>
       <c r="I132" t="n">
-        <v>118.11764705882354</v>
+        <v>112.31884057971014</v>
       </c>
       <c r="J132" t="n">
-        <v>175.54319999999998</v>
+        <v>167.184</v>
       </c>
       <c r="K132" t="n">
-        <v>45.36</v>
+        <v>43.199999999999996</v>
       </c>
       <c r="L132" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="M132" t="n">
         <v>2016.0</v>
@@ -5557,34 +5557,34 @@
         <v>3570.0</v>
       </c>
       <c r="D133" t="n">
-        <v>17396.0</v>
+        <v>19256.0</v>
       </c>
       <c r="E133" t="n">
-        <v>4872.829131652661</v>
+        <v>5393.837535014006</v>
       </c>
       <c r="F133" t="n">
-        <v>222.87013764213046</v>
+        <v>221.10831837223216</v>
       </c>
       <c r="G133" t="n">
-        <v>253.0</v>
+        <v>251.0</v>
       </c>
       <c r="H133" t="n">
-        <v>100.13006183921803</v>
+        <v>104.05097335163866</v>
       </c>
       <c r="I133" t="n">
-        <v>113.66666666666667</v>
+        <v>118.11764705882354</v>
       </c>
       <c r="J133" t="n">
-        <v>166.25519999999997</v>
+        <v>175.54319999999998</v>
       </c>
       <c r="K133" t="n">
-        <v>42.96</v>
+        <v>45.36</v>
       </c>
       <c r="L133" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="M133" t="n">
-        <v>2015.0</v>
+        <v>2016.0</v>
       </c>
     </row>
   </sheetData>

--- a/output/Combined_Docks_Consumption_AbsPlusNorm.xlsx
+++ b/output/Combined_Docks_Consumption_AbsPlusNorm.xlsx
@@ -186,34 +186,34 @@
         <v>2695.0</v>
       </c>
       <c r="D2" t="n">
-        <v>9797.0</v>
+        <v>10850.0</v>
       </c>
       <c r="E2" t="n">
-        <v>3635.2504638218925</v>
+        <v>4025.974025974026</v>
       </c>
       <c r="F2" t="n">
-        <v>220.42804232804232</v>
+        <v>219.69814814814814</v>
       </c>
       <c r="G2" t="n">
-        <v>302.0</v>
+        <v>301.0</v>
       </c>
       <c r="H2" t="n">
-        <v>99.03288858216393</v>
+        <v>103.38736383442266</v>
       </c>
       <c r="I2" t="n">
-        <v>135.68115942028984</v>
+        <v>141.64705882352942</v>
       </c>
       <c r="J2" t="n">
-        <v>188.64999999999998</v>
+        <v>203.742</v>
       </c>
       <c r="K2" t="n">
-        <v>70.0</v>
+        <v>75.6</v>
       </c>
       <c r="L2" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="M2" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="3">
@@ -227,31 +227,31 @@
         <v>2695.0</v>
       </c>
       <c r="D3" t="n">
-        <v>7598.0</v>
+        <v>9797.0</v>
       </c>
       <c r="E3" t="n">
-        <v>2819.294990723562</v>
+        <v>3635.2504638218925</v>
       </c>
       <c r="F3" t="n">
-        <v>222.61772486772483</v>
+        <v>220.42804232804232</v>
       </c>
       <c r="G3" t="n">
-        <v>305.0</v>
+        <v>302.0</v>
       </c>
       <c r="H3" t="n">
-        <v>95.40759637188206</v>
+        <v>99.03288858216393</v>
       </c>
       <c r="I3" t="n">
-        <v>130.71428571428572</v>
+        <v>135.68115942028984</v>
       </c>
       <c r="J3" t="n">
-        <v>134.75</v>
+        <v>188.64999999999998</v>
       </c>
       <c r="K3" t="n">
-        <v>50.0</v>
+        <v>70.0</v>
       </c>
       <c r="L3" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="M3" t="n">
         <v>2016.0</v>
@@ -268,31 +268,31 @@
         <v>2695.0</v>
       </c>
       <c r="D4" t="n">
-        <v>6787.0</v>
+        <v>7598.0</v>
       </c>
       <c r="E4" t="n">
-        <v>2189.3548387096776</v>
+        <v>2819.294990723562</v>
       </c>
       <c r="F4" t="n">
-        <v>221.1579365079365</v>
+        <v>222.61772486772483</v>
       </c>
       <c r="G4" t="n">
-        <v>303.0</v>
+        <v>305.0</v>
       </c>
       <c r="H4" t="n">
-        <v>94.78197278911564</v>
+        <v>95.40759637188206</v>
       </c>
       <c r="I4" t="n">
-        <v>129.85714285714286</v>
+        <v>130.71428571428572</v>
       </c>
       <c r="J4" t="n">
-        <v>78.69399999999999</v>
+        <v>134.75</v>
       </c>
       <c r="K4" t="n">
-        <v>29.2</v>
+        <v>50.0</v>
       </c>
       <c r="L4" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="M4" t="n">
         <v>2016.0</v>
@@ -309,31 +309,31 @@
         <v>2695.0</v>
       </c>
       <c r="D5" t="n">
-        <v>5509.0</v>
+        <v>6787.0</v>
       </c>
       <c r="E5" t="n">
-        <v>2044.155844155844</v>
+        <v>2189.3548387096776</v>
       </c>
       <c r="F5" t="n">
-        <v>230.64656084656082</v>
+        <v>221.1579365079365</v>
       </c>
       <c r="G5" t="n">
         <v>303.0</v>
       </c>
       <c r="H5" t="n">
-        <v>89.69588477366254</v>
+        <v>94.78197278911564</v>
       </c>
       <c r="I5" t="n">
-        <v>122.88888888888889</v>
+        <v>129.85714285714286</v>
       </c>
       <c r="J5" t="n">
-        <v>52.822</v>
+        <v>78.69399999999999</v>
       </c>
       <c r="K5" t="n">
-        <v>19.6</v>
+        <v>29.2</v>
       </c>
       <c r="L5" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="M5" t="n">
         <v>2016.0</v>
@@ -350,31 +350,31 @@
         <v>2695.0</v>
       </c>
       <c r="D6" t="n">
-        <v>2587.0</v>
+        <v>5509.0</v>
       </c>
       <c r="E6" t="n">
-        <v>711.6428498519955</v>
+        <v>2044.155844155844</v>
       </c>
       <c r="F6" t="n">
-        <v>244.51455026455028</v>
+        <v>230.64656084656082</v>
       </c>
       <c r="G6" t="n">
-        <v>335.0</v>
+        <v>303.0</v>
       </c>
       <c r="H6" t="n">
-        <v>64.99753867791843</v>
+        <v>89.69588477366254</v>
       </c>
       <c r="I6" t="n">
-        <v>89.0506329113924</v>
+        <v>122.88888888888889</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0</v>
+        <v>52.822</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0</v>
+        <v>19.6</v>
       </c>
       <c r="L6" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="M6" t="n">
         <v>2016.0</v>
@@ -391,22 +391,22 @@
         <v>2695.0</v>
       </c>
       <c r="D7" t="n">
-        <v>3298.0</v>
+        <v>2587.0</v>
       </c>
       <c r="E7" t="n">
-        <v>1169.7959989470914</v>
+        <v>711.6428498519955</v>
       </c>
       <c r="F7" t="n">
-        <v>245.9743386243386</v>
+        <v>244.51455026455028</v>
       </c>
       <c r="G7" t="n">
-        <v>337.0</v>
+        <v>335.0</v>
       </c>
       <c r="H7" t="n">
-        <v>74.86175523349436</v>
+        <v>64.99753867791843</v>
       </c>
       <c r="I7" t="n">
-        <v>102.56521739130434</v>
+        <v>89.0506329113924</v>
       </c>
       <c r="J7" t="n">
         <v>0.0</v>
@@ -415,7 +415,7 @@
         <v>0.0</v>
       </c>
       <c r="L7" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="M7" t="n">
         <v>2016.0</v>
@@ -432,22 +432,22 @@
         <v>2695.0</v>
       </c>
       <c r="D8" t="n">
-        <v>4159.0</v>
+        <v>3298.0</v>
       </c>
       <c r="E8" t="n">
-        <v>1899.646382790629</v>
+        <v>1169.7959989470914</v>
       </c>
       <c r="F8" t="n">
-        <v>239.405291005291</v>
+        <v>245.9743386243386</v>
       </c>
       <c r="G8" t="n">
-        <v>328.0</v>
+        <v>337.0</v>
       </c>
       <c r="H8" t="n">
-        <v>79.80176366843034</v>
+        <v>74.86175523349436</v>
       </c>
       <c r="I8" t="n">
-        <v>109.33333333333333</v>
+        <v>102.56521739130434</v>
       </c>
       <c r="J8" t="n">
         <v>0.0</v>
@@ -456,7 +456,7 @@
         <v>0.0</v>
       </c>
       <c r="L8" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="M8" t="n">
         <v>2016.0</v>
@@ -473,31 +473,31 @@
         <v>2695.0</v>
       </c>
       <c r="D9" t="n">
-        <v>5954.0</v>
+        <v>4159.0</v>
       </c>
       <c r="E9" t="n">
-        <v>2209.2764378478664</v>
+        <v>1899.646382790629</v>
       </c>
       <c r="F9" t="n">
-        <v>233.56613756613754</v>
+        <v>239.405291005291</v>
       </c>
       <c r="G9" t="n">
-        <v>320.0</v>
+        <v>328.0</v>
       </c>
       <c r="H9" t="n">
-        <v>95.40025337208435</v>
+        <v>79.80176366843034</v>
       </c>
       <c r="I9" t="n">
-        <v>130.70422535211267</v>
+        <v>109.33333333333333</v>
       </c>
       <c r="J9" t="n">
-        <v>25.872</v>
+        <v>0.0</v>
       </c>
       <c r="K9" t="n">
-        <v>9.6</v>
+        <v>0.0</v>
       </c>
       <c r="L9" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="M9" t="n">
         <v>2016.0</v>
@@ -514,31 +514,31 @@
         <v>2695.0</v>
       </c>
       <c r="D10" t="n">
-        <v>7128.0</v>
+        <v>5954.0</v>
       </c>
       <c r="E10" t="n">
-        <v>2644.8979591836733</v>
+        <v>2209.2764378478664</v>
       </c>
       <c r="F10" t="n">
-        <v>228.45687830687828</v>
+        <v>233.56613756613754</v>
       </c>
       <c r="G10" t="n">
-        <v>313.0</v>
+        <v>320.0</v>
       </c>
       <c r="H10" t="n">
-        <v>94.07047930283224</v>
+        <v>95.40025337208435</v>
       </c>
       <c r="I10" t="n">
-        <v>128.88235294117646</v>
+        <v>130.70422535211267</v>
       </c>
       <c r="J10" t="n">
-        <v>75.46000000000001</v>
+        <v>25.872</v>
       </c>
       <c r="K10" t="n">
-        <v>28.000000000000004</v>
+        <v>9.6</v>
       </c>
       <c r="L10" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="M10" t="n">
         <v>2016.0</v>
@@ -555,31 +555,31 @@
         <v>2695.0</v>
       </c>
       <c r="D11" t="n">
-        <v>8597.0</v>
+        <v>7128.0</v>
       </c>
       <c r="E11" t="n">
-        <v>3189.9814471243044</v>
+        <v>2644.8979591836733</v>
       </c>
       <c r="F11" t="n">
-        <v>226.99708994708996</v>
+        <v>228.45687830687828</v>
       </c>
       <c r="G11" t="n">
-        <v>311.0</v>
+        <v>313.0</v>
       </c>
       <c r="H11" t="n">
-        <v>97.28446712018142</v>
+        <v>94.07047930283224</v>
       </c>
       <c r="I11" t="n">
-        <v>133.28571428571428</v>
+        <v>128.88235294117646</v>
       </c>
       <c r="J11" t="n">
-        <v>107.80000000000001</v>
+        <v>75.46000000000001</v>
       </c>
       <c r="K11" t="n">
-        <v>40.0</v>
+        <v>28.000000000000004</v>
       </c>
       <c r="L11" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="M11" t="n">
         <v>2016.0</v>
@@ -596,31 +596,31 @@
         <v>2695.0</v>
       </c>
       <c r="D12" t="n">
-        <v>10159.0</v>
+        <v>8597.0</v>
       </c>
       <c r="E12" t="n">
-        <v>3769.5732838589984</v>
+        <v>3189.9814471243044</v>
       </c>
       <c r="F12" t="n">
-        <v>225.53730158730156</v>
+        <v>226.99708994708996</v>
       </c>
       <c r="G12" t="n">
-        <v>309.0</v>
+        <v>311.0</v>
       </c>
       <c r="H12" t="n">
-        <v>101.32835288704852</v>
+        <v>97.28446712018142</v>
       </c>
       <c r="I12" t="n">
-        <v>138.82608695652175</v>
+        <v>133.28571428571428</v>
       </c>
       <c r="J12" t="n">
-        <v>210.21</v>
+        <v>107.80000000000001</v>
       </c>
       <c r="K12" t="n">
-        <v>78.0</v>
+        <v>40.0</v>
       </c>
       <c r="L12" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="M12" t="n">
         <v>2016.0</v>
@@ -637,31 +637,31 @@
         <v>2695.0</v>
       </c>
       <c r="D13" t="n">
-        <v>10850.0</v>
+        <v>10159.0</v>
       </c>
       <c r="E13" t="n">
-        <v>4025.974025974026</v>
+        <v>3769.5732838589984</v>
       </c>
       <c r="F13" t="n">
-        <v>219.69814814814814</v>
+        <v>225.53730158730156</v>
       </c>
       <c r="G13" t="n">
-        <v>301.0</v>
+        <v>309.0</v>
       </c>
       <c r="H13" t="n">
-        <v>103.38736383442266</v>
+        <v>101.32835288704852</v>
       </c>
       <c r="I13" t="n">
-        <v>141.64705882352942</v>
+        <v>138.82608695652175</v>
       </c>
       <c r="J13" t="n">
-        <v>203.742</v>
+        <v>210.21</v>
       </c>
       <c r="K13" t="n">
-        <v>75.6</v>
+        <v>78.0</v>
       </c>
       <c r="L13" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="M13" t="n">
         <v>2016.0</v>
@@ -678,34 +678,34 @@
         <v>3100.0</v>
       </c>
       <c r="D14" t="n">
-        <v>10697.0</v>
+        <v>11882.0</v>
       </c>
       <c r="E14" t="n">
-        <v>3450.6451612903224</v>
+        <v>3832.9032258064517</v>
       </c>
       <c r="F14" t="n">
-        <v>374.6115664845173</v>
+        <v>276.33902550091074</v>
       </c>
       <c r="G14" t="n">
-        <v>446.0</v>
+        <v>329.0</v>
       </c>
       <c r="H14" t="n">
-        <v>168.30374726115997</v>
+        <v>130.04189435336977</v>
       </c>
       <c r="I14" t="n">
-        <v>200.3768115942029</v>
+        <v>154.8235294117647</v>
       </c>
       <c r="J14" t="n">
-        <v>124.0</v>
+        <v>127.875</v>
       </c>
       <c r="K14" t="n">
-        <v>40.0</v>
+        <v>41.25</v>
       </c>
       <c r="L14" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="M14" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="15">
@@ -719,31 +719,31 @@
         <v>3100.0</v>
       </c>
       <c r="D15" t="n">
-        <v>8496.0</v>
+        <v>10697.0</v>
       </c>
       <c r="E15" t="n">
-        <v>2740.6451612903224</v>
+        <v>3450.6451612903224</v>
       </c>
       <c r="F15" t="n">
-        <v>364.53233151183974</v>
+        <v>374.6115664845173</v>
       </c>
       <c r="G15" t="n">
-        <v>434.0</v>
+        <v>446.0</v>
       </c>
       <c r="H15" t="n">
-        <v>156.22814207650276</v>
+        <v>168.30374726115997</v>
       </c>
       <c r="I15" t="n">
-        <v>151.0</v>
+        <v>200.3768115942029</v>
       </c>
       <c r="J15" t="n">
-        <v>116.25</v>
+        <v>124.0</v>
       </c>
       <c r="K15" t="n">
-        <v>37.5</v>
+        <v>40.0</v>
       </c>
       <c r="L15" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="M15" t="n">
         <v>2016.0</v>
@@ -760,31 +760,31 @@
         <v>3100.0</v>
       </c>
       <c r="D16" t="n">
-        <v>7698.0</v>
+        <v>8496.0</v>
       </c>
       <c r="E16" t="n">
-        <v>2483.2258064516127</v>
+        <v>2740.6451612903224</v>
       </c>
       <c r="F16" t="n">
-        <v>359.4927140255009</v>
+        <v>364.53233151183974</v>
       </c>
       <c r="G16" t="n">
-        <v>428.0</v>
+        <v>434.0</v>
       </c>
       <c r="H16" t="n">
-        <v>154.06830601092895</v>
+        <v>156.22814207650276</v>
       </c>
       <c r="I16" t="n">
-        <v>148.0</v>
+        <v>151.0</v>
       </c>
       <c r="J16" t="n">
-        <v>54.25000000000001</v>
+        <v>116.25</v>
       </c>
       <c r="K16" t="n">
-        <v>17.5</v>
+        <v>37.5</v>
       </c>
       <c r="L16" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="M16" t="n">
         <v>2016.0</v>
@@ -801,31 +801,31 @@
         <v>3100.0</v>
       </c>
       <c r="D17" t="n">
-        <v>6654.0</v>
+        <v>7698.0</v>
       </c>
       <c r="E17" t="n">
-        <v>2146.451612903226</v>
+        <v>2483.2258064516127</v>
       </c>
       <c r="F17" t="n">
-        <v>279.69877049180326</v>
+        <v>359.4927140255009</v>
       </c>
       <c r="G17" t="n">
         <v>428.0</v>
       </c>
       <c r="H17" t="n">
-        <v>108.77174408014571</v>
+        <v>154.06830601092895</v>
       </c>
       <c r="I17" t="n">
-        <v>129.5</v>
+        <v>148.0</v>
       </c>
       <c r="J17" t="n">
-        <v>32.550000000000004</v>
+        <v>54.25000000000001</v>
       </c>
       <c r="K17" t="n">
-        <v>10.5</v>
+        <v>17.5</v>
       </c>
       <c r="L17" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="M17" t="n">
         <v>2016.0</v>
@@ -842,31 +842,31 @@
         <v>3100.0</v>
       </c>
       <c r="D18" t="n">
-        <v>3529.0</v>
+        <v>6654.0</v>
       </c>
       <c r="E18" t="n">
-        <v>1022.7073011124614</v>
+        <v>2146.451612903226</v>
       </c>
       <c r="F18" t="n">
-        <v>305.73679417122037</v>
+        <v>279.69877049180326</v>
       </c>
       <c r="G18" t="n">
-        <v>364.0</v>
+        <v>428.0</v>
       </c>
       <c r="H18" t="n">
-        <v>81.27180604551428</v>
+        <v>108.77174408014571</v>
       </c>
       <c r="I18" t="n">
-        <v>96.75949367088607</v>
+        <v>129.5</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0</v>
+        <v>32.550000000000004</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0</v>
+        <v>10.5</v>
       </c>
       <c r="L18" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="M18" t="n">
         <v>2016.0</v>
@@ -883,10 +883,10 @@
         <v>3100.0</v>
       </c>
       <c r="D19" t="n">
-        <v>4084.0</v>
+        <v>3529.0</v>
       </c>
       <c r="E19" t="n">
-        <v>1317.4193548387098</v>
+        <v>1022.7073011124614</v>
       </c>
       <c r="F19" t="n">
         <v>305.73679417122037</v>
@@ -895,10 +895,10 @@
         <v>364.0</v>
       </c>
       <c r="H19" t="n">
-        <v>93.0503286608062</v>
+        <v>81.27180604551428</v>
       </c>
       <c r="I19" t="n">
-        <v>110.78260869565217</v>
+        <v>96.75949367088607</v>
       </c>
       <c r="J19" t="n">
         <v>0.0</v>
@@ -907,7 +907,7 @@
         <v>0.0</v>
       </c>
       <c r="L19" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="M19" t="n">
         <v>2016.0</v>
@@ -924,22 +924,22 @@
         <v>3100.0</v>
       </c>
       <c r="D20" t="n">
-        <v>5102.0</v>
+        <v>4084.0</v>
       </c>
       <c r="E20" t="n">
-        <v>2054.5856066510783</v>
+        <v>1317.4193548387098</v>
       </c>
       <c r="F20" t="n">
-        <v>293.1377504553734</v>
+        <v>305.73679417122037</v>
       </c>
       <c r="G20" t="n">
-        <v>349.0</v>
+        <v>364.0</v>
       </c>
       <c r="H20" t="n">
-        <v>97.71258348512447</v>
+        <v>93.0503286608062</v>
       </c>
       <c r="I20" t="n">
-        <v>116.33333333333333</v>
+        <v>110.78260869565217</v>
       </c>
       <c r="J20" t="n">
         <v>0.0</v>
@@ -948,7 +948,7 @@
         <v>0.0</v>
       </c>
       <c r="L20" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="M20" t="n">
         <v>2016.0</v>
@@ -965,31 +965,31 @@
         <v>3100.0</v>
       </c>
       <c r="D21" t="n">
-        <v>6889.0</v>
+        <v>5102.0</v>
       </c>
       <c r="E21" t="n">
-        <v>2222.2580645161293</v>
+        <v>2054.5856066510783</v>
       </c>
       <c r="F21" t="n">
-        <v>288.93806921675775</v>
+        <v>293.1377504553734</v>
       </c>
       <c r="G21" t="n">
-        <v>344.0</v>
+        <v>349.0</v>
       </c>
       <c r="H21" t="n">
-        <v>118.01695784909823</v>
+        <v>97.71258348512447</v>
       </c>
       <c r="I21" t="n">
-        <v>140.50704225352112</v>
+        <v>116.33333333333333</v>
       </c>
       <c r="J21" t="n">
-        <v>17.825</v>
+        <v>0.0</v>
       </c>
       <c r="K21" t="n">
-        <v>5.75</v>
+        <v>0.0</v>
       </c>
       <c r="L21" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="M21" t="n">
         <v>2016.0</v>
@@ -1006,31 +1006,31 @@
         <v>3100.0</v>
       </c>
       <c r="D22" t="n">
-        <v>7969.0</v>
+        <v>6889.0</v>
       </c>
       <c r="E22" t="n">
-        <v>2570.6451612903224</v>
+        <v>2222.2580645161293</v>
       </c>
       <c r="F22" t="n">
-        <v>284.7383879781421</v>
+        <v>288.93806921675775</v>
       </c>
       <c r="G22" t="n">
-        <v>339.0</v>
+        <v>344.0</v>
       </c>
       <c r="H22" t="n">
-        <v>117.24521857923499</v>
+        <v>118.01695784909823</v>
       </c>
       <c r="I22" t="n">
-        <v>139.58823529411765</v>
+        <v>140.50704225352112</v>
       </c>
       <c r="J22" t="n">
-        <v>62.0</v>
+        <v>17.825</v>
       </c>
       <c r="K22" t="n">
-        <v>20.0</v>
+        <v>5.75</v>
       </c>
       <c r="L22" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="M22" t="n">
         <v>2016.0</v>
@@ -1047,31 +1047,31 @@
         <v>3100.0</v>
       </c>
       <c r="D23" t="n">
-        <v>9723.0</v>
+        <v>7969.0</v>
       </c>
       <c r="E23" t="n">
-        <v>3136.451612903226</v>
+        <v>2570.6451612903224</v>
       </c>
       <c r="F23" t="n">
-        <v>278.85883424408013</v>
+        <v>284.7383879781421</v>
       </c>
       <c r="G23" t="n">
-        <v>332.0</v>
+        <v>339.0</v>
       </c>
       <c r="H23" t="n">
-        <v>119.51092896174863</v>
+        <v>117.24521857923499</v>
       </c>
       <c r="I23" t="n">
-        <v>142.28571428571428</v>
+        <v>139.58823529411765</v>
       </c>
       <c r="J23" t="n">
-        <v>85.25</v>
+        <v>62.0</v>
       </c>
       <c r="K23" t="n">
-        <v>27.5</v>
+        <v>20.0</v>
       </c>
       <c r="L23" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="M23" t="n">
         <v>2016.0</v>
@@ -1088,31 +1088,31 @@
         <v>3100.0</v>
       </c>
       <c r="D24" t="n">
-        <v>11387.0</v>
+        <v>9723.0</v>
       </c>
       <c r="E24" t="n">
-        <v>3673.2258064516127</v>
+        <v>3136.451612903226</v>
       </c>
       <c r="F24" t="n">
-        <v>277.17896174863387</v>
+        <v>278.85883424408013</v>
       </c>
       <c r="G24" t="n">
-        <v>330.0</v>
+        <v>332.0</v>
       </c>
       <c r="H24" t="n">
-        <v>124.52967846677754</v>
+        <v>119.51092896174863</v>
       </c>
       <c r="I24" t="n">
-        <v>148.2608695652174</v>
+        <v>142.28571428571428</v>
       </c>
       <c r="J24" t="n">
-        <v>155.0</v>
+        <v>85.25</v>
       </c>
       <c r="K24" t="n">
-        <v>50.0</v>
+        <v>27.5</v>
       </c>
       <c r="L24" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="M24" t="n">
         <v>2016.0</v>
@@ -1129,31 +1129,31 @@
         <v>3100.0</v>
       </c>
       <c r="D25" t="n">
-        <v>11882.0</v>
+        <v>11387.0</v>
       </c>
       <c r="E25" t="n">
-        <v>3832.9032258064517</v>
+        <v>3673.2258064516127</v>
       </c>
       <c r="F25" t="n">
-        <v>276.33902550091074</v>
+        <v>277.17896174863387</v>
       </c>
       <c r="G25" t="n">
-        <v>329.0</v>
+        <v>330.0</v>
       </c>
       <c r="H25" t="n">
-        <v>130.04189435336977</v>
+        <v>124.52967846677754</v>
       </c>
       <c r="I25" t="n">
-        <v>154.8235294117647</v>
+        <v>148.2608695652174</v>
       </c>
       <c r="J25" t="n">
-        <v>127.875</v>
+        <v>155.0</v>
       </c>
       <c r="K25" t="n">
-        <v>41.25</v>
+        <v>50.0</v>
       </c>
       <c r="L25" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="M25" t="n">
         <v>2016.0</v>
@@ -1170,22 +1170,22 @@
         <v>2800.0</v>
       </c>
       <c r="D26" t="n">
-        <v>10069.0</v>
+        <v>10985.0</v>
       </c>
       <c r="E26" t="n">
-        <v>3596.0714285714284</v>
+        <v>3923.214285714286</v>
       </c>
       <c r="F26" t="n">
-        <v>304.8320707070707</v>
+        <v>303.23190235690237</v>
       </c>
       <c r="G26" t="n">
-        <v>381.0</v>
+        <v>379.0</v>
       </c>
       <c r="H26" t="n">
-        <v>136.95353901332163</v>
+        <v>142.6973658150129</v>
       </c>
       <c r="I26" t="n">
-        <v>171.17391304347825</v>
+        <v>178.35294117647058</v>
       </c>
       <c r="J26" t="n">
         <v>136.07999999999998</v>
@@ -1194,10 +1194,10 @@
         <v>48.6</v>
       </c>
       <c r="L26" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="M26" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="27">
@@ -1211,31 +1211,31 @@
         <v>2800.0</v>
       </c>
       <c r="D27" t="n">
-        <v>7885.0</v>
+        <v>10069.0</v>
       </c>
       <c r="E27" t="n">
-        <v>2816.0714285714284</v>
+        <v>3596.0714285714284</v>
       </c>
       <c r="F27" t="n">
-        <v>306.43223905723903</v>
+        <v>304.8320707070707</v>
       </c>
       <c r="G27" t="n">
-        <v>383.0</v>
+        <v>381.0</v>
       </c>
       <c r="H27" t="n">
-        <v>131.32810245310245</v>
+        <v>136.95353901332163</v>
       </c>
       <c r="I27" t="n">
-        <v>164.14285714285714</v>
+        <v>171.17391304347825</v>
       </c>
       <c r="J27" t="n">
-        <v>113.39999999999999</v>
+        <v>136.07999999999998</v>
       </c>
       <c r="K27" t="n">
-        <v>40.5</v>
+        <v>48.6</v>
       </c>
       <c r="L27" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="M27" t="n">
         <v>2016.0</v>
@@ -1252,31 +1252,31 @@
         <v>2800.0</v>
       </c>
       <c r="D28" t="n">
-        <v>6954.0</v>
+        <v>7885.0</v>
       </c>
       <c r="E28" t="n">
-        <v>2483.5714285714284</v>
+        <v>2816.0714285714284</v>
       </c>
       <c r="F28" t="n">
-        <v>304.0319865319865</v>
+        <v>306.43223905723903</v>
       </c>
       <c r="G28" t="n">
-        <v>380.0</v>
+        <v>383.0</v>
       </c>
       <c r="H28" t="n">
-        <v>130.29942279942279</v>
+        <v>131.32810245310245</v>
       </c>
       <c r="I28" t="n">
-        <v>162.85714285714286</v>
+        <v>164.14285714285714</v>
       </c>
       <c r="J28" t="n">
-        <v>54.809999999999995</v>
+        <v>113.39999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>19.575</v>
+        <v>40.5</v>
       </c>
       <c r="L28" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="M28" t="n">
         <v>2016.0</v>
@@ -1293,31 +1293,31 @@
         <v>2800.0</v>
       </c>
       <c r="D29" t="n">
-        <v>6389.0</v>
+        <v>6954.0</v>
       </c>
       <c r="E29" t="n">
-        <v>2281.785714285714</v>
+        <v>2483.5714285714284</v>
       </c>
       <c r="F29" t="n">
-        <v>319.23358585858585</v>
+        <v>304.0319865319865</v>
       </c>
       <c r="G29" t="n">
         <v>380.0</v>
       </c>
       <c r="H29" t="n">
-        <v>124.14639450056117</v>
+        <v>130.29942279942279</v>
       </c>
       <c r="I29" t="n">
-        <v>155.16666666666666</v>
+        <v>162.85714285714286</v>
       </c>
       <c r="J29" t="n">
-        <v>34.019999999999996</v>
+        <v>54.809999999999995</v>
       </c>
       <c r="K29" t="n">
-        <v>12.15</v>
+        <v>19.575</v>
       </c>
       <c r="L29" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="M29" t="n">
         <v>2016.0</v>
@@ -1334,31 +1334,31 @@
         <v>2800.0</v>
       </c>
       <c r="D30" t="n">
-        <v>2810.0</v>
+        <v>6389.0</v>
       </c>
       <c r="E30" t="n">
-        <v>1003.5714285714286</v>
+        <v>2281.785714285714</v>
       </c>
       <c r="F30" t="n">
-        <v>340.03577441077437</v>
+        <v>319.23358585858585</v>
       </c>
       <c r="G30" t="n">
-        <v>425.0</v>
+        <v>380.0</v>
       </c>
       <c r="H30" t="n">
-        <v>90.38925648894002</v>
+        <v>124.14639450056117</v>
       </c>
       <c r="I30" t="n">
-        <v>112.9746835443038</v>
+        <v>155.16666666666666</v>
       </c>
       <c r="J30" t="n">
-        <v>0.0</v>
+        <v>34.019999999999996</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0</v>
+        <v>12.15</v>
       </c>
       <c r="L30" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="M30" t="n">
         <v>2016.0</v>
@@ -1375,22 +1375,22 @@
         <v>2800.0</v>
       </c>
       <c r="D31" t="n">
-        <v>3385.0</v>
+        <v>2810.0</v>
       </c>
       <c r="E31" t="n">
-        <v>1208.9285714285713</v>
+        <v>1003.5714285714286</v>
       </c>
       <c r="F31" t="n">
-        <v>337.6355218855219</v>
+        <v>340.03577441077437</v>
       </c>
       <c r="G31" t="n">
-        <v>422.0</v>
+        <v>425.0</v>
       </c>
       <c r="H31" t="n">
-        <v>102.75863709559361</v>
+        <v>90.38925648894002</v>
       </c>
       <c r="I31" t="n">
-        <v>128.43478260869566</v>
+        <v>112.9746835443038</v>
       </c>
       <c r="J31" t="n">
         <v>0.0</v>
@@ -1399,7 +1399,7 @@
         <v>0.0</v>
       </c>
       <c r="L31" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="M31" t="n">
         <v>2016.0</v>
@@ -1416,22 +1416,22 @@
         <v>2800.0</v>
       </c>
       <c r="D32" t="n">
-        <v>4395.0</v>
+        <v>3385.0</v>
       </c>
       <c r="E32" t="n">
-        <v>1569.642857142857</v>
+        <v>1208.9285714285713</v>
       </c>
       <c r="F32" t="n">
-        <v>332.0349326599327</v>
+        <v>337.6355218855219</v>
       </c>
       <c r="G32" t="n">
-        <v>415.0</v>
+        <v>422.0</v>
       </c>
       <c r="H32" t="n">
-        <v>110.67831088664423</v>
+        <v>102.75863709559361</v>
       </c>
       <c r="I32" t="n">
-        <v>138.33333333333334</v>
+        <v>128.43478260869566</v>
       </c>
       <c r="J32" t="n">
         <v>0.0</v>
@@ -1440,7 +1440,7 @@
         <v>0.0</v>
       </c>
       <c r="L32" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="M32" t="n">
         <v>2016.0</v>
@@ -1457,31 +1457,31 @@
         <v>2800.0</v>
       </c>
       <c r="D33" t="n">
-        <v>6128.0</v>
+        <v>4395.0</v>
       </c>
       <c r="E33" t="n">
-        <v>2188.5714285714284</v>
+        <v>1569.642857142857</v>
       </c>
       <c r="F33" t="n">
-        <v>322.4339225589225</v>
+        <v>332.0349326599327</v>
       </c>
       <c r="G33" t="n">
-        <v>403.0</v>
+        <v>415.0</v>
       </c>
       <c r="H33" t="n">
-        <v>131.69836273533457</v>
+        <v>110.67831088664423</v>
       </c>
       <c r="I33" t="n">
-        <v>164.6056338028169</v>
+        <v>138.33333333333334</v>
       </c>
       <c r="J33" t="n">
-        <v>20.79</v>
+        <v>0.0</v>
       </c>
       <c r="K33" t="n">
-        <v>7.425</v>
+        <v>0.0</v>
       </c>
       <c r="L33" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="M33" t="n">
         <v>2016.0</v>
@@ -1498,31 +1498,31 @@
         <v>2800.0</v>
       </c>
       <c r="D34" t="n">
-        <v>7302.0</v>
+        <v>6128.0</v>
       </c>
       <c r="E34" t="n">
-        <v>2607.8571428571427</v>
+        <v>2188.5714285714284</v>
       </c>
       <c r="F34" t="n">
-        <v>316.0332491582492</v>
+        <v>322.4339225589225</v>
       </c>
       <c r="G34" t="n">
-        <v>395.0</v>
+        <v>403.0</v>
       </c>
       <c r="H34" t="n">
-        <v>130.13133788869084</v>
+        <v>131.69836273533457</v>
       </c>
       <c r="I34" t="n">
-        <v>162.64705882352942</v>
+        <v>164.6056338028169</v>
       </c>
       <c r="J34" t="n">
-        <v>45.36</v>
+        <v>20.79</v>
       </c>
       <c r="K34" t="n">
-        <v>16.2</v>
+        <v>7.425</v>
       </c>
       <c r="L34" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="M34" t="n">
         <v>2016.0</v>
@@ -1539,31 +1539,31 @@
         <v>2800.0</v>
       </c>
       <c r="D35" t="n">
-        <v>8864.0</v>
+        <v>7302.0</v>
       </c>
       <c r="E35" t="n">
-        <v>3165.714285714286</v>
+        <v>2607.8571428571427</v>
       </c>
       <c r="F35" t="n">
-        <v>311.2327441077441</v>
+        <v>316.0332491582492</v>
       </c>
       <c r="G35" t="n">
-        <v>389.0</v>
+        <v>395.0</v>
       </c>
       <c r="H35" t="n">
-        <v>133.38546176046177</v>
+        <v>130.13133788869084</v>
       </c>
       <c r="I35" t="n">
-        <v>166.71428571428572</v>
+        <v>162.64705882352942</v>
       </c>
       <c r="J35" t="n">
-        <v>75.60000000000001</v>
+        <v>45.36</v>
       </c>
       <c r="K35" t="n">
-        <v>27.0</v>
+        <v>16.2</v>
       </c>
       <c r="L35" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="M35" t="n">
         <v>2016.0</v>
@@ -1580,31 +1580,31 @@
         <v>2800.0</v>
       </c>
       <c r="D36" t="n">
-        <v>10459.0</v>
+        <v>8864.0</v>
       </c>
       <c r="E36" t="n">
-        <v>3735.3571428571427</v>
+        <v>3165.714285714286</v>
       </c>
       <c r="F36" t="n">
-        <v>304.8320707070707</v>
+        <v>311.2327441077441</v>
       </c>
       <c r="G36" t="n">
-        <v>381.0</v>
+        <v>389.0</v>
       </c>
       <c r="H36" t="n">
-        <v>136.95353901332163</v>
+        <v>133.38546176046177</v>
       </c>
       <c r="I36" t="n">
-        <v>171.17391304347825</v>
+        <v>166.71428571428572</v>
       </c>
       <c r="J36" t="n">
-        <v>139.85999999999999</v>
+        <v>75.60000000000001</v>
       </c>
       <c r="K36" t="n">
-        <v>49.95</v>
+        <v>27.0</v>
       </c>
       <c r="L36" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="M36" t="n">
         <v>2016.0</v>
@@ -1621,31 +1621,31 @@
         <v>2800.0</v>
       </c>
       <c r="D37" t="n">
-        <v>10985.0</v>
+        <v>10459.0</v>
       </c>
       <c r="E37" t="n">
-        <v>3923.214285714286</v>
+        <v>3735.3571428571427</v>
       </c>
       <c r="F37" t="n">
-        <v>303.23190235690237</v>
+        <v>304.8320707070707</v>
       </c>
       <c r="G37" t="n">
-        <v>379.0</v>
+        <v>381.0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.6973658150129</v>
+        <v>136.95353901332163</v>
       </c>
       <c r="I37" t="n">
-        <v>178.35294117647058</v>
+        <v>171.17391304347825</v>
       </c>
       <c r="J37" t="n">
-        <v>136.07999999999998</v>
+        <v>139.85999999999999</v>
       </c>
       <c r="K37" t="n">
-        <v>48.6</v>
+        <v>49.95</v>
       </c>
       <c r="L37" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="M37" t="n">
         <v>2016.0</v>
@@ -1662,10 +1662,10 @@
         <v>6150.0</v>
       </c>
       <c r="D38" t="n">
-        <v>21938.0</v>
+        <v>23646.0</v>
       </c>
       <c r="E38" t="n">
-        <v>3567.1544715447153</v>
+        <v>3844.878048780488</v>
       </c>
       <c r="F38" t="n">
         <v>408.93424036281175</v>
@@ -1674,22 +1674,22 @@
         <v>284.0</v>
       </c>
       <c r="H38" t="n">
-        <v>183.7240790035821</v>
+        <v>192.43964252367613</v>
       </c>
       <c r="I38" t="n">
-        <v>127.59420289855072</v>
+        <v>133.64705882352942</v>
       </c>
       <c r="J38" t="n">
-        <v>204.48749999999998</v>
+        <v>212.667</v>
       </c>
       <c r="K38" t="n">
-        <v>33.25</v>
+        <v>34.58</v>
       </c>
       <c r="L38" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="M38" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="39">
@@ -1703,31 +1703,31 @@
         <v>6150.0</v>
       </c>
       <c r="D39" t="n">
-        <v>17696.0</v>
+        <v>21938.0</v>
       </c>
       <c r="E39" t="n">
-        <v>2877.39837398374</v>
+        <v>3567.1544715447153</v>
       </c>
       <c r="F39" t="n">
-        <v>407.4943310657597</v>
+        <v>408.93424036281175</v>
       </c>
       <c r="G39" t="n">
-        <v>283.0</v>
+        <v>284.0</v>
       </c>
       <c r="H39" t="n">
-        <v>174.6404275996113</v>
+        <v>183.7240790035821</v>
       </c>
       <c r="I39" t="n">
-        <v>121.28571428571429</v>
+        <v>127.59420289855072</v>
       </c>
       <c r="J39" t="n">
-        <v>169.43249999999998</v>
+        <v>204.48749999999998</v>
       </c>
       <c r="K39" t="n">
-        <v>27.549999999999997</v>
+        <v>33.25</v>
       </c>
       <c r="L39" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="M39" t="n">
         <v>2016.0</v>
@@ -1744,31 +1744,31 @@
         <v>6150.0</v>
       </c>
       <c r="D40" t="n">
-        <v>14358.0</v>
+        <v>17696.0</v>
       </c>
       <c r="E40" t="n">
-        <v>2334.6341463414633</v>
+        <v>2877.39837398374</v>
       </c>
       <c r="F40" t="n">
-        <v>406.05442176870747</v>
+        <v>407.4943310657597</v>
       </c>
       <c r="G40" t="n">
-        <v>282.0</v>
+        <v>283.0</v>
       </c>
       <c r="H40" t="n">
-        <v>174.02332361516034</v>
+        <v>174.6404275996113</v>
       </c>
       <c r="I40" t="n">
-        <v>120.85714285714286</v>
+        <v>121.28571428571429</v>
       </c>
       <c r="J40" t="n">
-        <v>82.9635</v>
+        <v>169.43249999999998</v>
       </c>
       <c r="K40" t="n">
-        <v>13.489999999999998</v>
+        <v>27.549999999999997</v>
       </c>
       <c r="L40" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="M40" t="n">
         <v>2016.0</v>
@@ -1785,31 +1785,31 @@
         <v>6150.0</v>
       </c>
       <c r="D41" t="n">
-        <v>12112.0</v>
+        <v>14358.0</v>
       </c>
       <c r="E41" t="n">
-        <v>1969.4308943089432</v>
+        <v>2334.6341463414633</v>
       </c>
       <c r="F41" t="n">
-        <v>416.13378684807265</v>
+        <v>406.05442176870747</v>
       </c>
       <c r="G41" t="n">
         <v>282.0</v>
       </c>
       <c r="H41" t="n">
-        <v>161.8298059964727</v>
+        <v>174.02332361516034</v>
       </c>
       <c r="I41" t="n">
-        <v>112.38888888888889</v>
+        <v>120.85714285714286</v>
       </c>
       <c r="J41" t="n">
-        <v>37.392</v>
+        <v>82.9635</v>
       </c>
       <c r="K41" t="n">
-        <v>6.08</v>
+        <v>13.489999999999998</v>
       </c>
       <c r="L41" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="M41" t="n">
         <v>2016.0</v>
@@ -1826,31 +1826,31 @@
         <v>6150.0</v>
       </c>
       <c r="D42" t="n">
-        <v>7287.0</v>
+        <v>12112.0</v>
       </c>
       <c r="E42" t="n">
-        <v>1184.878048780488</v>
+        <v>1969.4308943089432</v>
       </c>
       <c r="F42" t="n">
-        <v>455.0113378684807</v>
+        <v>416.13378684807265</v>
       </c>
       <c r="G42" t="n">
-        <v>316.0</v>
+        <v>282.0</v>
       </c>
       <c r="H42" t="n">
-        <v>120.95238095238095</v>
+        <v>161.8298059964727</v>
       </c>
       <c r="I42" t="n">
-        <v>84.0</v>
+        <v>112.38888888888889</v>
       </c>
       <c r="J42" t="n">
-        <v>0.0</v>
+        <v>37.392</v>
       </c>
       <c r="K42" t="n">
-        <v>0.0</v>
+        <v>6.08</v>
       </c>
       <c r="L42" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="M42" t="n">
         <v>2016.0</v>
@@ -1867,22 +1867,22 @@
         <v>6150.0</v>
       </c>
       <c r="D43" t="n">
-        <v>8628.0</v>
+        <v>7287.0</v>
       </c>
       <c r="E43" t="n">
-        <v>1402.9268292682927</v>
+        <v>1184.878048780488</v>
       </c>
       <c r="F43" t="n">
-        <v>456.45124716553283</v>
+        <v>455.0113378684807</v>
       </c>
       <c r="G43" t="n">
-        <v>317.0</v>
+        <v>316.0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.91994478951</v>
+        <v>120.95238095238095</v>
       </c>
       <c r="I43" t="n">
-        <v>96.47826086956522</v>
+        <v>84.0</v>
       </c>
       <c r="J43" t="n">
         <v>0.0</v>
@@ -1891,7 +1891,7 @@
         <v>0.0</v>
       </c>
       <c r="L43" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="M43" t="n">
         <v>2016.0</v>
@@ -1908,22 +1908,22 @@
         <v>6150.0</v>
       </c>
       <c r="D44" t="n">
-        <v>11359.0</v>
+        <v>8628.0</v>
       </c>
       <c r="E44" t="n">
-        <v>1846.9918699186992</v>
+        <v>1402.9268292682927</v>
       </c>
       <c r="F44" t="n">
-        <v>444.9319727891156</v>
+        <v>456.45124716553283</v>
       </c>
       <c r="G44" t="n">
-        <v>309.0</v>
+        <v>317.0</v>
       </c>
       <c r="H44" t="n">
-        <v>148.31065759637187</v>
+        <v>138.91994478951</v>
       </c>
       <c r="I44" t="n">
-        <v>103.0</v>
+        <v>96.47826086956522</v>
       </c>
       <c r="J44" t="n">
         <v>0.0</v>
@@ -1932,7 +1932,7 @@
         <v>0.0</v>
       </c>
       <c r="L44" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="M44" t="n">
         <v>2016.0</v>
@@ -1949,31 +1949,31 @@
         <v>6150.0</v>
       </c>
       <c r="D45" t="n">
-        <v>14269.0</v>
+        <v>11359.0</v>
       </c>
       <c r="E45" t="n">
-        <v>2320.162601626016</v>
+        <v>1846.9918699186992</v>
       </c>
       <c r="F45" t="n">
-        <v>439.1723356009071</v>
+        <v>444.9319727891156</v>
       </c>
       <c r="G45" t="n">
-        <v>305.0</v>
+        <v>309.0</v>
       </c>
       <c r="H45" t="n">
-        <v>179.38024975248317</v>
+        <v>148.31065759637187</v>
       </c>
       <c r="I45" t="n">
-        <v>124.5774647887324</v>
+        <v>103.0</v>
       </c>
       <c r="J45" t="n">
-        <v>31.5495</v>
+        <v>0.0</v>
       </c>
       <c r="K45" t="n">
-        <v>5.13</v>
+        <v>0.0</v>
       </c>
       <c r="L45" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="M45" t="n">
         <v>2016.0</v>
@@ -1990,31 +1990,31 @@
         <v>6150.0</v>
       </c>
       <c r="D46" t="n">
-        <v>16389.0</v>
+        <v>14269.0</v>
       </c>
       <c r="E46" t="n">
-        <v>2664.878048780488</v>
+        <v>2320.162601626016</v>
       </c>
       <c r="F46" t="n">
-        <v>416.13378684807265</v>
+        <v>439.1723356009071</v>
       </c>
       <c r="G46" t="n">
-        <v>289.0</v>
+        <v>305.0</v>
       </c>
       <c r="H46" t="n">
-        <v>171.34920634920638</v>
+        <v>179.38024975248317</v>
       </c>
       <c r="I46" t="n">
-        <v>119.0</v>
+        <v>124.5774647887324</v>
       </c>
       <c r="J46" t="n">
-        <v>78.2895</v>
+        <v>31.5495</v>
       </c>
       <c r="K46" t="n">
-        <v>12.73</v>
+        <v>5.13</v>
       </c>
       <c r="L46" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="M46" t="n">
         <v>2016.0</v>
@@ -2031,31 +2031,31 @@
         <v>6150.0</v>
       </c>
       <c r="D47" t="n">
-        <v>19093.0</v>
+        <v>16389.0</v>
       </c>
       <c r="E47" t="n">
-        <v>3104.5528455284552</v>
+        <v>2664.878048780488</v>
       </c>
       <c r="F47" t="n">
-        <v>411.81405895691614</v>
+        <v>416.13378684807265</v>
       </c>
       <c r="G47" t="n">
-        <v>286.0</v>
+        <v>289.0</v>
       </c>
       <c r="H47" t="n">
-        <v>176.49173955296408</v>
+        <v>171.34920634920638</v>
       </c>
       <c r="I47" t="n">
-        <v>122.57142857142857</v>
+        <v>119.0</v>
       </c>
       <c r="J47" t="n">
-        <v>132.0405</v>
+        <v>78.2895</v>
       </c>
       <c r="K47" t="n">
-        <v>21.47</v>
+        <v>12.73</v>
       </c>
       <c r="L47" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="M47" t="n">
         <v>2016.0</v>
@@ -2072,31 +2072,31 @@
         <v>6150.0</v>
       </c>
       <c r="D48" t="n">
-        <v>22184.0</v>
+        <v>19093.0</v>
       </c>
       <c r="E48" t="n">
-        <v>3607.1544715447153</v>
+        <v>3104.5528455284552</v>
       </c>
       <c r="F48" t="n">
-        <v>408.93424036281175</v>
+        <v>411.81405895691614</v>
       </c>
       <c r="G48" t="n">
-        <v>284.0</v>
+        <v>286.0</v>
       </c>
       <c r="H48" t="n">
-        <v>183.7240790035821</v>
+        <v>176.49173955296408</v>
       </c>
       <c r="I48" t="n">
-        <v>127.59420289855072</v>
+        <v>122.57142857142857</v>
       </c>
       <c r="J48" t="n">
-        <v>219.678</v>
+        <v>132.0405</v>
       </c>
       <c r="K48" t="n">
-        <v>35.72</v>
+        <v>21.47</v>
       </c>
       <c r="L48" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="M48" t="n">
         <v>2016.0</v>
@@ -2113,10 +2113,10 @@
         <v>6150.0</v>
       </c>
       <c r="D49" t="n">
-        <v>23646.0</v>
+        <v>22184.0</v>
       </c>
       <c r="E49" t="n">
-        <v>3844.878048780488</v>
+        <v>3607.1544715447153</v>
       </c>
       <c r="F49" t="n">
         <v>408.93424036281175</v>
@@ -2125,19 +2125,19 @@
         <v>284.0</v>
       </c>
       <c r="H49" t="n">
-        <v>192.43964252367613</v>
+        <v>183.7240790035821</v>
       </c>
       <c r="I49" t="n">
-        <v>133.64705882352942</v>
+        <v>127.59420289855072</v>
       </c>
       <c r="J49" t="n">
-        <v>212.667</v>
+        <v>219.678</v>
       </c>
       <c r="K49" t="n">
-        <v>34.58</v>
+        <v>35.72</v>
       </c>
       <c r="L49" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="M49" t="n">
         <v>2016.0</v>
@@ -2154,34 +2154,34 @@
         <v>6430.0</v>
       </c>
       <c r="D50" t="n">
-        <v>21903.0</v>
+        <v>24623.0</v>
       </c>
       <c r="E50" t="n">
-        <v>3406.3763608087093</v>
+        <v>3829.393468118196</v>
       </c>
       <c r="F50" t="n">
-        <v>447.0064724919094</v>
+        <v>448.49649406688235</v>
       </c>
       <c r="G50" t="n">
-        <v>300.0</v>
+        <v>301.0</v>
       </c>
       <c r="H50" t="n">
-        <v>200.82899488766944</v>
+        <v>211.05717367853288</v>
       </c>
       <c r="I50" t="n">
-        <v>134.7826086956522</v>
+        <v>141.64705882352942</v>
       </c>
       <c r="J50" t="n">
-        <v>322.14300000000003</v>
+        <v>343.36199999999997</v>
       </c>
       <c r="K50" t="n">
-        <v>50.1</v>
+        <v>53.4</v>
       </c>
       <c r="L50" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="M50" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="51">
@@ -2195,31 +2195,31 @@
         <v>6430.0</v>
       </c>
       <c r="D51" t="n">
-        <v>18769.0</v>
+        <v>21903.0</v>
       </c>
       <c r="E51" t="n">
-        <v>2918.9735614307933</v>
+        <v>3406.3763608087093</v>
       </c>
       <c r="F51" t="n">
-        <v>449.9865156418554</v>
+        <v>447.0064724919094</v>
       </c>
       <c r="G51" t="n">
-        <v>302.0</v>
+        <v>300.0</v>
       </c>
       <c r="H51" t="n">
-        <v>192.85136384650946</v>
+        <v>200.82899488766944</v>
       </c>
       <c r="I51" t="n">
-        <v>129.42857142857142</v>
+        <v>134.7826086956522</v>
       </c>
       <c r="J51" t="n">
-        <v>279.705</v>
+        <v>322.14300000000003</v>
       </c>
       <c r="K51" t="n">
-        <v>43.5</v>
+        <v>50.1</v>
       </c>
       <c r="L51" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="M51" t="n">
         <v>2016.0</v>
@@ -2236,31 +2236,31 @@
         <v>6430.0</v>
       </c>
       <c r="D52" t="n">
-        <v>15421.0</v>
+        <v>18769.0</v>
       </c>
       <c r="E52" t="n">
-        <v>2398.2892690513218</v>
+        <v>2918.9735614307933</v>
       </c>
       <c r="F52" t="n">
-        <v>447.0064724919094</v>
+        <v>449.9865156418554</v>
       </c>
       <c r="G52" t="n">
-        <v>300.0</v>
+        <v>302.0</v>
       </c>
       <c r="H52" t="n">
-        <v>191.5742024965326</v>
+        <v>192.85136384650946</v>
       </c>
       <c r="I52" t="n">
-        <v>128.57142857142858</v>
+        <v>129.42857142857142</v>
       </c>
       <c r="J52" t="n">
-        <v>138.50220000000002</v>
+        <v>279.705</v>
       </c>
       <c r="K52" t="n">
-        <v>21.54</v>
+        <v>43.5</v>
       </c>
       <c r="L52" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="M52" t="n">
         <v>2016.0</v>
@@ -2277,31 +2277,31 @@
         <v>6430.0</v>
       </c>
       <c r="D53" t="n">
-        <v>13259.0</v>
+        <v>15421.0</v>
       </c>
       <c r="E53" t="n">
-        <v>2062.052877138414</v>
+        <v>2398.2892690513218</v>
       </c>
       <c r="F53" t="n">
-        <v>469.3567961165048</v>
+        <v>447.0064724919094</v>
       </c>
       <c r="G53" t="n">
         <v>300.0</v>
       </c>
       <c r="H53" t="n">
-        <v>182.5276429341963</v>
+        <v>191.5742024965326</v>
       </c>
       <c r="I53" t="n">
-        <v>122.5</v>
+        <v>128.57142857142858</v>
       </c>
       <c r="J53" t="n">
-        <v>81.018</v>
+        <v>138.50220000000002</v>
       </c>
       <c r="K53" t="n">
-        <v>12.600000000000001</v>
+        <v>21.54</v>
       </c>
       <c r="L53" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="M53" t="n">
         <v>2016.0</v>
@@ -2318,31 +2318,31 @@
         <v>6430.0</v>
       </c>
       <c r="D54" t="n">
-        <v>7801.0</v>
+        <v>13259.0</v>
       </c>
       <c r="E54" t="n">
-        <v>1213.2192846034216</v>
+        <v>2062.052877138414</v>
       </c>
       <c r="F54" t="n">
-        <v>496.1771844660194</v>
+        <v>469.3567961165048</v>
       </c>
       <c r="G54" t="n">
-        <v>333.0</v>
+        <v>300.0</v>
       </c>
       <c r="H54" t="n">
-        <v>131.89520093400515</v>
+        <v>182.5276429341963</v>
       </c>
       <c r="I54" t="n">
-        <v>88.51898734177215</v>
+        <v>122.5</v>
       </c>
       <c r="J54" t="n">
-        <v>0.0</v>
+        <v>81.018</v>
       </c>
       <c r="K54" t="n">
-        <v>0.0</v>
+        <v>12.600000000000001</v>
       </c>
       <c r="L54" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="M54" t="n">
         <v>2016.0</v>
@@ -2359,22 +2359,22 @@
         <v>6430.0</v>
       </c>
       <c r="D55" t="n">
-        <v>9602.0</v>
+        <v>7801.0</v>
       </c>
       <c r="E55" t="n">
-        <v>1493.3125972006221</v>
+        <v>1213.2192846034216</v>
       </c>
       <c r="F55" t="n">
-        <v>497.6672060409925</v>
+        <v>496.1771844660194</v>
       </c>
       <c r="G55" t="n">
-        <v>334.0</v>
+        <v>333.0</v>
       </c>
       <c r="H55" t="n">
-        <v>151.46393227334553</v>
+        <v>131.89520093400515</v>
       </c>
       <c r="I55" t="n">
-        <v>101.65217391304348</v>
+        <v>88.51898734177215</v>
       </c>
       <c r="J55" t="n">
         <v>0.0</v>
@@ -2383,7 +2383,7 @@
         <v>0.0</v>
       </c>
       <c r="L55" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="M55" t="n">
         <v>2016.0</v>
@@ -2400,22 +2400,22 @@
         <v>6430.0</v>
       </c>
       <c r="D56" t="n">
-        <v>12325.0</v>
+        <v>9602.0</v>
       </c>
       <c r="E56" t="n">
-        <v>1916.796267496112</v>
+        <v>1493.3125972006221</v>
       </c>
       <c r="F56" t="n">
-        <v>464.8867313915858</v>
+        <v>497.6672060409925</v>
       </c>
       <c r="G56" t="n">
-        <v>312.0</v>
+        <v>334.0</v>
       </c>
       <c r="H56" t="n">
-        <v>154.96224379719527</v>
+        <v>151.46393227334553</v>
       </c>
       <c r="I56" t="n">
-        <v>104.0</v>
+        <v>101.65217391304348</v>
       </c>
       <c r="J56" t="n">
         <v>0.0</v>
@@ -2424,7 +2424,7 @@
         <v>0.0</v>
       </c>
       <c r="L56" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="M56" t="n">
         <v>2016.0</v>
@@ -2441,31 +2441,31 @@
         <v>6430.0</v>
       </c>
       <c r="D57" t="n">
-        <v>15212.0</v>
+        <v>12325.0</v>
       </c>
       <c r="E57" t="n">
-        <v>2365.7853810264387</v>
+        <v>1916.796267496112</v>
       </c>
       <c r="F57" t="n">
-        <v>458.9266450916937</v>
+        <v>464.8867313915858</v>
       </c>
       <c r="G57" t="n">
-        <v>308.0</v>
+        <v>312.0</v>
       </c>
       <c r="H57" t="n">
-        <v>187.44891137548052</v>
+        <v>154.96224379719527</v>
       </c>
       <c r="I57" t="n">
-        <v>125.80281690140845</v>
+        <v>104.0</v>
       </c>
       <c r="J57" t="n">
-        <v>60.184799999999996</v>
+        <v>0.0</v>
       </c>
       <c r="K57" t="n">
-        <v>9.36</v>
+        <v>0.0</v>
       </c>
       <c r="L57" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="M57" t="n">
         <v>2016.0</v>
@@ -2482,31 +2482,31 @@
         <v>6430.0</v>
       </c>
       <c r="D58" t="n">
-        <v>17060.0</v>
+        <v>15212.0</v>
       </c>
       <c r="E58" t="n">
-        <v>2653.1881804043546</v>
+        <v>2365.7853810264387</v>
       </c>
       <c r="F58" t="n">
-        <v>449.9865156418554</v>
+        <v>458.9266450916937</v>
       </c>
       <c r="G58" t="n">
-        <v>302.0</v>
+        <v>308.0</v>
       </c>
       <c r="H58" t="n">
-        <v>185.2885652642934</v>
+        <v>187.44891137548052</v>
       </c>
       <c r="I58" t="n">
-        <v>124.3529411764706</v>
+        <v>125.80281690140845</v>
       </c>
       <c r="J58" t="n">
-        <v>125.385</v>
+        <v>60.184799999999996</v>
       </c>
       <c r="K58" t="n">
-        <v>19.5</v>
+        <v>9.36</v>
       </c>
       <c r="L58" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="M58" t="n">
         <v>2016.0</v>
@@ -2523,31 +2523,31 @@
         <v>6430.0</v>
       </c>
       <c r="D59" t="n">
-        <v>20098.0</v>
+        <v>17060.0</v>
       </c>
       <c r="E59" t="n">
-        <v>3125.660964230171</v>
+        <v>2653.1881804043546</v>
       </c>
       <c r="F59" t="n">
-        <v>447.0064724919094</v>
+        <v>449.9865156418554</v>
       </c>
       <c r="G59" t="n">
-        <v>300.0</v>
+        <v>302.0</v>
       </c>
       <c r="H59" t="n">
-        <v>191.5742024965326</v>
+        <v>185.2885652642934</v>
       </c>
       <c r="I59" t="n">
-        <v>128.57142857142858</v>
+        <v>124.3529411764706</v>
       </c>
       <c r="J59" t="n">
-        <v>216.048</v>
+        <v>125.385</v>
       </c>
       <c r="K59" t="n">
-        <v>33.6</v>
+        <v>19.5</v>
       </c>
       <c r="L59" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="M59" t="n">
         <v>2016.0</v>
@@ -2564,31 +2564,31 @@
         <v>6430.0</v>
       </c>
       <c r="D60" t="n">
-        <v>23189.0</v>
+        <v>20098.0</v>
       </c>
       <c r="E60" t="n">
-        <v>3606.3763608087093</v>
+        <v>3125.660964230171</v>
       </c>
       <c r="F60" t="n">
-        <v>448.49649406688235</v>
+        <v>447.0064724919094</v>
       </c>
       <c r="G60" t="n">
-        <v>301.0</v>
+        <v>300.0</v>
       </c>
       <c r="H60" t="n">
-        <v>201.49842487062833</v>
+        <v>191.5742024965326</v>
       </c>
       <c r="I60" t="n">
-        <v>135.231884057971</v>
+        <v>128.57142857142858</v>
       </c>
       <c r="J60" t="n">
-        <v>362.652</v>
+        <v>216.048</v>
       </c>
       <c r="K60" t="n">
-        <v>56.4</v>
+        <v>33.6</v>
       </c>
       <c r="L60" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="M60" t="n">
         <v>2016.0</v>
@@ -2605,10 +2605,10 @@
         <v>6430.0</v>
       </c>
       <c r="D61" t="n">
-        <v>24623.0</v>
+        <v>23189.0</v>
       </c>
       <c r="E61" t="n">
-        <v>3829.393468118196</v>
+        <v>3606.3763608087093</v>
       </c>
       <c r="F61" t="n">
         <v>448.49649406688235</v>
@@ -2617,19 +2617,19 @@
         <v>301.0</v>
       </c>
       <c r="H61" t="n">
-        <v>211.05717367853288</v>
+        <v>201.49842487062833</v>
       </c>
       <c r="I61" t="n">
-        <v>141.64705882352942</v>
+        <v>135.231884057971</v>
       </c>
       <c r="J61" t="n">
-        <v>343.36199999999997</v>
+        <v>362.652</v>
       </c>
       <c r="K61" t="n">
-        <v>53.4</v>
+        <v>56.4</v>
       </c>
       <c r="L61" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="M61" t="n">
         <v>2016.0</v>
@@ -2646,34 +2646,34 @@
         <v>6435.0</v>
       </c>
       <c r="D62" t="n">
-        <v>22231.0</v>
+        <v>24856.0</v>
       </c>
       <c r="E62" t="n">
-        <v>3454.7008547008545</v>
+        <v>3862.626262626263</v>
       </c>
       <c r="F62" t="n">
-        <v>347.74385964912284</v>
+        <v>349.0038011695906</v>
       </c>
       <c r="G62" t="n">
-        <v>276.0</v>
+        <v>277.0</v>
       </c>
       <c r="H62" t="n">
-        <v>156.23274853801172</v>
+        <v>164.23708290333676</v>
       </c>
       <c r="I62" t="n">
-        <v>124.0</v>
+        <v>130.35294117647058</v>
       </c>
       <c r="J62" t="n">
-        <v>281.53125</v>
+        <v>292.7925</v>
       </c>
       <c r="K62" t="n">
-        <v>43.75</v>
+        <v>45.5</v>
       </c>
       <c r="L62" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="M62" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="63">
@@ -2687,31 +2687,31 @@
         <v>6435.0</v>
       </c>
       <c r="D63" t="n">
-        <v>19002.0</v>
+        <v>22231.0</v>
       </c>
       <c r="E63" t="n">
-        <v>2952.913752913753</v>
+        <v>3454.7008547008545</v>
       </c>
       <c r="F63" t="n">
-        <v>341.44415204678364</v>
+        <v>347.74385964912284</v>
       </c>
       <c r="G63" t="n">
-        <v>271.0</v>
+        <v>276.0</v>
       </c>
       <c r="H63" t="n">
-        <v>146.33320802005014</v>
+        <v>156.23274853801172</v>
       </c>
       <c r="I63" t="n">
-        <v>116.14285714285714</v>
+        <v>124.0</v>
       </c>
       <c r="J63" t="n">
-        <v>225.22500000000002</v>
+        <v>281.53125</v>
       </c>
       <c r="K63" t="n">
-        <v>35.0</v>
+        <v>43.75</v>
       </c>
       <c r="L63" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="M63" t="n">
         <v>2016.0</v>
@@ -2728,31 +2728,31 @@
         <v>6435.0</v>
       </c>
       <c r="D64" t="n">
-        <v>15682.0</v>
+        <v>19002.0</v>
       </c>
       <c r="E64" t="n">
-        <v>2436.985236985237</v>
+        <v>2952.913752913753</v>
       </c>
       <c r="F64" t="n">
-        <v>342.70409356725145</v>
+        <v>341.44415204678364</v>
       </c>
       <c r="G64" t="n">
-        <v>272.0</v>
+        <v>271.0</v>
       </c>
       <c r="H64" t="n">
-        <v>146.87318295739348</v>
+        <v>146.33320802005014</v>
       </c>
       <c r="I64" t="n">
-        <v>116.57142857142857</v>
+        <v>116.14285714285714</v>
       </c>
       <c r="J64" t="n">
-        <v>107.78625000000001</v>
+        <v>225.22500000000002</v>
       </c>
       <c r="K64" t="n">
-        <v>16.75</v>
+        <v>35.0</v>
       </c>
       <c r="L64" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="M64" t="n">
         <v>2016.0</v>
@@ -2769,31 +2769,31 @@
         <v>6435.0</v>
       </c>
       <c r="D65" t="n">
-        <v>13597.0</v>
+        <v>15682.0</v>
       </c>
       <c r="E65" t="n">
-        <v>2112.975912975913</v>
+        <v>2436.985236985237</v>
       </c>
       <c r="F65" t="n">
-        <v>360.3432748538011</v>
+        <v>342.70409356725145</v>
       </c>
       <c r="G65" t="n">
         <v>272.0</v>
       </c>
       <c r="H65" t="n">
-        <v>140.1334957764782</v>
+        <v>146.87318295739348</v>
       </c>
       <c r="I65" t="n">
-        <v>111.22222222222223</v>
+        <v>116.57142857142857</v>
       </c>
       <c r="J65" t="n">
-        <v>59.52375</v>
+        <v>107.78625000000001</v>
       </c>
       <c r="K65" t="n">
-        <v>9.25</v>
+        <v>16.75</v>
       </c>
       <c r="L65" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="M65" t="n">
         <v>2016.0</v>
@@ -2810,31 +2810,31 @@
         <v>6435.0</v>
       </c>
       <c r="D66" t="n">
-        <v>8264.0</v>
+        <v>13597.0</v>
       </c>
       <c r="E66" t="n">
-        <v>1284.2268842268843</v>
+        <v>2112.975912975913</v>
       </c>
       <c r="F66" t="n">
-        <v>393.1017543859649</v>
+        <v>360.3432748538011</v>
       </c>
       <c r="G66" t="n">
-        <v>312.0</v>
+        <v>272.0</v>
       </c>
       <c r="H66" t="n">
-        <v>104.49540306462359</v>
+        <v>140.1334957764782</v>
       </c>
       <c r="I66" t="n">
-        <v>82.9367088607595</v>
+        <v>111.22222222222223</v>
       </c>
       <c r="J66" t="n">
-        <v>0.0</v>
+        <v>59.52375</v>
       </c>
       <c r="K66" t="n">
-        <v>0.0</v>
+        <v>9.25</v>
       </c>
       <c r="L66" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="M66" t="n">
         <v>2016.0</v>
@@ -2851,22 +2851,22 @@
         <v>6435.0</v>
       </c>
       <c r="D67" t="n">
-        <v>9992.0</v>
+        <v>8264.0</v>
       </c>
       <c r="E67" t="n">
-        <v>1552.7583527583527</v>
+        <v>1284.2268842268843</v>
       </c>
       <c r="F67" t="n">
-        <v>390.5818713450292</v>
+        <v>393.1017543859649</v>
       </c>
       <c r="G67" t="n">
-        <v>310.0</v>
+        <v>312.0</v>
       </c>
       <c r="H67" t="n">
-        <v>118.87274345283497</v>
+        <v>104.49540306462359</v>
       </c>
       <c r="I67" t="n">
-        <v>94.34782608695652</v>
+        <v>82.9367088607595</v>
       </c>
       <c r="J67" t="n">
         <v>0.0</v>
@@ -2875,7 +2875,7 @@
         <v>0.0</v>
       </c>
       <c r="L67" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="M67" t="n">
         <v>2016.0</v>
@@ -2892,22 +2892,22 @@
         <v>6435.0</v>
       </c>
       <c r="D68" t="n">
-        <v>12759.0</v>
+        <v>9992.0</v>
       </c>
       <c r="E68" t="n">
-        <v>1982.7505827505827</v>
+        <v>1552.7583527583527</v>
       </c>
       <c r="F68" t="n">
-        <v>365.38304093567245</v>
+        <v>390.5818713450292</v>
       </c>
       <c r="G68" t="n">
-        <v>290.0</v>
+        <v>310.0</v>
       </c>
       <c r="H68" t="n">
-        <v>121.79434697855748</v>
+        <v>118.87274345283497</v>
       </c>
       <c r="I68" t="n">
-        <v>96.66666666666667</v>
+        <v>94.34782608695652</v>
       </c>
       <c r="J68" t="n">
         <v>0.0</v>
@@ -2916,7 +2916,7 @@
         <v>0.0</v>
       </c>
       <c r="L68" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="M68" t="n">
         <v>2016.0</v>
@@ -2933,31 +2933,31 @@
         <v>6435.0</v>
       </c>
       <c r="D69" t="n">
-        <v>15503.0</v>
+        <v>12759.0</v>
       </c>
       <c r="E69" t="n">
-        <v>2409.1686091686092</v>
+        <v>1982.7505827505827</v>
       </c>
       <c r="F69" t="n">
-        <v>359.08333333333337</v>
+        <v>365.38304093567245</v>
       </c>
       <c r="G69" t="n">
-        <v>285.0</v>
+        <v>290.0</v>
       </c>
       <c r="H69" t="n">
-        <v>146.66784037558688</v>
+        <v>121.79434697855748</v>
       </c>
       <c r="I69" t="n">
-        <v>116.40845070422536</v>
+        <v>96.66666666666667</v>
       </c>
       <c r="J69" t="n">
-        <v>43.43625</v>
+        <v>0.0</v>
       </c>
       <c r="K69" t="n">
-        <v>6.75</v>
+        <v>0.0</v>
       </c>
       <c r="L69" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="M69" t="n">
         <v>2016.0</v>
@@ -2974,31 +2974,31 @@
         <v>6435.0</v>
       </c>
       <c r="D70" t="n">
-        <v>17264.0</v>
+        <v>15503.0</v>
       </c>
       <c r="E70" t="n">
-        <v>2682.8282828282827</v>
+        <v>2409.1686091686092</v>
       </c>
       <c r="F70" t="n">
-        <v>355.30350877192984</v>
+        <v>359.08333333333337</v>
       </c>
       <c r="G70" t="n">
-        <v>282.0</v>
+        <v>285.0</v>
       </c>
       <c r="H70" t="n">
-        <v>146.3014447884417</v>
+        <v>146.66784037558688</v>
       </c>
       <c r="I70" t="n">
-        <v>116.11764705882354</v>
+        <v>116.40845070422536</v>
       </c>
       <c r="J70" t="n">
-        <v>123.87375</v>
+        <v>43.43625</v>
       </c>
       <c r="K70" t="n">
-        <v>19.25</v>
+        <v>6.75</v>
       </c>
       <c r="L70" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="M70" t="n">
         <v>2016.0</v>
@@ -3015,31 +3015,31 @@
         <v>6435.0</v>
       </c>
       <c r="D71" t="n">
-        <v>20264.0</v>
+        <v>17264.0</v>
       </c>
       <c r="E71" t="n">
-        <v>3149.028749028749</v>
+        <v>2682.8282828282827</v>
       </c>
       <c r="F71" t="n">
-        <v>352.7836257309942</v>
+        <v>355.30350877192984</v>
       </c>
       <c r="G71" t="n">
-        <v>280.0</v>
+        <v>282.0</v>
       </c>
       <c r="H71" t="n">
-        <v>151.19298245614036</v>
+        <v>146.3014447884417</v>
       </c>
       <c r="I71" t="n">
-        <v>120.0</v>
+        <v>116.11764705882354</v>
       </c>
       <c r="J71" t="n">
-        <v>168.91875</v>
+        <v>123.87375</v>
       </c>
       <c r="K71" t="n">
-        <v>26.25</v>
+        <v>19.25</v>
       </c>
       <c r="L71" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="M71" t="n">
         <v>2016.0</v>
@@ -3056,31 +3056,31 @@
         <v>6435.0</v>
       </c>
       <c r="D72" t="n">
-        <v>23421.0</v>
+        <v>20264.0</v>
       </c>
       <c r="E72" t="n">
-        <v>3639.6270396270397</v>
+        <v>3149.028749028749</v>
       </c>
       <c r="F72" t="n">
-        <v>351.52368421052626</v>
+        <v>352.7836257309942</v>
       </c>
       <c r="G72" t="n">
-        <v>279.0</v>
+        <v>280.0</v>
       </c>
       <c r="H72" t="n">
-        <v>157.93093058733788</v>
+        <v>151.19298245614036</v>
       </c>
       <c r="I72" t="n">
-        <v>125.34782608695652</v>
+        <v>120.0</v>
       </c>
       <c r="J72" t="n">
-        <v>305.6625</v>
+        <v>168.91875</v>
       </c>
       <c r="K72" t="n">
-        <v>47.5</v>
+        <v>26.25</v>
       </c>
       <c r="L72" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="M72" t="n">
         <v>2016.0</v>
@@ -3097,31 +3097,31 @@
         <v>6435.0</v>
       </c>
       <c r="D73" t="n">
-        <v>24856.0</v>
+        <v>23421.0</v>
       </c>
       <c r="E73" t="n">
-        <v>3862.626262626263</v>
+        <v>3639.6270396270397</v>
       </c>
       <c r="F73" t="n">
-        <v>349.0038011695906</v>
+        <v>351.52368421052626</v>
       </c>
       <c r="G73" t="n">
-        <v>277.0</v>
+        <v>279.0</v>
       </c>
       <c r="H73" t="n">
-        <v>164.23708290333676</v>
+        <v>157.93093058733788</v>
       </c>
       <c r="I73" t="n">
-        <v>130.35294117647058</v>
+        <v>125.34782608695652</v>
       </c>
       <c r="J73" t="n">
-        <v>292.7925</v>
+        <v>305.6625</v>
       </c>
       <c r="K73" t="n">
-        <v>45.5</v>
+        <v>47.5</v>
       </c>
       <c r="L73" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="M73" t="n">
         <v>2016.0</v>
@@ -3138,34 +3138,34 @@
         <v>5890.0</v>
       </c>
       <c r="D74" t="n">
-        <v>21498.0</v>
+        <v>23589.0</v>
       </c>
       <c r="E74" t="n">
-        <v>3649.9151103565364</v>
+        <v>4004.9235993208827</v>
       </c>
       <c r="F74" t="n">
-        <v>388.9567901234568</v>
+        <v>391.6767676767677</v>
       </c>
       <c r="G74" t="n">
-        <v>286.0</v>
+        <v>288.0</v>
       </c>
       <c r="H74" t="n">
-        <v>174.74870280908928</v>
+        <v>184.31847890671423</v>
       </c>
       <c r="I74" t="n">
-        <v>128.4927536231884</v>
+        <v>135.52941176470588</v>
       </c>
       <c r="J74" t="n">
-        <v>237.0725</v>
+        <v>246.5554</v>
       </c>
       <c r="K74" t="n">
-        <v>40.25</v>
+        <v>41.86</v>
       </c>
       <c r="L74" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="M74" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="75">
@@ -3179,31 +3179,31 @@
         <v>5890.0</v>
       </c>
       <c r="D75" t="n">
-        <v>17059.0</v>
+        <v>21498.0</v>
       </c>
       <c r="E75" t="n">
-        <v>2896.264855687606</v>
+        <v>3649.9151103565364</v>
       </c>
       <c r="F75" t="n">
-        <v>390.31677890011224</v>
+        <v>388.9567901234568</v>
       </c>
       <c r="G75" t="n">
-        <v>287.0</v>
+        <v>286.0</v>
       </c>
       <c r="H75" t="n">
-        <v>167.27861952861952</v>
+        <v>174.74870280908928</v>
       </c>
       <c r="I75" t="n">
-        <v>123.0</v>
+        <v>128.4927536231884</v>
       </c>
       <c r="J75" t="n">
-        <v>189.65800000000002</v>
+        <v>237.0725</v>
       </c>
       <c r="K75" t="n">
-        <v>32.2</v>
+        <v>40.25</v>
       </c>
       <c r="L75" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="M75" t="n">
         <v>2016.0</v>
@@ -3220,31 +3220,31 @@
         <v>5890.0</v>
       </c>
       <c r="D76" t="n">
-        <v>13859.0</v>
+        <v>17059.0</v>
       </c>
       <c r="E76" t="n">
-        <v>2352.9711375212223</v>
+        <v>2896.264855687606</v>
       </c>
       <c r="F76" t="n">
-        <v>393.03675645342315</v>
+        <v>390.31677890011224</v>
       </c>
       <c r="G76" t="n">
-        <v>289.0</v>
+        <v>287.0</v>
       </c>
       <c r="H76" t="n">
-        <v>168.4443241943242</v>
+        <v>167.27861952861952</v>
       </c>
       <c r="I76" t="n">
-        <v>123.85714285714286</v>
+        <v>123.0</v>
       </c>
       <c r="J76" t="n">
-        <v>97.5384</v>
+        <v>189.65800000000002</v>
       </c>
       <c r="K76" t="n">
-        <v>16.56</v>
+        <v>32.2</v>
       </c>
       <c r="L76" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="M76" t="n">
         <v>2016.0</v>
@@ -3261,31 +3261,31 @@
         <v>5890.0</v>
       </c>
       <c r="D77" t="n">
-        <v>11598.0</v>
+        <v>13859.0</v>
       </c>
       <c r="E77" t="n">
-        <v>1969.100169779287</v>
+        <v>2352.9711375212223</v>
       </c>
       <c r="F77" t="n">
-        <v>406.63664421997754</v>
+        <v>393.03675645342315</v>
       </c>
       <c r="G77" t="n">
         <v>289.0</v>
       </c>
       <c r="H77" t="n">
-        <v>158.1364727522135</v>
+        <v>168.4443241943242</v>
       </c>
       <c r="I77" t="n">
-        <v>116.27777777777777</v>
+        <v>123.85714285714286</v>
       </c>
       <c r="J77" t="n">
-        <v>42.67305</v>
+        <v>97.5384</v>
       </c>
       <c r="K77" t="n">
-        <v>7.245</v>
+        <v>16.56</v>
       </c>
       <c r="L77" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="M77" t="n">
         <v>2016.0</v>
@@ -3302,31 +3302,31 @@
         <v>5890.0</v>
       </c>
       <c r="D78" t="n">
-        <v>6921.0</v>
+        <v>11598.0</v>
       </c>
       <c r="E78" t="n">
-        <v>1175.0424448217318</v>
+        <v>1969.100169779287</v>
       </c>
       <c r="F78" t="n">
-        <v>436.55639730639734</v>
+        <v>406.63664421997754</v>
       </c>
       <c r="G78" t="n">
-        <v>321.0</v>
+        <v>289.0</v>
       </c>
       <c r="H78" t="n">
-        <v>116.04663725866259</v>
+        <v>158.1364727522135</v>
       </c>
       <c r="I78" t="n">
-        <v>85.32911392405063</v>
+        <v>116.27777777777777</v>
       </c>
       <c r="J78" t="n">
-        <v>0.0</v>
+        <v>42.67305</v>
       </c>
       <c r="K78" t="n">
-        <v>0.0</v>
+        <v>7.245</v>
       </c>
       <c r="L78" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="M78" t="n">
         <v>2016.0</v>
@@ -3343,22 +3343,22 @@
         <v>5890.0</v>
       </c>
       <c r="D79" t="n">
-        <v>8169.0</v>
+        <v>6921.0</v>
       </c>
       <c r="E79" t="n">
-        <v>1386.9269949066213</v>
+        <v>1175.0424448217318</v>
       </c>
       <c r="F79" t="n">
-        <v>432.47643097643095</v>
+        <v>436.55639730639734</v>
       </c>
       <c r="G79" t="n">
-        <v>318.0</v>
+        <v>321.0</v>
       </c>
       <c r="H79" t="n">
-        <v>131.62326160152244</v>
+        <v>116.04663725866259</v>
       </c>
       <c r="I79" t="n">
-        <v>96.78260869565217</v>
+        <v>85.32911392405063</v>
       </c>
       <c r="J79" t="n">
         <v>0.0</v>
@@ -3367,7 +3367,7 @@
         <v>0.0</v>
       </c>
       <c r="L79" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="M79" t="n">
         <v>2016.0</v>
@@ -3384,22 +3384,22 @@
         <v>5890.0</v>
       </c>
       <c r="D80" t="n">
-        <v>10759.0</v>
+        <v>8169.0</v>
       </c>
       <c r="E80" t="n">
-        <v>1826.6553480475382</v>
+        <v>1386.9269949066213</v>
       </c>
       <c r="F80" t="n">
-        <v>410.7166105499439</v>
+        <v>432.47643097643095</v>
       </c>
       <c r="G80" t="n">
-        <v>302.0</v>
+        <v>318.0</v>
       </c>
       <c r="H80" t="n">
-        <v>136.9055368499813</v>
+        <v>131.62326160152244</v>
       </c>
       <c r="I80" t="n">
-        <v>100.66666666666667</v>
+        <v>96.78260869565217</v>
       </c>
       <c r="J80" t="n">
         <v>0.0</v>
@@ -3408,7 +3408,7 @@
         <v>0.0</v>
       </c>
       <c r="L80" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="M80" t="n">
         <v>2016.0</v>
@@ -3425,31 +3425,31 @@
         <v>5890.0</v>
       </c>
       <c r="D81" t="n">
-        <v>13864.0</v>
+        <v>10759.0</v>
       </c>
       <c r="E81" t="n">
-        <v>2353.8200339558575</v>
+        <v>1826.6553480475382</v>
       </c>
       <c r="F81" t="n">
-        <v>405.27665544332217</v>
+        <v>410.7166105499439</v>
       </c>
       <c r="G81" t="n">
-        <v>298.0</v>
+        <v>302.0</v>
       </c>
       <c r="H81" t="n">
-        <v>165.53553532192032</v>
+        <v>136.9055368499813</v>
       </c>
       <c r="I81" t="n">
-        <v>121.71830985915493</v>
+        <v>100.66666666666667</v>
       </c>
       <c r="J81" t="n">
-        <v>37.25425</v>
+        <v>0.0</v>
       </c>
       <c r="K81" t="n">
-        <v>6.325</v>
+        <v>0.0</v>
       </c>
       <c r="L81" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="M81" t="n">
         <v>2016.0</v>
@@ -3466,31 +3466,31 @@
         <v>5890.0</v>
       </c>
       <c r="D82" t="n">
-        <v>15526.0</v>
+        <v>13864.0</v>
       </c>
       <c r="E82" t="n">
-        <v>2635.9932088285227</v>
+        <v>2353.8200339558575</v>
       </c>
       <c r="F82" t="n">
-        <v>403.91666666666674</v>
+        <v>405.27665544332217</v>
       </c>
       <c r="G82" t="n">
-        <v>297.0</v>
+        <v>298.0</v>
       </c>
       <c r="H82" t="n">
-        <v>166.31862745098042</v>
+        <v>165.53553532192032</v>
       </c>
       <c r="I82" t="n">
-        <v>122.29411764705883</v>
+        <v>121.71830985915493</v>
       </c>
       <c r="J82" t="n">
-        <v>97.5384</v>
+        <v>37.25425</v>
       </c>
       <c r="K82" t="n">
-        <v>16.56</v>
+        <v>6.325</v>
       </c>
       <c r="L82" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="M82" t="n">
         <v>2016.0</v>
@@ -3507,31 +3507,31 @@
         <v>5890.0</v>
       </c>
       <c r="D83" t="n">
-        <v>18529.0</v>
+        <v>15526.0</v>
       </c>
       <c r="E83" t="n">
-        <v>3145.8404074702885</v>
+        <v>2635.9932088285227</v>
       </c>
       <c r="F83" t="n">
-        <v>395.75673400673395</v>
+        <v>403.91666666666674</v>
       </c>
       <c r="G83" t="n">
-        <v>291.0</v>
+        <v>297.0</v>
       </c>
       <c r="H83" t="n">
-        <v>169.61002886002882</v>
+        <v>166.31862745098042</v>
       </c>
       <c r="I83" t="n">
-        <v>124.71428571428571</v>
+        <v>122.29411764705883</v>
       </c>
       <c r="J83" t="n">
-        <v>155.7905</v>
+        <v>97.5384</v>
       </c>
       <c r="K83" t="n">
-        <v>26.450000000000003</v>
+        <v>16.56</v>
       </c>
       <c r="L83" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="M83" t="n">
         <v>2016.0</v>
@@ -3548,31 +3548,31 @@
         <v>5890.0</v>
       </c>
       <c r="D84" t="n">
-        <v>21789.0</v>
+        <v>18529.0</v>
       </c>
       <c r="E84" t="n">
-        <v>3699.320882852292</v>
+        <v>3145.8404074702885</v>
       </c>
       <c r="F84" t="n">
-        <v>391.6767676767677</v>
+        <v>395.75673400673395</v>
       </c>
       <c r="G84" t="n">
-        <v>288.0</v>
+        <v>291.0</v>
       </c>
       <c r="H84" t="n">
-        <v>175.97072170985214</v>
+        <v>169.61002886002882</v>
       </c>
       <c r="I84" t="n">
-        <v>129.3913043478261</v>
+        <v>124.71428571428571</v>
       </c>
       <c r="J84" t="n">
-        <v>250.61950000000002</v>
+        <v>155.7905</v>
       </c>
       <c r="K84" t="n">
-        <v>42.55</v>
+        <v>26.450000000000003</v>
       </c>
       <c r="L84" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="M84" t="n">
         <v>2016.0</v>
@@ -3589,10 +3589,10 @@
         <v>5890.0</v>
       </c>
       <c r="D85" t="n">
-        <v>23589.0</v>
+        <v>21789.0</v>
       </c>
       <c r="E85" t="n">
-        <v>4004.9235993208827</v>
+        <v>3699.320882852292</v>
       </c>
       <c r="F85" t="n">
         <v>391.6767676767677</v>
@@ -3601,19 +3601,19 @@
         <v>288.0</v>
       </c>
       <c r="H85" t="n">
-        <v>184.31847890671423</v>
+        <v>175.97072170985214</v>
       </c>
       <c r="I85" t="n">
-        <v>135.52941176470588</v>
+        <v>129.3913043478261</v>
       </c>
       <c r="J85" t="n">
-        <v>246.5554</v>
+        <v>250.61950000000002</v>
       </c>
       <c r="K85" t="n">
-        <v>41.86</v>
+        <v>42.55</v>
       </c>
       <c r="L85" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="M85" t="n">
         <v>2016.0</v>
@@ -3630,34 +3630,34 @@
         <v>4980.0</v>
       </c>
       <c r="D86" t="n">
-        <v>18898.0</v>
+        <v>21498.0</v>
       </c>
       <c r="E86" t="n">
-        <v>3794.7791164658634</v>
+        <v>4316.8674698795185</v>
       </c>
       <c r="F86" t="n">
-        <v>333.46809680968096</v>
+        <v>332.318206820682</v>
       </c>
       <c r="G86" t="n">
-        <v>290.0</v>
+        <v>289.0</v>
       </c>
       <c r="H86" t="n">
-        <v>149.8190000159436</v>
+        <v>156.38503850385035</v>
       </c>
       <c r="I86" t="n">
-        <v>130.28985507246378</v>
+        <v>136.0</v>
       </c>
       <c r="J86" t="n">
-        <v>311.997</v>
+        <v>329.427</v>
       </c>
       <c r="K86" t="n">
-        <v>62.65</v>
+        <v>66.15</v>
       </c>
       <c r="L86" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="M86" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="87">
@@ -3671,31 +3671,31 @@
         <v>4980.0</v>
       </c>
       <c r="D87" t="n">
-        <v>15074.0</v>
+        <v>18898.0</v>
       </c>
       <c r="E87" t="n">
-        <v>3026.9076305220883</v>
+        <v>3794.7791164658634</v>
       </c>
       <c r="F87" t="n">
-        <v>334.61798679867985</v>
+        <v>333.46809680968096</v>
       </c>
       <c r="G87" t="n">
-        <v>291.0</v>
+        <v>290.0</v>
       </c>
       <c r="H87" t="n">
-        <v>143.40770862800565</v>
+        <v>149.8190000159436</v>
       </c>
       <c r="I87" t="n">
-        <v>124.71428571428571</v>
+        <v>130.28985507246378</v>
       </c>
       <c r="J87" t="n">
-        <v>259.707</v>
+        <v>311.997</v>
       </c>
       <c r="K87" t="n">
-        <v>52.15</v>
+        <v>62.65</v>
       </c>
       <c r="L87" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="M87" t="n">
         <v>2016.0</v>
@@ -3712,31 +3712,31 @@
         <v>4980.0</v>
       </c>
       <c r="D88" t="n">
-        <v>12098.0</v>
+        <v>15074.0</v>
       </c>
       <c r="E88" t="n">
-        <v>2429.3172690763054</v>
+        <v>3026.9076305220883</v>
       </c>
       <c r="F88" t="n">
-        <v>333.46809680968096</v>
+        <v>334.61798679867985</v>
       </c>
       <c r="G88" t="n">
-        <v>290.0</v>
+        <v>291.0</v>
       </c>
       <c r="H88" t="n">
-        <v>142.91489863272042</v>
+        <v>143.40770862800565</v>
       </c>
       <c r="I88" t="n">
-        <v>124.28571428571429</v>
+        <v>124.71428571428571</v>
       </c>
       <c r="J88" t="n">
-        <v>132.468</v>
+        <v>259.707</v>
       </c>
       <c r="K88" t="n">
-        <v>26.599999999999998</v>
+        <v>52.15</v>
       </c>
       <c r="L88" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="M88" t="n">
         <v>2016.0</v>
@@ -3753,31 +3753,31 @@
         <v>4980.0</v>
       </c>
       <c r="D89" t="n">
-        <v>11194.0</v>
+        <v>12098.0</v>
       </c>
       <c r="E89" t="n">
-        <v>2247.7911646586344</v>
+        <v>2429.3172690763054</v>
       </c>
       <c r="F89" t="n">
-        <v>342.66721672167216</v>
+        <v>333.46809680968096</v>
       </c>
       <c r="G89" t="n">
         <v>290.0</v>
       </c>
       <c r="H89" t="n">
-        <v>133.25947316953918</v>
+        <v>142.91489863272042</v>
       </c>
       <c r="I89" t="n">
-        <v>115.88888888888889</v>
+        <v>124.28571428571429</v>
       </c>
       <c r="J89" t="n">
-        <v>69.72</v>
+        <v>132.468</v>
       </c>
       <c r="K89" t="n">
-        <v>14.0</v>
+        <v>26.599999999999998</v>
       </c>
       <c r="L89" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="M89" t="n">
         <v>2016.0</v>
@@ -3794,31 +3794,31 @@
         <v>4980.0</v>
       </c>
       <c r="D90" t="n">
-        <v>4028.0</v>
+        <v>11194.0</v>
       </c>
       <c r="E90" t="n">
-        <v>808.8353413654619</v>
+        <v>2247.7911646586344</v>
       </c>
       <c r="F90" t="n">
-        <v>378.313806380638</v>
+        <v>342.66721672167216</v>
       </c>
       <c r="G90" t="n">
-        <v>329.0</v>
+        <v>290.0</v>
       </c>
       <c r="H90" t="n">
-        <v>100.56442954422023</v>
+        <v>133.25947316953918</v>
       </c>
       <c r="I90" t="n">
-        <v>87.45569620253164</v>
+        <v>115.88888888888889</v>
       </c>
       <c r="J90" t="n">
-        <v>0.0</v>
+        <v>69.72</v>
       </c>
       <c r="K90" t="n">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="L90" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="M90" t="n">
         <v>2016.0</v>
@@ -3835,22 +3835,22 @@
         <v>4980.0</v>
       </c>
       <c r="D91" t="n">
-        <v>5597.0</v>
+        <v>4028.0</v>
       </c>
       <c r="E91" t="n">
-        <v>1123.8955823293172</v>
+        <v>808.8353413654619</v>
       </c>
       <c r="F91" t="n">
-        <v>382.9133663366337</v>
+        <v>378.313806380638</v>
       </c>
       <c r="G91" t="n">
-        <v>333.0</v>
+        <v>329.0</v>
       </c>
       <c r="H91" t="n">
-        <v>116.53885062419288</v>
+        <v>100.56442954422023</v>
       </c>
       <c r="I91" t="n">
-        <v>101.34782608695652</v>
+        <v>87.45569620253164</v>
       </c>
       <c r="J91" t="n">
         <v>0.0</v>
@@ -3859,7 +3859,7 @@
         <v>0.0</v>
       </c>
       <c r="L91" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="M91" t="n">
         <v>2016.0</v>
@@ -3876,22 +3876,22 @@
         <v>4980.0</v>
       </c>
       <c r="D92" t="n">
-        <v>8279.0</v>
+        <v>5597.0</v>
       </c>
       <c r="E92" t="n">
-        <v>1662.4497991967871</v>
+        <v>1123.8955823293172</v>
       </c>
       <c r="F92" t="n">
-        <v>366.8149064906491</v>
+        <v>382.9133663366337</v>
       </c>
       <c r="G92" t="n">
-        <v>319.0</v>
+        <v>333.0</v>
       </c>
       <c r="H92" t="n">
-        <v>122.27163549688302</v>
+        <v>116.53885062419288</v>
       </c>
       <c r="I92" t="n">
-        <v>106.33333333333333</v>
+        <v>101.34782608695652</v>
       </c>
       <c r="J92" t="n">
         <v>0.0</v>
@@ -3900,7 +3900,7 @@
         <v>0.0</v>
       </c>
       <c r="L92" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="M92" t="n">
         <v>2016.0</v>
@@ -3917,31 +3917,31 @@
         <v>4980.0</v>
       </c>
       <c r="D93" t="n">
-        <v>11299.0</v>
+        <v>8279.0</v>
       </c>
       <c r="E93" t="n">
-        <v>2268.875502008032</v>
+        <v>1662.4497991967871</v>
       </c>
       <c r="F93" t="n">
-        <v>358.7656765676568</v>
+        <v>366.8149064906491</v>
       </c>
       <c r="G93" t="n">
-        <v>312.0</v>
+        <v>319.0</v>
       </c>
       <c r="H93" t="n">
-        <v>146.53809324594434</v>
+        <v>122.27163549688302</v>
       </c>
       <c r="I93" t="n">
-        <v>127.43661971830986</v>
+        <v>106.33333333333333</v>
       </c>
       <c r="J93" t="n">
-        <v>47.061</v>
+        <v>0.0</v>
       </c>
       <c r="K93" t="n">
-        <v>9.45</v>
+        <v>0.0</v>
       </c>
       <c r="L93" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="M93" t="n">
         <v>2016.0</v>
@@ -3958,31 +3958,31 @@
         <v>4980.0</v>
       </c>
       <c r="D94" t="n">
-        <v>14038.0</v>
+        <v>11299.0</v>
       </c>
       <c r="E94" t="n">
-        <v>2818.875502008032</v>
+        <v>2268.875502008032</v>
       </c>
       <c r="F94" t="n">
-        <v>344.96699669967</v>
+        <v>358.7656765676568</v>
       </c>
       <c r="G94" t="n">
-        <v>300.0</v>
+        <v>312.0</v>
       </c>
       <c r="H94" t="n">
-        <v>142.04523393515825</v>
+        <v>146.53809324594434</v>
       </c>
       <c r="I94" t="n">
-        <v>123.52941176470588</v>
+        <v>127.43661971830986</v>
       </c>
       <c r="J94" t="n">
-        <v>104.58</v>
+        <v>47.061</v>
       </c>
       <c r="K94" t="n">
-        <v>21.0</v>
+        <v>9.45</v>
       </c>
       <c r="L94" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="M94" t="n">
         <v>2016.0</v>
@@ -3999,31 +3999,31 @@
         <v>4980.0</v>
       </c>
       <c r="D95" t="n">
-        <v>16199.0</v>
+        <v>14038.0</v>
       </c>
       <c r="E95" t="n">
-        <v>3252.8112449799196</v>
+        <v>2818.875502008032</v>
       </c>
       <c r="F95" t="n">
-        <v>338.06765676567653</v>
+        <v>344.96699669967</v>
       </c>
       <c r="G95" t="n">
-        <v>294.0</v>
+        <v>300.0</v>
       </c>
       <c r="H95" t="n">
-        <v>144.88613861386136</v>
+        <v>142.04523393515825</v>
       </c>
       <c r="I95" t="n">
-        <v>126.0</v>
+        <v>123.52941176470588</v>
       </c>
       <c r="J95" t="n">
-        <v>174.3</v>
+        <v>104.58</v>
       </c>
       <c r="K95" t="n">
-        <v>35.0</v>
+        <v>21.0</v>
       </c>
       <c r="L95" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="M95" t="n">
         <v>2016.0</v>
@@ -4040,31 +4040,31 @@
         <v>4980.0</v>
       </c>
       <c r="D96" t="n">
-        <v>19789.0</v>
+        <v>16199.0</v>
       </c>
       <c r="E96" t="n">
-        <v>3973.6947791164657</v>
+        <v>3252.8112449799196</v>
       </c>
       <c r="F96" t="n">
-        <v>334.61798679867985</v>
+        <v>338.06765676567653</v>
       </c>
       <c r="G96" t="n">
-        <v>291.0</v>
+        <v>294.0</v>
       </c>
       <c r="H96" t="n">
-        <v>150.33561725737792</v>
+        <v>144.88613861386136</v>
       </c>
       <c r="I96" t="n">
-        <v>130.7391304347826</v>
+        <v>126.0</v>
       </c>
       <c r="J96" t="n">
-        <v>313.74</v>
+        <v>174.3</v>
       </c>
       <c r="K96" t="n">
-        <v>63.0</v>
+        <v>35.0</v>
       </c>
       <c r="L96" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="M96" t="n">
         <v>2016.0</v>
@@ -4081,31 +4081,31 @@
         <v>4980.0</v>
       </c>
       <c r="D97" t="n">
-        <v>21498.0</v>
+        <v>19789.0</v>
       </c>
       <c r="E97" t="n">
-        <v>4316.8674698795185</v>
+        <v>3973.6947791164657</v>
       </c>
       <c r="F97" t="n">
-        <v>332.318206820682</v>
+        <v>334.61798679867985</v>
       </c>
       <c r="G97" t="n">
-        <v>289.0</v>
+        <v>291.0</v>
       </c>
       <c r="H97" t="n">
-        <v>156.38503850385035</v>
+        <v>150.33561725737792</v>
       </c>
       <c r="I97" t="n">
-        <v>136.0</v>
+        <v>130.7391304347826</v>
       </c>
       <c r="J97" t="n">
-        <v>329.427</v>
+        <v>313.74</v>
       </c>
       <c r="K97" t="n">
-        <v>66.15</v>
+        <v>63.0</v>
       </c>
       <c r="L97" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="M97" t="n">
         <v>2016.0</v>
@@ -4122,34 +4122,34 @@
         <v>7020.0</v>
       </c>
       <c r="D98" t="n">
-        <v>23210.0</v>
+        <v>25925.0</v>
       </c>
       <c r="E98" t="n">
-        <v>3306.2678062678065</v>
+        <v>3693.019943019943</v>
       </c>
       <c r="F98" t="n">
-        <v>678.68</v>
+        <v>682.44</v>
       </c>
       <c r="G98" t="n">
-        <v>361.0</v>
+        <v>363.0</v>
       </c>
       <c r="H98" t="n">
-        <v>304.9142028985507</v>
+        <v>321.1482352941177</v>
       </c>
       <c r="I98" t="n">
-        <v>162.18840579710144</v>
+        <v>170.8235294117647</v>
       </c>
       <c r="J98" t="n">
-        <v>335.907</v>
+        <v>356.265</v>
       </c>
       <c r="K98" t="n">
-        <v>47.85</v>
+        <v>50.75</v>
       </c>
       <c r="L98" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="M98" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="99">
@@ -4163,10 +4163,10 @@
         <v>7020.0</v>
       </c>
       <c r="D99" t="n">
-        <v>20629.0</v>
+        <v>23210.0</v>
       </c>
       <c r="E99" t="n">
-        <v>2938.6039886039885</v>
+        <v>3306.2678062678065</v>
       </c>
       <c r="F99" t="n">
         <v>678.68</v>
@@ -4175,19 +4175,19 @@
         <v>361.0</v>
       </c>
       <c r="H99" t="n">
-        <v>290.86285714285714</v>
+        <v>304.9142028985507</v>
       </c>
       <c r="I99" t="n">
-        <v>154.71428571428572</v>
+        <v>162.18840579710144</v>
       </c>
       <c r="J99" t="n">
-        <v>285.012</v>
+        <v>335.907</v>
       </c>
       <c r="K99" t="n">
-        <v>40.6</v>
+        <v>47.85</v>
       </c>
       <c r="L99" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="M99" t="n">
         <v>2016.0</v>
@@ -4204,31 +4204,31 @@
         <v>7020.0</v>
       </c>
       <c r="D100" t="n">
-        <v>18128.0</v>
+        <v>20629.0</v>
       </c>
       <c r="E100" t="n">
-        <v>2582.3361823361824</v>
+        <v>2938.6039886039885</v>
       </c>
       <c r="F100" t="n">
-        <v>674.92</v>
+        <v>678.68</v>
       </c>
       <c r="G100" t="n">
-        <v>359.0</v>
+        <v>361.0</v>
       </c>
       <c r="H100" t="n">
-        <v>289.25142857142856</v>
+        <v>290.86285714285714</v>
       </c>
       <c r="I100" t="n">
-        <v>153.85714285714286</v>
+        <v>154.71428571428572</v>
       </c>
       <c r="J100" t="n">
-        <v>154.7208</v>
+        <v>285.012</v>
       </c>
       <c r="K100" t="n">
-        <v>22.04</v>
+        <v>40.6</v>
       </c>
       <c r="L100" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="M100" t="n">
         <v>2016.0</v>
@@ -4245,31 +4245,31 @@
         <v>7020.0</v>
       </c>
       <c r="D101" t="n">
-        <v>15520.0</v>
+        <v>18128.0</v>
       </c>
       <c r="E101" t="n">
-        <v>2210.8262108262106</v>
+        <v>2582.3361823361824</v>
       </c>
       <c r="F101" t="n">
-        <v>712.52</v>
+        <v>674.92</v>
       </c>
       <c r="G101" t="n">
         <v>359.0</v>
       </c>
       <c r="H101" t="n">
-        <v>277.0911111111111</v>
+        <v>289.25142857142856</v>
       </c>
       <c r="I101" t="n">
-        <v>147.38888888888889</v>
+        <v>153.85714285714286</v>
       </c>
       <c r="J101" t="n">
-        <v>69.2172</v>
+        <v>154.7208</v>
       </c>
       <c r="K101" t="n">
-        <v>9.860000000000001</v>
+        <v>22.04</v>
       </c>
       <c r="L101" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="M101" t="n">
         <v>2016.0</v>
@@ -4286,31 +4286,31 @@
         <v>7020.0</v>
       </c>
       <c r="D102" t="n">
-        <v>6123.0</v>
+        <v>15520.0</v>
       </c>
       <c r="E102" t="n">
-        <v>872.2222222222222</v>
+        <v>2210.8262108262106</v>
       </c>
       <c r="F102" t="n">
-        <v>746.36</v>
+        <v>712.52</v>
       </c>
       <c r="G102" t="n">
-        <v>397.0</v>
+        <v>359.0</v>
       </c>
       <c r="H102" t="n">
-        <v>198.39949367088607</v>
+        <v>277.0911111111111</v>
       </c>
       <c r="I102" t="n">
-        <v>105.53164556962025</v>
+        <v>147.38888888888889</v>
       </c>
       <c r="J102" t="n">
-        <v>0.0</v>
+        <v>69.2172</v>
       </c>
       <c r="K102" t="n">
-        <v>0.0</v>
+        <v>9.860000000000001</v>
       </c>
       <c r="L102" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="M102" t="n">
         <v>2016.0</v>
@@ -4327,22 +4327,22 @@
         <v>7020.0</v>
       </c>
       <c r="D103" t="n">
-        <v>9216.0</v>
+        <v>6123.0</v>
       </c>
       <c r="E103" t="n">
-        <v>1312.820512820513</v>
+        <v>872.2222222222222</v>
       </c>
       <c r="F103" t="n">
-        <v>753.88</v>
+        <v>746.36</v>
       </c>
       <c r="G103" t="n">
-        <v>401.0</v>
+        <v>397.0</v>
       </c>
       <c r="H103" t="n">
-        <v>229.44173913043477</v>
+        <v>198.39949367088607</v>
       </c>
       <c r="I103" t="n">
-        <v>122.04347826086956</v>
+        <v>105.53164556962025</v>
       </c>
       <c r="J103" t="n">
         <v>0.0</v>
@@ -4351,7 +4351,7 @@
         <v>0.0</v>
       </c>
       <c r="L103" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="M103" t="n">
         <v>2016.0</v>
@@ -4368,22 +4368,22 @@
         <v>7020.0</v>
       </c>
       <c r="D104" t="n">
-        <v>13016.0</v>
+        <v>9216.0</v>
       </c>
       <c r="E104" t="n">
-        <v>1854.131054131054</v>
+        <v>1312.820512820513</v>
       </c>
       <c r="F104" t="n">
-        <v>735.08</v>
+        <v>753.88</v>
       </c>
       <c r="G104" t="n">
-        <v>391.0</v>
+        <v>401.0</v>
       </c>
       <c r="H104" t="n">
-        <v>245.02666666666667</v>
+        <v>229.44173913043477</v>
       </c>
       <c r="I104" t="n">
-        <v>130.33333333333334</v>
+        <v>122.04347826086956</v>
       </c>
       <c r="J104" t="n">
         <v>0.0</v>
@@ -4392,7 +4392,7 @@
         <v>0.0</v>
       </c>
       <c r="L104" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="M104" t="n">
         <v>2016.0</v>
@@ -4409,31 +4409,31 @@
         <v>7020.0</v>
       </c>
       <c r="D105" t="n">
-        <v>15823.0</v>
+        <v>13016.0</v>
       </c>
       <c r="E105" t="n">
-        <v>2253.988603988604</v>
+        <v>1854.131054131054</v>
       </c>
       <c r="F105" t="n">
-        <v>723.8</v>
+        <v>735.08</v>
       </c>
       <c r="G105" t="n">
-        <v>385.0</v>
+        <v>391.0</v>
       </c>
       <c r="H105" t="n">
-        <v>295.6366197183098</v>
+        <v>245.02666666666667</v>
       </c>
       <c r="I105" t="n">
-        <v>157.25352112676057</v>
+        <v>130.33333333333334</v>
       </c>
       <c r="J105" t="n">
-        <v>61.074</v>
+        <v>0.0</v>
       </c>
       <c r="K105" t="n">
-        <v>8.7</v>
+        <v>0.0</v>
       </c>
       <c r="L105" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="M105" t="n">
         <v>2016.0</v>
@@ -4450,31 +4450,31 @@
         <v>7020.0</v>
       </c>
       <c r="D106" t="n">
-        <v>19024.0</v>
+        <v>15823.0</v>
       </c>
       <c r="E106" t="n">
-        <v>2709.97150997151</v>
+        <v>2253.988603988604</v>
       </c>
       <c r="F106" t="n">
-        <v>714.4</v>
+        <v>723.8</v>
       </c>
       <c r="G106" t="n">
-        <v>380.0</v>
+        <v>385.0</v>
       </c>
       <c r="H106" t="n">
-        <v>294.16470588235296</v>
+        <v>295.6366197183098</v>
       </c>
       <c r="I106" t="n">
-        <v>156.47058823529412</v>
+        <v>157.25352112676057</v>
       </c>
       <c r="J106" t="n">
-        <v>132.327</v>
+        <v>61.074</v>
       </c>
       <c r="K106" t="n">
-        <v>18.85</v>
+        <v>8.7</v>
       </c>
       <c r="L106" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="M106" t="n">
         <v>2016.0</v>
@@ -4491,31 +4491,31 @@
         <v>7020.0</v>
       </c>
       <c r="D107" t="n">
-        <v>21526.0</v>
+        <v>19024.0</v>
       </c>
       <c r="E107" t="n">
-        <v>3066.3817663817663</v>
+        <v>2709.97150997151</v>
       </c>
       <c r="F107" t="n">
-        <v>682.44</v>
+        <v>714.4</v>
       </c>
       <c r="G107" t="n">
-        <v>363.0</v>
+        <v>380.0</v>
       </c>
       <c r="H107" t="n">
-        <v>292.4742857142857</v>
+        <v>294.16470588235296</v>
       </c>
       <c r="I107" t="n">
-        <v>155.57142857142858</v>
+        <v>156.47058823529412</v>
       </c>
       <c r="J107" t="n">
-        <v>234.11700000000002</v>
+        <v>132.327</v>
       </c>
       <c r="K107" t="n">
-        <v>33.35</v>
+        <v>18.85</v>
       </c>
       <c r="L107" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="M107" t="n">
         <v>2016.0</v>
@@ -4532,31 +4532,31 @@
         <v>7020.0</v>
       </c>
       <c r="D108" t="n">
-        <v>25126.0</v>
+        <v>21526.0</v>
       </c>
       <c r="E108" t="n">
-        <v>3579.202279202279</v>
+        <v>3066.3817663817663</v>
       </c>
       <c r="F108" t="n">
-        <v>676.8</v>
+        <v>682.44</v>
       </c>
       <c r="G108" t="n">
-        <v>360.0</v>
+        <v>363.0</v>
       </c>
       <c r="H108" t="n">
-        <v>304.0695652173913</v>
+        <v>292.4742857142857</v>
       </c>
       <c r="I108" t="n">
-        <v>161.7391304347826</v>
+        <v>155.57142857142858</v>
       </c>
       <c r="J108" t="n">
-        <v>407.16</v>
+        <v>234.11700000000002</v>
       </c>
       <c r="K108" t="n">
-        <v>58.0</v>
+        <v>33.35</v>
       </c>
       <c r="L108" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="M108" t="n">
         <v>2016.0</v>
@@ -4573,31 +4573,31 @@
         <v>7020.0</v>
       </c>
       <c r="D109" t="n">
-        <v>25925.0</v>
+        <v>25126.0</v>
       </c>
       <c r="E109" t="n">
-        <v>3693.019943019943</v>
+        <v>3579.202279202279</v>
       </c>
       <c r="F109" t="n">
-        <v>682.44</v>
+        <v>676.8</v>
       </c>
       <c r="G109" t="n">
-        <v>363.0</v>
+        <v>360.0</v>
       </c>
       <c r="H109" t="n">
-        <v>321.1482352941177</v>
+        <v>304.0695652173913</v>
       </c>
       <c r="I109" t="n">
-        <v>170.8235294117647</v>
+        <v>161.7391304347826</v>
       </c>
       <c r="J109" t="n">
-        <v>356.265</v>
+        <v>407.16</v>
       </c>
       <c r="K109" t="n">
-        <v>50.75</v>
+        <v>58.0</v>
       </c>
       <c r="L109" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="M109" t="n">
         <v>2016.0</v>
@@ -4614,34 +4614,34 @@
         <v>5320.0</v>
       </c>
       <c r="D110" t="n">
-        <v>19503.0</v>
+        <v>21603.0</v>
       </c>
       <c r="E110" t="n">
-        <v>3665.9774436090224</v>
+        <v>4060.714285714286</v>
       </c>
       <c r="F110" t="n">
-        <v>325.04814814814813</v>
+        <v>327.5679012345679</v>
       </c>
       <c r="G110" t="n">
-        <v>258.0</v>
+        <v>260.0</v>
       </c>
       <c r="H110" t="n">
-        <v>146.03612453032744</v>
+        <v>154.14960058097313</v>
       </c>
       <c r="I110" t="n">
-        <v>115.91304347826087</v>
+        <v>122.3529411764706</v>
       </c>
       <c r="J110" t="n">
-        <v>260.68</v>
+        <v>275.576</v>
       </c>
       <c r="K110" t="n">
-        <v>49.00000000000001</v>
+        <v>51.80000000000001</v>
       </c>
       <c r="L110" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="M110" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="111">
@@ -4655,31 +4655,31 @@
         <v>5320.0</v>
       </c>
       <c r="D111" t="n">
-        <v>15249.0</v>
+        <v>19503.0</v>
       </c>
       <c r="E111" t="n">
-        <v>2866.3533834586465</v>
+        <v>3665.9774436090224</v>
       </c>
       <c r="F111" t="n">
-        <v>327.5679012345679</v>
+        <v>325.04814814814813</v>
       </c>
       <c r="G111" t="n">
-        <v>260.0</v>
+        <v>258.0</v>
       </c>
       <c r="H111" t="n">
-        <v>140.38624338624336</v>
+        <v>146.03612453032744</v>
       </c>
       <c r="I111" t="n">
-        <v>111.42857142857143</v>
+        <v>115.91304347826087</v>
       </c>
       <c r="J111" t="n">
-        <v>201.39392</v>
+        <v>260.68</v>
       </c>
       <c r="K111" t="n">
-        <v>37.856</v>
+        <v>49.00000000000001</v>
       </c>
       <c r="L111" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="M111" t="n">
         <v>2016.0</v>
@@ -4696,31 +4696,31 @@
         <v>5320.0</v>
       </c>
       <c r="D112" t="n">
-        <v>12396.0</v>
+        <v>15249.0</v>
       </c>
       <c r="E112" t="n">
-        <v>2330.0751879699246</v>
+        <v>2866.3533834586465</v>
       </c>
       <c r="F112" t="n">
-        <v>332.60740740740744</v>
+        <v>327.5679012345679</v>
       </c>
       <c r="G112" t="n">
-        <v>264.0</v>
+        <v>260.0</v>
       </c>
       <c r="H112" t="n">
-        <v>142.54603174603176</v>
+        <v>140.38624338624336</v>
       </c>
       <c r="I112" t="n">
-        <v>113.14285714285714</v>
+        <v>111.42857142857143</v>
       </c>
       <c r="J112" t="n">
-        <v>96.82400000000001</v>
+        <v>201.39392</v>
       </c>
       <c r="K112" t="n">
-        <v>18.200000000000003</v>
+        <v>37.856</v>
       </c>
       <c r="L112" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="M112" t="n">
         <v>2016.0</v>
@@ -4737,31 +4737,31 @@
         <v>5320.0</v>
       </c>
       <c r="D113" t="n">
-        <v>10026.0</v>
+        <v>12396.0</v>
       </c>
       <c r="E113" t="n">
-        <v>1884.5864661654136</v>
+        <v>2330.0751879699246</v>
       </c>
       <c r="F113" t="n">
-        <v>337.6469135802469</v>
+        <v>332.60740740740744</v>
       </c>
       <c r="G113" t="n">
         <v>264.0</v>
       </c>
       <c r="H113" t="n">
-        <v>131.30713305898493</v>
+        <v>142.54603174603176</v>
       </c>
       <c r="I113" t="n">
-        <v>104.22222222222223</v>
+        <v>113.14285714285714</v>
       </c>
       <c r="J113" t="n">
-        <v>55.1152</v>
+        <v>96.82400000000001</v>
       </c>
       <c r="K113" t="n">
-        <v>10.360000000000001</v>
+        <v>18.200000000000003</v>
       </c>
       <c r="L113" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="M113" t="n">
         <v>2016.0</v>
@@ -4778,31 +4778,31 @@
         <v>5320.0</v>
       </c>
       <c r="D114" t="n">
-        <v>5365.0</v>
+        <v>10026.0</v>
       </c>
       <c r="E114" t="n">
-        <v>1008.4586466165414</v>
+        <v>1884.5864661654136</v>
       </c>
       <c r="F114" t="n">
-        <v>364.1043209876544</v>
+        <v>337.6469135802469</v>
       </c>
       <c r="G114" t="n">
-        <v>289.0</v>
+        <v>264.0</v>
       </c>
       <c r="H114" t="n">
-        <v>96.7872245663385</v>
+        <v>131.30713305898493</v>
       </c>
       <c r="I114" t="n">
-        <v>76.82278481012658</v>
+        <v>104.22222222222223</v>
       </c>
       <c r="J114" t="n">
-        <v>0.0</v>
+        <v>55.1152</v>
       </c>
       <c r="K114" t="n">
-        <v>0.0</v>
+        <v>10.360000000000001</v>
       </c>
       <c r="L114" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="M114" t="n">
         <v>2016.0</v>
@@ -4819,22 +4819,22 @@
         <v>5320.0</v>
       </c>
       <c r="D115" t="n">
-        <v>6765.0</v>
+        <v>5365.0</v>
       </c>
       <c r="E115" t="n">
-        <v>1271.6165413533834</v>
+        <v>1008.4586466165414</v>
       </c>
       <c r="F115" t="n">
-        <v>367.8839506172839</v>
+        <v>364.1043209876544</v>
       </c>
       <c r="G115" t="n">
-        <v>292.0</v>
+        <v>289.0</v>
       </c>
       <c r="H115" t="n">
-        <v>111.96468062265163</v>
+        <v>96.7872245663385</v>
       </c>
       <c r="I115" t="n">
-        <v>88.8695652173913</v>
+        <v>76.82278481012658</v>
       </c>
       <c r="J115" t="n">
         <v>0.0</v>
@@ -4843,7 +4843,7 @@
         <v>0.0</v>
       </c>
       <c r="L115" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="M115" t="n">
         <v>2016.0</v>
@@ -4860,22 +4860,22 @@
         <v>5320.0</v>
       </c>
       <c r="D116" t="n">
-        <v>9365.0</v>
+        <v>6765.0</v>
       </c>
       <c r="E116" t="n">
-        <v>1760.3383458646617</v>
+        <v>1271.6165413533834</v>
       </c>
       <c r="F116" t="n">
-        <v>352.76543209876536</v>
+        <v>367.8839506172839</v>
       </c>
       <c r="G116" t="n">
-        <v>280.0</v>
+        <v>292.0</v>
       </c>
       <c r="H116" t="n">
-        <v>117.58847736625512</v>
+        <v>111.96468062265163</v>
       </c>
       <c r="I116" t="n">
-        <v>93.33333333333333</v>
+        <v>88.8695652173913</v>
       </c>
       <c r="J116" t="n">
         <v>0.0</v>
@@ -4884,7 +4884,7 @@
         <v>0.0</v>
       </c>
       <c r="L116" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="M116" t="n">
         <v>2016.0</v>
@@ -4901,31 +4901,31 @@
         <v>5320.0</v>
       </c>
       <c r="D117" t="n">
-        <v>12028.0</v>
+        <v>9365.0</v>
       </c>
       <c r="E117" t="n">
-        <v>2260.902255639098</v>
+        <v>1760.3383458646617</v>
       </c>
       <c r="F117" t="n">
-        <v>347.72592592592594</v>
+        <v>352.76543209876536</v>
       </c>
       <c r="G117" t="n">
-        <v>276.0</v>
+        <v>280.0</v>
       </c>
       <c r="H117" t="n">
-        <v>142.0288993218571</v>
+        <v>117.58847736625512</v>
       </c>
       <c r="I117" t="n">
-        <v>112.73239436619718</v>
+        <v>93.33333333333333</v>
       </c>
       <c r="J117" t="n">
-        <v>41.41088</v>
+        <v>0.0</v>
       </c>
       <c r="K117" t="n">
-        <v>7.784000000000001</v>
+        <v>0.0</v>
       </c>
       <c r="L117" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="M117" t="n">
         <v>2016.0</v>
@@ -4942,31 +4942,31 @@
         <v>5320.0</v>
       </c>
       <c r="D118" t="n">
-        <v>13836.0</v>
+        <v>12028.0</v>
       </c>
       <c r="E118" t="n">
-        <v>2600.751879699248</v>
+        <v>2260.902255639098</v>
       </c>
       <c r="F118" t="n">
-        <v>336.38703703703703</v>
+        <v>347.72592592592594</v>
       </c>
       <c r="G118" t="n">
-        <v>267.0</v>
+        <v>276.0</v>
       </c>
       <c r="H118" t="n">
-        <v>138.51230936819172</v>
+        <v>142.0288993218571</v>
       </c>
       <c r="I118" t="n">
-        <v>109.94117647058823</v>
+        <v>112.73239436619718</v>
       </c>
       <c r="J118" t="n">
-        <v>104.27200000000002</v>
+        <v>41.41088</v>
       </c>
       <c r="K118" t="n">
-        <v>19.600000000000005</v>
+        <v>7.784000000000001</v>
       </c>
       <c r="L118" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="M118" t="n">
         <v>2016.0</v>
@@ -4983,31 +4983,31 @@
         <v>5320.0</v>
       </c>
       <c r="D119" t="n">
-        <v>16821.0</v>
+        <v>13836.0</v>
       </c>
       <c r="E119" t="n">
-        <v>3161.842105263158</v>
+        <v>2600.751879699248</v>
       </c>
       <c r="F119" t="n">
-        <v>332.60740740740744</v>
+        <v>336.38703703703703</v>
       </c>
       <c r="G119" t="n">
-        <v>264.0</v>
+        <v>267.0</v>
       </c>
       <c r="H119" t="n">
-        <v>142.54603174603176</v>
+        <v>138.51230936819172</v>
       </c>
       <c r="I119" t="n">
-        <v>113.14285714285714</v>
+        <v>109.94117647058823</v>
       </c>
       <c r="J119" t="n">
-        <v>171.30400000000003</v>
+        <v>104.27200000000002</v>
       </c>
       <c r="K119" t="n">
-        <v>32.20000000000001</v>
+        <v>19.600000000000005</v>
       </c>
       <c r="L119" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="M119" t="n">
         <v>2016.0</v>
@@ -5024,31 +5024,31 @@
         <v>5320.0</v>
       </c>
       <c r="D120" t="n">
-        <v>20485.0</v>
+        <v>16821.0</v>
       </c>
       <c r="E120" t="n">
-        <v>3850.563909774436</v>
+        <v>3161.842105263158</v>
       </c>
       <c r="F120" t="n">
-        <v>330.08765432098767</v>
+        <v>332.60740740740744</v>
       </c>
       <c r="G120" t="n">
-        <v>262.0</v>
+        <v>264.0</v>
       </c>
       <c r="H120" t="n">
-        <v>148.30025049203795</v>
+        <v>142.54603174603176</v>
       </c>
       <c r="I120" t="n">
-        <v>117.71014492753623</v>
+        <v>113.14285714285714</v>
       </c>
       <c r="J120" t="n">
-        <v>283.024</v>
+        <v>171.30400000000003</v>
       </c>
       <c r="K120" t="n">
-        <v>53.20000000000001</v>
+        <v>32.20000000000001</v>
       </c>
       <c r="L120" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="M120" t="n">
         <v>2016.0</v>
@@ -5065,31 +5065,31 @@
         <v>5320.0</v>
       </c>
       <c r="D121" t="n">
-        <v>21603.0</v>
+        <v>20485.0</v>
       </c>
       <c r="E121" t="n">
-        <v>4060.714285714286</v>
+        <v>3850.563909774436</v>
       </c>
       <c r="F121" t="n">
-        <v>327.5679012345679</v>
+        <v>330.08765432098767</v>
       </c>
       <c r="G121" t="n">
-        <v>260.0</v>
+        <v>262.0</v>
       </c>
       <c r="H121" t="n">
-        <v>154.14960058097313</v>
+        <v>148.30025049203795</v>
       </c>
       <c r="I121" t="n">
-        <v>122.3529411764706</v>
+        <v>117.71014492753623</v>
       </c>
       <c r="J121" t="n">
-        <v>275.576</v>
+        <v>283.024</v>
       </c>
       <c r="K121" t="n">
-        <v>51.80000000000001</v>
+        <v>53.20000000000001</v>
       </c>
       <c r="L121" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="M121" t="n">
         <v>2016.0</v>
@@ -5106,34 +5106,34 @@
         <v>3570.0</v>
       </c>
       <c r="D122" t="n">
-        <v>17396.0</v>
+        <v>19256.0</v>
       </c>
       <c r="E122" t="n">
-        <v>4872.829131652661</v>
+        <v>5393.837535014006</v>
       </c>
       <c r="F122" t="n">
-        <v>222.87013764213046</v>
+        <v>221.10831837223216</v>
       </c>
       <c r="G122" t="n">
-        <v>253.0</v>
+        <v>251.0</v>
       </c>
       <c r="H122" t="n">
-        <v>100.13006183921803</v>
+        <v>104.05097335163866</v>
       </c>
       <c r="I122" t="n">
-        <v>113.66666666666667</v>
+        <v>118.11764705882354</v>
       </c>
       <c r="J122" t="n">
-        <v>166.25519999999997</v>
+        <v>175.54319999999998</v>
       </c>
       <c r="K122" t="n">
-        <v>42.96</v>
+        <v>45.36</v>
       </c>
       <c r="L122" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="M122" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="123">
@@ -5147,31 +5147,31 @@
         <v>3570.0</v>
       </c>
       <c r="D123" t="n">
-        <v>15514.0</v>
+        <v>17396.0</v>
       </c>
       <c r="E123" t="n">
-        <v>4345.658263305322</v>
+        <v>4872.829131652661</v>
       </c>
       <c r="F123" t="n">
-        <v>219.34649910233392</v>
+        <v>222.87013764213046</v>
       </c>
       <c r="G123" t="n">
-        <v>249.0</v>
+        <v>253.0</v>
       </c>
       <c r="H123" t="n">
-        <v>94.00564247242883</v>
+        <v>100.13006183921803</v>
       </c>
       <c r="I123" t="n">
-        <v>106.71428571428571</v>
+        <v>113.66666666666667</v>
       </c>
       <c r="J123" t="n">
-        <v>130.032</v>
+        <v>166.25519999999997</v>
       </c>
       <c r="K123" t="n">
-        <v>33.6</v>
+        <v>42.96</v>
       </c>
       <c r="L123" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="M123" t="n">
         <v>2016.0</v>
@@ -5188,31 +5188,31 @@
         <v>3570.0</v>
       </c>
       <c r="D124" t="n">
-        <v>12089.0</v>
+        <v>15514.0</v>
       </c>
       <c r="E124" t="n">
-        <v>3386.274509803922</v>
+        <v>4345.658263305322</v>
       </c>
       <c r="F124" t="n">
-        <v>221.10831837223216</v>
+        <v>219.34649910233392</v>
       </c>
       <c r="G124" t="n">
-        <v>251.0</v>
+        <v>249.0</v>
       </c>
       <c r="H124" t="n">
-        <v>94.76070787381379</v>
+        <v>94.00564247242883</v>
       </c>
       <c r="I124" t="n">
-        <v>107.57142857142857</v>
+        <v>106.71428571428571</v>
       </c>
       <c r="J124" t="n">
-        <v>66.8736</v>
+        <v>130.032</v>
       </c>
       <c r="K124" t="n">
-        <v>17.279999999999998</v>
+        <v>33.6</v>
       </c>
       <c r="L124" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="M124" t="n">
         <v>2016.0</v>
@@ -5229,31 +5229,31 @@
         <v>3570.0</v>
       </c>
       <c r="D125" t="n">
-        <v>9652.0</v>
+        <v>12089.0</v>
       </c>
       <c r="E125" t="n">
-        <v>2703.641456582633</v>
+        <v>3386.274509803922</v>
       </c>
       <c r="F125" t="n">
-        <v>231.6792339916218</v>
+        <v>221.10831837223216</v>
       </c>
       <c r="G125" t="n">
         <v>251.0</v>
       </c>
       <c r="H125" t="n">
-        <v>90.09747988563069</v>
+        <v>94.76070787381379</v>
       </c>
       <c r="I125" t="n">
-        <v>102.27777777777777</v>
+        <v>107.57142857142857</v>
       </c>
       <c r="J125" t="n">
-        <v>37.152</v>
+        <v>66.8736</v>
       </c>
       <c r="K125" t="n">
-        <v>9.6</v>
+        <v>17.279999999999998</v>
       </c>
       <c r="L125" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="M125" t="n">
         <v>2016.0</v>
@@ -5270,31 +5270,31 @@
         <v>3570.0</v>
       </c>
       <c r="D126" t="n">
-        <v>2889.0</v>
+        <v>9652.0</v>
       </c>
       <c r="E126" t="n">
-        <v>809.2436974789916</v>
+        <v>2703.641456582633</v>
       </c>
       <c r="F126" t="n">
-        <v>310.0801915020946</v>
+        <v>231.6792339916218</v>
       </c>
       <c r="G126" t="n">
-        <v>352.0</v>
+        <v>251.0</v>
       </c>
       <c r="H126" t="n">
-        <v>82.42638001954413</v>
+        <v>90.09747988563069</v>
       </c>
       <c r="I126" t="n">
-        <v>93.56962025316456</v>
+        <v>102.27777777777777</v>
       </c>
       <c r="J126" t="n">
-        <v>0.0</v>
+        <v>37.152</v>
       </c>
       <c r="K126" t="n">
-        <v>0.0</v>
+        <v>9.6</v>
       </c>
       <c r="L126" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="M126" t="n">
         <v>2016.0</v>
@@ -5311,22 +5311,22 @@
         <v>3570.0</v>
       </c>
       <c r="D127" t="n">
-        <v>4423.0</v>
+        <v>2889.0</v>
       </c>
       <c r="E127" t="n">
-        <v>1238.9355742296918</v>
+        <v>809.2436974789916</v>
       </c>
       <c r="F127" t="n">
-        <v>298.6283662477558</v>
+        <v>310.0801915020946</v>
       </c>
       <c r="G127" t="n">
-        <v>339.0</v>
+        <v>352.0</v>
       </c>
       <c r="H127" t="n">
-        <v>90.88689407540396</v>
+        <v>82.42638001954413</v>
       </c>
       <c r="I127" t="n">
-        <v>103.17391304347827</v>
+        <v>93.56962025316456</v>
       </c>
       <c r="J127" t="n">
         <v>0.0</v>
@@ -5335,7 +5335,7 @@
         <v>0.0</v>
       </c>
       <c r="L127" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="M127" t="n">
         <v>2016.0</v>
@@ -5352,22 +5352,22 @@
         <v>3570.0</v>
       </c>
       <c r="D128" t="n">
-        <v>7162.0</v>
+        <v>4423.0</v>
       </c>
       <c r="E128" t="n">
-        <v>2006.1624649859943</v>
+        <v>1238.9355742296918</v>
       </c>
       <c r="F128" t="n">
-        <v>284.53381208856973</v>
+        <v>298.6283662477558</v>
       </c>
       <c r="G128" t="n">
-        <v>323.0</v>
+        <v>339.0</v>
       </c>
       <c r="H128" t="n">
-        <v>94.84460402952324</v>
+        <v>90.88689407540396</v>
       </c>
       <c r="I128" t="n">
-        <v>107.66666666666667</v>
+        <v>103.17391304347827</v>
       </c>
       <c r="J128" t="n">
         <v>0.0</v>
@@ -5376,7 +5376,7 @@
         <v>0.0</v>
       </c>
       <c r="L128" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="M128" t="n">
         <v>2016.0</v>
@@ -5393,31 +5393,31 @@
         <v>3570.0</v>
       </c>
       <c r="D129" t="n">
-        <v>10256.0</v>
+        <v>7162.0</v>
       </c>
       <c r="E129" t="n">
-        <v>2872.829131652661</v>
+        <v>2006.1624649859943</v>
       </c>
       <c r="F129" t="n">
-        <v>257.2256134051466</v>
+        <v>284.53381208856973</v>
       </c>
       <c r="G129" t="n">
-        <v>292.0</v>
+        <v>323.0</v>
       </c>
       <c r="H129" t="n">
-        <v>105.0639829401303</v>
+        <v>94.84460402952324</v>
       </c>
       <c r="I129" t="n">
-        <v>119.26760563380282</v>
+        <v>107.66666666666667</v>
       </c>
       <c r="J129" t="n">
-        <v>27.863999999999997</v>
+        <v>0.0</v>
       </c>
       <c r="K129" t="n">
-        <v>7.199999999999999</v>
+        <v>0.0</v>
       </c>
       <c r="L129" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="M129" t="n">
         <v>2016.0</v>
@@ -5434,31 +5434,31 @@
         <v>3570.0</v>
       </c>
       <c r="D130" t="n">
-        <v>12859.0</v>
+        <v>10256.0</v>
       </c>
       <c r="E130" t="n">
-        <v>3601.9607843137255</v>
+        <v>2872.829131652661</v>
       </c>
       <c r="F130" t="n">
-        <v>233.44105326152004</v>
+        <v>257.2256134051466</v>
       </c>
       <c r="G130" t="n">
-        <v>265.0</v>
+        <v>292.0</v>
       </c>
       <c r="H130" t="n">
-        <v>96.1227866370965</v>
+        <v>105.0639829401303</v>
       </c>
       <c r="I130" t="n">
-        <v>109.11764705882354</v>
+        <v>119.26760563380282</v>
       </c>
       <c r="J130" t="n">
-        <v>74.304</v>
+        <v>27.863999999999997</v>
       </c>
       <c r="K130" t="n">
-        <v>19.2</v>
+        <v>7.199999999999999</v>
       </c>
       <c r="L130" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="M130" t="n">
         <v>2016.0</v>
@@ -5475,31 +5475,31 @@
         <v>3570.0</v>
       </c>
       <c r="D131" t="n">
-        <v>15123.0</v>
+        <v>12859.0</v>
       </c>
       <c r="E131" t="n">
-        <v>4236.134453781513</v>
+        <v>3601.9607843137255</v>
       </c>
       <c r="F131" t="n">
-        <v>223.7510472770796</v>
+        <v>233.44105326152004</v>
       </c>
       <c r="G131" t="n">
-        <v>254.0</v>
+        <v>265.0</v>
       </c>
       <c r="H131" t="n">
-        <v>95.89330597589127</v>
+        <v>96.1227866370965</v>
       </c>
       <c r="I131" t="n">
-        <v>108.85714285714286</v>
+        <v>109.11764705882354</v>
       </c>
       <c r="J131" t="n">
-        <v>83.592</v>
+        <v>74.304</v>
       </c>
       <c r="K131" t="n">
-        <v>21.599999999999998</v>
+        <v>19.2</v>
       </c>
       <c r="L131" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="M131" t="n">
         <v>2016.0</v>
@@ -5516,31 +5516,31 @@
         <v>3570.0</v>
       </c>
       <c r="D132" t="n">
-        <v>18636.0</v>
+        <v>15123.0</v>
       </c>
       <c r="E132" t="n">
-        <v>5220.16806722689</v>
+        <v>4236.134453781513</v>
       </c>
       <c r="F132" t="n">
-        <v>220.22740873728304</v>
+        <v>223.7510472770796</v>
       </c>
       <c r="G132" t="n">
-        <v>250.0</v>
+        <v>254.0</v>
       </c>
       <c r="H132" t="n">
-        <v>98.94274885298223</v>
+        <v>95.89330597589127</v>
       </c>
       <c r="I132" t="n">
-        <v>112.31884057971014</v>
+        <v>108.85714285714286</v>
       </c>
       <c r="J132" t="n">
-        <v>167.184</v>
+        <v>83.592</v>
       </c>
       <c r="K132" t="n">
-        <v>43.199999999999996</v>
+        <v>21.599999999999998</v>
       </c>
       <c r="L132" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="M132" t="n">
         <v>2016.0</v>
@@ -5557,31 +5557,31 @@
         <v>3570.0</v>
       </c>
       <c r="D133" t="n">
-        <v>19256.0</v>
+        <v>18636.0</v>
       </c>
       <c r="E133" t="n">
-        <v>5393.837535014006</v>
+        <v>5220.16806722689</v>
       </c>
       <c r="F133" t="n">
-        <v>221.10831837223216</v>
+        <v>220.22740873728304</v>
       </c>
       <c r="G133" t="n">
-        <v>251.0</v>
+        <v>250.0</v>
       </c>
       <c r="H133" t="n">
-        <v>104.05097335163866</v>
+        <v>98.94274885298223</v>
       </c>
       <c r="I133" t="n">
-        <v>118.11764705882354</v>
+        <v>112.31884057971014</v>
       </c>
       <c r="J133" t="n">
-        <v>175.54319999999998</v>
+        <v>167.184</v>
       </c>
       <c r="K133" t="n">
-        <v>45.36</v>
+        <v>43.199999999999996</v>
       </c>
       <c r="L133" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="M133" t="n">
         <v>2016.0</v>

--- a/output/Combined_Docks_Consumption_AbsPlusNorm.xlsx
+++ b/output/Combined_Docks_Consumption_AbsPlusNorm.xlsx
@@ -186,31 +186,31 @@
         <v>2695.0</v>
       </c>
       <c r="D2" t="n">
-        <v>10850.0</v>
+        <v>5509.0</v>
       </c>
       <c r="E2" t="n">
-        <v>4025.974025974026</v>
+        <v>2044.155844155844</v>
       </c>
       <c r="F2" t="n">
-        <v>219.69814814814814</v>
+        <v>230.64656084656082</v>
       </c>
       <c r="G2" t="n">
-        <v>301.0</v>
+        <v>303.0</v>
       </c>
       <c r="H2" t="n">
-        <v>103.38736383442266</v>
+        <v>89.69588477366254</v>
       </c>
       <c r="I2" t="n">
-        <v>141.64705882352942</v>
+        <v>122.88888888888889</v>
       </c>
       <c r="J2" t="n">
-        <v>203.742</v>
+        <v>52.822</v>
       </c>
       <c r="K2" t="n">
-        <v>75.6</v>
+        <v>19.6</v>
       </c>
       <c r="L2" t="n">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
       <c r="M2" t="n">
         <v>2017.0</v>
@@ -227,34 +227,34 @@
         <v>2695.0</v>
       </c>
       <c r="D3" t="n">
-        <v>9797.0</v>
+        <v>2587.0</v>
       </c>
       <c r="E3" t="n">
-        <v>3635.2504638218925</v>
+        <v>711.6428498519955</v>
       </c>
       <c r="F3" t="n">
-        <v>220.42804232804232</v>
+        <v>244.51455026455028</v>
       </c>
       <c r="G3" t="n">
-        <v>302.0</v>
+        <v>335.0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.03288858216393</v>
+        <v>64.99753867791843</v>
       </c>
       <c r="I3" t="n">
-        <v>135.68115942028984</v>
+        <v>89.0506329113924</v>
       </c>
       <c r="J3" t="n">
-        <v>188.64999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="K3" t="n">
-        <v>70.0</v>
+        <v>0.0</v>
       </c>
       <c r="L3" t="n">
-        <v>12.0</v>
+        <v>8.0</v>
       </c>
       <c r="M3" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="4">
@@ -268,34 +268,34 @@
         <v>2695.0</v>
       </c>
       <c r="D4" t="n">
-        <v>7598.0</v>
+        <v>3298.0</v>
       </c>
       <c r="E4" t="n">
-        <v>2819.294990723562</v>
+        <v>1169.7959989470914</v>
       </c>
       <c r="F4" t="n">
-        <v>222.61772486772483</v>
+        <v>245.9743386243386</v>
       </c>
       <c r="G4" t="n">
-        <v>305.0</v>
+        <v>337.0</v>
       </c>
       <c r="H4" t="n">
-        <v>95.40759637188206</v>
+        <v>74.86175523349436</v>
       </c>
       <c r="I4" t="n">
-        <v>130.71428571428572</v>
+        <v>102.56521739130434</v>
       </c>
       <c r="J4" t="n">
-        <v>134.75</v>
+        <v>0.0</v>
       </c>
       <c r="K4" t="n">
-        <v>50.0</v>
+        <v>0.0</v>
       </c>
       <c r="L4" t="n">
-        <v>11.0</v>
+        <v>7.0</v>
       </c>
       <c r="M4" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="5">
@@ -309,34 +309,34 @@
         <v>2695.0</v>
       </c>
       <c r="D5" t="n">
-        <v>6787.0</v>
+        <v>4159.0</v>
       </c>
       <c r="E5" t="n">
-        <v>2189.3548387096776</v>
+        <v>1899.646382790629</v>
       </c>
       <c r="F5" t="n">
-        <v>221.1579365079365</v>
+        <v>239.405291005291</v>
       </c>
       <c r="G5" t="n">
-        <v>303.0</v>
+        <v>328.0</v>
       </c>
       <c r="H5" t="n">
-        <v>94.78197278911564</v>
+        <v>79.80176366843034</v>
       </c>
       <c r="I5" t="n">
-        <v>129.85714285714286</v>
+        <v>109.33333333333333</v>
       </c>
       <c r="J5" t="n">
-        <v>78.69399999999999</v>
+        <v>0.0</v>
       </c>
       <c r="K5" t="n">
-        <v>29.2</v>
+        <v>0.0</v>
       </c>
       <c r="L5" t="n">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="M5" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="6">
@@ -350,34 +350,34 @@
         <v>2695.0</v>
       </c>
       <c r="D6" t="n">
-        <v>5509.0</v>
+        <v>5954.0</v>
       </c>
       <c r="E6" t="n">
-        <v>2044.155844155844</v>
+        <v>2209.2764378478664</v>
       </c>
       <c r="F6" t="n">
-        <v>230.64656084656082</v>
+        <v>233.56613756613754</v>
       </c>
       <c r="G6" t="n">
-        <v>303.0</v>
+        <v>320.0</v>
       </c>
       <c r="H6" t="n">
-        <v>89.69588477366254</v>
+        <v>95.40025337208435</v>
       </c>
       <c r="I6" t="n">
-        <v>122.88888888888889</v>
+        <v>130.70422535211267</v>
       </c>
       <c r="J6" t="n">
-        <v>52.822</v>
+        <v>25.872</v>
       </c>
       <c r="K6" t="n">
-        <v>19.6</v>
+        <v>9.6</v>
       </c>
       <c r="L6" t="n">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="M6" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="7">
@@ -391,34 +391,34 @@
         <v>2695.0</v>
       </c>
       <c r="D7" t="n">
-        <v>2587.0</v>
+        <v>7128.0</v>
       </c>
       <c r="E7" t="n">
-        <v>711.6428498519955</v>
+        <v>2644.8979591836733</v>
       </c>
       <c r="F7" t="n">
-        <v>244.51455026455028</v>
+        <v>228.45687830687828</v>
       </c>
       <c r="G7" t="n">
-        <v>335.0</v>
+        <v>313.0</v>
       </c>
       <c r="H7" t="n">
-        <v>64.99753867791843</v>
+        <v>94.07047930283224</v>
       </c>
       <c r="I7" t="n">
-        <v>89.0506329113924</v>
+        <v>128.88235294117646</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0</v>
+        <v>75.46000000000001</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0</v>
+        <v>28.000000000000004</v>
       </c>
       <c r="L7" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="M7" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="8">
@@ -432,34 +432,34 @@
         <v>2695.0</v>
       </c>
       <c r="D8" t="n">
-        <v>3298.0</v>
+        <v>8597.0</v>
       </c>
       <c r="E8" t="n">
-        <v>1169.7959989470914</v>
+        <v>3189.9814471243044</v>
       </c>
       <c r="F8" t="n">
-        <v>245.9743386243386</v>
+        <v>226.99708994708996</v>
       </c>
       <c r="G8" t="n">
-        <v>337.0</v>
+        <v>311.0</v>
       </c>
       <c r="H8" t="n">
-        <v>74.86175523349436</v>
+        <v>97.28446712018142</v>
       </c>
       <c r="I8" t="n">
-        <v>102.56521739130434</v>
+        <v>133.28571428571428</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0</v>
+        <v>107.80000000000001</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0</v>
+        <v>40.0</v>
       </c>
       <c r="L8" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="M8" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="9">
@@ -473,34 +473,34 @@
         <v>2695.0</v>
       </c>
       <c r="D9" t="n">
-        <v>4159.0</v>
+        <v>10159.0</v>
       </c>
       <c r="E9" t="n">
-        <v>1899.646382790629</v>
+        <v>3769.5732838589984</v>
       </c>
       <c r="F9" t="n">
-        <v>239.405291005291</v>
+        <v>225.53730158730156</v>
       </c>
       <c r="G9" t="n">
-        <v>328.0</v>
+        <v>309.0</v>
       </c>
       <c r="H9" t="n">
-        <v>79.80176366843034</v>
+        <v>101.32835288704852</v>
       </c>
       <c r="I9" t="n">
-        <v>109.33333333333333</v>
+        <v>138.82608695652175</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0</v>
+        <v>210.21</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0</v>
+        <v>78.0</v>
       </c>
       <c r="L9" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="M9" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="10">
@@ -514,34 +514,34 @@
         <v>2695.0</v>
       </c>
       <c r="D10" t="n">
-        <v>5954.0</v>
+        <v>10850.0</v>
       </c>
       <c r="E10" t="n">
-        <v>2209.2764378478664</v>
+        <v>4025.974025974026</v>
       </c>
       <c r="F10" t="n">
-        <v>233.56613756613754</v>
+        <v>219.69814814814814</v>
       </c>
       <c r="G10" t="n">
-        <v>320.0</v>
+        <v>301.0</v>
       </c>
       <c r="H10" t="n">
-        <v>95.40025337208435</v>
+        <v>103.38736383442266</v>
       </c>
       <c r="I10" t="n">
-        <v>130.70422535211267</v>
+        <v>141.64705882352942</v>
       </c>
       <c r="J10" t="n">
-        <v>25.872</v>
+        <v>203.742</v>
       </c>
       <c r="K10" t="n">
-        <v>9.6</v>
+        <v>75.6</v>
       </c>
       <c r="L10" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="M10" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="11">
@@ -555,31 +555,31 @@
         <v>2695.0</v>
       </c>
       <c r="D11" t="n">
-        <v>7128.0</v>
+        <v>9797.0</v>
       </c>
       <c r="E11" t="n">
-        <v>2644.8979591836733</v>
+        <v>3635.2504638218925</v>
       </c>
       <c r="F11" t="n">
-        <v>228.45687830687828</v>
+        <v>220.42804232804232</v>
       </c>
       <c r="G11" t="n">
-        <v>313.0</v>
+        <v>302.0</v>
       </c>
       <c r="H11" t="n">
-        <v>94.07047930283224</v>
+        <v>99.03288858216393</v>
       </c>
       <c r="I11" t="n">
-        <v>128.88235294117646</v>
+        <v>135.68115942028984</v>
       </c>
       <c r="J11" t="n">
-        <v>75.46000000000001</v>
+        <v>188.64999999999998</v>
       </c>
       <c r="K11" t="n">
-        <v>28.000000000000004</v>
+        <v>70.0</v>
       </c>
       <c r="L11" t="n">
-        <v>4.0</v>
+        <v>12.0</v>
       </c>
       <c r="M11" t="n">
         <v>2016.0</v>
@@ -596,31 +596,31 @@
         <v>2695.0</v>
       </c>
       <c r="D12" t="n">
-        <v>8597.0</v>
+        <v>7598.0</v>
       </c>
       <c r="E12" t="n">
-        <v>3189.9814471243044</v>
+        <v>2819.294990723562</v>
       </c>
       <c r="F12" t="n">
-        <v>226.99708994708996</v>
+        <v>222.61772486772483</v>
       </c>
       <c r="G12" t="n">
-        <v>311.0</v>
+        <v>305.0</v>
       </c>
       <c r="H12" t="n">
-        <v>97.28446712018142</v>
+        <v>95.40759637188206</v>
       </c>
       <c r="I12" t="n">
-        <v>133.28571428571428</v>
+        <v>130.71428571428572</v>
       </c>
       <c r="J12" t="n">
-        <v>107.80000000000001</v>
+        <v>134.75</v>
       </c>
       <c r="K12" t="n">
-        <v>40.0</v>
+        <v>50.0</v>
       </c>
       <c r="L12" t="n">
-        <v>3.0</v>
+        <v>11.0</v>
       </c>
       <c r="M12" t="n">
         <v>2016.0</v>
@@ -637,31 +637,31 @@
         <v>2695.0</v>
       </c>
       <c r="D13" t="n">
-        <v>10159.0</v>
+        <v>6787.0</v>
       </c>
       <c r="E13" t="n">
-        <v>3769.5732838589984</v>
+        <v>2189.3548387096776</v>
       </c>
       <c r="F13" t="n">
-        <v>225.53730158730156</v>
+        <v>221.1579365079365</v>
       </c>
       <c r="G13" t="n">
-        <v>309.0</v>
+        <v>303.0</v>
       </c>
       <c r="H13" t="n">
-        <v>101.32835288704852</v>
+        <v>94.78197278911564</v>
       </c>
       <c r="I13" t="n">
-        <v>138.82608695652175</v>
+        <v>129.85714285714286</v>
       </c>
       <c r="J13" t="n">
-        <v>210.21</v>
+        <v>78.69399999999999</v>
       </c>
       <c r="K13" t="n">
-        <v>78.0</v>
+        <v>29.2</v>
       </c>
       <c r="L13" t="n">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="M13" t="n">
         <v>2016.0</v>
@@ -678,31 +678,31 @@
         <v>3100.0</v>
       </c>
       <c r="D14" t="n">
-        <v>11882.0</v>
+        <v>6654.0</v>
       </c>
       <c r="E14" t="n">
-        <v>3832.9032258064517</v>
+        <v>2146.451612903226</v>
       </c>
       <c r="F14" t="n">
-        <v>276.33902550091074</v>
+        <v>279.69877049180326</v>
       </c>
       <c r="G14" t="n">
-        <v>329.0</v>
+        <v>428.0</v>
       </c>
       <c r="H14" t="n">
-        <v>130.04189435336977</v>
+        <v>108.77174408014571</v>
       </c>
       <c r="I14" t="n">
-        <v>154.8235294117647</v>
+        <v>129.5</v>
       </c>
       <c r="J14" t="n">
-        <v>127.875</v>
+        <v>32.550000000000004</v>
       </c>
       <c r="K14" t="n">
-        <v>41.25</v>
+        <v>10.5</v>
       </c>
       <c r="L14" t="n">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
       <c r="M14" t="n">
         <v>2017.0</v>
@@ -719,34 +719,34 @@
         <v>3100.0</v>
       </c>
       <c r="D15" t="n">
-        <v>10697.0</v>
+        <v>3529.0</v>
       </c>
       <c r="E15" t="n">
-        <v>3450.6451612903224</v>
+        <v>1022.7073011124614</v>
       </c>
       <c r="F15" t="n">
-        <v>374.6115664845173</v>
+        <v>305.73679417122037</v>
       </c>
       <c r="G15" t="n">
-        <v>446.0</v>
+        <v>364.0</v>
       </c>
       <c r="H15" t="n">
-        <v>168.30374726115997</v>
+        <v>81.27180604551428</v>
       </c>
       <c r="I15" t="n">
-        <v>200.3768115942029</v>
+        <v>96.75949367088607</v>
       </c>
       <c r="J15" t="n">
-        <v>124.0</v>
+        <v>0.0</v>
       </c>
       <c r="K15" t="n">
-        <v>40.0</v>
+        <v>0.0</v>
       </c>
       <c r="L15" t="n">
-        <v>12.0</v>
+        <v>8.0</v>
       </c>
       <c r="M15" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="16">
@@ -760,34 +760,34 @@
         <v>3100.0</v>
       </c>
       <c r="D16" t="n">
-        <v>8496.0</v>
+        <v>4084.0</v>
       </c>
       <c r="E16" t="n">
-        <v>2740.6451612903224</v>
+        <v>1317.4193548387098</v>
       </c>
       <c r="F16" t="n">
-        <v>364.53233151183974</v>
+        <v>305.73679417122037</v>
       </c>
       <c r="G16" t="n">
-        <v>434.0</v>
+        <v>364.0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.22814207650276</v>
+        <v>93.0503286608062</v>
       </c>
       <c r="I16" t="n">
-        <v>151.0</v>
+        <v>110.78260869565217</v>
       </c>
       <c r="J16" t="n">
-        <v>116.25</v>
+        <v>0.0</v>
       </c>
       <c r="K16" t="n">
-        <v>37.5</v>
+        <v>0.0</v>
       </c>
       <c r="L16" t="n">
-        <v>11.0</v>
+        <v>7.0</v>
       </c>
       <c r="M16" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="17">
@@ -801,34 +801,34 @@
         <v>3100.0</v>
       </c>
       <c r="D17" t="n">
-        <v>7698.0</v>
+        <v>5102.0</v>
       </c>
       <c r="E17" t="n">
-        <v>2483.2258064516127</v>
+        <v>2054.5856066510783</v>
       </c>
       <c r="F17" t="n">
-        <v>359.4927140255009</v>
+        <v>293.1377504553734</v>
       </c>
       <c r="G17" t="n">
-        <v>428.0</v>
+        <v>349.0</v>
       </c>
       <c r="H17" t="n">
-        <v>154.06830601092895</v>
+        <v>97.71258348512447</v>
       </c>
       <c r="I17" t="n">
-        <v>148.0</v>
+        <v>116.33333333333333</v>
       </c>
       <c r="J17" t="n">
-        <v>54.25000000000001</v>
+        <v>0.0</v>
       </c>
       <c r="K17" t="n">
-        <v>17.5</v>
+        <v>0.0</v>
       </c>
       <c r="L17" t="n">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="M17" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="18">
@@ -842,34 +842,34 @@
         <v>3100.0</v>
       </c>
       <c r="D18" t="n">
-        <v>6654.0</v>
+        <v>6889.0</v>
       </c>
       <c r="E18" t="n">
-        <v>2146.451612903226</v>
+        <v>2222.2580645161293</v>
       </c>
       <c r="F18" t="n">
-        <v>279.69877049180326</v>
+        <v>288.93806921675775</v>
       </c>
       <c r="G18" t="n">
-        <v>428.0</v>
+        <v>344.0</v>
       </c>
       <c r="H18" t="n">
-        <v>108.77174408014571</v>
+        <v>118.01695784909823</v>
       </c>
       <c r="I18" t="n">
-        <v>129.5</v>
+        <v>140.50704225352112</v>
       </c>
       <c r="J18" t="n">
-        <v>32.550000000000004</v>
+        <v>17.825</v>
       </c>
       <c r="K18" t="n">
-        <v>10.5</v>
+        <v>5.75</v>
       </c>
       <c r="L18" t="n">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="M18" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="19">
@@ -883,34 +883,34 @@
         <v>3100.0</v>
       </c>
       <c r="D19" t="n">
-        <v>3529.0</v>
+        <v>7969.0</v>
       </c>
       <c r="E19" t="n">
-        <v>1022.7073011124614</v>
+        <v>2570.6451612903224</v>
       </c>
       <c r="F19" t="n">
-        <v>305.73679417122037</v>
+        <v>284.7383879781421</v>
       </c>
       <c r="G19" t="n">
-        <v>364.0</v>
+        <v>339.0</v>
       </c>
       <c r="H19" t="n">
-        <v>81.27180604551428</v>
+        <v>117.24521857923499</v>
       </c>
       <c r="I19" t="n">
-        <v>96.75949367088607</v>
+        <v>139.58823529411765</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0</v>
+        <v>62.0</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="L19" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="M19" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="20">
@@ -924,34 +924,34 @@
         <v>3100.0</v>
       </c>
       <c r="D20" t="n">
-        <v>4084.0</v>
+        <v>9723.0</v>
       </c>
       <c r="E20" t="n">
-        <v>1317.4193548387098</v>
+        <v>3136.451612903226</v>
       </c>
       <c r="F20" t="n">
-        <v>305.73679417122037</v>
+        <v>278.85883424408013</v>
       </c>
       <c r="G20" t="n">
-        <v>364.0</v>
+        <v>332.0</v>
       </c>
       <c r="H20" t="n">
-        <v>93.0503286608062</v>
+        <v>119.51092896174863</v>
       </c>
       <c r="I20" t="n">
-        <v>110.78260869565217</v>
+        <v>142.28571428571428</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0</v>
+        <v>85.25</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0</v>
+        <v>27.5</v>
       </c>
       <c r="L20" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="M20" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="21">
@@ -965,34 +965,34 @@
         <v>3100.0</v>
       </c>
       <c r="D21" t="n">
-        <v>5102.0</v>
+        <v>11387.0</v>
       </c>
       <c r="E21" t="n">
-        <v>2054.5856066510783</v>
+        <v>3673.2258064516127</v>
       </c>
       <c r="F21" t="n">
-        <v>293.1377504553734</v>
+        <v>277.17896174863387</v>
       </c>
       <c r="G21" t="n">
-        <v>349.0</v>
+        <v>330.0</v>
       </c>
       <c r="H21" t="n">
-        <v>97.71258348512447</v>
+        <v>124.52967846677754</v>
       </c>
       <c r="I21" t="n">
-        <v>116.33333333333333</v>
+        <v>148.2608695652174</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0</v>
+        <v>155.0</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
       <c r="L21" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="M21" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="22">
@@ -1006,34 +1006,34 @@
         <v>3100.0</v>
       </c>
       <c r="D22" t="n">
-        <v>6889.0</v>
+        <v>11882.0</v>
       </c>
       <c r="E22" t="n">
-        <v>2222.2580645161293</v>
+        <v>3832.9032258064517</v>
       </c>
       <c r="F22" t="n">
-        <v>288.93806921675775</v>
+        <v>276.33902550091074</v>
       </c>
       <c r="G22" t="n">
-        <v>344.0</v>
+        <v>329.0</v>
       </c>
       <c r="H22" t="n">
-        <v>118.01695784909823</v>
+        <v>130.04189435336977</v>
       </c>
       <c r="I22" t="n">
-        <v>140.50704225352112</v>
+        <v>154.8235294117647</v>
       </c>
       <c r="J22" t="n">
-        <v>17.825</v>
+        <v>127.875</v>
       </c>
       <c r="K22" t="n">
-        <v>5.75</v>
+        <v>41.25</v>
       </c>
       <c r="L22" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="M22" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="23">
@@ -1047,31 +1047,31 @@
         <v>3100.0</v>
       </c>
       <c r="D23" t="n">
-        <v>7969.0</v>
+        <v>10697.0</v>
       </c>
       <c r="E23" t="n">
-        <v>2570.6451612903224</v>
+        <v>3450.6451612903224</v>
       </c>
       <c r="F23" t="n">
-        <v>284.7383879781421</v>
+        <v>374.6115664845173</v>
       </c>
       <c r="G23" t="n">
-        <v>339.0</v>
+        <v>446.0</v>
       </c>
       <c r="H23" t="n">
-        <v>117.24521857923499</v>
+        <v>168.30374726115997</v>
       </c>
       <c r="I23" t="n">
-        <v>139.58823529411765</v>
+        <v>200.3768115942029</v>
       </c>
       <c r="J23" t="n">
-        <v>62.0</v>
+        <v>124.0</v>
       </c>
       <c r="K23" t="n">
-        <v>20.0</v>
+        <v>40.0</v>
       </c>
       <c r="L23" t="n">
-        <v>4.0</v>
+        <v>12.0</v>
       </c>
       <c r="M23" t="n">
         <v>2016.0</v>
@@ -1088,31 +1088,31 @@
         <v>3100.0</v>
       </c>
       <c r="D24" t="n">
-        <v>9723.0</v>
+        <v>8496.0</v>
       </c>
       <c r="E24" t="n">
-        <v>3136.451612903226</v>
+        <v>2740.6451612903224</v>
       </c>
       <c r="F24" t="n">
-        <v>278.85883424408013</v>
+        <v>364.53233151183974</v>
       </c>
       <c r="G24" t="n">
-        <v>332.0</v>
+        <v>434.0</v>
       </c>
       <c r="H24" t="n">
-        <v>119.51092896174863</v>
+        <v>156.22814207650276</v>
       </c>
       <c r="I24" t="n">
-        <v>142.28571428571428</v>
+        <v>151.0</v>
       </c>
       <c r="J24" t="n">
-        <v>85.25</v>
+        <v>116.25</v>
       </c>
       <c r="K24" t="n">
-        <v>27.5</v>
+        <v>37.5</v>
       </c>
       <c r="L24" t="n">
-        <v>3.0</v>
+        <v>11.0</v>
       </c>
       <c r="M24" t="n">
         <v>2016.0</v>
@@ -1129,31 +1129,31 @@
         <v>3100.0</v>
       </c>
       <c r="D25" t="n">
-        <v>11387.0</v>
+        <v>7698.0</v>
       </c>
       <c r="E25" t="n">
-        <v>3673.2258064516127</v>
+        <v>2483.2258064516127</v>
       </c>
       <c r="F25" t="n">
-        <v>277.17896174863387</v>
+        <v>359.4927140255009</v>
       </c>
       <c r="G25" t="n">
-        <v>330.0</v>
+        <v>428.0</v>
       </c>
       <c r="H25" t="n">
-        <v>124.52967846677754</v>
+        <v>154.06830601092895</v>
       </c>
       <c r="I25" t="n">
-        <v>148.2608695652174</v>
+        <v>148.0</v>
       </c>
       <c r="J25" t="n">
-        <v>155.0</v>
+        <v>54.25000000000001</v>
       </c>
       <c r="K25" t="n">
-        <v>50.0</v>
+        <v>17.5</v>
       </c>
       <c r="L25" t="n">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="M25" t="n">
         <v>2016.0</v>
@@ -1170,31 +1170,31 @@
         <v>2800.0</v>
       </c>
       <c r="D26" t="n">
-        <v>10985.0</v>
+        <v>6389.0</v>
       </c>
       <c r="E26" t="n">
-        <v>3923.214285714286</v>
+        <v>2281.785714285714</v>
       </c>
       <c r="F26" t="n">
-        <v>303.23190235690237</v>
+        <v>319.23358585858585</v>
       </c>
       <c r="G26" t="n">
-        <v>379.0</v>
+        <v>380.0</v>
       </c>
       <c r="H26" t="n">
-        <v>142.6973658150129</v>
+        <v>124.14639450056117</v>
       </c>
       <c r="I26" t="n">
-        <v>178.35294117647058</v>
+        <v>155.16666666666666</v>
       </c>
       <c r="J26" t="n">
-        <v>136.07999999999998</v>
+        <v>34.019999999999996</v>
       </c>
       <c r="K26" t="n">
-        <v>48.6</v>
+        <v>12.15</v>
       </c>
       <c r="L26" t="n">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
       <c r="M26" t="n">
         <v>2017.0</v>
@@ -1211,34 +1211,34 @@
         <v>2800.0</v>
       </c>
       <c r="D27" t="n">
-        <v>10069.0</v>
+        <v>2810.0</v>
       </c>
       <c r="E27" t="n">
-        <v>3596.0714285714284</v>
+        <v>1003.5714285714286</v>
       </c>
       <c r="F27" t="n">
-        <v>304.8320707070707</v>
+        <v>340.03577441077437</v>
       </c>
       <c r="G27" t="n">
-        <v>381.0</v>
+        <v>425.0</v>
       </c>
       <c r="H27" t="n">
-        <v>136.95353901332163</v>
+        <v>90.38925648894002</v>
       </c>
       <c r="I27" t="n">
-        <v>171.17391304347825</v>
+        <v>112.9746835443038</v>
       </c>
       <c r="J27" t="n">
-        <v>136.07999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="K27" t="n">
-        <v>48.6</v>
+        <v>0.0</v>
       </c>
       <c r="L27" t="n">
-        <v>12.0</v>
+        <v>8.0</v>
       </c>
       <c r="M27" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="28">
@@ -1252,34 +1252,34 @@
         <v>2800.0</v>
       </c>
       <c r="D28" t="n">
-        <v>7885.0</v>
+        <v>3385.0</v>
       </c>
       <c r="E28" t="n">
-        <v>2816.0714285714284</v>
+        <v>1208.9285714285713</v>
       </c>
       <c r="F28" t="n">
-        <v>306.43223905723903</v>
+        <v>337.6355218855219</v>
       </c>
       <c r="G28" t="n">
-        <v>383.0</v>
+        <v>422.0</v>
       </c>
       <c r="H28" t="n">
-        <v>131.32810245310245</v>
+        <v>102.75863709559361</v>
       </c>
       <c r="I28" t="n">
-        <v>164.14285714285714</v>
+        <v>128.43478260869566</v>
       </c>
       <c r="J28" t="n">
-        <v>113.39999999999999</v>
+        <v>0.0</v>
       </c>
       <c r="K28" t="n">
-        <v>40.5</v>
+        <v>0.0</v>
       </c>
       <c r="L28" t="n">
-        <v>11.0</v>
+        <v>7.0</v>
       </c>
       <c r="M28" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="29">
@@ -1293,34 +1293,34 @@
         <v>2800.0</v>
       </c>
       <c r="D29" t="n">
-        <v>6954.0</v>
+        <v>4395.0</v>
       </c>
       <c r="E29" t="n">
-        <v>2483.5714285714284</v>
+        <v>1569.642857142857</v>
       </c>
       <c r="F29" t="n">
-        <v>304.0319865319865</v>
+        <v>332.0349326599327</v>
       </c>
       <c r="G29" t="n">
-        <v>380.0</v>
+        <v>415.0</v>
       </c>
       <c r="H29" t="n">
-        <v>130.29942279942279</v>
+        <v>110.67831088664423</v>
       </c>
       <c r="I29" t="n">
-        <v>162.85714285714286</v>
+        <v>138.33333333333334</v>
       </c>
       <c r="J29" t="n">
-        <v>54.809999999999995</v>
+        <v>0.0</v>
       </c>
       <c r="K29" t="n">
-        <v>19.575</v>
+        <v>0.0</v>
       </c>
       <c r="L29" t="n">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="M29" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="30">
@@ -1334,34 +1334,34 @@
         <v>2800.0</v>
       </c>
       <c r="D30" t="n">
-        <v>6389.0</v>
+        <v>6128.0</v>
       </c>
       <c r="E30" t="n">
-        <v>2281.785714285714</v>
+        <v>2188.5714285714284</v>
       </c>
       <c r="F30" t="n">
-        <v>319.23358585858585</v>
+        <v>322.4339225589225</v>
       </c>
       <c r="G30" t="n">
-        <v>380.0</v>
+        <v>403.0</v>
       </c>
       <c r="H30" t="n">
-        <v>124.14639450056117</v>
+        <v>131.69836273533457</v>
       </c>
       <c r="I30" t="n">
-        <v>155.16666666666666</v>
+        <v>164.6056338028169</v>
       </c>
       <c r="J30" t="n">
-        <v>34.019999999999996</v>
+        <v>20.79</v>
       </c>
       <c r="K30" t="n">
-        <v>12.15</v>
+        <v>7.425</v>
       </c>
       <c r="L30" t="n">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="M30" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="31">
@@ -1375,34 +1375,34 @@
         <v>2800.0</v>
       </c>
       <c r="D31" t="n">
-        <v>2810.0</v>
+        <v>7302.0</v>
       </c>
       <c r="E31" t="n">
-        <v>1003.5714285714286</v>
+        <v>2607.8571428571427</v>
       </c>
       <c r="F31" t="n">
-        <v>340.03577441077437</v>
+        <v>316.0332491582492</v>
       </c>
       <c r="G31" t="n">
-        <v>425.0</v>
+        <v>395.0</v>
       </c>
       <c r="H31" t="n">
-        <v>90.38925648894002</v>
+        <v>130.13133788869084</v>
       </c>
       <c r="I31" t="n">
-        <v>112.9746835443038</v>
+        <v>162.64705882352942</v>
       </c>
       <c r="J31" t="n">
-        <v>0.0</v>
+        <v>45.36</v>
       </c>
       <c r="K31" t="n">
-        <v>0.0</v>
+        <v>16.2</v>
       </c>
       <c r="L31" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="M31" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="32">
@@ -1416,34 +1416,34 @@
         <v>2800.0</v>
       </c>
       <c r="D32" t="n">
-        <v>3385.0</v>
+        <v>8864.0</v>
       </c>
       <c r="E32" t="n">
-        <v>1208.9285714285713</v>
+        <v>3165.714285714286</v>
       </c>
       <c r="F32" t="n">
-        <v>337.6355218855219</v>
+        <v>311.2327441077441</v>
       </c>
       <c r="G32" t="n">
-        <v>422.0</v>
+        <v>389.0</v>
       </c>
       <c r="H32" t="n">
-        <v>102.75863709559361</v>
+        <v>133.38546176046177</v>
       </c>
       <c r="I32" t="n">
-        <v>128.43478260869566</v>
+        <v>166.71428571428572</v>
       </c>
       <c r="J32" t="n">
-        <v>0.0</v>
+        <v>75.60000000000001</v>
       </c>
       <c r="K32" t="n">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="L32" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="M32" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="33">
@@ -1457,34 +1457,34 @@
         <v>2800.0</v>
       </c>
       <c r="D33" t="n">
-        <v>4395.0</v>
+        <v>10459.0</v>
       </c>
       <c r="E33" t="n">
-        <v>1569.642857142857</v>
+        <v>3735.3571428571427</v>
       </c>
       <c r="F33" t="n">
-        <v>332.0349326599327</v>
+        <v>304.8320707070707</v>
       </c>
       <c r="G33" t="n">
-        <v>415.0</v>
+        <v>381.0</v>
       </c>
       <c r="H33" t="n">
-        <v>110.67831088664423</v>
+        <v>136.95353901332163</v>
       </c>
       <c r="I33" t="n">
-        <v>138.33333333333334</v>
+        <v>171.17391304347825</v>
       </c>
       <c r="J33" t="n">
-        <v>0.0</v>
+        <v>139.85999999999999</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0</v>
+        <v>49.95</v>
       </c>
       <c r="L33" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="M33" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="34">
@@ -1498,34 +1498,34 @@
         <v>2800.0</v>
       </c>
       <c r="D34" t="n">
-        <v>6128.0</v>
+        <v>10985.0</v>
       </c>
       <c r="E34" t="n">
-        <v>2188.5714285714284</v>
+        <v>3923.214285714286</v>
       </c>
       <c r="F34" t="n">
-        <v>322.4339225589225</v>
+        <v>303.23190235690237</v>
       </c>
       <c r="G34" t="n">
-        <v>403.0</v>
+        <v>379.0</v>
       </c>
       <c r="H34" t="n">
-        <v>131.69836273533457</v>
+        <v>142.6973658150129</v>
       </c>
       <c r="I34" t="n">
-        <v>164.6056338028169</v>
+        <v>178.35294117647058</v>
       </c>
       <c r="J34" t="n">
-        <v>20.79</v>
+        <v>136.07999999999998</v>
       </c>
       <c r="K34" t="n">
-        <v>7.425</v>
+        <v>48.6</v>
       </c>
       <c r="L34" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="M34" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="35">
@@ -1539,31 +1539,31 @@
         <v>2800.0</v>
       </c>
       <c r="D35" t="n">
-        <v>7302.0</v>
+        <v>10069.0</v>
       </c>
       <c r="E35" t="n">
-        <v>2607.8571428571427</v>
+        <v>3596.0714285714284</v>
       </c>
       <c r="F35" t="n">
-        <v>316.0332491582492</v>
+        <v>304.8320707070707</v>
       </c>
       <c r="G35" t="n">
-        <v>395.0</v>
+        <v>381.0</v>
       </c>
       <c r="H35" t="n">
-        <v>130.13133788869084</v>
+        <v>136.95353901332163</v>
       </c>
       <c r="I35" t="n">
-        <v>162.64705882352942</v>
+        <v>171.17391304347825</v>
       </c>
       <c r="J35" t="n">
-        <v>45.36</v>
+        <v>136.07999999999998</v>
       </c>
       <c r="K35" t="n">
-        <v>16.2</v>
+        <v>48.6</v>
       </c>
       <c r="L35" t="n">
-        <v>4.0</v>
+        <v>12.0</v>
       </c>
       <c r="M35" t="n">
         <v>2016.0</v>
@@ -1580,31 +1580,31 @@
         <v>2800.0</v>
       </c>
       <c r="D36" t="n">
-        <v>8864.0</v>
+        <v>7885.0</v>
       </c>
       <c r="E36" t="n">
-        <v>3165.714285714286</v>
+        <v>2816.0714285714284</v>
       </c>
       <c r="F36" t="n">
-        <v>311.2327441077441</v>
+        <v>306.43223905723903</v>
       </c>
       <c r="G36" t="n">
-        <v>389.0</v>
+        <v>383.0</v>
       </c>
       <c r="H36" t="n">
-        <v>133.38546176046177</v>
+        <v>131.32810245310245</v>
       </c>
       <c r="I36" t="n">
-        <v>166.71428571428572</v>
+        <v>164.14285714285714</v>
       </c>
       <c r="J36" t="n">
-        <v>75.60000000000001</v>
+        <v>113.39999999999999</v>
       </c>
       <c r="K36" t="n">
-        <v>27.0</v>
+        <v>40.5</v>
       </c>
       <c r="L36" t="n">
-        <v>3.0</v>
+        <v>11.0</v>
       </c>
       <c r="M36" t="n">
         <v>2016.0</v>
@@ -1621,31 +1621,31 @@
         <v>2800.0</v>
       </c>
       <c r="D37" t="n">
-        <v>10459.0</v>
+        <v>6954.0</v>
       </c>
       <c r="E37" t="n">
-        <v>3735.3571428571427</v>
+        <v>2483.5714285714284</v>
       </c>
       <c r="F37" t="n">
-        <v>304.8320707070707</v>
+        <v>304.0319865319865</v>
       </c>
       <c r="G37" t="n">
-        <v>381.0</v>
+        <v>380.0</v>
       </c>
       <c r="H37" t="n">
-        <v>136.95353901332163</v>
+        <v>130.29942279942279</v>
       </c>
       <c r="I37" t="n">
-        <v>171.17391304347825</v>
+        <v>162.85714285714286</v>
       </c>
       <c r="J37" t="n">
-        <v>139.85999999999999</v>
+        <v>54.809999999999995</v>
       </c>
       <c r="K37" t="n">
-        <v>49.95</v>
+        <v>19.575</v>
       </c>
       <c r="L37" t="n">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="M37" t="n">
         <v>2016.0</v>
@@ -1662,31 +1662,31 @@
         <v>6150.0</v>
       </c>
       <c r="D38" t="n">
-        <v>23646.0</v>
+        <v>12112.0</v>
       </c>
       <c r="E38" t="n">
-        <v>3844.878048780488</v>
+        <v>1969.4308943089432</v>
       </c>
       <c r="F38" t="n">
-        <v>408.93424036281175</v>
+        <v>416.13378684807265</v>
       </c>
       <c r="G38" t="n">
-        <v>284.0</v>
+        <v>282.0</v>
       </c>
       <c r="H38" t="n">
-        <v>192.43964252367613</v>
+        <v>161.8298059964727</v>
       </c>
       <c r="I38" t="n">
-        <v>133.64705882352942</v>
+        <v>112.38888888888889</v>
       </c>
       <c r="J38" t="n">
-        <v>212.667</v>
+        <v>37.392</v>
       </c>
       <c r="K38" t="n">
-        <v>34.58</v>
+        <v>6.08</v>
       </c>
       <c r="L38" t="n">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
       <c r="M38" t="n">
         <v>2017.0</v>
@@ -1703,34 +1703,34 @@
         <v>6150.0</v>
       </c>
       <c r="D39" t="n">
-        <v>21938.0</v>
+        <v>7287.0</v>
       </c>
       <c r="E39" t="n">
-        <v>3567.1544715447153</v>
+        <v>1184.878048780488</v>
       </c>
       <c r="F39" t="n">
-        <v>408.93424036281175</v>
+        <v>455.0113378684807</v>
       </c>
       <c r="G39" t="n">
-        <v>284.0</v>
+        <v>316.0</v>
       </c>
       <c r="H39" t="n">
-        <v>183.7240790035821</v>
+        <v>120.95238095238095</v>
       </c>
       <c r="I39" t="n">
-        <v>127.59420289855072</v>
+        <v>84.0</v>
       </c>
       <c r="J39" t="n">
-        <v>204.48749999999998</v>
+        <v>0.0</v>
       </c>
       <c r="K39" t="n">
-        <v>33.25</v>
+        <v>0.0</v>
       </c>
       <c r="L39" t="n">
-        <v>12.0</v>
+        <v>8.0</v>
       </c>
       <c r="M39" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="40">
@@ -1744,34 +1744,34 @@
         <v>6150.0</v>
       </c>
       <c r="D40" t="n">
-        <v>17696.0</v>
+        <v>8628.0</v>
       </c>
       <c r="E40" t="n">
-        <v>2877.39837398374</v>
+        <v>1402.9268292682927</v>
       </c>
       <c r="F40" t="n">
-        <v>407.4943310657597</v>
+        <v>456.45124716553283</v>
       </c>
       <c r="G40" t="n">
-        <v>283.0</v>
+        <v>317.0</v>
       </c>
       <c r="H40" t="n">
-        <v>174.6404275996113</v>
+        <v>138.91994478951</v>
       </c>
       <c r="I40" t="n">
-        <v>121.28571428571429</v>
+        <v>96.47826086956522</v>
       </c>
       <c r="J40" t="n">
-        <v>169.43249999999998</v>
+        <v>0.0</v>
       </c>
       <c r="K40" t="n">
-        <v>27.549999999999997</v>
+        <v>0.0</v>
       </c>
       <c r="L40" t="n">
-        <v>11.0</v>
+        <v>7.0</v>
       </c>
       <c r="M40" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="41">
@@ -1785,34 +1785,34 @@
         <v>6150.0</v>
       </c>
       <c r="D41" t="n">
-        <v>14358.0</v>
+        <v>11359.0</v>
       </c>
       <c r="E41" t="n">
-        <v>2334.6341463414633</v>
+        <v>1846.9918699186992</v>
       </c>
       <c r="F41" t="n">
-        <v>406.05442176870747</v>
+        <v>444.9319727891156</v>
       </c>
       <c r="G41" t="n">
-        <v>282.0</v>
+        <v>309.0</v>
       </c>
       <c r="H41" t="n">
-        <v>174.02332361516034</v>
+        <v>148.31065759637187</v>
       </c>
       <c r="I41" t="n">
-        <v>120.85714285714286</v>
+        <v>103.0</v>
       </c>
       <c r="J41" t="n">
-        <v>82.9635</v>
+        <v>0.0</v>
       </c>
       <c r="K41" t="n">
-        <v>13.489999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="L41" t="n">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="M41" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="42">
@@ -1826,34 +1826,34 @@
         <v>6150.0</v>
       </c>
       <c r="D42" t="n">
-        <v>12112.0</v>
+        <v>14269.0</v>
       </c>
       <c r="E42" t="n">
-        <v>1969.4308943089432</v>
+        <v>2320.162601626016</v>
       </c>
       <c r="F42" t="n">
-        <v>416.13378684807265</v>
+        <v>439.1723356009071</v>
       </c>
       <c r="G42" t="n">
-        <v>282.0</v>
+        <v>305.0</v>
       </c>
       <c r="H42" t="n">
-        <v>161.8298059964727</v>
+        <v>179.38024975248317</v>
       </c>
       <c r="I42" t="n">
-        <v>112.38888888888889</v>
+        <v>124.5774647887324</v>
       </c>
       <c r="J42" t="n">
-        <v>37.392</v>
+        <v>31.5495</v>
       </c>
       <c r="K42" t="n">
-        <v>6.08</v>
+        <v>5.13</v>
       </c>
       <c r="L42" t="n">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="M42" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="43">
@@ -1867,34 +1867,34 @@
         <v>6150.0</v>
       </c>
       <c r="D43" t="n">
-        <v>7287.0</v>
+        <v>16389.0</v>
       </c>
       <c r="E43" t="n">
-        <v>1184.878048780488</v>
+        <v>2664.878048780488</v>
       </c>
       <c r="F43" t="n">
-        <v>455.0113378684807</v>
+        <v>416.13378684807265</v>
       </c>
       <c r="G43" t="n">
-        <v>316.0</v>
+        <v>289.0</v>
       </c>
       <c r="H43" t="n">
-        <v>120.95238095238095</v>
+        <v>171.34920634920638</v>
       </c>
       <c r="I43" t="n">
-        <v>84.0</v>
+        <v>119.0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.0</v>
+        <v>78.2895</v>
       </c>
       <c r="K43" t="n">
-        <v>0.0</v>
+        <v>12.73</v>
       </c>
       <c r="L43" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="M43" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="44">
@@ -1908,34 +1908,34 @@
         <v>6150.0</v>
       </c>
       <c r="D44" t="n">
-        <v>8628.0</v>
+        <v>19093.0</v>
       </c>
       <c r="E44" t="n">
-        <v>1402.9268292682927</v>
+        <v>3104.5528455284552</v>
       </c>
       <c r="F44" t="n">
-        <v>456.45124716553283</v>
+        <v>411.81405895691614</v>
       </c>
       <c r="G44" t="n">
-        <v>317.0</v>
+        <v>286.0</v>
       </c>
       <c r="H44" t="n">
-        <v>138.91994478951</v>
+        <v>176.49173955296408</v>
       </c>
       <c r="I44" t="n">
-        <v>96.47826086956522</v>
+        <v>122.57142857142857</v>
       </c>
       <c r="J44" t="n">
-        <v>0.0</v>
+        <v>132.0405</v>
       </c>
       <c r="K44" t="n">
-        <v>0.0</v>
+        <v>21.47</v>
       </c>
       <c r="L44" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="M44" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="45">
@@ -1949,34 +1949,34 @@
         <v>6150.0</v>
       </c>
       <c r="D45" t="n">
-        <v>11359.0</v>
+        <v>22184.0</v>
       </c>
       <c r="E45" t="n">
-        <v>1846.9918699186992</v>
+        <v>3607.1544715447153</v>
       </c>
       <c r="F45" t="n">
-        <v>444.9319727891156</v>
+        <v>408.93424036281175</v>
       </c>
       <c r="G45" t="n">
-        <v>309.0</v>
+        <v>284.0</v>
       </c>
       <c r="H45" t="n">
-        <v>148.31065759637187</v>
+        <v>183.7240790035821</v>
       </c>
       <c r="I45" t="n">
-        <v>103.0</v>
+        <v>127.59420289855072</v>
       </c>
       <c r="J45" t="n">
-        <v>0.0</v>
+        <v>219.678</v>
       </c>
       <c r="K45" t="n">
-        <v>0.0</v>
+        <v>35.72</v>
       </c>
       <c r="L45" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="M45" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="46">
@@ -1990,34 +1990,34 @@
         <v>6150.0</v>
       </c>
       <c r="D46" t="n">
-        <v>14269.0</v>
+        <v>23646.0</v>
       </c>
       <c r="E46" t="n">
-        <v>2320.162601626016</v>
+        <v>3844.878048780488</v>
       </c>
       <c r="F46" t="n">
-        <v>439.1723356009071</v>
+        <v>408.93424036281175</v>
       </c>
       <c r="G46" t="n">
-        <v>305.0</v>
+        <v>284.0</v>
       </c>
       <c r="H46" t="n">
-        <v>179.38024975248317</v>
+        <v>192.43964252367613</v>
       </c>
       <c r="I46" t="n">
-        <v>124.5774647887324</v>
+        <v>133.64705882352942</v>
       </c>
       <c r="J46" t="n">
-        <v>31.5495</v>
+        <v>212.667</v>
       </c>
       <c r="K46" t="n">
-        <v>5.13</v>
+        <v>34.58</v>
       </c>
       <c r="L46" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="M46" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="47">
@@ -2031,31 +2031,31 @@
         <v>6150.0</v>
       </c>
       <c r="D47" t="n">
-        <v>16389.0</v>
+        <v>21938.0</v>
       </c>
       <c r="E47" t="n">
-        <v>2664.878048780488</v>
+        <v>3567.1544715447153</v>
       </c>
       <c r="F47" t="n">
-        <v>416.13378684807265</v>
+        <v>408.93424036281175</v>
       </c>
       <c r="G47" t="n">
-        <v>289.0</v>
+        <v>284.0</v>
       </c>
       <c r="H47" t="n">
-        <v>171.34920634920638</v>
+        <v>183.7240790035821</v>
       </c>
       <c r="I47" t="n">
-        <v>119.0</v>
+        <v>127.59420289855072</v>
       </c>
       <c r="J47" t="n">
-        <v>78.2895</v>
+        <v>204.48749999999998</v>
       </c>
       <c r="K47" t="n">
-        <v>12.73</v>
+        <v>33.25</v>
       </c>
       <c r="L47" t="n">
-        <v>4.0</v>
+        <v>12.0</v>
       </c>
       <c r="M47" t="n">
         <v>2016.0</v>
@@ -2072,31 +2072,31 @@
         <v>6150.0</v>
       </c>
       <c r="D48" t="n">
-        <v>19093.0</v>
+        <v>17696.0</v>
       </c>
       <c r="E48" t="n">
-        <v>3104.5528455284552</v>
+        <v>2877.39837398374</v>
       </c>
       <c r="F48" t="n">
-        <v>411.81405895691614</v>
+        <v>407.4943310657597</v>
       </c>
       <c r="G48" t="n">
-        <v>286.0</v>
+        <v>283.0</v>
       </c>
       <c r="H48" t="n">
-        <v>176.49173955296408</v>
+        <v>174.6404275996113</v>
       </c>
       <c r="I48" t="n">
-        <v>122.57142857142857</v>
+        <v>121.28571428571429</v>
       </c>
       <c r="J48" t="n">
-        <v>132.0405</v>
+        <v>169.43249999999998</v>
       </c>
       <c r="K48" t="n">
-        <v>21.47</v>
+        <v>27.549999999999997</v>
       </c>
       <c r="L48" t="n">
-        <v>3.0</v>
+        <v>11.0</v>
       </c>
       <c r="M48" t="n">
         <v>2016.0</v>
@@ -2113,31 +2113,31 @@
         <v>6150.0</v>
       </c>
       <c r="D49" t="n">
-        <v>22184.0</v>
+        <v>14358.0</v>
       </c>
       <c r="E49" t="n">
-        <v>3607.1544715447153</v>
+        <v>2334.6341463414633</v>
       </c>
       <c r="F49" t="n">
-        <v>408.93424036281175</v>
+        <v>406.05442176870747</v>
       </c>
       <c r="G49" t="n">
-        <v>284.0</v>
+        <v>282.0</v>
       </c>
       <c r="H49" t="n">
-        <v>183.7240790035821</v>
+        <v>174.02332361516034</v>
       </c>
       <c r="I49" t="n">
-        <v>127.59420289855072</v>
+        <v>120.85714285714286</v>
       </c>
       <c r="J49" t="n">
-        <v>219.678</v>
+        <v>82.9635</v>
       </c>
       <c r="K49" t="n">
-        <v>35.72</v>
+        <v>13.489999999999998</v>
       </c>
       <c r="L49" t="n">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="M49" t="n">
         <v>2016.0</v>
@@ -2154,31 +2154,31 @@
         <v>6430.0</v>
       </c>
       <c r="D50" t="n">
-        <v>24623.0</v>
+        <v>13259.0</v>
       </c>
       <c r="E50" t="n">
-        <v>3829.393468118196</v>
+        <v>2062.052877138414</v>
       </c>
       <c r="F50" t="n">
-        <v>448.49649406688235</v>
+        <v>469.3567961165048</v>
       </c>
       <c r="G50" t="n">
-        <v>301.0</v>
+        <v>300.0</v>
       </c>
       <c r="H50" t="n">
-        <v>211.05717367853288</v>
+        <v>182.5276429341963</v>
       </c>
       <c r="I50" t="n">
-        <v>141.64705882352942</v>
+        <v>122.5</v>
       </c>
       <c r="J50" t="n">
-        <v>343.36199999999997</v>
+        <v>81.018</v>
       </c>
       <c r="K50" t="n">
-        <v>53.4</v>
+        <v>12.600000000000001</v>
       </c>
       <c r="L50" t="n">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
       <c r="M50" t="n">
         <v>2017.0</v>
@@ -2195,34 +2195,34 @@
         <v>6430.0</v>
       </c>
       <c r="D51" t="n">
-        <v>21903.0</v>
+        <v>7801.0</v>
       </c>
       <c r="E51" t="n">
-        <v>3406.3763608087093</v>
+        <v>1213.2192846034216</v>
       </c>
       <c r="F51" t="n">
-        <v>447.0064724919094</v>
+        <v>496.1771844660194</v>
       </c>
       <c r="G51" t="n">
-        <v>300.0</v>
+        <v>333.0</v>
       </c>
       <c r="H51" t="n">
-        <v>200.82899488766944</v>
+        <v>131.89520093400515</v>
       </c>
       <c r="I51" t="n">
-        <v>134.7826086956522</v>
+        <v>88.51898734177215</v>
       </c>
       <c r="J51" t="n">
-        <v>322.14300000000003</v>
+        <v>0.0</v>
       </c>
       <c r="K51" t="n">
-        <v>50.1</v>
+        <v>0.0</v>
       </c>
       <c r="L51" t="n">
-        <v>12.0</v>
+        <v>8.0</v>
       </c>
       <c r="M51" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="52">
@@ -2236,34 +2236,34 @@
         <v>6430.0</v>
       </c>
       <c r="D52" t="n">
-        <v>18769.0</v>
+        <v>9602.0</v>
       </c>
       <c r="E52" t="n">
-        <v>2918.9735614307933</v>
+        <v>1493.3125972006221</v>
       </c>
       <c r="F52" t="n">
-        <v>449.9865156418554</v>
+        <v>497.6672060409925</v>
       </c>
       <c r="G52" t="n">
-        <v>302.0</v>
+        <v>334.0</v>
       </c>
       <c r="H52" t="n">
-        <v>192.85136384650946</v>
+        <v>151.46393227334553</v>
       </c>
       <c r="I52" t="n">
-        <v>129.42857142857142</v>
+        <v>101.65217391304348</v>
       </c>
       <c r="J52" t="n">
-        <v>279.705</v>
+        <v>0.0</v>
       </c>
       <c r="K52" t="n">
-        <v>43.5</v>
+        <v>0.0</v>
       </c>
       <c r="L52" t="n">
-        <v>11.0</v>
+        <v>7.0</v>
       </c>
       <c r="M52" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="53">
@@ -2277,34 +2277,34 @@
         <v>6430.0</v>
       </c>
       <c r="D53" t="n">
-        <v>15421.0</v>
+        <v>12325.0</v>
       </c>
       <c r="E53" t="n">
-        <v>2398.2892690513218</v>
+        <v>1916.796267496112</v>
       </c>
       <c r="F53" t="n">
-        <v>447.0064724919094</v>
+        <v>464.8867313915858</v>
       </c>
       <c r="G53" t="n">
-        <v>300.0</v>
+        <v>312.0</v>
       </c>
       <c r="H53" t="n">
-        <v>191.5742024965326</v>
+        <v>154.96224379719527</v>
       </c>
       <c r="I53" t="n">
-        <v>128.57142857142858</v>
+        <v>104.0</v>
       </c>
       <c r="J53" t="n">
-        <v>138.50220000000002</v>
+        <v>0.0</v>
       </c>
       <c r="K53" t="n">
-        <v>21.54</v>
+        <v>0.0</v>
       </c>
       <c r="L53" t="n">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="M53" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="54">
@@ -2318,34 +2318,34 @@
         <v>6430.0</v>
       </c>
       <c r="D54" t="n">
-        <v>13259.0</v>
+        <v>15212.0</v>
       </c>
       <c r="E54" t="n">
-        <v>2062.052877138414</v>
+        <v>2365.7853810264387</v>
       </c>
       <c r="F54" t="n">
-        <v>469.3567961165048</v>
+        <v>458.9266450916937</v>
       </c>
       <c r="G54" t="n">
-        <v>300.0</v>
+        <v>308.0</v>
       </c>
       <c r="H54" t="n">
-        <v>182.5276429341963</v>
+        <v>187.44891137548052</v>
       </c>
       <c r="I54" t="n">
-        <v>122.5</v>
+        <v>125.80281690140845</v>
       </c>
       <c r="J54" t="n">
-        <v>81.018</v>
+        <v>60.184799999999996</v>
       </c>
       <c r="K54" t="n">
-        <v>12.600000000000001</v>
+        <v>9.36</v>
       </c>
       <c r="L54" t="n">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="M54" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="55">
@@ -2359,34 +2359,34 @@
         <v>6430.0</v>
       </c>
       <c r="D55" t="n">
-        <v>7801.0</v>
+        <v>17060.0</v>
       </c>
       <c r="E55" t="n">
-        <v>1213.2192846034216</v>
+        <v>2653.1881804043546</v>
       </c>
       <c r="F55" t="n">
-        <v>496.1771844660194</v>
+        <v>449.9865156418554</v>
       </c>
       <c r="G55" t="n">
-        <v>333.0</v>
+        <v>302.0</v>
       </c>
       <c r="H55" t="n">
-        <v>131.89520093400515</v>
+        <v>185.2885652642934</v>
       </c>
       <c r="I55" t="n">
-        <v>88.51898734177215</v>
+        <v>124.3529411764706</v>
       </c>
       <c r="J55" t="n">
-        <v>0.0</v>
+        <v>125.385</v>
       </c>
       <c r="K55" t="n">
-        <v>0.0</v>
+        <v>19.5</v>
       </c>
       <c r="L55" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="M55" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="56">
@@ -2400,34 +2400,34 @@
         <v>6430.0</v>
       </c>
       <c r="D56" t="n">
-        <v>9602.0</v>
+        <v>20098.0</v>
       </c>
       <c r="E56" t="n">
-        <v>1493.3125972006221</v>
+        <v>3125.660964230171</v>
       </c>
       <c r="F56" t="n">
-        <v>497.6672060409925</v>
+        <v>447.0064724919094</v>
       </c>
       <c r="G56" t="n">
-        <v>334.0</v>
+        <v>300.0</v>
       </c>
       <c r="H56" t="n">
-        <v>151.46393227334553</v>
+        <v>191.5742024965326</v>
       </c>
       <c r="I56" t="n">
-        <v>101.65217391304348</v>
+        <v>128.57142857142858</v>
       </c>
       <c r="J56" t="n">
-        <v>0.0</v>
+        <v>216.048</v>
       </c>
       <c r="K56" t="n">
-        <v>0.0</v>
+        <v>33.6</v>
       </c>
       <c r="L56" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="M56" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="57">
@@ -2441,34 +2441,34 @@
         <v>6430.0</v>
       </c>
       <c r="D57" t="n">
-        <v>12325.0</v>
+        <v>23189.0</v>
       </c>
       <c r="E57" t="n">
-        <v>1916.796267496112</v>
+        <v>3606.3763608087093</v>
       </c>
       <c r="F57" t="n">
-        <v>464.8867313915858</v>
+        <v>448.49649406688235</v>
       </c>
       <c r="G57" t="n">
-        <v>312.0</v>
+        <v>301.0</v>
       </c>
       <c r="H57" t="n">
-        <v>154.96224379719527</v>
+        <v>201.49842487062833</v>
       </c>
       <c r="I57" t="n">
-        <v>104.0</v>
+        <v>135.231884057971</v>
       </c>
       <c r="J57" t="n">
-        <v>0.0</v>
+        <v>362.652</v>
       </c>
       <c r="K57" t="n">
-        <v>0.0</v>
+        <v>56.4</v>
       </c>
       <c r="L57" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="M57" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="58">
@@ -2482,34 +2482,34 @@
         <v>6430.0</v>
       </c>
       <c r="D58" t="n">
-        <v>15212.0</v>
+        <v>24623.0</v>
       </c>
       <c r="E58" t="n">
-        <v>2365.7853810264387</v>
+        <v>3829.393468118196</v>
       </c>
       <c r="F58" t="n">
-        <v>458.9266450916937</v>
+        <v>448.49649406688235</v>
       </c>
       <c r="G58" t="n">
-        <v>308.0</v>
+        <v>301.0</v>
       </c>
       <c r="H58" t="n">
-        <v>187.44891137548052</v>
+        <v>211.05717367853288</v>
       </c>
       <c r="I58" t="n">
-        <v>125.80281690140845</v>
+        <v>141.64705882352942</v>
       </c>
       <c r="J58" t="n">
-        <v>60.184799999999996</v>
+        <v>343.36199999999997</v>
       </c>
       <c r="K58" t="n">
-        <v>9.36</v>
+        <v>53.4</v>
       </c>
       <c r="L58" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="M58" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="59">
@@ -2523,31 +2523,31 @@
         <v>6430.0</v>
       </c>
       <c r="D59" t="n">
-        <v>17060.0</v>
+        <v>21903.0</v>
       </c>
       <c r="E59" t="n">
-        <v>2653.1881804043546</v>
+        <v>3406.3763608087093</v>
       </c>
       <c r="F59" t="n">
-        <v>449.9865156418554</v>
+        <v>447.0064724919094</v>
       </c>
       <c r="G59" t="n">
-        <v>302.0</v>
+        <v>300.0</v>
       </c>
       <c r="H59" t="n">
-        <v>185.2885652642934</v>
+        <v>200.82899488766944</v>
       </c>
       <c r="I59" t="n">
-        <v>124.3529411764706</v>
+        <v>134.7826086956522</v>
       </c>
       <c r="J59" t="n">
-        <v>125.385</v>
+        <v>322.14300000000003</v>
       </c>
       <c r="K59" t="n">
-        <v>19.5</v>
+        <v>50.1</v>
       </c>
       <c r="L59" t="n">
-        <v>4.0</v>
+        <v>12.0</v>
       </c>
       <c r="M59" t="n">
         <v>2016.0</v>
@@ -2564,31 +2564,31 @@
         <v>6430.0</v>
       </c>
       <c r="D60" t="n">
-        <v>20098.0</v>
+        <v>18769.0</v>
       </c>
       <c r="E60" t="n">
-        <v>3125.660964230171</v>
+        <v>2918.9735614307933</v>
       </c>
       <c r="F60" t="n">
-        <v>447.0064724919094</v>
+        <v>449.9865156418554</v>
       </c>
       <c r="G60" t="n">
-        <v>300.0</v>
+        <v>302.0</v>
       </c>
       <c r="H60" t="n">
-        <v>191.5742024965326</v>
+        <v>192.85136384650946</v>
       </c>
       <c r="I60" t="n">
-        <v>128.57142857142858</v>
+        <v>129.42857142857142</v>
       </c>
       <c r="J60" t="n">
-        <v>216.048</v>
+        <v>279.705</v>
       </c>
       <c r="K60" t="n">
-        <v>33.6</v>
+        <v>43.5</v>
       </c>
       <c r="L60" t="n">
-        <v>3.0</v>
+        <v>11.0</v>
       </c>
       <c r="M60" t="n">
         <v>2016.0</v>
@@ -2605,31 +2605,31 @@
         <v>6430.0</v>
       </c>
       <c r="D61" t="n">
-        <v>23189.0</v>
+        <v>15421.0</v>
       </c>
       <c r="E61" t="n">
-        <v>3606.3763608087093</v>
+        <v>2398.2892690513218</v>
       </c>
       <c r="F61" t="n">
-        <v>448.49649406688235</v>
+        <v>447.0064724919094</v>
       </c>
       <c r="G61" t="n">
-        <v>301.0</v>
+        <v>300.0</v>
       </c>
       <c r="H61" t="n">
-        <v>201.49842487062833</v>
+        <v>191.5742024965326</v>
       </c>
       <c r="I61" t="n">
-        <v>135.231884057971</v>
+        <v>128.57142857142858</v>
       </c>
       <c r="J61" t="n">
-        <v>362.652</v>
+        <v>138.50220000000002</v>
       </c>
       <c r="K61" t="n">
-        <v>56.4</v>
+        <v>21.54</v>
       </c>
       <c r="L61" t="n">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="M61" t="n">
         <v>2016.0</v>
@@ -2646,31 +2646,31 @@
         <v>6435.0</v>
       </c>
       <c r="D62" t="n">
-        <v>24856.0</v>
+        <v>13597.0</v>
       </c>
       <c r="E62" t="n">
-        <v>3862.626262626263</v>
+        <v>2112.975912975913</v>
       </c>
       <c r="F62" t="n">
-        <v>349.0038011695906</v>
+        <v>360.3432748538011</v>
       </c>
       <c r="G62" t="n">
-        <v>277.0</v>
+        <v>272.0</v>
       </c>
       <c r="H62" t="n">
-        <v>164.23708290333676</v>
+        <v>140.1334957764782</v>
       </c>
       <c r="I62" t="n">
-        <v>130.35294117647058</v>
+        <v>111.22222222222223</v>
       </c>
       <c r="J62" t="n">
-        <v>292.7925</v>
+        <v>59.52375</v>
       </c>
       <c r="K62" t="n">
-        <v>45.5</v>
+        <v>9.25</v>
       </c>
       <c r="L62" t="n">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
       <c r="M62" t="n">
         <v>2017.0</v>
@@ -2687,34 +2687,34 @@
         <v>6435.0</v>
       </c>
       <c r="D63" t="n">
-        <v>22231.0</v>
+        <v>8264.0</v>
       </c>
       <c r="E63" t="n">
-        <v>3454.7008547008545</v>
+        <v>1284.2268842268843</v>
       </c>
       <c r="F63" t="n">
-        <v>347.74385964912284</v>
+        <v>393.1017543859649</v>
       </c>
       <c r="G63" t="n">
-        <v>276.0</v>
+        <v>312.0</v>
       </c>
       <c r="H63" t="n">
-        <v>156.23274853801172</v>
+        <v>104.49540306462359</v>
       </c>
       <c r="I63" t="n">
-        <v>124.0</v>
+        <v>82.9367088607595</v>
       </c>
       <c r="J63" t="n">
-        <v>281.53125</v>
+        <v>0.0</v>
       </c>
       <c r="K63" t="n">
-        <v>43.75</v>
+        <v>0.0</v>
       </c>
       <c r="L63" t="n">
-        <v>12.0</v>
+        <v>8.0</v>
       </c>
       <c r="M63" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="64">
@@ -2728,34 +2728,34 @@
         <v>6435.0</v>
       </c>
       <c r="D64" t="n">
-        <v>19002.0</v>
+        <v>9992.0</v>
       </c>
       <c r="E64" t="n">
-        <v>2952.913752913753</v>
+        <v>1552.7583527583527</v>
       </c>
       <c r="F64" t="n">
-        <v>341.44415204678364</v>
+        <v>390.5818713450292</v>
       </c>
       <c r="G64" t="n">
-        <v>271.0</v>
+        <v>310.0</v>
       </c>
       <c r="H64" t="n">
-        <v>146.33320802005014</v>
+        <v>118.87274345283497</v>
       </c>
       <c r="I64" t="n">
-        <v>116.14285714285714</v>
+        <v>94.34782608695652</v>
       </c>
       <c r="J64" t="n">
-        <v>225.22500000000002</v>
+        <v>0.0</v>
       </c>
       <c r="K64" t="n">
-        <v>35.0</v>
+        <v>0.0</v>
       </c>
       <c r="L64" t="n">
-        <v>11.0</v>
+        <v>7.0</v>
       </c>
       <c r="M64" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="65">
@@ -2769,34 +2769,34 @@
         <v>6435.0</v>
       </c>
       <c r="D65" t="n">
-        <v>15682.0</v>
+        <v>12759.0</v>
       </c>
       <c r="E65" t="n">
-        <v>2436.985236985237</v>
+        <v>1982.7505827505827</v>
       </c>
       <c r="F65" t="n">
-        <v>342.70409356725145</v>
+        <v>365.38304093567245</v>
       </c>
       <c r="G65" t="n">
-        <v>272.0</v>
+        <v>290.0</v>
       </c>
       <c r="H65" t="n">
-        <v>146.87318295739348</v>
+        <v>121.79434697855748</v>
       </c>
       <c r="I65" t="n">
-        <v>116.57142857142857</v>
+        <v>96.66666666666667</v>
       </c>
       <c r="J65" t="n">
-        <v>107.78625000000001</v>
+        <v>0.0</v>
       </c>
       <c r="K65" t="n">
-        <v>16.75</v>
+        <v>0.0</v>
       </c>
       <c r="L65" t="n">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="M65" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="66">
@@ -2810,34 +2810,34 @@
         <v>6435.0</v>
       </c>
       <c r="D66" t="n">
-        <v>13597.0</v>
+        <v>15503.0</v>
       </c>
       <c r="E66" t="n">
-        <v>2112.975912975913</v>
+        <v>2409.1686091686092</v>
       </c>
       <c r="F66" t="n">
-        <v>360.3432748538011</v>
+        <v>359.08333333333337</v>
       </c>
       <c r="G66" t="n">
-        <v>272.0</v>
+        <v>285.0</v>
       </c>
       <c r="H66" t="n">
-        <v>140.1334957764782</v>
+        <v>146.66784037558688</v>
       </c>
       <c r="I66" t="n">
-        <v>111.22222222222223</v>
+        <v>116.40845070422536</v>
       </c>
       <c r="J66" t="n">
-        <v>59.52375</v>
+        <v>43.43625</v>
       </c>
       <c r="K66" t="n">
-        <v>9.25</v>
+        <v>6.75</v>
       </c>
       <c r="L66" t="n">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="M66" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="67">
@@ -2851,34 +2851,34 @@
         <v>6435.0</v>
       </c>
       <c r="D67" t="n">
-        <v>8264.0</v>
+        <v>17264.0</v>
       </c>
       <c r="E67" t="n">
-        <v>1284.2268842268843</v>
+        <v>2682.8282828282827</v>
       </c>
       <c r="F67" t="n">
-        <v>393.1017543859649</v>
+        <v>355.30350877192984</v>
       </c>
       <c r="G67" t="n">
-        <v>312.0</v>
+        <v>282.0</v>
       </c>
       <c r="H67" t="n">
-        <v>104.49540306462359</v>
+        <v>146.3014447884417</v>
       </c>
       <c r="I67" t="n">
-        <v>82.9367088607595</v>
+        <v>116.11764705882354</v>
       </c>
       <c r="J67" t="n">
-        <v>0.0</v>
+        <v>123.87375</v>
       </c>
       <c r="K67" t="n">
-        <v>0.0</v>
+        <v>19.25</v>
       </c>
       <c r="L67" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="M67" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="68">
@@ -2892,34 +2892,34 @@
         <v>6435.0</v>
       </c>
       <c r="D68" t="n">
-        <v>9992.0</v>
+        <v>20264.0</v>
       </c>
       <c r="E68" t="n">
-        <v>1552.7583527583527</v>
+        <v>3149.028749028749</v>
       </c>
       <c r="F68" t="n">
-        <v>390.5818713450292</v>
+        <v>352.7836257309942</v>
       </c>
       <c r="G68" t="n">
-        <v>310.0</v>
+        <v>280.0</v>
       </c>
       <c r="H68" t="n">
-        <v>118.87274345283497</v>
+        <v>151.19298245614036</v>
       </c>
       <c r="I68" t="n">
-        <v>94.34782608695652</v>
+        <v>120.0</v>
       </c>
       <c r="J68" t="n">
-        <v>0.0</v>
+        <v>168.91875</v>
       </c>
       <c r="K68" t="n">
-        <v>0.0</v>
+        <v>26.25</v>
       </c>
       <c r="L68" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="M68" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="69">
@@ -2933,34 +2933,34 @@
         <v>6435.0</v>
       </c>
       <c r="D69" t="n">
-        <v>12759.0</v>
+        <v>23421.0</v>
       </c>
       <c r="E69" t="n">
-        <v>1982.7505827505827</v>
+        <v>3639.6270396270397</v>
       </c>
       <c r="F69" t="n">
-        <v>365.38304093567245</v>
+        <v>351.52368421052626</v>
       </c>
       <c r="G69" t="n">
-        <v>290.0</v>
+        <v>279.0</v>
       </c>
       <c r="H69" t="n">
-        <v>121.79434697855748</v>
+        <v>157.93093058733788</v>
       </c>
       <c r="I69" t="n">
-        <v>96.66666666666667</v>
+        <v>125.34782608695652</v>
       </c>
       <c r="J69" t="n">
-        <v>0.0</v>
+        <v>305.6625</v>
       </c>
       <c r="K69" t="n">
-        <v>0.0</v>
+        <v>47.5</v>
       </c>
       <c r="L69" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="M69" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="70">
@@ -2974,34 +2974,34 @@
         <v>6435.0</v>
       </c>
       <c r="D70" t="n">
-        <v>15503.0</v>
+        <v>24856.0</v>
       </c>
       <c r="E70" t="n">
-        <v>2409.1686091686092</v>
+        <v>3862.626262626263</v>
       </c>
       <c r="F70" t="n">
-        <v>359.08333333333337</v>
+        <v>349.0038011695906</v>
       </c>
       <c r="G70" t="n">
-        <v>285.0</v>
+        <v>277.0</v>
       </c>
       <c r="H70" t="n">
-        <v>146.66784037558688</v>
+        <v>164.23708290333676</v>
       </c>
       <c r="I70" t="n">
-        <v>116.40845070422536</v>
+        <v>130.35294117647058</v>
       </c>
       <c r="J70" t="n">
-        <v>43.43625</v>
+        <v>292.7925</v>
       </c>
       <c r="K70" t="n">
-        <v>6.75</v>
+        <v>45.5</v>
       </c>
       <c r="L70" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="M70" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="71">
@@ -3015,31 +3015,31 @@
         <v>6435.0</v>
       </c>
       <c r="D71" t="n">
-        <v>17264.0</v>
+        <v>22231.0</v>
       </c>
       <c r="E71" t="n">
-        <v>2682.8282828282827</v>
+        <v>3454.7008547008545</v>
       </c>
       <c r="F71" t="n">
-        <v>355.30350877192984</v>
+        <v>347.74385964912284</v>
       </c>
       <c r="G71" t="n">
-        <v>282.0</v>
+        <v>276.0</v>
       </c>
       <c r="H71" t="n">
-        <v>146.3014447884417</v>
+        <v>156.23274853801172</v>
       </c>
       <c r="I71" t="n">
-        <v>116.11764705882354</v>
+        <v>124.0</v>
       </c>
       <c r="J71" t="n">
-        <v>123.87375</v>
+        <v>281.53125</v>
       </c>
       <c r="K71" t="n">
-        <v>19.25</v>
+        <v>43.75</v>
       </c>
       <c r="L71" t="n">
-        <v>4.0</v>
+        <v>12.0</v>
       </c>
       <c r="M71" t="n">
         <v>2016.0</v>
@@ -3056,31 +3056,31 @@
         <v>6435.0</v>
       </c>
       <c r="D72" t="n">
-        <v>20264.0</v>
+        <v>19002.0</v>
       </c>
       <c r="E72" t="n">
-        <v>3149.028749028749</v>
+        <v>2952.913752913753</v>
       </c>
       <c r="F72" t="n">
-        <v>352.7836257309942</v>
+        <v>341.44415204678364</v>
       </c>
       <c r="G72" t="n">
-        <v>280.0</v>
+        <v>271.0</v>
       </c>
       <c r="H72" t="n">
-        <v>151.19298245614036</v>
+        <v>146.33320802005014</v>
       </c>
       <c r="I72" t="n">
-        <v>120.0</v>
+        <v>116.14285714285714</v>
       </c>
       <c r="J72" t="n">
-        <v>168.91875</v>
+        <v>225.22500000000002</v>
       </c>
       <c r="K72" t="n">
-        <v>26.25</v>
+        <v>35.0</v>
       </c>
       <c r="L72" t="n">
-        <v>3.0</v>
+        <v>11.0</v>
       </c>
       <c r="M72" t="n">
         <v>2016.0</v>
@@ -3097,31 +3097,31 @@
         <v>6435.0</v>
       </c>
       <c r="D73" t="n">
-        <v>23421.0</v>
+        <v>15682.0</v>
       </c>
       <c r="E73" t="n">
-        <v>3639.6270396270397</v>
+        <v>2436.985236985237</v>
       </c>
       <c r="F73" t="n">
-        <v>351.52368421052626</v>
+        <v>342.70409356725145</v>
       </c>
       <c r="G73" t="n">
-        <v>279.0</v>
+        <v>272.0</v>
       </c>
       <c r="H73" t="n">
-        <v>157.93093058733788</v>
+        <v>146.87318295739348</v>
       </c>
       <c r="I73" t="n">
-        <v>125.34782608695652</v>
+        <v>116.57142857142857</v>
       </c>
       <c r="J73" t="n">
-        <v>305.6625</v>
+        <v>107.78625000000001</v>
       </c>
       <c r="K73" t="n">
-        <v>47.5</v>
+        <v>16.75</v>
       </c>
       <c r="L73" t="n">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="M73" t="n">
         <v>2016.0</v>
@@ -3138,31 +3138,31 @@
         <v>5890.0</v>
       </c>
       <c r="D74" t="n">
-        <v>23589.0</v>
+        <v>11598.0</v>
       </c>
       <c r="E74" t="n">
-        <v>4004.9235993208827</v>
+        <v>1969.100169779287</v>
       </c>
       <c r="F74" t="n">
-        <v>391.6767676767677</v>
+        <v>406.63664421997754</v>
       </c>
       <c r="G74" t="n">
-        <v>288.0</v>
+        <v>289.0</v>
       </c>
       <c r="H74" t="n">
-        <v>184.31847890671423</v>
+        <v>158.1364727522135</v>
       </c>
       <c r="I74" t="n">
-        <v>135.52941176470588</v>
+        <v>116.27777777777777</v>
       </c>
       <c r="J74" t="n">
-        <v>246.5554</v>
+        <v>42.67305</v>
       </c>
       <c r="K74" t="n">
-        <v>41.86</v>
+        <v>7.245</v>
       </c>
       <c r="L74" t="n">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
       <c r="M74" t="n">
         <v>2017.0</v>
@@ -3179,34 +3179,34 @@
         <v>5890.0</v>
       </c>
       <c r="D75" t="n">
-        <v>21498.0</v>
+        <v>6921.0</v>
       </c>
       <c r="E75" t="n">
-        <v>3649.9151103565364</v>
+        <v>1175.0424448217318</v>
       </c>
       <c r="F75" t="n">
-        <v>388.9567901234568</v>
+        <v>436.55639730639734</v>
       </c>
       <c r="G75" t="n">
-        <v>286.0</v>
+        <v>321.0</v>
       </c>
       <c r="H75" t="n">
-        <v>174.74870280908928</v>
+        <v>116.04663725866259</v>
       </c>
       <c r="I75" t="n">
-        <v>128.4927536231884</v>
+        <v>85.32911392405063</v>
       </c>
       <c r="J75" t="n">
-        <v>237.0725</v>
+        <v>0.0</v>
       </c>
       <c r="K75" t="n">
-        <v>40.25</v>
+        <v>0.0</v>
       </c>
       <c r="L75" t="n">
-        <v>12.0</v>
+        <v>8.0</v>
       </c>
       <c r="M75" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="76">
@@ -3220,34 +3220,34 @@
         <v>5890.0</v>
       </c>
       <c r="D76" t="n">
-        <v>17059.0</v>
+        <v>8169.0</v>
       </c>
       <c r="E76" t="n">
-        <v>2896.264855687606</v>
+        <v>1386.9269949066213</v>
       </c>
       <c r="F76" t="n">
-        <v>390.31677890011224</v>
+        <v>432.47643097643095</v>
       </c>
       <c r="G76" t="n">
-        <v>287.0</v>
+        <v>318.0</v>
       </c>
       <c r="H76" t="n">
-        <v>167.27861952861952</v>
+        <v>131.62326160152244</v>
       </c>
       <c r="I76" t="n">
-        <v>123.0</v>
+        <v>96.78260869565217</v>
       </c>
       <c r="J76" t="n">
-        <v>189.65800000000002</v>
+        <v>0.0</v>
       </c>
       <c r="K76" t="n">
-        <v>32.2</v>
+        <v>0.0</v>
       </c>
       <c r="L76" t="n">
-        <v>11.0</v>
+        <v>7.0</v>
       </c>
       <c r="M76" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="77">
@@ -3261,34 +3261,34 @@
         <v>5890.0</v>
       </c>
       <c r="D77" t="n">
-        <v>13859.0</v>
+        <v>10759.0</v>
       </c>
       <c r="E77" t="n">
-        <v>2352.9711375212223</v>
+        <v>1826.6553480475382</v>
       </c>
       <c r="F77" t="n">
-        <v>393.03675645342315</v>
+        <v>410.7166105499439</v>
       </c>
       <c r="G77" t="n">
-        <v>289.0</v>
+        <v>302.0</v>
       </c>
       <c r="H77" t="n">
-        <v>168.4443241943242</v>
+        <v>136.9055368499813</v>
       </c>
       <c r="I77" t="n">
-        <v>123.85714285714286</v>
+        <v>100.66666666666667</v>
       </c>
       <c r="J77" t="n">
-        <v>97.5384</v>
+        <v>0.0</v>
       </c>
       <c r="K77" t="n">
-        <v>16.56</v>
+        <v>0.0</v>
       </c>
       <c r="L77" t="n">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="M77" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="78">
@@ -3302,34 +3302,34 @@
         <v>5890.0</v>
       </c>
       <c r="D78" t="n">
-        <v>11598.0</v>
+        <v>13864.0</v>
       </c>
       <c r="E78" t="n">
-        <v>1969.100169779287</v>
+        <v>2353.8200339558575</v>
       </c>
       <c r="F78" t="n">
-        <v>406.63664421997754</v>
+        <v>405.27665544332217</v>
       </c>
       <c r="G78" t="n">
-        <v>289.0</v>
+        <v>298.0</v>
       </c>
       <c r="H78" t="n">
-        <v>158.1364727522135</v>
+        <v>165.53553532192032</v>
       </c>
       <c r="I78" t="n">
-        <v>116.27777777777777</v>
+        <v>121.71830985915493</v>
       </c>
       <c r="J78" t="n">
-        <v>42.67305</v>
+        <v>37.25425</v>
       </c>
       <c r="K78" t="n">
-        <v>7.245</v>
+        <v>6.325</v>
       </c>
       <c r="L78" t="n">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="M78" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="79">
@@ -3343,34 +3343,34 @@
         <v>5890.0</v>
       </c>
       <c r="D79" t="n">
-        <v>6921.0</v>
+        <v>15526.0</v>
       </c>
       <c r="E79" t="n">
-        <v>1175.0424448217318</v>
+        <v>2635.9932088285227</v>
       </c>
       <c r="F79" t="n">
-        <v>436.55639730639734</v>
+        <v>403.91666666666674</v>
       </c>
       <c r="G79" t="n">
-        <v>321.0</v>
+        <v>297.0</v>
       </c>
       <c r="H79" t="n">
-        <v>116.04663725866259</v>
+        <v>166.31862745098042</v>
       </c>
       <c r="I79" t="n">
-        <v>85.32911392405063</v>
+        <v>122.29411764705883</v>
       </c>
       <c r="J79" t="n">
-        <v>0.0</v>
+        <v>97.5384</v>
       </c>
       <c r="K79" t="n">
-        <v>0.0</v>
+        <v>16.56</v>
       </c>
       <c r="L79" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="M79" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="80">
@@ -3384,34 +3384,34 @@
         <v>5890.0</v>
       </c>
       <c r="D80" t="n">
-        <v>8169.0</v>
+        <v>18529.0</v>
       </c>
       <c r="E80" t="n">
-        <v>1386.9269949066213</v>
+        <v>3145.8404074702885</v>
       </c>
       <c r="F80" t="n">
-        <v>432.47643097643095</v>
+        <v>395.75673400673395</v>
       </c>
       <c r="G80" t="n">
-        <v>318.0</v>
+        <v>291.0</v>
       </c>
       <c r="H80" t="n">
-        <v>131.62326160152244</v>
+        <v>169.61002886002882</v>
       </c>
       <c r="I80" t="n">
-        <v>96.78260869565217</v>
+        <v>124.71428571428571</v>
       </c>
       <c r="J80" t="n">
-        <v>0.0</v>
+        <v>155.7905</v>
       </c>
       <c r="K80" t="n">
-        <v>0.0</v>
+        <v>26.450000000000003</v>
       </c>
       <c r="L80" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="M80" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="81">
@@ -3425,34 +3425,34 @@
         <v>5890.0</v>
       </c>
       <c r="D81" t="n">
-        <v>10759.0</v>
+        <v>21789.0</v>
       </c>
       <c r="E81" t="n">
-        <v>1826.6553480475382</v>
+        <v>3699.320882852292</v>
       </c>
       <c r="F81" t="n">
-        <v>410.7166105499439</v>
+        <v>391.6767676767677</v>
       </c>
       <c r="G81" t="n">
-        <v>302.0</v>
+        <v>288.0</v>
       </c>
       <c r="H81" t="n">
-        <v>136.9055368499813</v>
+        <v>175.97072170985214</v>
       </c>
       <c r="I81" t="n">
-        <v>100.66666666666667</v>
+        <v>129.3913043478261</v>
       </c>
       <c r="J81" t="n">
-        <v>0.0</v>
+        <v>250.61950000000002</v>
       </c>
       <c r="K81" t="n">
-        <v>0.0</v>
+        <v>42.55</v>
       </c>
       <c r="L81" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="M81" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="82">
@@ -3466,34 +3466,34 @@
         <v>5890.0</v>
       </c>
       <c r="D82" t="n">
-        <v>13864.0</v>
+        <v>23589.0</v>
       </c>
       <c r="E82" t="n">
-        <v>2353.8200339558575</v>
+        <v>4004.9235993208827</v>
       </c>
       <c r="F82" t="n">
-        <v>405.27665544332217</v>
+        <v>391.6767676767677</v>
       </c>
       <c r="G82" t="n">
-        <v>298.0</v>
+        <v>288.0</v>
       </c>
       <c r="H82" t="n">
-        <v>165.53553532192032</v>
+        <v>184.31847890671423</v>
       </c>
       <c r="I82" t="n">
-        <v>121.71830985915493</v>
+        <v>135.52941176470588</v>
       </c>
       <c r="J82" t="n">
-        <v>37.25425</v>
+        <v>246.5554</v>
       </c>
       <c r="K82" t="n">
-        <v>6.325</v>
+        <v>41.86</v>
       </c>
       <c r="L82" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="M82" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="83">
@@ -3507,31 +3507,31 @@
         <v>5890.0</v>
       </c>
       <c r="D83" t="n">
-        <v>15526.0</v>
+        <v>21498.0</v>
       </c>
       <c r="E83" t="n">
-        <v>2635.9932088285227</v>
+        <v>3649.9151103565364</v>
       </c>
       <c r="F83" t="n">
-        <v>403.91666666666674</v>
+        <v>388.9567901234568</v>
       </c>
       <c r="G83" t="n">
-        <v>297.0</v>
+        <v>286.0</v>
       </c>
       <c r="H83" t="n">
-        <v>166.31862745098042</v>
+        <v>174.74870280908928</v>
       </c>
       <c r="I83" t="n">
-        <v>122.29411764705883</v>
+        <v>128.4927536231884</v>
       </c>
       <c r="J83" t="n">
-        <v>97.5384</v>
+        <v>237.0725</v>
       </c>
       <c r="K83" t="n">
-        <v>16.56</v>
+        <v>40.25</v>
       </c>
       <c r="L83" t="n">
-        <v>4.0</v>
+        <v>12.0</v>
       </c>
       <c r="M83" t="n">
         <v>2016.0</v>
@@ -3548,31 +3548,31 @@
         <v>5890.0</v>
       </c>
       <c r="D84" t="n">
-        <v>18529.0</v>
+        <v>17059.0</v>
       </c>
       <c r="E84" t="n">
-        <v>3145.8404074702885</v>
+        <v>2896.264855687606</v>
       </c>
       <c r="F84" t="n">
-        <v>395.75673400673395</v>
+        <v>390.31677890011224</v>
       </c>
       <c r="G84" t="n">
-        <v>291.0</v>
+        <v>287.0</v>
       </c>
       <c r="H84" t="n">
-        <v>169.61002886002882</v>
+        <v>167.27861952861952</v>
       </c>
       <c r="I84" t="n">
-        <v>124.71428571428571</v>
+        <v>123.0</v>
       </c>
       <c r="J84" t="n">
-        <v>155.7905</v>
+        <v>189.65800000000002</v>
       </c>
       <c r="K84" t="n">
-        <v>26.450000000000003</v>
+        <v>32.2</v>
       </c>
       <c r="L84" t="n">
-        <v>3.0</v>
+        <v>11.0</v>
       </c>
       <c r="M84" t="n">
         <v>2016.0</v>
@@ -3589,31 +3589,31 @@
         <v>5890.0</v>
       </c>
       <c r="D85" t="n">
-        <v>21789.0</v>
+        <v>13859.0</v>
       </c>
       <c r="E85" t="n">
-        <v>3699.320882852292</v>
+        <v>2352.9711375212223</v>
       </c>
       <c r="F85" t="n">
-        <v>391.6767676767677</v>
+        <v>393.03675645342315</v>
       </c>
       <c r="G85" t="n">
-        <v>288.0</v>
+        <v>289.0</v>
       </c>
       <c r="H85" t="n">
-        <v>175.97072170985214</v>
+        <v>168.4443241943242</v>
       </c>
       <c r="I85" t="n">
-        <v>129.3913043478261</v>
+        <v>123.85714285714286</v>
       </c>
       <c r="J85" t="n">
-        <v>250.61950000000002</v>
+        <v>97.5384</v>
       </c>
       <c r="K85" t="n">
-        <v>42.55</v>
+        <v>16.56</v>
       </c>
       <c r="L85" t="n">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="M85" t="n">
         <v>2016.0</v>
@@ -3630,31 +3630,31 @@
         <v>4980.0</v>
       </c>
       <c r="D86" t="n">
-        <v>21498.0</v>
+        <v>11194.0</v>
       </c>
       <c r="E86" t="n">
-        <v>4316.8674698795185</v>
+        <v>2247.7911646586344</v>
       </c>
       <c r="F86" t="n">
-        <v>332.318206820682</v>
+        <v>342.66721672167216</v>
       </c>
       <c r="G86" t="n">
-        <v>289.0</v>
+        <v>290.0</v>
       </c>
       <c r="H86" t="n">
-        <v>156.38503850385035</v>
+        <v>133.25947316953918</v>
       </c>
       <c r="I86" t="n">
-        <v>136.0</v>
+        <v>115.88888888888889</v>
       </c>
       <c r="J86" t="n">
-        <v>329.427</v>
+        <v>69.72</v>
       </c>
       <c r="K86" t="n">
-        <v>66.15</v>
+        <v>14.0</v>
       </c>
       <c r="L86" t="n">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
       <c r="M86" t="n">
         <v>2017.0</v>
@@ -3671,34 +3671,34 @@
         <v>4980.0</v>
       </c>
       <c r="D87" t="n">
-        <v>18898.0</v>
+        <v>4028.0</v>
       </c>
       <c r="E87" t="n">
-        <v>3794.7791164658634</v>
+        <v>808.8353413654619</v>
       </c>
       <c r="F87" t="n">
-        <v>333.46809680968096</v>
+        <v>378.313806380638</v>
       </c>
       <c r="G87" t="n">
-        <v>290.0</v>
+        <v>329.0</v>
       </c>
       <c r="H87" t="n">
-        <v>149.8190000159436</v>
+        <v>100.56442954422023</v>
       </c>
       <c r="I87" t="n">
-        <v>130.28985507246378</v>
+        <v>87.45569620253164</v>
       </c>
       <c r="J87" t="n">
-        <v>311.997</v>
+        <v>0.0</v>
       </c>
       <c r="K87" t="n">
-        <v>62.65</v>
+        <v>0.0</v>
       </c>
       <c r="L87" t="n">
-        <v>12.0</v>
+        <v>8.0</v>
       </c>
       <c r="M87" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="88">
@@ -3712,34 +3712,34 @@
         <v>4980.0</v>
       </c>
       <c r="D88" t="n">
-        <v>15074.0</v>
+        <v>5597.0</v>
       </c>
       <c r="E88" t="n">
-        <v>3026.9076305220883</v>
+        <v>1123.8955823293172</v>
       </c>
       <c r="F88" t="n">
-        <v>334.61798679867985</v>
+        <v>382.9133663366337</v>
       </c>
       <c r="G88" t="n">
-        <v>291.0</v>
+        <v>333.0</v>
       </c>
       <c r="H88" t="n">
-        <v>143.40770862800565</v>
+        <v>116.53885062419288</v>
       </c>
       <c r="I88" t="n">
-        <v>124.71428571428571</v>
+        <v>101.34782608695652</v>
       </c>
       <c r="J88" t="n">
-        <v>259.707</v>
+        <v>0.0</v>
       </c>
       <c r="K88" t="n">
-        <v>52.15</v>
+        <v>0.0</v>
       </c>
       <c r="L88" t="n">
-        <v>11.0</v>
+        <v>7.0</v>
       </c>
       <c r="M88" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="89">
@@ -3753,34 +3753,34 @@
         <v>4980.0</v>
       </c>
       <c r="D89" t="n">
-        <v>12098.0</v>
+        <v>8279.0</v>
       </c>
       <c r="E89" t="n">
-        <v>2429.3172690763054</v>
+        <v>1662.4497991967871</v>
       </c>
       <c r="F89" t="n">
-        <v>333.46809680968096</v>
+        <v>366.8149064906491</v>
       </c>
       <c r="G89" t="n">
-        <v>290.0</v>
+        <v>319.0</v>
       </c>
       <c r="H89" t="n">
-        <v>142.91489863272042</v>
+        <v>122.27163549688302</v>
       </c>
       <c r="I89" t="n">
-        <v>124.28571428571429</v>
+        <v>106.33333333333333</v>
       </c>
       <c r="J89" t="n">
-        <v>132.468</v>
+        <v>0.0</v>
       </c>
       <c r="K89" t="n">
-        <v>26.599999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="L89" t="n">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="M89" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="90">
@@ -3794,34 +3794,34 @@
         <v>4980.0</v>
       </c>
       <c r="D90" t="n">
-        <v>11194.0</v>
+        <v>11299.0</v>
       </c>
       <c r="E90" t="n">
-        <v>2247.7911646586344</v>
+        <v>2268.875502008032</v>
       </c>
       <c r="F90" t="n">
-        <v>342.66721672167216</v>
+        <v>358.7656765676568</v>
       </c>
       <c r="G90" t="n">
-        <v>290.0</v>
+        <v>312.0</v>
       </c>
       <c r="H90" t="n">
-        <v>133.25947316953918</v>
+        <v>146.53809324594434</v>
       </c>
       <c r="I90" t="n">
-        <v>115.88888888888889</v>
+        <v>127.43661971830986</v>
       </c>
       <c r="J90" t="n">
-        <v>69.72</v>
+        <v>47.061</v>
       </c>
       <c r="K90" t="n">
-        <v>14.0</v>
+        <v>9.45</v>
       </c>
       <c r="L90" t="n">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="M90" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="91">
@@ -3835,34 +3835,34 @@
         <v>4980.0</v>
       </c>
       <c r="D91" t="n">
-        <v>4028.0</v>
+        <v>14038.0</v>
       </c>
       <c r="E91" t="n">
-        <v>808.8353413654619</v>
+        <v>2818.875502008032</v>
       </c>
       <c r="F91" t="n">
-        <v>378.313806380638</v>
+        <v>344.96699669967</v>
       </c>
       <c r="G91" t="n">
-        <v>329.0</v>
+        <v>300.0</v>
       </c>
       <c r="H91" t="n">
-        <v>100.56442954422023</v>
+        <v>142.04523393515825</v>
       </c>
       <c r="I91" t="n">
-        <v>87.45569620253164</v>
+        <v>123.52941176470588</v>
       </c>
       <c r="J91" t="n">
-        <v>0.0</v>
+        <v>104.58</v>
       </c>
       <c r="K91" t="n">
-        <v>0.0</v>
+        <v>21.0</v>
       </c>
       <c r="L91" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="M91" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="92">
@@ -3876,34 +3876,34 @@
         <v>4980.0</v>
       </c>
       <c r="D92" t="n">
-        <v>5597.0</v>
+        <v>16199.0</v>
       </c>
       <c r="E92" t="n">
-        <v>1123.8955823293172</v>
+        <v>3252.8112449799196</v>
       </c>
       <c r="F92" t="n">
-        <v>382.9133663366337</v>
+        <v>338.06765676567653</v>
       </c>
       <c r="G92" t="n">
-        <v>333.0</v>
+        <v>294.0</v>
       </c>
       <c r="H92" t="n">
-        <v>116.53885062419288</v>
+        <v>144.88613861386136</v>
       </c>
       <c r="I92" t="n">
-        <v>101.34782608695652</v>
+        <v>126.0</v>
       </c>
       <c r="J92" t="n">
-        <v>0.0</v>
+        <v>174.3</v>
       </c>
       <c r="K92" t="n">
-        <v>0.0</v>
+        <v>35.0</v>
       </c>
       <c r="L92" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="M92" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="93">
@@ -3917,34 +3917,34 @@
         <v>4980.0</v>
       </c>
       <c r="D93" t="n">
-        <v>8279.0</v>
+        <v>19789.0</v>
       </c>
       <c r="E93" t="n">
-        <v>1662.4497991967871</v>
+        <v>3973.6947791164657</v>
       </c>
       <c r="F93" t="n">
-        <v>366.8149064906491</v>
+        <v>334.61798679867985</v>
       </c>
       <c r="G93" t="n">
-        <v>319.0</v>
+        <v>291.0</v>
       </c>
       <c r="H93" t="n">
-        <v>122.27163549688302</v>
+        <v>150.33561725737792</v>
       </c>
       <c r="I93" t="n">
-        <v>106.33333333333333</v>
+        <v>130.7391304347826</v>
       </c>
       <c r="J93" t="n">
-        <v>0.0</v>
+        <v>313.74</v>
       </c>
       <c r="K93" t="n">
-        <v>0.0</v>
+        <v>63.0</v>
       </c>
       <c r="L93" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="M93" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="94">
@@ -3958,34 +3958,34 @@
         <v>4980.0</v>
       </c>
       <c r="D94" t="n">
-        <v>11299.0</v>
+        <v>21498.0</v>
       </c>
       <c r="E94" t="n">
-        <v>2268.875502008032</v>
+        <v>4316.8674698795185</v>
       </c>
       <c r="F94" t="n">
-        <v>358.7656765676568</v>
+        <v>332.318206820682</v>
       </c>
       <c r="G94" t="n">
-        <v>312.0</v>
+        <v>289.0</v>
       </c>
       <c r="H94" t="n">
-        <v>146.53809324594434</v>
+        <v>156.38503850385035</v>
       </c>
       <c r="I94" t="n">
-        <v>127.43661971830986</v>
+        <v>136.0</v>
       </c>
       <c r="J94" t="n">
-        <v>47.061</v>
+        <v>329.427</v>
       </c>
       <c r="K94" t="n">
-        <v>9.45</v>
+        <v>66.15</v>
       </c>
       <c r="L94" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="M94" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="95">
@@ -3999,31 +3999,31 @@
         <v>4980.0</v>
       </c>
       <c r="D95" t="n">
-        <v>14038.0</v>
+        <v>18898.0</v>
       </c>
       <c r="E95" t="n">
-        <v>2818.875502008032</v>
+        <v>3794.7791164658634</v>
       </c>
       <c r="F95" t="n">
-        <v>344.96699669967</v>
+        <v>333.46809680968096</v>
       </c>
       <c r="G95" t="n">
-        <v>300.0</v>
+        <v>290.0</v>
       </c>
       <c r="H95" t="n">
-        <v>142.04523393515825</v>
+        <v>149.8190000159436</v>
       </c>
       <c r="I95" t="n">
-        <v>123.52941176470588</v>
+        <v>130.28985507246378</v>
       </c>
       <c r="J95" t="n">
-        <v>104.58</v>
+        <v>311.997</v>
       </c>
       <c r="K95" t="n">
-        <v>21.0</v>
+        <v>62.65</v>
       </c>
       <c r="L95" t="n">
-        <v>4.0</v>
+        <v>12.0</v>
       </c>
       <c r="M95" t="n">
         <v>2016.0</v>
@@ -4040,31 +4040,31 @@
         <v>4980.0</v>
       </c>
       <c r="D96" t="n">
-        <v>16199.0</v>
+        <v>15074.0</v>
       </c>
       <c r="E96" t="n">
-        <v>3252.8112449799196</v>
+        <v>3026.9076305220883</v>
       </c>
       <c r="F96" t="n">
-        <v>338.06765676567653</v>
+        <v>334.61798679867985</v>
       </c>
       <c r="G96" t="n">
-        <v>294.0</v>
+        <v>291.0</v>
       </c>
       <c r="H96" t="n">
-        <v>144.88613861386136</v>
+        <v>143.40770862800565</v>
       </c>
       <c r="I96" t="n">
-        <v>126.0</v>
+        <v>124.71428571428571</v>
       </c>
       <c r="J96" t="n">
-        <v>174.3</v>
+        <v>259.707</v>
       </c>
       <c r="K96" t="n">
-        <v>35.0</v>
+        <v>52.15</v>
       </c>
       <c r="L96" t="n">
-        <v>3.0</v>
+        <v>11.0</v>
       </c>
       <c r="M96" t="n">
         <v>2016.0</v>
@@ -4081,31 +4081,31 @@
         <v>4980.0</v>
       </c>
       <c r="D97" t="n">
-        <v>19789.0</v>
+        <v>12098.0</v>
       </c>
       <c r="E97" t="n">
-        <v>3973.6947791164657</v>
+        <v>2429.3172690763054</v>
       </c>
       <c r="F97" t="n">
-        <v>334.61798679867985</v>
+        <v>333.46809680968096</v>
       </c>
       <c r="G97" t="n">
-        <v>291.0</v>
+        <v>290.0</v>
       </c>
       <c r="H97" t="n">
-        <v>150.33561725737792</v>
+        <v>142.91489863272042</v>
       </c>
       <c r="I97" t="n">
-        <v>130.7391304347826</v>
+        <v>124.28571428571429</v>
       </c>
       <c r="J97" t="n">
-        <v>313.74</v>
+        <v>132.468</v>
       </c>
       <c r="K97" t="n">
-        <v>63.0</v>
+        <v>26.599999999999998</v>
       </c>
       <c r="L97" t="n">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="M97" t="n">
         <v>2016.0</v>
@@ -4122,31 +4122,31 @@
         <v>7020.0</v>
       </c>
       <c r="D98" t="n">
-        <v>25925.0</v>
+        <v>15520.0</v>
       </c>
       <c r="E98" t="n">
-        <v>3693.019943019943</v>
+        <v>2210.8262108262106</v>
       </c>
       <c r="F98" t="n">
-        <v>682.44</v>
+        <v>712.52</v>
       </c>
       <c r="G98" t="n">
-        <v>363.0</v>
+        <v>359.0</v>
       </c>
       <c r="H98" t="n">
-        <v>321.1482352941177</v>
+        <v>277.0911111111111</v>
       </c>
       <c r="I98" t="n">
-        <v>170.8235294117647</v>
+        <v>147.38888888888889</v>
       </c>
       <c r="J98" t="n">
-        <v>356.265</v>
+        <v>69.2172</v>
       </c>
       <c r="K98" t="n">
-        <v>50.75</v>
+        <v>9.860000000000001</v>
       </c>
       <c r="L98" t="n">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
       <c r="M98" t="n">
         <v>2017.0</v>
@@ -4163,34 +4163,34 @@
         <v>7020.0</v>
       </c>
       <c r="D99" t="n">
-        <v>23210.0</v>
+        <v>6123.0</v>
       </c>
       <c r="E99" t="n">
-        <v>3306.2678062678065</v>
+        <v>872.2222222222222</v>
       </c>
       <c r="F99" t="n">
-        <v>678.68</v>
+        <v>746.36</v>
       </c>
       <c r="G99" t="n">
-        <v>361.0</v>
+        <v>397.0</v>
       </c>
       <c r="H99" t="n">
-        <v>304.9142028985507</v>
+        <v>198.39949367088607</v>
       </c>
       <c r="I99" t="n">
-        <v>162.18840579710144</v>
+        <v>105.53164556962025</v>
       </c>
       <c r="J99" t="n">
-        <v>335.907</v>
+        <v>0.0</v>
       </c>
       <c r="K99" t="n">
-        <v>47.85</v>
+        <v>0.0</v>
       </c>
       <c r="L99" t="n">
-        <v>12.0</v>
+        <v>8.0</v>
       </c>
       <c r="M99" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="100">
@@ -4204,34 +4204,34 @@
         <v>7020.0</v>
       </c>
       <c r="D100" t="n">
-        <v>20629.0</v>
+        <v>9216.0</v>
       </c>
       <c r="E100" t="n">
-        <v>2938.6039886039885</v>
+        <v>1312.820512820513</v>
       </c>
       <c r="F100" t="n">
-        <v>678.68</v>
+        <v>753.88</v>
       </c>
       <c r="G100" t="n">
-        <v>361.0</v>
+        <v>401.0</v>
       </c>
       <c r="H100" t="n">
-        <v>290.86285714285714</v>
+        <v>229.44173913043477</v>
       </c>
       <c r="I100" t="n">
-        <v>154.71428571428572</v>
+        <v>122.04347826086956</v>
       </c>
       <c r="J100" t="n">
-        <v>285.012</v>
+        <v>0.0</v>
       </c>
       <c r="K100" t="n">
-        <v>40.6</v>
+        <v>0.0</v>
       </c>
       <c r="L100" t="n">
-        <v>11.0</v>
+        <v>7.0</v>
       </c>
       <c r="M100" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="101">
@@ -4245,34 +4245,34 @@
         <v>7020.0</v>
       </c>
       <c r="D101" t="n">
-        <v>18128.0</v>
+        <v>13016.0</v>
       </c>
       <c r="E101" t="n">
-        <v>2582.3361823361824</v>
+        <v>1854.131054131054</v>
       </c>
       <c r="F101" t="n">
-        <v>674.92</v>
+        <v>735.08</v>
       </c>
       <c r="G101" t="n">
-        <v>359.0</v>
+        <v>391.0</v>
       </c>
       <c r="H101" t="n">
-        <v>289.25142857142856</v>
+        <v>245.02666666666667</v>
       </c>
       <c r="I101" t="n">
-        <v>153.85714285714286</v>
+        <v>130.33333333333334</v>
       </c>
       <c r="J101" t="n">
-        <v>154.7208</v>
+        <v>0.0</v>
       </c>
       <c r="K101" t="n">
-        <v>22.04</v>
+        <v>0.0</v>
       </c>
       <c r="L101" t="n">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="M101" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="102">
@@ -4286,34 +4286,34 @@
         <v>7020.0</v>
       </c>
       <c r="D102" t="n">
-        <v>15520.0</v>
+        <v>15823.0</v>
       </c>
       <c r="E102" t="n">
-        <v>2210.8262108262106</v>
+        <v>2253.988603988604</v>
       </c>
       <c r="F102" t="n">
-        <v>712.52</v>
+        <v>723.8</v>
       </c>
       <c r="G102" t="n">
-        <v>359.0</v>
+        <v>385.0</v>
       </c>
       <c r="H102" t="n">
-        <v>277.0911111111111</v>
+        <v>295.6366197183098</v>
       </c>
       <c r="I102" t="n">
-        <v>147.38888888888889</v>
+        <v>157.25352112676057</v>
       </c>
       <c r="J102" t="n">
-        <v>69.2172</v>
+        <v>61.074</v>
       </c>
       <c r="K102" t="n">
-        <v>9.860000000000001</v>
+        <v>8.7</v>
       </c>
       <c r="L102" t="n">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="M102" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="103">
@@ -4327,34 +4327,34 @@
         <v>7020.0</v>
       </c>
       <c r="D103" t="n">
-        <v>6123.0</v>
+        <v>19024.0</v>
       </c>
       <c r="E103" t="n">
-        <v>872.2222222222222</v>
+        <v>2709.97150997151</v>
       </c>
       <c r="F103" t="n">
-        <v>746.36</v>
+        <v>714.4</v>
       </c>
       <c r="G103" t="n">
-        <v>397.0</v>
+        <v>380.0</v>
       </c>
       <c r="H103" t="n">
-        <v>198.39949367088607</v>
+        <v>294.16470588235296</v>
       </c>
       <c r="I103" t="n">
-        <v>105.53164556962025</v>
+        <v>156.47058823529412</v>
       </c>
       <c r="J103" t="n">
-        <v>0.0</v>
+        <v>132.327</v>
       </c>
       <c r="K103" t="n">
-        <v>0.0</v>
+        <v>18.85</v>
       </c>
       <c r="L103" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="M103" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="104">
@@ -4368,34 +4368,34 @@
         <v>7020.0</v>
       </c>
       <c r="D104" t="n">
-        <v>9216.0</v>
+        <v>21526.0</v>
       </c>
       <c r="E104" t="n">
-        <v>1312.820512820513</v>
+        <v>3066.3817663817663</v>
       </c>
       <c r="F104" t="n">
-        <v>753.88</v>
+        <v>682.44</v>
       </c>
       <c r="G104" t="n">
-        <v>401.0</v>
+        <v>363.0</v>
       </c>
       <c r="H104" t="n">
-        <v>229.44173913043477</v>
+        <v>292.4742857142857</v>
       </c>
       <c r="I104" t="n">
-        <v>122.04347826086956</v>
+        <v>155.57142857142858</v>
       </c>
       <c r="J104" t="n">
-        <v>0.0</v>
+        <v>234.11700000000002</v>
       </c>
       <c r="K104" t="n">
-        <v>0.0</v>
+        <v>33.35</v>
       </c>
       <c r="L104" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="M104" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="105">
@@ -4409,34 +4409,34 @@
         <v>7020.0</v>
       </c>
       <c r="D105" t="n">
-        <v>13016.0</v>
+        <v>25126.0</v>
       </c>
       <c r="E105" t="n">
-        <v>1854.131054131054</v>
+        <v>3579.202279202279</v>
       </c>
       <c r="F105" t="n">
-        <v>735.08</v>
+        <v>676.8</v>
       </c>
       <c r="G105" t="n">
-        <v>391.0</v>
+        <v>360.0</v>
       </c>
       <c r="H105" t="n">
-        <v>245.02666666666667</v>
+        <v>304.0695652173913</v>
       </c>
       <c r="I105" t="n">
-        <v>130.33333333333334</v>
+        <v>161.7391304347826</v>
       </c>
       <c r="J105" t="n">
-        <v>0.0</v>
+        <v>407.16</v>
       </c>
       <c r="K105" t="n">
-        <v>0.0</v>
+        <v>58.0</v>
       </c>
       <c r="L105" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="M105" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="106">
@@ -4450,34 +4450,34 @@
         <v>7020.0</v>
       </c>
       <c r="D106" t="n">
-        <v>15823.0</v>
+        <v>25925.0</v>
       </c>
       <c r="E106" t="n">
-        <v>2253.988603988604</v>
+        <v>3693.019943019943</v>
       </c>
       <c r="F106" t="n">
-        <v>723.8</v>
+        <v>682.44</v>
       </c>
       <c r="G106" t="n">
-        <v>385.0</v>
+        <v>363.0</v>
       </c>
       <c r="H106" t="n">
-        <v>295.6366197183098</v>
+        <v>321.1482352941177</v>
       </c>
       <c r="I106" t="n">
-        <v>157.25352112676057</v>
+        <v>170.8235294117647</v>
       </c>
       <c r="J106" t="n">
-        <v>61.074</v>
+        <v>356.265</v>
       </c>
       <c r="K106" t="n">
-        <v>8.7</v>
+        <v>50.75</v>
       </c>
       <c r="L106" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="M106" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="107">
@@ -4491,31 +4491,31 @@
         <v>7020.0</v>
       </c>
       <c r="D107" t="n">
-        <v>19024.0</v>
+        <v>23210.0</v>
       </c>
       <c r="E107" t="n">
-        <v>2709.97150997151</v>
+        <v>3306.2678062678065</v>
       </c>
       <c r="F107" t="n">
-        <v>714.4</v>
+        <v>678.68</v>
       </c>
       <c r="G107" t="n">
-        <v>380.0</v>
+        <v>361.0</v>
       </c>
       <c r="H107" t="n">
-        <v>294.16470588235296</v>
+        <v>304.9142028985507</v>
       </c>
       <c r="I107" t="n">
-        <v>156.47058823529412</v>
+        <v>162.18840579710144</v>
       </c>
       <c r="J107" t="n">
-        <v>132.327</v>
+        <v>335.907</v>
       </c>
       <c r="K107" t="n">
-        <v>18.85</v>
+        <v>47.85</v>
       </c>
       <c r="L107" t="n">
-        <v>4.0</v>
+        <v>12.0</v>
       </c>
       <c r="M107" t="n">
         <v>2016.0</v>
@@ -4532,31 +4532,31 @@
         <v>7020.0</v>
       </c>
       <c r="D108" t="n">
-        <v>21526.0</v>
+        <v>20629.0</v>
       </c>
       <c r="E108" t="n">
-        <v>3066.3817663817663</v>
+        <v>2938.6039886039885</v>
       </c>
       <c r="F108" t="n">
-        <v>682.44</v>
+        <v>678.68</v>
       </c>
       <c r="G108" t="n">
-        <v>363.0</v>
+        <v>361.0</v>
       </c>
       <c r="H108" t="n">
-        <v>292.4742857142857</v>
+        <v>290.86285714285714</v>
       </c>
       <c r="I108" t="n">
-        <v>155.57142857142858</v>
+        <v>154.71428571428572</v>
       </c>
       <c r="J108" t="n">
-        <v>234.11700000000002</v>
+        <v>285.012</v>
       </c>
       <c r="K108" t="n">
-        <v>33.35</v>
+        <v>40.6</v>
       </c>
       <c r="L108" t="n">
-        <v>3.0</v>
+        <v>11.0</v>
       </c>
       <c r="M108" t="n">
         <v>2016.0</v>
@@ -4573,31 +4573,31 @@
         <v>7020.0</v>
       </c>
       <c r="D109" t="n">
-        <v>25126.0</v>
+        <v>18128.0</v>
       </c>
       <c r="E109" t="n">
-        <v>3579.202279202279</v>
+        <v>2582.3361823361824</v>
       </c>
       <c r="F109" t="n">
-        <v>676.8</v>
+        <v>674.92</v>
       </c>
       <c r="G109" t="n">
-        <v>360.0</v>
+        <v>359.0</v>
       </c>
       <c r="H109" t="n">
-        <v>304.0695652173913</v>
+        <v>289.25142857142856</v>
       </c>
       <c r="I109" t="n">
-        <v>161.7391304347826</v>
+        <v>153.85714285714286</v>
       </c>
       <c r="J109" t="n">
-        <v>407.16</v>
+        <v>154.7208</v>
       </c>
       <c r="K109" t="n">
-        <v>58.0</v>
+        <v>22.04</v>
       </c>
       <c r="L109" t="n">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="M109" t="n">
         <v>2016.0</v>
@@ -4614,31 +4614,31 @@
         <v>5320.0</v>
       </c>
       <c r="D110" t="n">
-        <v>21603.0</v>
+        <v>10026.0</v>
       </c>
       <c r="E110" t="n">
-        <v>4060.714285714286</v>
+        <v>1884.5864661654136</v>
       </c>
       <c r="F110" t="n">
-        <v>327.5679012345679</v>
+        <v>337.6469135802469</v>
       </c>
       <c r="G110" t="n">
-        <v>260.0</v>
+        <v>264.0</v>
       </c>
       <c r="H110" t="n">
-        <v>154.14960058097313</v>
+        <v>131.30713305898493</v>
       </c>
       <c r="I110" t="n">
-        <v>122.3529411764706</v>
+        <v>104.22222222222223</v>
       </c>
       <c r="J110" t="n">
-        <v>275.576</v>
+        <v>55.1152</v>
       </c>
       <c r="K110" t="n">
-        <v>51.80000000000001</v>
+        <v>10.360000000000001</v>
       </c>
       <c r="L110" t="n">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
       <c r="M110" t="n">
         <v>2017.0</v>
@@ -4655,34 +4655,34 @@
         <v>5320.0</v>
       </c>
       <c r="D111" t="n">
-        <v>19503.0</v>
+        <v>5365.0</v>
       </c>
       <c r="E111" t="n">
-        <v>3665.9774436090224</v>
+        <v>1008.4586466165414</v>
       </c>
       <c r="F111" t="n">
-        <v>325.04814814814813</v>
+        <v>364.1043209876544</v>
       </c>
       <c r="G111" t="n">
-        <v>258.0</v>
+        <v>289.0</v>
       </c>
       <c r="H111" t="n">
-        <v>146.03612453032744</v>
+        <v>96.7872245663385</v>
       </c>
       <c r="I111" t="n">
-        <v>115.91304347826087</v>
+        <v>76.82278481012658</v>
       </c>
       <c r="J111" t="n">
-        <v>260.68</v>
+        <v>0.0</v>
       </c>
       <c r="K111" t="n">
-        <v>49.00000000000001</v>
+        <v>0.0</v>
       </c>
       <c r="L111" t="n">
-        <v>12.0</v>
+        <v>8.0</v>
       </c>
       <c r="M111" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="112">
@@ -4696,34 +4696,34 @@
         <v>5320.0</v>
       </c>
       <c r="D112" t="n">
-        <v>15249.0</v>
+        <v>6765.0</v>
       </c>
       <c r="E112" t="n">
-        <v>2866.3533834586465</v>
+        <v>1271.6165413533834</v>
       </c>
       <c r="F112" t="n">
-        <v>327.5679012345679</v>
+        <v>367.8839506172839</v>
       </c>
       <c r="G112" t="n">
-        <v>260.0</v>
+        <v>292.0</v>
       </c>
       <c r="H112" t="n">
-        <v>140.38624338624336</v>
+        <v>111.96468062265163</v>
       </c>
       <c r="I112" t="n">
-        <v>111.42857142857143</v>
+        <v>88.8695652173913</v>
       </c>
       <c r="J112" t="n">
-        <v>201.39392</v>
+        <v>0.0</v>
       </c>
       <c r="K112" t="n">
-        <v>37.856</v>
+        <v>0.0</v>
       </c>
       <c r="L112" t="n">
-        <v>11.0</v>
+        <v>7.0</v>
       </c>
       <c r="M112" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="113">
@@ -4737,34 +4737,34 @@
         <v>5320.0</v>
       </c>
       <c r="D113" t="n">
-        <v>12396.0</v>
+        <v>9365.0</v>
       </c>
       <c r="E113" t="n">
-        <v>2330.0751879699246</v>
+        <v>1760.3383458646617</v>
       </c>
       <c r="F113" t="n">
-        <v>332.60740740740744</v>
+        <v>352.76543209876536</v>
       </c>
       <c r="G113" t="n">
-        <v>264.0</v>
+        <v>280.0</v>
       </c>
       <c r="H113" t="n">
-        <v>142.54603174603176</v>
+        <v>117.58847736625512</v>
       </c>
       <c r="I113" t="n">
-        <v>113.14285714285714</v>
+        <v>93.33333333333333</v>
       </c>
       <c r="J113" t="n">
-        <v>96.82400000000001</v>
+        <v>0.0</v>
       </c>
       <c r="K113" t="n">
-        <v>18.200000000000003</v>
+        <v>0.0</v>
       </c>
       <c r="L113" t="n">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="M113" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="114">
@@ -4778,34 +4778,34 @@
         <v>5320.0</v>
       </c>
       <c r="D114" t="n">
-        <v>10026.0</v>
+        <v>12028.0</v>
       </c>
       <c r="E114" t="n">
-        <v>1884.5864661654136</v>
+        <v>2260.902255639098</v>
       </c>
       <c r="F114" t="n">
-        <v>337.6469135802469</v>
+        <v>347.72592592592594</v>
       </c>
       <c r="G114" t="n">
-        <v>264.0</v>
+        <v>276.0</v>
       </c>
       <c r="H114" t="n">
-        <v>131.30713305898493</v>
+        <v>142.0288993218571</v>
       </c>
       <c r="I114" t="n">
-        <v>104.22222222222223</v>
+        <v>112.73239436619718</v>
       </c>
       <c r="J114" t="n">
-        <v>55.1152</v>
+        <v>41.41088</v>
       </c>
       <c r="K114" t="n">
-        <v>10.360000000000001</v>
+        <v>7.784000000000001</v>
       </c>
       <c r="L114" t="n">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="M114" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="115">
@@ -4819,34 +4819,34 @@
         <v>5320.0</v>
       </c>
       <c r="D115" t="n">
-        <v>5365.0</v>
+        <v>13836.0</v>
       </c>
       <c r="E115" t="n">
-        <v>1008.4586466165414</v>
+        <v>2600.751879699248</v>
       </c>
       <c r="F115" t="n">
-        <v>364.1043209876544</v>
+        <v>336.38703703703703</v>
       </c>
       <c r="G115" t="n">
-        <v>289.0</v>
+        <v>267.0</v>
       </c>
       <c r="H115" t="n">
-        <v>96.7872245663385</v>
+        <v>138.51230936819172</v>
       </c>
       <c r="I115" t="n">
-        <v>76.82278481012658</v>
+        <v>109.94117647058823</v>
       </c>
       <c r="J115" t="n">
-        <v>0.0</v>
+        <v>104.27200000000002</v>
       </c>
       <c r="K115" t="n">
-        <v>0.0</v>
+        <v>19.600000000000005</v>
       </c>
       <c r="L115" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="M115" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="116">
@@ -4860,34 +4860,34 @@
         <v>5320.0</v>
       </c>
       <c r="D116" t="n">
-        <v>6765.0</v>
+        <v>16821.0</v>
       </c>
       <c r="E116" t="n">
-        <v>1271.6165413533834</v>
+        <v>3161.842105263158</v>
       </c>
       <c r="F116" t="n">
-        <v>367.8839506172839</v>
+        <v>332.60740740740744</v>
       </c>
       <c r="G116" t="n">
-        <v>292.0</v>
+        <v>264.0</v>
       </c>
       <c r="H116" t="n">
-        <v>111.96468062265163</v>
+        <v>142.54603174603176</v>
       </c>
       <c r="I116" t="n">
-        <v>88.8695652173913</v>
+        <v>113.14285714285714</v>
       </c>
       <c r="J116" t="n">
-        <v>0.0</v>
+        <v>171.30400000000003</v>
       </c>
       <c r="K116" t="n">
-        <v>0.0</v>
+        <v>32.20000000000001</v>
       </c>
       <c r="L116" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="M116" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="117">
@@ -4901,34 +4901,34 @@
         <v>5320.0</v>
       </c>
       <c r="D117" t="n">
-        <v>9365.0</v>
+        <v>20485.0</v>
       </c>
       <c r="E117" t="n">
-        <v>1760.3383458646617</v>
+        <v>3850.563909774436</v>
       </c>
       <c r="F117" t="n">
-        <v>352.76543209876536</v>
+        <v>330.08765432098767</v>
       </c>
       <c r="G117" t="n">
-        <v>280.0</v>
+        <v>262.0</v>
       </c>
       <c r="H117" t="n">
-        <v>117.58847736625512</v>
+        <v>148.30025049203795</v>
       </c>
       <c r="I117" t="n">
-        <v>93.33333333333333</v>
+        <v>117.71014492753623</v>
       </c>
       <c r="J117" t="n">
-        <v>0.0</v>
+        <v>283.024</v>
       </c>
       <c r="K117" t="n">
-        <v>0.0</v>
+        <v>53.20000000000001</v>
       </c>
       <c r="L117" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="M117" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="118">
@@ -4942,34 +4942,34 @@
         <v>5320.0</v>
       </c>
       <c r="D118" t="n">
-        <v>12028.0</v>
+        <v>21603.0</v>
       </c>
       <c r="E118" t="n">
-        <v>2260.902255639098</v>
+        <v>4060.714285714286</v>
       </c>
       <c r="F118" t="n">
-        <v>347.72592592592594</v>
+        <v>327.5679012345679</v>
       </c>
       <c r="G118" t="n">
-        <v>276.0</v>
+        <v>260.0</v>
       </c>
       <c r="H118" t="n">
-        <v>142.0288993218571</v>
+        <v>154.14960058097313</v>
       </c>
       <c r="I118" t="n">
-        <v>112.73239436619718</v>
+        <v>122.3529411764706</v>
       </c>
       <c r="J118" t="n">
-        <v>41.41088</v>
+        <v>275.576</v>
       </c>
       <c r="K118" t="n">
-        <v>7.784000000000001</v>
+        <v>51.80000000000001</v>
       </c>
       <c r="L118" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="M118" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="119">
@@ -4983,31 +4983,31 @@
         <v>5320.0</v>
       </c>
       <c r="D119" t="n">
-        <v>13836.0</v>
+        <v>19503.0</v>
       </c>
       <c r="E119" t="n">
-        <v>2600.751879699248</v>
+        <v>3665.9774436090224</v>
       </c>
       <c r="F119" t="n">
-        <v>336.38703703703703</v>
+        <v>325.04814814814813</v>
       </c>
       <c r="G119" t="n">
-        <v>267.0</v>
+        <v>258.0</v>
       </c>
       <c r="H119" t="n">
-        <v>138.51230936819172</v>
+        <v>146.03612453032744</v>
       </c>
       <c r="I119" t="n">
-        <v>109.94117647058823</v>
+        <v>115.91304347826087</v>
       </c>
       <c r="J119" t="n">
-        <v>104.27200000000002</v>
+        <v>260.68</v>
       </c>
       <c r="K119" t="n">
-        <v>19.600000000000005</v>
+        <v>49.00000000000001</v>
       </c>
       <c r="L119" t="n">
-        <v>4.0</v>
+        <v>12.0</v>
       </c>
       <c r="M119" t="n">
         <v>2016.0</v>
@@ -5024,31 +5024,31 @@
         <v>5320.0</v>
       </c>
       <c r="D120" t="n">
-        <v>16821.0</v>
+        <v>15249.0</v>
       </c>
       <c r="E120" t="n">
-        <v>3161.842105263158</v>
+        <v>2866.3533834586465</v>
       </c>
       <c r="F120" t="n">
-        <v>332.60740740740744</v>
+        <v>327.5679012345679</v>
       </c>
       <c r="G120" t="n">
-        <v>264.0</v>
+        <v>260.0</v>
       </c>
       <c r="H120" t="n">
-        <v>142.54603174603176</v>
+        <v>140.38624338624336</v>
       </c>
       <c r="I120" t="n">
-        <v>113.14285714285714</v>
+        <v>111.42857142857143</v>
       </c>
       <c r="J120" t="n">
-        <v>171.30400000000003</v>
+        <v>201.39392</v>
       </c>
       <c r="K120" t="n">
-        <v>32.20000000000001</v>
+        <v>37.856</v>
       </c>
       <c r="L120" t="n">
-        <v>3.0</v>
+        <v>11.0</v>
       </c>
       <c r="M120" t="n">
         <v>2016.0</v>
@@ -5065,31 +5065,31 @@
         <v>5320.0</v>
       </c>
       <c r="D121" t="n">
-        <v>20485.0</v>
+        <v>12396.0</v>
       </c>
       <c r="E121" t="n">
-        <v>3850.563909774436</v>
+        <v>2330.0751879699246</v>
       </c>
       <c r="F121" t="n">
-        <v>330.08765432098767</v>
+        <v>332.60740740740744</v>
       </c>
       <c r="G121" t="n">
-        <v>262.0</v>
+        <v>264.0</v>
       </c>
       <c r="H121" t="n">
-        <v>148.30025049203795</v>
+        <v>142.54603174603176</v>
       </c>
       <c r="I121" t="n">
-        <v>117.71014492753623</v>
+        <v>113.14285714285714</v>
       </c>
       <c r="J121" t="n">
-        <v>283.024</v>
+        <v>96.82400000000001</v>
       </c>
       <c r="K121" t="n">
-        <v>53.20000000000001</v>
+        <v>18.200000000000003</v>
       </c>
       <c r="L121" t="n">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="M121" t="n">
         <v>2016.0</v>
@@ -5106,31 +5106,31 @@
         <v>3570.0</v>
       </c>
       <c r="D122" t="n">
-        <v>19256.0</v>
+        <v>9652.0</v>
       </c>
       <c r="E122" t="n">
-        <v>5393.837535014006</v>
+        <v>2703.641456582633</v>
       </c>
       <c r="F122" t="n">
-        <v>221.10831837223216</v>
+        <v>231.6792339916218</v>
       </c>
       <c r="G122" t="n">
         <v>251.0</v>
       </c>
       <c r="H122" t="n">
-        <v>104.05097335163866</v>
+        <v>90.09747988563069</v>
       </c>
       <c r="I122" t="n">
-        <v>118.11764705882354</v>
+        <v>102.27777777777777</v>
       </c>
       <c r="J122" t="n">
-        <v>175.54319999999998</v>
+        <v>37.152</v>
       </c>
       <c r="K122" t="n">
-        <v>45.36</v>
+        <v>9.6</v>
       </c>
       <c r="L122" t="n">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
       <c r="M122" t="n">
         <v>2017.0</v>
@@ -5147,34 +5147,34 @@
         <v>3570.0</v>
       </c>
       <c r="D123" t="n">
-        <v>17396.0</v>
+        <v>2889.0</v>
       </c>
       <c r="E123" t="n">
-        <v>4872.829131652661</v>
+        <v>809.2436974789916</v>
       </c>
       <c r="F123" t="n">
-        <v>222.87013764213046</v>
+        <v>310.0801915020946</v>
       </c>
       <c r="G123" t="n">
-        <v>253.0</v>
+        <v>352.0</v>
       </c>
       <c r="H123" t="n">
-        <v>100.13006183921803</v>
+        <v>82.42638001954413</v>
       </c>
       <c r="I123" t="n">
-        <v>113.66666666666667</v>
+        <v>93.56962025316456</v>
       </c>
       <c r="J123" t="n">
-        <v>166.25519999999997</v>
+        <v>0.0</v>
       </c>
       <c r="K123" t="n">
-        <v>42.96</v>
+        <v>0.0</v>
       </c>
       <c r="L123" t="n">
-        <v>12.0</v>
+        <v>8.0</v>
       </c>
       <c r="M123" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="124">
@@ -5188,34 +5188,34 @@
         <v>3570.0</v>
       </c>
       <c r="D124" t="n">
-        <v>15514.0</v>
+        <v>4423.0</v>
       </c>
       <c r="E124" t="n">
-        <v>4345.658263305322</v>
+        <v>1238.9355742296918</v>
       </c>
       <c r="F124" t="n">
-        <v>219.34649910233392</v>
+        <v>298.6283662477558</v>
       </c>
       <c r="G124" t="n">
-        <v>249.0</v>
+        <v>339.0</v>
       </c>
       <c r="H124" t="n">
-        <v>94.00564247242883</v>
+        <v>90.88689407540396</v>
       </c>
       <c r="I124" t="n">
-        <v>106.71428571428571</v>
+        <v>103.17391304347827</v>
       </c>
       <c r="J124" t="n">
-        <v>130.032</v>
+        <v>0.0</v>
       </c>
       <c r="K124" t="n">
-        <v>33.6</v>
+        <v>0.0</v>
       </c>
       <c r="L124" t="n">
-        <v>11.0</v>
+        <v>7.0</v>
       </c>
       <c r="M124" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="125">
@@ -5229,34 +5229,34 @@
         <v>3570.0</v>
       </c>
       <c r="D125" t="n">
-        <v>12089.0</v>
+        <v>7162.0</v>
       </c>
       <c r="E125" t="n">
-        <v>3386.274509803922</v>
+        <v>2006.1624649859943</v>
       </c>
       <c r="F125" t="n">
-        <v>221.10831837223216</v>
+        <v>284.53381208856973</v>
       </c>
       <c r="G125" t="n">
-        <v>251.0</v>
+        <v>323.0</v>
       </c>
       <c r="H125" t="n">
-        <v>94.76070787381379</v>
+        <v>94.84460402952324</v>
       </c>
       <c r="I125" t="n">
-        <v>107.57142857142857</v>
+        <v>107.66666666666667</v>
       </c>
       <c r="J125" t="n">
-        <v>66.8736</v>
+        <v>0.0</v>
       </c>
       <c r="K125" t="n">
-        <v>17.279999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="L125" t="n">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="M125" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="126">
@@ -5270,34 +5270,34 @@
         <v>3570.0</v>
       </c>
       <c r="D126" t="n">
-        <v>9652.0</v>
+        <v>10256.0</v>
       </c>
       <c r="E126" t="n">
-        <v>2703.641456582633</v>
+        <v>2872.829131652661</v>
       </c>
       <c r="F126" t="n">
-        <v>231.6792339916218</v>
+        <v>257.2256134051466</v>
       </c>
       <c r="G126" t="n">
-        <v>251.0</v>
+        <v>292.0</v>
       </c>
       <c r="H126" t="n">
-        <v>90.09747988563069</v>
+        <v>105.0639829401303</v>
       </c>
       <c r="I126" t="n">
-        <v>102.27777777777777</v>
+        <v>119.26760563380282</v>
       </c>
       <c r="J126" t="n">
-        <v>37.152</v>
+        <v>27.863999999999997</v>
       </c>
       <c r="K126" t="n">
-        <v>9.6</v>
+        <v>7.199999999999999</v>
       </c>
       <c r="L126" t="n">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="M126" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="127">
@@ -5311,34 +5311,34 @@
         <v>3570.0</v>
       </c>
       <c r="D127" t="n">
-        <v>2889.0</v>
+        <v>12859.0</v>
       </c>
       <c r="E127" t="n">
-        <v>809.2436974789916</v>
+        <v>3601.9607843137255</v>
       </c>
       <c r="F127" t="n">
-        <v>310.0801915020946</v>
+        <v>233.44105326152004</v>
       </c>
       <c r="G127" t="n">
-        <v>352.0</v>
+        <v>265.0</v>
       </c>
       <c r="H127" t="n">
-        <v>82.42638001954413</v>
+        <v>96.1227866370965</v>
       </c>
       <c r="I127" t="n">
-        <v>93.56962025316456</v>
+        <v>109.11764705882354</v>
       </c>
       <c r="J127" t="n">
-        <v>0.0</v>
+        <v>74.304</v>
       </c>
       <c r="K127" t="n">
-        <v>0.0</v>
+        <v>19.2</v>
       </c>
       <c r="L127" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="M127" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="128">
@@ -5352,34 +5352,34 @@
         <v>3570.0</v>
       </c>
       <c r="D128" t="n">
-        <v>4423.0</v>
+        <v>15123.0</v>
       </c>
       <c r="E128" t="n">
-        <v>1238.9355742296918</v>
+        <v>4236.134453781513</v>
       </c>
       <c r="F128" t="n">
-        <v>298.6283662477558</v>
+        <v>223.7510472770796</v>
       </c>
       <c r="G128" t="n">
-        <v>339.0</v>
+        <v>254.0</v>
       </c>
       <c r="H128" t="n">
-        <v>90.88689407540396</v>
+        <v>95.89330597589127</v>
       </c>
       <c r="I128" t="n">
-        <v>103.17391304347827</v>
+        <v>108.85714285714286</v>
       </c>
       <c r="J128" t="n">
-        <v>0.0</v>
+        <v>83.592</v>
       </c>
       <c r="K128" t="n">
-        <v>0.0</v>
+        <v>21.599999999999998</v>
       </c>
       <c r="L128" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="M128" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="129">
@@ -5393,34 +5393,34 @@
         <v>3570.0</v>
       </c>
       <c r="D129" t="n">
-        <v>7162.0</v>
+        <v>18636.0</v>
       </c>
       <c r="E129" t="n">
-        <v>2006.1624649859943</v>
+        <v>5220.16806722689</v>
       </c>
       <c r="F129" t="n">
-        <v>284.53381208856973</v>
+        <v>220.22740873728304</v>
       </c>
       <c r="G129" t="n">
-        <v>323.0</v>
+        <v>250.0</v>
       </c>
       <c r="H129" t="n">
-        <v>94.84460402952324</v>
+        <v>98.94274885298223</v>
       </c>
       <c r="I129" t="n">
-        <v>107.66666666666667</v>
+        <v>112.31884057971014</v>
       </c>
       <c r="J129" t="n">
-        <v>0.0</v>
+        <v>167.184</v>
       </c>
       <c r="K129" t="n">
-        <v>0.0</v>
+        <v>43.199999999999996</v>
       </c>
       <c r="L129" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="M129" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="130">
@@ -5434,34 +5434,34 @@
         <v>3570.0</v>
       </c>
       <c r="D130" t="n">
-        <v>10256.0</v>
+        <v>19256.0</v>
       </c>
       <c r="E130" t="n">
-        <v>2872.829131652661</v>
+        <v>5393.837535014006</v>
       </c>
       <c r="F130" t="n">
-        <v>257.2256134051466</v>
+        <v>221.10831837223216</v>
       </c>
       <c r="G130" t="n">
-        <v>292.0</v>
+        <v>251.0</v>
       </c>
       <c r="H130" t="n">
-        <v>105.0639829401303</v>
+        <v>104.05097335163866</v>
       </c>
       <c r="I130" t="n">
-        <v>119.26760563380282</v>
+        <v>118.11764705882354</v>
       </c>
       <c r="J130" t="n">
-        <v>27.863999999999997</v>
+        <v>175.54319999999998</v>
       </c>
       <c r="K130" t="n">
-        <v>7.199999999999999</v>
+        <v>45.36</v>
       </c>
       <c r="L130" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="M130" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="131">
@@ -5475,31 +5475,31 @@
         <v>3570.0</v>
       </c>
       <c r="D131" t="n">
-        <v>12859.0</v>
+        <v>17396.0</v>
       </c>
       <c r="E131" t="n">
-        <v>3601.9607843137255</v>
+        <v>4872.829131652661</v>
       </c>
       <c r="F131" t="n">
-        <v>233.44105326152004</v>
+        <v>222.87013764213046</v>
       </c>
       <c r="G131" t="n">
-        <v>265.0</v>
+        <v>253.0</v>
       </c>
       <c r="H131" t="n">
-        <v>96.1227866370965</v>
+        <v>100.13006183921803</v>
       </c>
       <c r="I131" t="n">
-        <v>109.11764705882354</v>
+        <v>113.66666666666667</v>
       </c>
       <c r="J131" t="n">
-        <v>74.304</v>
+        <v>166.25519999999997</v>
       </c>
       <c r="K131" t="n">
-        <v>19.2</v>
+        <v>42.96</v>
       </c>
       <c r="L131" t="n">
-        <v>4.0</v>
+        <v>12.0</v>
       </c>
       <c r="M131" t="n">
         <v>2016.0</v>
@@ -5516,31 +5516,31 @@
         <v>3570.0</v>
       </c>
       <c r="D132" t="n">
-        <v>15123.0</v>
+        <v>15514.0</v>
       </c>
       <c r="E132" t="n">
-        <v>4236.134453781513</v>
+        <v>4345.658263305322</v>
       </c>
       <c r="F132" t="n">
-        <v>223.7510472770796</v>
+        <v>219.34649910233392</v>
       </c>
       <c r="G132" t="n">
-        <v>254.0</v>
+        <v>249.0</v>
       </c>
       <c r="H132" t="n">
-        <v>95.89330597589127</v>
+        <v>94.00564247242883</v>
       </c>
       <c r="I132" t="n">
-        <v>108.85714285714286</v>
+        <v>106.71428571428571</v>
       </c>
       <c r="J132" t="n">
-        <v>83.592</v>
+        <v>130.032</v>
       </c>
       <c r="K132" t="n">
-        <v>21.599999999999998</v>
+        <v>33.6</v>
       </c>
       <c r="L132" t="n">
-        <v>3.0</v>
+        <v>11.0</v>
       </c>
       <c r="M132" t="n">
         <v>2016.0</v>
@@ -5557,31 +5557,31 @@
         <v>3570.0</v>
       </c>
       <c r="D133" t="n">
-        <v>18636.0</v>
+        <v>12089.0</v>
       </c>
       <c r="E133" t="n">
-        <v>5220.16806722689</v>
+        <v>3386.274509803922</v>
       </c>
       <c r="F133" t="n">
-        <v>220.22740873728304</v>
+        <v>221.10831837223216</v>
       </c>
       <c r="G133" t="n">
-        <v>250.0</v>
+        <v>251.0</v>
       </c>
       <c r="H133" t="n">
-        <v>98.94274885298223</v>
+        <v>94.76070787381379</v>
       </c>
       <c r="I133" t="n">
-        <v>112.31884057971014</v>
+        <v>107.57142857142857</v>
       </c>
       <c r="J133" t="n">
-        <v>167.184</v>
+        <v>66.8736</v>
       </c>
       <c r="K133" t="n">
-        <v>43.199999999999996</v>
+        <v>17.279999999999998</v>
       </c>
       <c r="L133" t="n">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="M133" t="n">
         <v>2016.0</v>

--- a/output/Combined_Docks_Consumption_AbsPlusNorm.xlsx
+++ b/output/Combined_Docks_Consumption_AbsPlusNorm.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="25">
   <si>
     <t>GMLID</t>
   </si>
@@ -85,6 +85,9 @@
   <si>
     <t>IGN_BATIMENT0000000246490873</t>
   </si>
+  <si>
+    <t>IGN_BATIMENT0000000246490893</t>
+  </si>
 </sst>
 </file>
 
@@ -186,31 +189,31 @@
         <v>2695.0</v>
       </c>
       <c r="D2" t="n">
-        <v>5509.0</v>
+        <v>6787.0</v>
       </c>
       <c r="E2" t="n">
-        <v>2044.155844155844</v>
+        <v>2189.3548387096776</v>
       </c>
       <c r="F2" t="n">
-        <v>230.64656084656082</v>
+        <v>221.1579365079365</v>
       </c>
       <c r="G2" t="n">
         <v>303.0</v>
       </c>
       <c r="H2" t="n">
-        <v>89.69588477366254</v>
+        <v>94.78197278911564</v>
       </c>
       <c r="I2" t="n">
-        <v>122.88888888888889</v>
+        <v>129.85714285714286</v>
       </c>
       <c r="J2" t="n">
-        <v>52.822</v>
+        <v>78.69399999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>19.6</v>
+        <v>29.2</v>
       </c>
       <c r="L2" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="M2" t="n">
         <v>2017.0</v>
@@ -227,31 +230,31 @@
         <v>2695.0</v>
       </c>
       <c r="D3" t="n">
-        <v>2587.0</v>
+        <v>5509.0</v>
       </c>
       <c r="E3" t="n">
-        <v>711.6428498519955</v>
+        <v>2044.155844155844</v>
       </c>
       <c r="F3" t="n">
-        <v>244.51455026455028</v>
+        <v>230.64656084656082</v>
       </c>
       <c r="G3" t="n">
-        <v>335.0</v>
+        <v>303.0</v>
       </c>
       <c r="H3" t="n">
-        <v>64.99753867791843</v>
+        <v>89.69588477366254</v>
       </c>
       <c r="I3" t="n">
-        <v>89.0506329113924</v>
+        <v>122.88888888888889</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0</v>
+        <v>52.822</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0</v>
+        <v>19.6</v>
       </c>
       <c r="L3" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="M3" t="n">
         <v>2017.0</v>
@@ -268,22 +271,22 @@
         <v>2695.0</v>
       </c>
       <c r="D4" t="n">
-        <v>3298.0</v>
+        <v>2587.0</v>
       </c>
       <c r="E4" t="n">
-        <v>1169.7959989470914</v>
+        <v>711.6428498519955</v>
       </c>
       <c r="F4" t="n">
-        <v>245.9743386243386</v>
+        <v>244.51455026455028</v>
       </c>
       <c r="G4" t="n">
-        <v>337.0</v>
+        <v>335.0</v>
       </c>
       <c r="H4" t="n">
-        <v>74.86175523349436</v>
+        <v>64.99753867791843</v>
       </c>
       <c r="I4" t="n">
-        <v>102.56521739130434</v>
+        <v>89.0506329113924</v>
       </c>
       <c r="J4" t="n">
         <v>0.0</v>
@@ -292,7 +295,7 @@
         <v>0.0</v>
       </c>
       <c r="L4" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="M4" t="n">
         <v>2017.0</v>
@@ -309,22 +312,22 @@
         <v>2695.0</v>
       </c>
       <c r="D5" t="n">
-        <v>4159.0</v>
+        <v>3298.0</v>
       </c>
       <c r="E5" t="n">
-        <v>1899.646382790629</v>
+        <v>1169.7959989470914</v>
       </c>
       <c r="F5" t="n">
-        <v>239.405291005291</v>
+        <v>245.9743386243386</v>
       </c>
       <c r="G5" t="n">
-        <v>328.0</v>
+        <v>337.0</v>
       </c>
       <c r="H5" t="n">
-        <v>79.80176366843034</v>
+        <v>74.86175523349436</v>
       </c>
       <c r="I5" t="n">
-        <v>109.33333333333333</v>
+        <v>102.56521739130434</v>
       </c>
       <c r="J5" t="n">
         <v>0.0</v>
@@ -333,7 +336,7 @@
         <v>0.0</v>
       </c>
       <c r="L5" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="M5" t="n">
         <v>2017.0</v>
@@ -350,31 +353,31 @@
         <v>2695.0</v>
       </c>
       <c r="D6" t="n">
-        <v>5954.0</v>
+        <v>4159.0</v>
       </c>
       <c r="E6" t="n">
-        <v>2209.2764378478664</v>
+        <v>1899.646382790629</v>
       </c>
       <c r="F6" t="n">
-        <v>233.56613756613754</v>
+        <v>239.405291005291</v>
       </c>
       <c r="G6" t="n">
-        <v>320.0</v>
+        <v>328.0</v>
       </c>
       <c r="H6" t="n">
-        <v>95.40025337208435</v>
+        <v>79.80176366843034</v>
       </c>
       <c r="I6" t="n">
-        <v>130.70422535211267</v>
+        <v>109.33333333333333</v>
       </c>
       <c r="J6" t="n">
-        <v>25.872</v>
+        <v>0.0</v>
       </c>
       <c r="K6" t="n">
-        <v>9.6</v>
+        <v>0.0</v>
       </c>
       <c r="L6" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="M6" t="n">
         <v>2017.0</v>
@@ -391,31 +394,31 @@
         <v>2695.0</v>
       </c>
       <c r="D7" t="n">
-        <v>7128.0</v>
+        <v>5954.0</v>
       </c>
       <c r="E7" t="n">
-        <v>2644.8979591836733</v>
+        <v>2209.2764378478664</v>
       </c>
       <c r="F7" t="n">
-        <v>228.45687830687828</v>
+        <v>233.56613756613754</v>
       </c>
       <c r="G7" t="n">
-        <v>313.0</v>
+        <v>320.0</v>
       </c>
       <c r="H7" t="n">
-        <v>94.07047930283224</v>
+        <v>95.40025337208435</v>
       </c>
       <c r="I7" t="n">
-        <v>128.88235294117646</v>
+        <v>130.70422535211267</v>
       </c>
       <c r="J7" t="n">
-        <v>75.46000000000001</v>
+        <v>25.872</v>
       </c>
       <c r="K7" t="n">
-        <v>28.000000000000004</v>
+        <v>9.6</v>
       </c>
       <c r="L7" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="M7" t="n">
         <v>2017.0</v>
@@ -432,31 +435,31 @@
         <v>2695.0</v>
       </c>
       <c r="D8" t="n">
-        <v>8597.0</v>
+        <v>7128.0</v>
       </c>
       <c r="E8" t="n">
-        <v>3189.9814471243044</v>
+        <v>2644.8979591836733</v>
       </c>
       <c r="F8" t="n">
-        <v>226.99708994708996</v>
+        <v>228.45687830687828</v>
       </c>
       <c r="G8" t="n">
-        <v>311.0</v>
+        <v>313.0</v>
       </c>
       <c r="H8" t="n">
-        <v>97.28446712018142</v>
+        <v>94.07047930283224</v>
       </c>
       <c r="I8" t="n">
-        <v>133.28571428571428</v>
+        <v>128.88235294117646</v>
       </c>
       <c r="J8" t="n">
-        <v>107.80000000000001</v>
+        <v>75.46000000000001</v>
       </c>
       <c r="K8" t="n">
-        <v>40.0</v>
+        <v>28.000000000000004</v>
       </c>
       <c r="L8" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="M8" t="n">
         <v>2017.0</v>
@@ -473,31 +476,31 @@
         <v>2695.0</v>
       </c>
       <c r="D9" t="n">
-        <v>10159.0</v>
+        <v>8597.0</v>
       </c>
       <c r="E9" t="n">
-        <v>3769.5732838589984</v>
+        <v>3189.9814471243044</v>
       </c>
       <c r="F9" t="n">
-        <v>225.53730158730156</v>
+        <v>226.99708994708996</v>
       </c>
       <c r="G9" t="n">
-        <v>309.0</v>
+        <v>311.0</v>
       </c>
       <c r="H9" t="n">
-        <v>101.32835288704852</v>
+        <v>97.28446712018142</v>
       </c>
       <c r="I9" t="n">
-        <v>138.82608695652175</v>
+        <v>133.28571428571428</v>
       </c>
       <c r="J9" t="n">
-        <v>210.21</v>
+        <v>107.80000000000001</v>
       </c>
       <c r="K9" t="n">
-        <v>78.0</v>
+        <v>40.0</v>
       </c>
       <c r="L9" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="M9" t="n">
         <v>2017.0</v>
@@ -514,31 +517,31 @@
         <v>2695.0</v>
       </c>
       <c r="D10" t="n">
-        <v>10850.0</v>
+        <v>10159.0</v>
       </c>
       <c r="E10" t="n">
-        <v>4025.974025974026</v>
+        <v>3769.5732838589984</v>
       </c>
       <c r="F10" t="n">
-        <v>219.69814814814814</v>
+        <v>225.53730158730156</v>
       </c>
       <c r="G10" t="n">
-        <v>301.0</v>
+        <v>309.0</v>
       </c>
       <c r="H10" t="n">
-        <v>103.38736383442266</v>
+        <v>101.32835288704852</v>
       </c>
       <c r="I10" t="n">
-        <v>141.64705882352942</v>
+        <v>138.82608695652175</v>
       </c>
       <c r="J10" t="n">
-        <v>203.742</v>
+        <v>210.21</v>
       </c>
       <c r="K10" t="n">
-        <v>75.6</v>
+        <v>78.0</v>
       </c>
       <c r="L10" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="M10" t="n">
         <v>2017.0</v>
@@ -555,34 +558,34 @@
         <v>2695.0</v>
       </c>
       <c r="D11" t="n">
-        <v>9797.0</v>
+        <v>10850.0</v>
       </c>
       <c r="E11" t="n">
-        <v>3635.2504638218925</v>
+        <v>4025.974025974026</v>
       </c>
       <c r="F11" t="n">
-        <v>220.42804232804232</v>
+        <v>219.69814814814814</v>
       </c>
       <c r="G11" t="n">
-        <v>302.0</v>
+        <v>301.0</v>
       </c>
       <c r="H11" t="n">
-        <v>99.03288858216393</v>
+        <v>103.38736383442266</v>
       </c>
       <c r="I11" t="n">
-        <v>135.68115942028984</v>
+        <v>141.64705882352942</v>
       </c>
       <c r="J11" t="n">
-        <v>188.64999999999998</v>
+        <v>203.742</v>
       </c>
       <c r="K11" t="n">
-        <v>70.0</v>
+        <v>75.6</v>
       </c>
       <c r="L11" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="M11" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="12">
@@ -596,31 +599,31 @@
         <v>2695.0</v>
       </c>
       <c r="D12" t="n">
-        <v>7598.0</v>
+        <v>9797.0</v>
       </c>
       <c r="E12" t="n">
-        <v>2819.294990723562</v>
+        <v>3635.2504638218925</v>
       </c>
       <c r="F12" t="n">
-        <v>222.61772486772483</v>
+        <v>220.42804232804232</v>
       </c>
       <c r="G12" t="n">
-        <v>305.0</v>
+        <v>302.0</v>
       </c>
       <c r="H12" t="n">
-        <v>95.40759637188206</v>
+        <v>99.03288858216393</v>
       </c>
       <c r="I12" t="n">
-        <v>130.71428571428572</v>
+        <v>135.68115942028984</v>
       </c>
       <c r="J12" t="n">
-        <v>134.75</v>
+        <v>188.64999999999998</v>
       </c>
       <c r="K12" t="n">
-        <v>50.0</v>
+        <v>70.0</v>
       </c>
       <c r="L12" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="M12" t="n">
         <v>2016.0</v>
@@ -637,31 +640,31 @@
         <v>2695.0</v>
       </c>
       <c r="D13" t="n">
-        <v>6787.0</v>
+        <v>7598.0</v>
       </c>
       <c r="E13" t="n">
-        <v>2189.3548387096776</v>
+        <v>2819.294990723562</v>
       </c>
       <c r="F13" t="n">
-        <v>221.1579365079365</v>
+        <v>222.61772486772483</v>
       </c>
       <c r="G13" t="n">
-        <v>303.0</v>
+        <v>305.0</v>
       </c>
       <c r="H13" t="n">
-        <v>94.78197278911564</v>
+        <v>95.40759637188206</v>
       </c>
       <c r="I13" t="n">
-        <v>129.85714285714286</v>
+        <v>130.71428571428572</v>
       </c>
       <c r="J13" t="n">
-        <v>78.69399999999999</v>
+        <v>134.75</v>
       </c>
       <c r="K13" t="n">
-        <v>29.2</v>
+        <v>50.0</v>
       </c>
       <c r="L13" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="M13" t="n">
         <v>2016.0</v>
@@ -678,31 +681,31 @@
         <v>3100.0</v>
       </c>
       <c r="D14" t="n">
-        <v>6654.0</v>
+        <v>7698.0</v>
       </c>
       <c r="E14" t="n">
-        <v>2146.451612903226</v>
+        <v>2483.2258064516127</v>
       </c>
       <c r="F14" t="n">
-        <v>279.69877049180326</v>
+        <v>359.4927140255009</v>
       </c>
       <c r="G14" t="n">
         <v>428.0</v>
       </c>
       <c r="H14" t="n">
-        <v>108.77174408014571</v>
+        <v>154.06830601092895</v>
       </c>
       <c r="I14" t="n">
-        <v>129.5</v>
+        <v>148.0</v>
       </c>
       <c r="J14" t="n">
-        <v>32.550000000000004</v>
+        <v>54.25000000000001</v>
       </c>
       <c r="K14" t="n">
-        <v>10.5</v>
+        <v>17.5</v>
       </c>
       <c r="L14" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="M14" t="n">
         <v>2017.0</v>
@@ -719,31 +722,31 @@
         <v>3100.0</v>
       </c>
       <c r="D15" t="n">
-        <v>3529.0</v>
+        <v>6654.0</v>
       </c>
       <c r="E15" t="n">
-        <v>1022.7073011124614</v>
+        <v>2146.451612903226</v>
       </c>
       <c r="F15" t="n">
-        <v>305.73679417122037</v>
+        <v>279.69877049180326</v>
       </c>
       <c r="G15" t="n">
-        <v>364.0</v>
+        <v>428.0</v>
       </c>
       <c r="H15" t="n">
-        <v>81.27180604551428</v>
+        <v>108.77174408014571</v>
       </c>
       <c r="I15" t="n">
-        <v>96.75949367088607</v>
+        <v>129.5</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0</v>
+        <v>32.550000000000004</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0</v>
+        <v>10.5</v>
       </c>
       <c r="L15" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="M15" t="n">
         <v>2017.0</v>
@@ -760,10 +763,10 @@
         <v>3100.0</v>
       </c>
       <c r="D16" t="n">
-        <v>4084.0</v>
+        <v>3529.0</v>
       </c>
       <c r="E16" t="n">
-        <v>1317.4193548387098</v>
+        <v>1022.7073011124614</v>
       </c>
       <c r="F16" t="n">
         <v>305.73679417122037</v>
@@ -772,10 +775,10 @@
         <v>364.0</v>
       </c>
       <c r="H16" t="n">
-        <v>93.0503286608062</v>
+        <v>81.27180604551428</v>
       </c>
       <c r="I16" t="n">
-        <v>110.78260869565217</v>
+        <v>96.75949367088607</v>
       </c>
       <c r="J16" t="n">
         <v>0.0</v>
@@ -784,7 +787,7 @@
         <v>0.0</v>
       </c>
       <c r="L16" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="M16" t="n">
         <v>2017.0</v>
@@ -801,22 +804,22 @@
         <v>3100.0</v>
       </c>
       <c r="D17" t="n">
-        <v>5102.0</v>
+        <v>4084.0</v>
       </c>
       <c r="E17" t="n">
-        <v>2054.5856066510783</v>
+        <v>1317.4193548387098</v>
       </c>
       <c r="F17" t="n">
-        <v>293.1377504553734</v>
+        <v>305.73679417122037</v>
       </c>
       <c r="G17" t="n">
-        <v>349.0</v>
+        <v>364.0</v>
       </c>
       <c r="H17" t="n">
-        <v>97.71258348512447</v>
+        <v>93.0503286608062</v>
       </c>
       <c r="I17" t="n">
-        <v>116.33333333333333</v>
+        <v>110.78260869565217</v>
       </c>
       <c r="J17" t="n">
         <v>0.0</v>
@@ -825,7 +828,7 @@
         <v>0.0</v>
       </c>
       <c r="L17" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="M17" t="n">
         <v>2017.0</v>
@@ -842,31 +845,31 @@
         <v>3100.0</v>
       </c>
       <c r="D18" t="n">
-        <v>6889.0</v>
+        <v>5102.0</v>
       </c>
       <c r="E18" t="n">
-        <v>2222.2580645161293</v>
+        <v>2054.5856066510783</v>
       </c>
       <c r="F18" t="n">
-        <v>288.93806921675775</v>
+        <v>293.1377504553734</v>
       </c>
       <c r="G18" t="n">
-        <v>344.0</v>
+        <v>349.0</v>
       </c>
       <c r="H18" t="n">
-        <v>118.01695784909823</v>
+        <v>97.71258348512447</v>
       </c>
       <c r="I18" t="n">
-        <v>140.50704225352112</v>
+        <v>116.33333333333333</v>
       </c>
       <c r="J18" t="n">
-        <v>17.825</v>
+        <v>0.0</v>
       </c>
       <c r="K18" t="n">
-        <v>5.75</v>
+        <v>0.0</v>
       </c>
       <c r="L18" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="M18" t="n">
         <v>2017.0</v>
@@ -883,31 +886,31 @@
         <v>3100.0</v>
       </c>
       <c r="D19" t="n">
-        <v>7969.0</v>
+        <v>6889.0</v>
       </c>
       <c r="E19" t="n">
-        <v>2570.6451612903224</v>
+        <v>2222.2580645161293</v>
       </c>
       <c r="F19" t="n">
-        <v>284.7383879781421</v>
+        <v>288.93806921675775</v>
       </c>
       <c r="G19" t="n">
-        <v>339.0</v>
+        <v>344.0</v>
       </c>
       <c r="H19" t="n">
-        <v>117.24521857923499</v>
+        <v>118.01695784909823</v>
       </c>
       <c r="I19" t="n">
-        <v>139.58823529411765</v>
+        <v>140.50704225352112</v>
       </c>
       <c r="J19" t="n">
-        <v>62.0</v>
+        <v>17.825</v>
       </c>
       <c r="K19" t="n">
-        <v>20.0</v>
+        <v>5.75</v>
       </c>
       <c r="L19" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="M19" t="n">
         <v>2017.0</v>
@@ -924,31 +927,31 @@
         <v>3100.0</v>
       </c>
       <c r="D20" t="n">
-        <v>9723.0</v>
+        <v>7969.0</v>
       </c>
       <c r="E20" t="n">
-        <v>3136.451612903226</v>
+        <v>2570.6451612903224</v>
       </c>
       <c r="F20" t="n">
-        <v>278.85883424408013</v>
+        <v>284.7383879781421</v>
       </c>
       <c r="G20" t="n">
-        <v>332.0</v>
+        <v>339.0</v>
       </c>
       <c r="H20" t="n">
-        <v>119.51092896174863</v>
+        <v>117.24521857923499</v>
       </c>
       <c r="I20" t="n">
-        <v>142.28571428571428</v>
+        <v>139.58823529411765</v>
       </c>
       <c r="J20" t="n">
-        <v>85.25</v>
+        <v>62.0</v>
       </c>
       <c r="K20" t="n">
-        <v>27.5</v>
+        <v>20.0</v>
       </c>
       <c r="L20" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="M20" t="n">
         <v>2017.0</v>
@@ -965,31 +968,31 @@
         <v>3100.0</v>
       </c>
       <c r="D21" t="n">
-        <v>11387.0</v>
+        <v>9723.0</v>
       </c>
       <c r="E21" t="n">
-        <v>3673.2258064516127</v>
+        <v>3136.451612903226</v>
       </c>
       <c r="F21" t="n">
-        <v>277.17896174863387</v>
+        <v>278.85883424408013</v>
       </c>
       <c r="G21" t="n">
-        <v>330.0</v>
+        <v>332.0</v>
       </c>
       <c r="H21" t="n">
-        <v>124.52967846677754</v>
+        <v>119.51092896174863</v>
       </c>
       <c r="I21" t="n">
-        <v>148.2608695652174</v>
+        <v>142.28571428571428</v>
       </c>
       <c r="J21" t="n">
-        <v>155.0</v>
+        <v>85.25</v>
       </c>
       <c r="K21" t="n">
-        <v>50.0</v>
+        <v>27.5</v>
       </c>
       <c r="L21" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="M21" t="n">
         <v>2017.0</v>
@@ -1006,31 +1009,31 @@
         <v>3100.0</v>
       </c>
       <c r="D22" t="n">
-        <v>11882.0</v>
+        <v>11387.0</v>
       </c>
       <c r="E22" t="n">
-        <v>3832.9032258064517</v>
+        <v>3673.2258064516127</v>
       </c>
       <c r="F22" t="n">
-        <v>276.33902550091074</v>
+        <v>277.17896174863387</v>
       </c>
       <c r="G22" t="n">
-        <v>329.0</v>
+        <v>330.0</v>
       </c>
       <c r="H22" t="n">
-        <v>130.04189435336977</v>
+        <v>124.52967846677754</v>
       </c>
       <c r="I22" t="n">
-        <v>154.8235294117647</v>
+        <v>148.2608695652174</v>
       </c>
       <c r="J22" t="n">
-        <v>127.875</v>
+        <v>155.0</v>
       </c>
       <c r="K22" t="n">
-        <v>41.25</v>
+        <v>50.0</v>
       </c>
       <c r="L22" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="M22" t="n">
         <v>2017.0</v>
@@ -1047,34 +1050,34 @@
         <v>3100.0</v>
       </c>
       <c r="D23" t="n">
-        <v>10697.0</v>
+        <v>11882.0</v>
       </c>
       <c r="E23" t="n">
-        <v>3450.6451612903224</v>
+        <v>3832.9032258064517</v>
       </c>
       <c r="F23" t="n">
-        <v>374.6115664845173</v>
+        <v>276.33902550091074</v>
       </c>
       <c r="G23" t="n">
-        <v>446.0</v>
+        <v>329.0</v>
       </c>
       <c r="H23" t="n">
-        <v>168.30374726115997</v>
+        <v>130.04189435336977</v>
       </c>
       <c r="I23" t="n">
-        <v>200.3768115942029</v>
+        <v>154.8235294117647</v>
       </c>
       <c r="J23" t="n">
-        <v>124.0</v>
+        <v>127.875</v>
       </c>
       <c r="K23" t="n">
-        <v>40.0</v>
+        <v>41.25</v>
       </c>
       <c r="L23" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="M23" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="24">
@@ -1088,31 +1091,31 @@
         <v>3100.0</v>
       </c>
       <c r="D24" t="n">
-        <v>8496.0</v>
+        <v>10697.0</v>
       </c>
       <c r="E24" t="n">
-        <v>2740.6451612903224</v>
+        <v>3450.6451612903224</v>
       </c>
       <c r="F24" t="n">
-        <v>364.53233151183974</v>
+        <v>374.6115664845173</v>
       </c>
       <c r="G24" t="n">
-        <v>434.0</v>
+        <v>446.0</v>
       </c>
       <c r="H24" t="n">
-        <v>156.22814207650276</v>
+        <v>168.30374726115997</v>
       </c>
       <c r="I24" t="n">
-        <v>151.0</v>
+        <v>200.3768115942029</v>
       </c>
       <c r="J24" t="n">
-        <v>116.25</v>
+        <v>124.0</v>
       </c>
       <c r="K24" t="n">
-        <v>37.5</v>
+        <v>40.0</v>
       </c>
       <c r="L24" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="M24" t="n">
         <v>2016.0</v>
@@ -1129,31 +1132,31 @@
         <v>3100.0</v>
       </c>
       <c r="D25" t="n">
-        <v>7698.0</v>
+        <v>8496.0</v>
       </c>
       <c r="E25" t="n">
-        <v>2483.2258064516127</v>
+        <v>2740.6451612903224</v>
       </c>
       <c r="F25" t="n">
-        <v>359.4927140255009</v>
+        <v>364.53233151183974</v>
       </c>
       <c r="G25" t="n">
-        <v>428.0</v>
+        <v>434.0</v>
       </c>
       <c r="H25" t="n">
-        <v>154.06830601092895</v>
+        <v>156.22814207650276</v>
       </c>
       <c r="I25" t="n">
-        <v>148.0</v>
+        <v>151.0</v>
       </c>
       <c r="J25" t="n">
-        <v>54.25000000000001</v>
+        <v>116.25</v>
       </c>
       <c r="K25" t="n">
-        <v>17.5</v>
+        <v>37.5</v>
       </c>
       <c r="L25" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="M25" t="n">
         <v>2016.0</v>
@@ -1170,31 +1173,31 @@
         <v>2800.0</v>
       </c>
       <c r="D26" t="n">
-        <v>6389.0</v>
+        <v>6954.0</v>
       </c>
       <c r="E26" t="n">
-        <v>2281.785714285714</v>
+        <v>2483.5714285714284</v>
       </c>
       <c r="F26" t="n">
-        <v>319.23358585858585</v>
+        <v>304.0319865319865</v>
       </c>
       <c r="G26" t="n">
         <v>380.0</v>
       </c>
       <c r="H26" t="n">
-        <v>124.14639450056117</v>
+        <v>130.29942279942279</v>
       </c>
       <c r="I26" t="n">
-        <v>155.16666666666666</v>
+        <v>162.85714285714286</v>
       </c>
       <c r="J26" t="n">
-        <v>34.019999999999996</v>
+        <v>54.809999999999995</v>
       </c>
       <c r="K26" t="n">
-        <v>12.15</v>
+        <v>19.575</v>
       </c>
       <c r="L26" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="M26" t="n">
         <v>2017.0</v>
@@ -1211,31 +1214,31 @@
         <v>2800.0</v>
       </c>
       <c r="D27" t="n">
-        <v>2810.0</v>
+        <v>6389.0</v>
       </c>
       <c r="E27" t="n">
-        <v>1003.5714285714286</v>
+        <v>2281.785714285714</v>
       </c>
       <c r="F27" t="n">
-        <v>340.03577441077437</v>
+        <v>319.23358585858585</v>
       </c>
       <c r="G27" t="n">
-        <v>425.0</v>
+        <v>380.0</v>
       </c>
       <c r="H27" t="n">
-        <v>90.38925648894002</v>
+        <v>124.14639450056117</v>
       </c>
       <c r="I27" t="n">
-        <v>112.9746835443038</v>
+        <v>155.16666666666666</v>
       </c>
       <c r="J27" t="n">
-        <v>0.0</v>
+        <v>34.019999999999996</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0</v>
+        <v>12.15</v>
       </c>
       <c r="L27" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="M27" t="n">
         <v>2017.0</v>
@@ -1252,22 +1255,22 @@
         <v>2800.0</v>
       </c>
       <c r="D28" t="n">
-        <v>3385.0</v>
+        <v>2810.0</v>
       </c>
       <c r="E28" t="n">
-        <v>1208.9285714285713</v>
+        <v>1003.5714285714286</v>
       </c>
       <c r="F28" t="n">
-        <v>337.6355218855219</v>
+        <v>340.03577441077437</v>
       </c>
       <c r="G28" t="n">
-        <v>422.0</v>
+        <v>425.0</v>
       </c>
       <c r="H28" t="n">
-        <v>102.75863709559361</v>
+        <v>90.38925648894002</v>
       </c>
       <c r="I28" t="n">
-        <v>128.43478260869566</v>
+        <v>112.9746835443038</v>
       </c>
       <c r="J28" t="n">
         <v>0.0</v>
@@ -1276,7 +1279,7 @@
         <v>0.0</v>
       </c>
       <c r="L28" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="M28" t="n">
         <v>2017.0</v>
@@ -1293,22 +1296,22 @@
         <v>2800.0</v>
       </c>
       <c r="D29" t="n">
-        <v>4395.0</v>
+        <v>3385.0</v>
       </c>
       <c r="E29" t="n">
-        <v>1569.642857142857</v>
+        <v>1208.9285714285713</v>
       </c>
       <c r="F29" t="n">
-        <v>332.0349326599327</v>
+        <v>337.6355218855219</v>
       </c>
       <c r="G29" t="n">
-        <v>415.0</v>
+        <v>422.0</v>
       </c>
       <c r="H29" t="n">
-        <v>110.67831088664423</v>
+        <v>102.75863709559361</v>
       </c>
       <c r="I29" t="n">
-        <v>138.33333333333334</v>
+        <v>128.43478260869566</v>
       </c>
       <c r="J29" t="n">
         <v>0.0</v>
@@ -1317,7 +1320,7 @@
         <v>0.0</v>
       </c>
       <c r="L29" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="M29" t="n">
         <v>2017.0</v>
@@ -1334,31 +1337,31 @@
         <v>2800.0</v>
       </c>
       <c r="D30" t="n">
-        <v>6128.0</v>
+        <v>4395.0</v>
       </c>
       <c r="E30" t="n">
-        <v>2188.5714285714284</v>
+        <v>1569.642857142857</v>
       </c>
       <c r="F30" t="n">
-        <v>322.4339225589225</v>
+        <v>332.0349326599327</v>
       </c>
       <c r="G30" t="n">
-        <v>403.0</v>
+        <v>415.0</v>
       </c>
       <c r="H30" t="n">
-        <v>131.69836273533457</v>
+        <v>110.67831088664423</v>
       </c>
       <c r="I30" t="n">
-        <v>164.6056338028169</v>
+        <v>138.33333333333334</v>
       </c>
       <c r="J30" t="n">
-        <v>20.79</v>
+        <v>0.0</v>
       </c>
       <c r="K30" t="n">
-        <v>7.425</v>
+        <v>0.0</v>
       </c>
       <c r="L30" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="M30" t="n">
         <v>2017.0</v>
@@ -1375,31 +1378,31 @@
         <v>2800.0</v>
       </c>
       <c r="D31" t="n">
-        <v>7302.0</v>
+        <v>6128.0</v>
       </c>
       <c r="E31" t="n">
-        <v>2607.8571428571427</v>
+        <v>2188.5714285714284</v>
       </c>
       <c r="F31" t="n">
-        <v>316.0332491582492</v>
+        <v>322.4339225589225</v>
       </c>
       <c r="G31" t="n">
-        <v>395.0</v>
+        <v>403.0</v>
       </c>
       <c r="H31" t="n">
-        <v>130.13133788869084</v>
+        <v>131.69836273533457</v>
       </c>
       <c r="I31" t="n">
-        <v>162.64705882352942</v>
+        <v>164.6056338028169</v>
       </c>
       <c r="J31" t="n">
-        <v>45.36</v>
+        <v>20.79</v>
       </c>
       <c r="K31" t="n">
-        <v>16.2</v>
+        <v>7.425</v>
       </c>
       <c r="L31" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="M31" t="n">
         <v>2017.0</v>
@@ -1416,31 +1419,31 @@
         <v>2800.0</v>
       </c>
       <c r="D32" t="n">
-        <v>8864.0</v>
+        <v>7302.0</v>
       </c>
       <c r="E32" t="n">
-        <v>3165.714285714286</v>
+        <v>2607.8571428571427</v>
       </c>
       <c r="F32" t="n">
-        <v>311.2327441077441</v>
+        <v>316.0332491582492</v>
       </c>
       <c r="G32" t="n">
-        <v>389.0</v>
+        <v>395.0</v>
       </c>
       <c r="H32" t="n">
-        <v>133.38546176046177</v>
+        <v>130.13133788869084</v>
       </c>
       <c r="I32" t="n">
-        <v>166.71428571428572</v>
+        <v>162.64705882352942</v>
       </c>
       <c r="J32" t="n">
-        <v>75.60000000000001</v>
+        <v>45.36</v>
       </c>
       <c r="K32" t="n">
-        <v>27.0</v>
+        <v>16.2</v>
       </c>
       <c r="L32" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="M32" t="n">
         <v>2017.0</v>
@@ -1457,31 +1460,31 @@
         <v>2800.0</v>
       </c>
       <c r="D33" t="n">
-        <v>10459.0</v>
+        <v>8864.0</v>
       </c>
       <c r="E33" t="n">
-        <v>3735.3571428571427</v>
+        <v>3165.714285714286</v>
       </c>
       <c r="F33" t="n">
-        <v>304.8320707070707</v>
+        <v>311.2327441077441</v>
       </c>
       <c r="G33" t="n">
-        <v>381.0</v>
+        <v>389.0</v>
       </c>
       <c r="H33" t="n">
-        <v>136.95353901332163</v>
+        <v>133.38546176046177</v>
       </c>
       <c r="I33" t="n">
-        <v>171.17391304347825</v>
+        <v>166.71428571428572</v>
       </c>
       <c r="J33" t="n">
-        <v>139.85999999999999</v>
+        <v>75.60000000000001</v>
       </c>
       <c r="K33" t="n">
-        <v>49.95</v>
+        <v>27.0</v>
       </c>
       <c r="L33" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="M33" t="n">
         <v>2017.0</v>
@@ -1498,31 +1501,31 @@
         <v>2800.0</v>
       </c>
       <c r="D34" t="n">
-        <v>10985.0</v>
+        <v>10459.0</v>
       </c>
       <c r="E34" t="n">
-        <v>3923.214285714286</v>
+        <v>3735.3571428571427</v>
       </c>
       <c r="F34" t="n">
-        <v>303.23190235690237</v>
+        <v>304.8320707070707</v>
       </c>
       <c r="G34" t="n">
-        <v>379.0</v>
+        <v>381.0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.6973658150129</v>
+        <v>136.95353901332163</v>
       </c>
       <c r="I34" t="n">
-        <v>178.35294117647058</v>
+        <v>171.17391304347825</v>
       </c>
       <c r="J34" t="n">
-        <v>136.07999999999998</v>
+        <v>139.85999999999999</v>
       </c>
       <c r="K34" t="n">
-        <v>48.6</v>
+        <v>49.95</v>
       </c>
       <c r="L34" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="M34" t="n">
         <v>2017.0</v>
@@ -1539,22 +1542,22 @@
         <v>2800.0</v>
       </c>
       <c r="D35" t="n">
-        <v>10069.0</v>
+        <v>10985.0</v>
       </c>
       <c r="E35" t="n">
-        <v>3596.0714285714284</v>
+        <v>3923.214285714286</v>
       </c>
       <c r="F35" t="n">
-        <v>304.8320707070707</v>
+        <v>303.23190235690237</v>
       </c>
       <c r="G35" t="n">
-        <v>381.0</v>
+        <v>379.0</v>
       </c>
       <c r="H35" t="n">
-        <v>136.95353901332163</v>
+        <v>142.6973658150129</v>
       </c>
       <c r="I35" t="n">
-        <v>171.17391304347825</v>
+        <v>178.35294117647058</v>
       </c>
       <c r="J35" t="n">
         <v>136.07999999999998</v>
@@ -1563,10 +1566,10 @@
         <v>48.6</v>
       </c>
       <c r="L35" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="M35" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="36">
@@ -1580,31 +1583,31 @@
         <v>2800.0</v>
       </c>
       <c r="D36" t="n">
-        <v>7885.0</v>
+        <v>10069.0</v>
       </c>
       <c r="E36" t="n">
-        <v>2816.0714285714284</v>
+        <v>3596.0714285714284</v>
       </c>
       <c r="F36" t="n">
-        <v>306.43223905723903</v>
+        <v>304.8320707070707</v>
       </c>
       <c r="G36" t="n">
-        <v>383.0</v>
+        <v>381.0</v>
       </c>
       <c r="H36" t="n">
-        <v>131.32810245310245</v>
+        <v>136.95353901332163</v>
       </c>
       <c r="I36" t="n">
-        <v>164.14285714285714</v>
+        <v>171.17391304347825</v>
       </c>
       <c r="J36" t="n">
-        <v>113.39999999999999</v>
+        <v>136.07999999999998</v>
       </c>
       <c r="K36" t="n">
-        <v>40.5</v>
+        <v>48.6</v>
       </c>
       <c r="L36" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="M36" t="n">
         <v>2016.0</v>
@@ -1621,31 +1624,31 @@
         <v>2800.0</v>
       </c>
       <c r="D37" t="n">
-        <v>6954.0</v>
+        <v>7885.0</v>
       </c>
       <c r="E37" t="n">
-        <v>2483.5714285714284</v>
+        <v>2816.0714285714284</v>
       </c>
       <c r="F37" t="n">
-        <v>304.0319865319865</v>
+        <v>306.43223905723903</v>
       </c>
       <c r="G37" t="n">
-        <v>380.0</v>
+        <v>383.0</v>
       </c>
       <c r="H37" t="n">
-        <v>130.29942279942279</v>
+        <v>131.32810245310245</v>
       </c>
       <c r="I37" t="n">
-        <v>162.85714285714286</v>
+        <v>164.14285714285714</v>
       </c>
       <c r="J37" t="n">
-        <v>54.809999999999995</v>
+        <v>113.39999999999999</v>
       </c>
       <c r="K37" t="n">
-        <v>19.575</v>
+        <v>40.5</v>
       </c>
       <c r="L37" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="M37" t="n">
         <v>2016.0</v>
@@ -1662,31 +1665,31 @@
         <v>6150.0</v>
       </c>
       <c r="D38" t="n">
-        <v>12112.0</v>
+        <v>14358.0</v>
       </c>
       <c r="E38" t="n">
-        <v>1969.4308943089432</v>
+        <v>2334.6341463414633</v>
       </c>
       <c r="F38" t="n">
-        <v>416.13378684807265</v>
+        <v>406.05442176870747</v>
       </c>
       <c r="G38" t="n">
         <v>282.0</v>
       </c>
       <c r="H38" t="n">
-        <v>161.8298059964727</v>
+        <v>174.02332361516034</v>
       </c>
       <c r="I38" t="n">
-        <v>112.38888888888889</v>
+        <v>120.85714285714286</v>
       </c>
       <c r="J38" t="n">
-        <v>37.392</v>
+        <v>82.9635</v>
       </c>
       <c r="K38" t="n">
-        <v>6.08</v>
+        <v>13.489999999999998</v>
       </c>
       <c r="L38" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="M38" t="n">
         <v>2017.0</v>
@@ -1703,31 +1706,31 @@
         <v>6150.0</v>
       </c>
       <c r="D39" t="n">
-        <v>7287.0</v>
+        <v>12112.0</v>
       </c>
       <c r="E39" t="n">
-        <v>1184.878048780488</v>
+        <v>1969.4308943089432</v>
       </c>
       <c r="F39" t="n">
-        <v>455.0113378684807</v>
+        <v>416.13378684807265</v>
       </c>
       <c r="G39" t="n">
-        <v>316.0</v>
+        <v>282.0</v>
       </c>
       <c r="H39" t="n">
-        <v>120.95238095238095</v>
+        <v>161.8298059964727</v>
       </c>
       <c r="I39" t="n">
-        <v>84.0</v>
+        <v>112.38888888888889</v>
       </c>
       <c r="J39" t="n">
-        <v>0.0</v>
+        <v>37.392</v>
       </c>
       <c r="K39" t="n">
-        <v>0.0</v>
+        <v>6.08</v>
       </c>
       <c r="L39" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="M39" t="n">
         <v>2017.0</v>
@@ -1744,22 +1747,22 @@
         <v>6150.0</v>
       </c>
       <c r="D40" t="n">
-        <v>8628.0</v>
+        <v>7287.0</v>
       </c>
       <c r="E40" t="n">
-        <v>1402.9268292682927</v>
+        <v>1184.878048780488</v>
       </c>
       <c r="F40" t="n">
-        <v>456.45124716553283</v>
+        <v>455.0113378684807</v>
       </c>
       <c r="G40" t="n">
-        <v>317.0</v>
+        <v>316.0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.91994478951</v>
+        <v>120.95238095238095</v>
       </c>
       <c r="I40" t="n">
-        <v>96.47826086956522</v>
+        <v>84.0</v>
       </c>
       <c r="J40" t="n">
         <v>0.0</v>
@@ -1768,7 +1771,7 @@
         <v>0.0</v>
       </c>
       <c r="L40" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="M40" t="n">
         <v>2017.0</v>
@@ -1785,22 +1788,22 @@
         <v>6150.0</v>
       </c>
       <c r="D41" t="n">
-        <v>11359.0</v>
+        <v>8628.0</v>
       </c>
       <c r="E41" t="n">
-        <v>1846.9918699186992</v>
+        <v>1402.9268292682927</v>
       </c>
       <c r="F41" t="n">
-        <v>444.9319727891156</v>
+        <v>456.45124716553283</v>
       </c>
       <c r="G41" t="n">
-        <v>309.0</v>
+        <v>317.0</v>
       </c>
       <c r="H41" t="n">
-        <v>148.31065759637187</v>
+        <v>138.91994478951</v>
       </c>
       <c r="I41" t="n">
-        <v>103.0</v>
+        <v>96.47826086956522</v>
       </c>
       <c r="J41" t="n">
         <v>0.0</v>
@@ -1809,7 +1812,7 @@
         <v>0.0</v>
       </c>
       <c r="L41" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="M41" t="n">
         <v>2017.0</v>
@@ -1826,31 +1829,31 @@
         <v>6150.0</v>
       </c>
       <c r="D42" t="n">
-        <v>14269.0</v>
+        <v>11359.0</v>
       </c>
       <c r="E42" t="n">
-        <v>2320.162601626016</v>
+        <v>1846.9918699186992</v>
       </c>
       <c r="F42" t="n">
-        <v>439.1723356009071</v>
+        <v>444.9319727891156</v>
       </c>
       <c r="G42" t="n">
-        <v>305.0</v>
+        <v>309.0</v>
       </c>
       <c r="H42" t="n">
-        <v>179.38024975248317</v>
+        <v>148.31065759637187</v>
       </c>
       <c r="I42" t="n">
-        <v>124.5774647887324</v>
+        <v>103.0</v>
       </c>
       <c r="J42" t="n">
-        <v>31.5495</v>
+        <v>0.0</v>
       </c>
       <c r="K42" t="n">
-        <v>5.13</v>
+        <v>0.0</v>
       </c>
       <c r="L42" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="M42" t="n">
         <v>2017.0</v>
@@ -1867,31 +1870,31 @@
         <v>6150.0</v>
       </c>
       <c r="D43" t="n">
-        <v>16389.0</v>
+        <v>14269.0</v>
       </c>
       <c r="E43" t="n">
-        <v>2664.878048780488</v>
+        <v>2320.162601626016</v>
       </c>
       <c r="F43" t="n">
-        <v>416.13378684807265</v>
+        <v>439.1723356009071</v>
       </c>
       <c r="G43" t="n">
-        <v>289.0</v>
+        <v>305.0</v>
       </c>
       <c r="H43" t="n">
-        <v>171.34920634920638</v>
+        <v>179.38024975248317</v>
       </c>
       <c r="I43" t="n">
-        <v>119.0</v>
+        <v>124.5774647887324</v>
       </c>
       <c r="J43" t="n">
-        <v>78.2895</v>
+        <v>31.5495</v>
       </c>
       <c r="K43" t="n">
-        <v>12.73</v>
+        <v>5.13</v>
       </c>
       <c r="L43" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="M43" t="n">
         <v>2017.0</v>
@@ -1908,31 +1911,31 @@
         <v>6150.0</v>
       </c>
       <c r="D44" t="n">
-        <v>19093.0</v>
+        <v>16389.0</v>
       </c>
       <c r="E44" t="n">
-        <v>3104.5528455284552</v>
+        <v>2664.878048780488</v>
       </c>
       <c r="F44" t="n">
-        <v>411.81405895691614</v>
+        <v>416.13378684807265</v>
       </c>
       <c r="G44" t="n">
-        <v>286.0</v>
+        <v>289.0</v>
       </c>
       <c r="H44" t="n">
-        <v>176.49173955296408</v>
+        <v>171.34920634920638</v>
       </c>
       <c r="I44" t="n">
-        <v>122.57142857142857</v>
+        <v>119.0</v>
       </c>
       <c r="J44" t="n">
-        <v>132.0405</v>
+        <v>78.2895</v>
       </c>
       <c r="K44" t="n">
-        <v>21.47</v>
+        <v>12.73</v>
       </c>
       <c r="L44" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="M44" t="n">
         <v>2017.0</v>
@@ -1949,31 +1952,31 @@
         <v>6150.0</v>
       </c>
       <c r="D45" t="n">
-        <v>22184.0</v>
+        <v>19093.0</v>
       </c>
       <c r="E45" t="n">
-        <v>3607.1544715447153</v>
+        <v>3104.5528455284552</v>
       </c>
       <c r="F45" t="n">
-        <v>408.93424036281175</v>
+        <v>411.81405895691614</v>
       </c>
       <c r="G45" t="n">
-        <v>284.0</v>
+        <v>286.0</v>
       </c>
       <c r="H45" t="n">
-        <v>183.7240790035821</v>
+        <v>176.49173955296408</v>
       </c>
       <c r="I45" t="n">
-        <v>127.59420289855072</v>
+        <v>122.57142857142857</v>
       </c>
       <c r="J45" t="n">
-        <v>219.678</v>
+        <v>132.0405</v>
       </c>
       <c r="K45" t="n">
-        <v>35.72</v>
+        <v>21.47</v>
       </c>
       <c r="L45" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="M45" t="n">
         <v>2017.0</v>
@@ -1990,10 +1993,10 @@
         <v>6150.0</v>
       </c>
       <c r="D46" t="n">
-        <v>23646.0</v>
+        <v>22184.0</v>
       </c>
       <c r="E46" t="n">
-        <v>3844.878048780488</v>
+        <v>3607.1544715447153</v>
       </c>
       <c r="F46" t="n">
         <v>408.93424036281175</v>
@@ -2002,19 +2005,19 @@
         <v>284.0</v>
       </c>
       <c r="H46" t="n">
-        <v>192.43964252367613</v>
+        <v>183.7240790035821</v>
       </c>
       <c r="I46" t="n">
-        <v>133.64705882352942</v>
+        <v>127.59420289855072</v>
       </c>
       <c r="J46" t="n">
-        <v>212.667</v>
+        <v>219.678</v>
       </c>
       <c r="K46" t="n">
-        <v>34.58</v>
+        <v>35.72</v>
       </c>
       <c r="L46" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="M46" t="n">
         <v>2017.0</v>
@@ -2031,10 +2034,10 @@
         <v>6150.0</v>
       </c>
       <c r="D47" t="n">
-        <v>21938.0</v>
+        <v>23646.0</v>
       </c>
       <c r="E47" t="n">
-        <v>3567.1544715447153</v>
+        <v>3844.878048780488</v>
       </c>
       <c r="F47" t="n">
         <v>408.93424036281175</v>
@@ -2043,22 +2046,22 @@
         <v>284.0</v>
       </c>
       <c r="H47" t="n">
-        <v>183.7240790035821</v>
+        <v>192.43964252367613</v>
       </c>
       <c r="I47" t="n">
-        <v>127.59420289855072</v>
+        <v>133.64705882352942</v>
       </c>
       <c r="J47" t="n">
-        <v>204.48749999999998</v>
+        <v>212.667</v>
       </c>
       <c r="K47" t="n">
-        <v>33.25</v>
+        <v>34.58</v>
       </c>
       <c r="L47" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="M47" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="48">
@@ -2072,31 +2075,31 @@
         <v>6150.0</v>
       </c>
       <c r="D48" t="n">
-        <v>17696.0</v>
+        <v>21938.0</v>
       </c>
       <c r="E48" t="n">
-        <v>2877.39837398374</v>
+        <v>3567.1544715447153</v>
       </c>
       <c r="F48" t="n">
-        <v>407.4943310657597</v>
+        <v>408.93424036281175</v>
       </c>
       <c r="G48" t="n">
-        <v>283.0</v>
+        <v>284.0</v>
       </c>
       <c r="H48" t="n">
-        <v>174.6404275996113</v>
+        <v>183.7240790035821</v>
       </c>
       <c r="I48" t="n">
-        <v>121.28571428571429</v>
+        <v>127.59420289855072</v>
       </c>
       <c r="J48" t="n">
-        <v>169.43249999999998</v>
+        <v>204.48749999999998</v>
       </c>
       <c r="K48" t="n">
-        <v>27.549999999999997</v>
+        <v>33.25</v>
       </c>
       <c r="L48" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="M48" t="n">
         <v>2016.0</v>
@@ -2113,31 +2116,31 @@
         <v>6150.0</v>
       </c>
       <c r="D49" t="n">
-        <v>14358.0</v>
+        <v>17696.0</v>
       </c>
       <c r="E49" t="n">
-        <v>2334.6341463414633</v>
+        <v>2877.39837398374</v>
       </c>
       <c r="F49" t="n">
-        <v>406.05442176870747</v>
+        <v>407.4943310657597</v>
       </c>
       <c r="G49" t="n">
-        <v>282.0</v>
+        <v>283.0</v>
       </c>
       <c r="H49" t="n">
-        <v>174.02332361516034</v>
+        <v>174.6404275996113</v>
       </c>
       <c r="I49" t="n">
-        <v>120.85714285714286</v>
+        <v>121.28571428571429</v>
       </c>
       <c r="J49" t="n">
-        <v>82.9635</v>
+        <v>169.43249999999998</v>
       </c>
       <c r="K49" t="n">
-        <v>13.489999999999998</v>
+        <v>27.549999999999997</v>
       </c>
       <c r="L49" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="M49" t="n">
         <v>2016.0</v>
@@ -2154,31 +2157,31 @@
         <v>6430.0</v>
       </c>
       <c r="D50" t="n">
-        <v>13259.0</v>
+        <v>15421.0</v>
       </c>
       <c r="E50" t="n">
-        <v>2062.052877138414</v>
+        <v>2398.2892690513218</v>
       </c>
       <c r="F50" t="n">
-        <v>469.3567961165048</v>
+        <v>447.0064724919094</v>
       </c>
       <c r="G50" t="n">
         <v>300.0</v>
       </c>
       <c r="H50" t="n">
-        <v>182.5276429341963</v>
+        <v>191.5742024965326</v>
       </c>
       <c r="I50" t="n">
-        <v>122.5</v>
+        <v>128.57142857142858</v>
       </c>
       <c r="J50" t="n">
-        <v>81.018</v>
+        <v>138.50220000000002</v>
       </c>
       <c r="K50" t="n">
-        <v>12.600000000000001</v>
+        <v>21.54</v>
       </c>
       <c r="L50" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="M50" t="n">
         <v>2017.0</v>
@@ -2195,31 +2198,31 @@
         <v>6430.0</v>
       </c>
       <c r="D51" t="n">
-        <v>7801.0</v>
+        <v>13259.0</v>
       </c>
       <c r="E51" t="n">
-        <v>1213.2192846034216</v>
+        <v>2062.052877138414</v>
       </c>
       <c r="F51" t="n">
-        <v>496.1771844660194</v>
+        <v>469.3567961165048</v>
       </c>
       <c r="G51" t="n">
-        <v>333.0</v>
+        <v>300.0</v>
       </c>
       <c r="H51" t="n">
-        <v>131.89520093400515</v>
+        <v>182.5276429341963</v>
       </c>
       <c r="I51" t="n">
-        <v>88.51898734177215</v>
+        <v>122.5</v>
       </c>
       <c r="J51" t="n">
-        <v>0.0</v>
+        <v>81.018</v>
       </c>
       <c r="K51" t="n">
-        <v>0.0</v>
+        <v>12.600000000000001</v>
       </c>
       <c r="L51" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="M51" t="n">
         <v>2017.0</v>
@@ -2236,22 +2239,22 @@
         <v>6430.0</v>
       </c>
       <c r="D52" t="n">
-        <v>9602.0</v>
+        <v>7801.0</v>
       </c>
       <c r="E52" t="n">
-        <v>1493.3125972006221</v>
+        <v>1213.2192846034216</v>
       </c>
       <c r="F52" t="n">
-        <v>497.6672060409925</v>
+        <v>496.1771844660194</v>
       </c>
       <c r="G52" t="n">
-        <v>334.0</v>
+        <v>333.0</v>
       </c>
       <c r="H52" t="n">
-        <v>151.46393227334553</v>
+        <v>131.89520093400515</v>
       </c>
       <c r="I52" t="n">
-        <v>101.65217391304348</v>
+        <v>88.51898734177215</v>
       </c>
       <c r="J52" t="n">
         <v>0.0</v>
@@ -2260,7 +2263,7 @@
         <v>0.0</v>
       </c>
       <c r="L52" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="M52" t="n">
         <v>2017.0</v>
@@ -2277,22 +2280,22 @@
         <v>6430.0</v>
       </c>
       <c r="D53" t="n">
-        <v>12325.0</v>
+        <v>9602.0</v>
       </c>
       <c r="E53" t="n">
-        <v>1916.796267496112</v>
+        <v>1493.3125972006221</v>
       </c>
       <c r="F53" t="n">
-        <v>464.8867313915858</v>
+        <v>497.6672060409925</v>
       </c>
       <c r="G53" t="n">
-        <v>312.0</v>
+        <v>334.0</v>
       </c>
       <c r="H53" t="n">
-        <v>154.96224379719527</v>
+        <v>151.46393227334553</v>
       </c>
       <c r="I53" t="n">
-        <v>104.0</v>
+        <v>101.65217391304348</v>
       </c>
       <c r="J53" t="n">
         <v>0.0</v>
@@ -2301,7 +2304,7 @@
         <v>0.0</v>
       </c>
       <c r="L53" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="M53" t="n">
         <v>2017.0</v>
@@ -2318,31 +2321,31 @@
         <v>6430.0</v>
       </c>
       <c r="D54" t="n">
-        <v>15212.0</v>
+        <v>12325.0</v>
       </c>
       <c r="E54" t="n">
-        <v>2365.7853810264387</v>
+        <v>1916.796267496112</v>
       </c>
       <c r="F54" t="n">
-        <v>458.9266450916937</v>
+        <v>464.8867313915858</v>
       </c>
       <c r="G54" t="n">
-        <v>308.0</v>
+        <v>312.0</v>
       </c>
       <c r="H54" t="n">
-        <v>187.44891137548052</v>
+        <v>154.96224379719527</v>
       </c>
       <c r="I54" t="n">
-        <v>125.80281690140845</v>
+        <v>104.0</v>
       </c>
       <c r="J54" t="n">
-        <v>60.184799999999996</v>
+        <v>0.0</v>
       </c>
       <c r="K54" t="n">
-        <v>9.36</v>
+        <v>0.0</v>
       </c>
       <c r="L54" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="M54" t="n">
         <v>2017.0</v>
@@ -2359,31 +2362,31 @@
         <v>6430.0</v>
       </c>
       <c r="D55" t="n">
-        <v>17060.0</v>
+        <v>15212.0</v>
       </c>
       <c r="E55" t="n">
-        <v>2653.1881804043546</v>
+        <v>2365.7853810264387</v>
       </c>
       <c r="F55" t="n">
-        <v>449.9865156418554</v>
+        <v>458.9266450916937</v>
       </c>
       <c r="G55" t="n">
-        <v>302.0</v>
+        <v>308.0</v>
       </c>
       <c r="H55" t="n">
-        <v>185.2885652642934</v>
+        <v>187.44891137548052</v>
       </c>
       <c r="I55" t="n">
-        <v>124.3529411764706</v>
+        <v>125.80281690140845</v>
       </c>
       <c r="J55" t="n">
-        <v>125.385</v>
+        <v>60.184799999999996</v>
       </c>
       <c r="K55" t="n">
-        <v>19.5</v>
+        <v>9.36</v>
       </c>
       <c r="L55" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="M55" t="n">
         <v>2017.0</v>
@@ -2400,31 +2403,31 @@
         <v>6430.0</v>
       </c>
       <c r="D56" t="n">
-        <v>20098.0</v>
+        <v>17060.0</v>
       </c>
       <c r="E56" t="n">
-        <v>3125.660964230171</v>
+        <v>2653.1881804043546</v>
       </c>
       <c r="F56" t="n">
-        <v>447.0064724919094</v>
+        <v>449.9865156418554</v>
       </c>
       <c r="G56" t="n">
-        <v>300.0</v>
+        <v>302.0</v>
       </c>
       <c r="H56" t="n">
-        <v>191.5742024965326</v>
+        <v>185.2885652642934</v>
       </c>
       <c r="I56" t="n">
-        <v>128.57142857142858</v>
+        <v>124.3529411764706</v>
       </c>
       <c r="J56" t="n">
-        <v>216.048</v>
+        <v>125.385</v>
       </c>
       <c r="K56" t="n">
-        <v>33.6</v>
+        <v>19.5</v>
       </c>
       <c r="L56" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="M56" t="n">
         <v>2017.0</v>
@@ -2441,31 +2444,31 @@
         <v>6430.0</v>
       </c>
       <c r="D57" t="n">
-        <v>23189.0</v>
+        <v>20098.0</v>
       </c>
       <c r="E57" t="n">
-        <v>3606.3763608087093</v>
+        <v>3125.660964230171</v>
       </c>
       <c r="F57" t="n">
-        <v>448.49649406688235</v>
+        <v>447.0064724919094</v>
       </c>
       <c r="G57" t="n">
-        <v>301.0</v>
+        <v>300.0</v>
       </c>
       <c r="H57" t="n">
-        <v>201.49842487062833</v>
+        <v>191.5742024965326</v>
       </c>
       <c r="I57" t="n">
-        <v>135.231884057971</v>
+        <v>128.57142857142858</v>
       </c>
       <c r="J57" t="n">
-        <v>362.652</v>
+        <v>216.048</v>
       </c>
       <c r="K57" t="n">
-        <v>56.4</v>
+        <v>33.6</v>
       </c>
       <c r="L57" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="M57" t="n">
         <v>2017.0</v>
@@ -2482,10 +2485,10 @@
         <v>6430.0</v>
       </c>
       <c r="D58" t="n">
-        <v>24623.0</v>
+        <v>23189.0</v>
       </c>
       <c r="E58" t="n">
-        <v>3829.393468118196</v>
+        <v>3606.3763608087093</v>
       </c>
       <c r="F58" t="n">
         <v>448.49649406688235</v>
@@ -2494,19 +2497,19 @@
         <v>301.0</v>
       </c>
       <c r="H58" t="n">
-        <v>211.05717367853288</v>
+        <v>201.49842487062833</v>
       </c>
       <c r="I58" t="n">
-        <v>141.64705882352942</v>
+        <v>135.231884057971</v>
       </c>
       <c r="J58" t="n">
-        <v>343.36199999999997</v>
+        <v>362.652</v>
       </c>
       <c r="K58" t="n">
-        <v>53.4</v>
+        <v>56.4</v>
       </c>
       <c r="L58" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="M58" t="n">
         <v>2017.0</v>
@@ -2523,34 +2526,34 @@
         <v>6430.0</v>
       </c>
       <c r="D59" t="n">
-        <v>21903.0</v>
+        <v>24623.0</v>
       </c>
       <c r="E59" t="n">
-        <v>3406.3763608087093</v>
+        <v>3829.393468118196</v>
       </c>
       <c r="F59" t="n">
-        <v>447.0064724919094</v>
+        <v>448.49649406688235</v>
       </c>
       <c r="G59" t="n">
-        <v>300.0</v>
+        <v>301.0</v>
       </c>
       <c r="H59" t="n">
-        <v>200.82899488766944</v>
+        <v>211.05717367853288</v>
       </c>
       <c r="I59" t="n">
-        <v>134.7826086956522</v>
+        <v>141.64705882352942</v>
       </c>
       <c r="J59" t="n">
-        <v>322.14300000000003</v>
+        <v>343.36199999999997</v>
       </c>
       <c r="K59" t="n">
-        <v>50.1</v>
+        <v>53.4</v>
       </c>
       <c r="L59" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="M59" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="60">
@@ -2564,31 +2567,31 @@
         <v>6430.0</v>
       </c>
       <c r="D60" t="n">
-        <v>18769.0</v>
+        <v>21903.0</v>
       </c>
       <c r="E60" t="n">
-        <v>2918.9735614307933</v>
+        <v>3406.3763608087093</v>
       </c>
       <c r="F60" t="n">
-        <v>449.9865156418554</v>
+        <v>447.0064724919094</v>
       </c>
       <c r="G60" t="n">
-        <v>302.0</v>
+        <v>300.0</v>
       </c>
       <c r="H60" t="n">
-        <v>192.85136384650946</v>
+        <v>200.82899488766944</v>
       </c>
       <c r="I60" t="n">
-        <v>129.42857142857142</v>
+        <v>134.7826086956522</v>
       </c>
       <c r="J60" t="n">
-        <v>279.705</v>
+        <v>322.14300000000003</v>
       </c>
       <c r="K60" t="n">
-        <v>43.5</v>
+        <v>50.1</v>
       </c>
       <c r="L60" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="M60" t="n">
         <v>2016.0</v>
@@ -2605,31 +2608,31 @@
         <v>6430.0</v>
       </c>
       <c r="D61" t="n">
-        <v>15421.0</v>
+        <v>18769.0</v>
       </c>
       <c r="E61" t="n">
-        <v>2398.2892690513218</v>
+        <v>2918.9735614307933</v>
       </c>
       <c r="F61" t="n">
-        <v>447.0064724919094</v>
+        <v>449.9865156418554</v>
       </c>
       <c r="G61" t="n">
-        <v>300.0</v>
+        <v>302.0</v>
       </c>
       <c r="H61" t="n">
-        <v>191.5742024965326</v>
+        <v>192.85136384650946</v>
       </c>
       <c r="I61" t="n">
-        <v>128.57142857142858</v>
+        <v>129.42857142857142</v>
       </c>
       <c r="J61" t="n">
-        <v>138.50220000000002</v>
+        <v>279.705</v>
       </c>
       <c r="K61" t="n">
-        <v>21.54</v>
+        <v>43.5</v>
       </c>
       <c r="L61" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="M61" t="n">
         <v>2016.0</v>
@@ -2646,31 +2649,31 @@
         <v>6435.0</v>
       </c>
       <c r="D62" t="n">
-        <v>13597.0</v>
+        <v>15682.0</v>
       </c>
       <c r="E62" t="n">
-        <v>2112.975912975913</v>
+        <v>2436.985236985237</v>
       </c>
       <c r="F62" t="n">
-        <v>360.3432748538011</v>
+        <v>342.70409356725145</v>
       </c>
       <c r="G62" t="n">
         <v>272.0</v>
       </c>
       <c r="H62" t="n">
-        <v>140.1334957764782</v>
+        <v>146.87318295739348</v>
       </c>
       <c r="I62" t="n">
-        <v>111.22222222222223</v>
+        <v>116.57142857142857</v>
       </c>
       <c r="J62" t="n">
-        <v>59.52375</v>
+        <v>107.78625000000001</v>
       </c>
       <c r="K62" t="n">
-        <v>9.25</v>
+        <v>16.75</v>
       </c>
       <c r="L62" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="M62" t="n">
         <v>2017.0</v>
@@ -2687,31 +2690,31 @@
         <v>6435.0</v>
       </c>
       <c r="D63" t="n">
-        <v>8264.0</v>
+        <v>13597.0</v>
       </c>
       <c r="E63" t="n">
-        <v>1284.2268842268843</v>
+        <v>2112.975912975913</v>
       </c>
       <c r="F63" t="n">
-        <v>393.1017543859649</v>
+        <v>360.3432748538011</v>
       </c>
       <c r="G63" t="n">
-        <v>312.0</v>
+        <v>272.0</v>
       </c>
       <c r="H63" t="n">
-        <v>104.49540306462359</v>
+        <v>140.1334957764782</v>
       </c>
       <c r="I63" t="n">
-        <v>82.9367088607595</v>
+        <v>111.22222222222223</v>
       </c>
       <c r="J63" t="n">
-        <v>0.0</v>
+        <v>59.52375</v>
       </c>
       <c r="K63" t="n">
-        <v>0.0</v>
+        <v>9.25</v>
       </c>
       <c r="L63" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="M63" t="n">
         <v>2017.0</v>
@@ -2728,22 +2731,22 @@
         <v>6435.0</v>
       </c>
       <c r="D64" t="n">
-        <v>9992.0</v>
+        <v>8264.0</v>
       </c>
       <c r="E64" t="n">
-        <v>1552.7583527583527</v>
+        <v>1284.2268842268843</v>
       </c>
       <c r="F64" t="n">
-        <v>390.5818713450292</v>
+        <v>393.1017543859649</v>
       </c>
       <c r="G64" t="n">
-        <v>310.0</v>
+        <v>312.0</v>
       </c>
       <c r="H64" t="n">
-        <v>118.87274345283497</v>
+        <v>104.49540306462359</v>
       </c>
       <c r="I64" t="n">
-        <v>94.34782608695652</v>
+        <v>82.9367088607595</v>
       </c>
       <c r="J64" t="n">
         <v>0.0</v>
@@ -2752,7 +2755,7 @@
         <v>0.0</v>
       </c>
       <c r="L64" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="M64" t="n">
         <v>2017.0</v>
@@ -2769,22 +2772,22 @@
         <v>6435.0</v>
       </c>
       <c r="D65" t="n">
-        <v>12759.0</v>
+        <v>9992.0</v>
       </c>
       <c r="E65" t="n">
-        <v>1982.7505827505827</v>
+        <v>1552.7583527583527</v>
       </c>
       <c r="F65" t="n">
-        <v>365.38304093567245</v>
+        <v>390.5818713450292</v>
       </c>
       <c r="G65" t="n">
-        <v>290.0</v>
+        <v>310.0</v>
       </c>
       <c r="H65" t="n">
-        <v>121.79434697855748</v>
+        <v>118.87274345283497</v>
       </c>
       <c r="I65" t="n">
-        <v>96.66666666666667</v>
+        <v>94.34782608695652</v>
       </c>
       <c r="J65" t="n">
         <v>0.0</v>
@@ -2793,7 +2796,7 @@
         <v>0.0</v>
       </c>
       <c r="L65" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="M65" t="n">
         <v>2017.0</v>
@@ -2810,31 +2813,31 @@
         <v>6435.0</v>
       </c>
       <c r="D66" t="n">
-        <v>15503.0</v>
+        <v>12759.0</v>
       </c>
       <c r="E66" t="n">
-        <v>2409.1686091686092</v>
+        <v>1982.7505827505827</v>
       </c>
       <c r="F66" t="n">
-        <v>359.08333333333337</v>
+        <v>365.38304093567245</v>
       </c>
       <c r="G66" t="n">
-        <v>285.0</v>
+        <v>290.0</v>
       </c>
       <c r="H66" t="n">
-        <v>146.66784037558688</v>
+        <v>121.79434697855748</v>
       </c>
       <c r="I66" t="n">
-        <v>116.40845070422536</v>
+        <v>96.66666666666667</v>
       </c>
       <c r="J66" t="n">
-        <v>43.43625</v>
+        <v>0.0</v>
       </c>
       <c r="K66" t="n">
-        <v>6.75</v>
+        <v>0.0</v>
       </c>
       <c r="L66" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="M66" t="n">
         <v>2017.0</v>
@@ -2851,31 +2854,31 @@
         <v>6435.0</v>
       </c>
       <c r="D67" t="n">
-        <v>17264.0</v>
+        <v>15503.0</v>
       </c>
       <c r="E67" t="n">
-        <v>2682.8282828282827</v>
+        <v>2409.1686091686092</v>
       </c>
       <c r="F67" t="n">
-        <v>355.30350877192984</v>
+        <v>359.08333333333337</v>
       </c>
       <c r="G67" t="n">
-        <v>282.0</v>
+        <v>285.0</v>
       </c>
       <c r="H67" t="n">
-        <v>146.3014447884417</v>
+        <v>146.66784037558688</v>
       </c>
       <c r="I67" t="n">
-        <v>116.11764705882354</v>
+        <v>116.40845070422536</v>
       </c>
       <c r="J67" t="n">
-        <v>123.87375</v>
+        <v>43.43625</v>
       </c>
       <c r="K67" t="n">
-        <v>19.25</v>
+        <v>6.75</v>
       </c>
       <c r="L67" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="M67" t="n">
         <v>2017.0</v>
@@ -2892,31 +2895,31 @@
         <v>6435.0</v>
       </c>
       <c r="D68" t="n">
-        <v>20264.0</v>
+        <v>17264.0</v>
       </c>
       <c r="E68" t="n">
-        <v>3149.028749028749</v>
+        <v>2682.8282828282827</v>
       </c>
       <c r="F68" t="n">
-        <v>352.7836257309942</v>
+        <v>355.30350877192984</v>
       </c>
       <c r="G68" t="n">
-        <v>280.0</v>
+        <v>282.0</v>
       </c>
       <c r="H68" t="n">
-        <v>151.19298245614036</v>
+        <v>146.3014447884417</v>
       </c>
       <c r="I68" t="n">
-        <v>120.0</v>
+        <v>116.11764705882354</v>
       </c>
       <c r="J68" t="n">
-        <v>168.91875</v>
+        <v>123.87375</v>
       </c>
       <c r="K68" t="n">
-        <v>26.25</v>
+        <v>19.25</v>
       </c>
       <c r="L68" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="M68" t="n">
         <v>2017.0</v>
@@ -2933,31 +2936,31 @@
         <v>6435.0</v>
       </c>
       <c r="D69" t="n">
-        <v>23421.0</v>
+        <v>20264.0</v>
       </c>
       <c r="E69" t="n">
-        <v>3639.6270396270397</v>
+        <v>3149.028749028749</v>
       </c>
       <c r="F69" t="n">
-        <v>351.52368421052626</v>
+        <v>352.7836257309942</v>
       </c>
       <c r="G69" t="n">
-        <v>279.0</v>
+        <v>280.0</v>
       </c>
       <c r="H69" t="n">
-        <v>157.93093058733788</v>
+        <v>151.19298245614036</v>
       </c>
       <c r="I69" t="n">
-        <v>125.34782608695652</v>
+        <v>120.0</v>
       </c>
       <c r="J69" t="n">
-        <v>305.6625</v>
+        <v>168.91875</v>
       </c>
       <c r="K69" t="n">
-        <v>47.5</v>
+        <v>26.25</v>
       </c>
       <c r="L69" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="M69" t="n">
         <v>2017.0</v>
@@ -2974,31 +2977,31 @@
         <v>6435.0</v>
       </c>
       <c r="D70" t="n">
-        <v>24856.0</v>
+        <v>23421.0</v>
       </c>
       <c r="E70" t="n">
-        <v>3862.626262626263</v>
+        <v>3639.6270396270397</v>
       </c>
       <c r="F70" t="n">
-        <v>349.0038011695906</v>
+        <v>351.52368421052626</v>
       </c>
       <c r="G70" t="n">
-        <v>277.0</v>
+        <v>279.0</v>
       </c>
       <c r="H70" t="n">
-        <v>164.23708290333676</v>
+        <v>157.93093058733788</v>
       </c>
       <c r="I70" t="n">
-        <v>130.35294117647058</v>
+        <v>125.34782608695652</v>
       </c>
       <c r="J70" t="n">
-        <v>292.7925</v>
+        <v>305.6625</v>
       </c>
       <c r="K70" t="n">
-        <v>45.5</v>
+        <v>47.5</v>
       </c>
       <c r="L70" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="M70" t="n">
         <v>2017.0</v>
@@ -3015,34 +3018,34 @@
         <v>6435.0</v>
       </c>
       <c r="D71" t="n">
-        <v>22231.0</v>
+        <v>24856.0</v>
       </c>
       <c r="E71" t="n">
-        <v>3454.7008547008545</v>
+        <v>3862.626262626263</v>
       </c>
       <c r="F71" t="n">
-        <v>347.74385964912284</v>
+        <v>349.0038011695906</v>
       </c>
       <c r="G71" t="n">
-        <v>276.0</v>
+        <v>277.0</v>
       </c>
       <c r="H71" t="n">
-        <v>156.23274853801172</v>
+        <v>164.23708290333676</v>
       </c>
       <c r="I71" t="n">
-        <v>124.0</v>
+        <v>130.35294117647058</v>
       </c>
       <c r="J71" t="n">
-        <v>281.53125</v>
+        <v>292.7925</v>
       </c>
       <c r="K71" t="n">
-        <v>43.75</v>
+        <v>45.5</v>
       </c>
       <c r="L71" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="M71" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="72">
@@ -3056,31 +3059,31 @@
         <v>6435.0</v>
       </c>
       <c r="D72" t="n">
-        <v>19002.0</v>
+        <v>22231.0</v>
       </c>
       <c r="E72" t="n">
-        <v>2952.913752913753</v>
+        <v>3454.7008547008545</v>
       </c>
       <c r="F72" t="n">
-        <v>341.44415204678364</v>
+        <v>347.74385964912284</v>
       </c>
       <c r="G72" t="n">
-        <v>271.0</v>
+        <v>276.0</v>
       </c>
       <c r="H72" t="n">
-        <v>146.33320802005014</v>
+        <v>156.23274853801172</v>
       </c>
       <c r="I72" t="n">
-        <v>116.14285714285714</v>
+        <v>124.0</v>
       </c>
       <c r="J72" t="n">
-        <v>225.22500000000002</v>
+        <v>281.53125</v>
       </c>
       <c r="K72" t="n">
-        <v>35.0</v>
+        <v>43.75</v>
       </c>
       <c r="L72" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="M72" t="n">
         <v>2016.0</v>
@@ -3097,31 +3100,31 @@
         <v>6435.0</v>
       </c>
       <c r="D73" t="n">
-        <v>15682.0</v>
+        <v>19002.0</v>
       </c>
       <c r="E73" t="n">
-        <v>2436.985236985237</v>
+        <v>2952.913752913753</v>
       </c>
       <c r="F73" t="n">
-        <v>342.70409356725145</v>
+        <v>341.44415204678364</v>
       </c>
       <c r="G73" t="n">
-        <v>272.0</v>
+        <v>271.0</v>
       </c>
       <c r="H73" t="n">
-        <v>146.87318295739348</v>
+        <v>146.33320802005014</v>
       </c>
       <c r="I73" t="n">
-        <v>116.57142857142857</v>
+        <v>116.14285714285714</v>
       </c>
       <c r="J73" t="n">
-        <v>107.78625000000001</v>
+        <v>225.22500000000002</v>
       </c>
       <c r="K73" t="n">
-        <v>16.75</v>
+        <v>35.0</v>
       </c>
       <c r="L73" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="M73" t="n">
         <v>2016.0</v>
@@ -3138,31 +3141,31 @@
         <v>5890.0</v>
       </c>
       <c r="D74" t="n">
-        <v>11598.0</v>
+        <v>13859.0</v>
       </c>
       <c r="E74" t="n">
-        <v>1969.100169779287</v>
+        <v>2352.9711375212223</v>
       </c>
       <c r="F74" t="n">
-        <v>406.63664421997754</v>
+        <v>393.03675645342315</v>
       </c>
       <c r="G74" t="n">
         <v>289.0</v>
       </c>
       <c r="H74" t="n">
-        <v>158.1364727522135</v>
+        <v>168.4443241943242</v>
       </c>
       <c r="I74" t="n">
-        <v>116.27777777777777</v>
+        <v>123.85714285714286</v>
       </c>
       <c r="J74" t="n">
-        <v>42.67305</v>
+        <v>97.5384</v>
       </c>
       <c r="K74" t="n">
-        <v>7.245</v>
+        <v>16.56</v>
       </c>
       <c r="L74" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="M74" t="n">
         <v>2017.0</v>
@@ -3179,31 +3182,31 @@
         <v>5890.0</v>
       </c>
       <c r="D75" t="n">
-        <v>6921.0</v>
+        <v>11598.0</v>
       </c>
       <c r="E75" t="n">
-        <v>1175.0424448217318</v>
+        <v>1969.100169779287</v>
       </c>
       <c r="F75" t="n">
-        <v>436.55639730639734</v>
+        <v>406.63664421997754</v>
       </c>
       <c r="G75" t="n">
-        <v>321.0</v>
+        <v>289.0</v>
       </c>
       <c r="H75" t="n">
-        <v>116.04663725866259</v>
+        <v>158.1364727522135</v>
       </c>
       <c r="I75" t="n">
-        <v>85.32911392405063</v>
+        <v>116.27777777777777</v>
       </c>
       <c r="J75" t="n">
-        <v>0.0</v>
+        <v>42.67305</v>
       </c>
       <c r="K75" t="n">
-        <v>0.0</v>
+        <v>7.245</v>
       </c>
       <c r="L75" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="M75" t="n">
         <v>2017.0</v>
@@ -3220,22 +3223,22 @@
         <v>5890.0</v>
       </c>
       <c r="D76" t="n">
-        <v>8169.0</v>
+        <v>6921.0</v>
       </c>
       <c r="E76" t="n">
-        <v>1386.9269949066213</v>
+        <v>1175.0424448217318</v>
       </c>
       <c r="F76" t="n">
-        <v>432.47643097643095</v>
+        <v>436.55639730639734</v>
       </c>
       <c r="G76" t="n">
-        <v>318.0</v>
+        <v>321.0</v>
       </c>
       <c r="H76" t="n">
-        <v>131.62326160152244</v>
+        <v>116.04663725866259</v>
       </c>
       <c r="I76" t="n">
-        <v>96.78260869565217</v>
+        <v>85.32911392405063</v>
       </c>
       <c r="J76" t="n">
         <v>0.0</v>
@@ -3244,7 +3247,7 @@
         <v>0.0</v>
       </c>
       <c r="L76" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="M76" t="n">
         <v>2017.0</v>
@@ -3261,22 +3264,22 @@
         <v>5890.0</v>
       </c>
       <c r="D77" t="n">
-        <v>10759.0</v>
+        <v>8169.0</v>
       </c>
       <c r="E77" t="n">
-        <v>1826.6553480475382</v>
+        <v>1386.9269949066213</v>
       </c>
       <c r="F77" t="n">
-        <v>410.7166105499439</v>
+        <v>432.47643097643095</v>
       </c>
       <c r="G77" t="n">
-        <v>302.0</v>
+        <v>318.0</v>
       </c>
       <c r="H77" t="n">
-        <v>136.9055368499813</v>
+        <v>131.62326160152244</v>
       </c>
       <c r="I77" t="n">
-        <v>100.66666666666667</v>
+        <v>96.78260869565217</v>
       </c>
       <c r="J77" t="n">
         <v>0.0</v>
@@ -3285,7 +3288,7 @@
         <v>0.0</v>
       </c>
       <c r="L77" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="M77" t="n">
         <v>2017.0</v>
@@ -3302,31 +3305,31 @@
         <v>5890.0</v>
       </c>
       <c r="D78" t="n">
-        <v>13864.0</v>
+        <v>10759.0</v>
       </c>
       <c r="E78" t="n">
-        <v>2353.8200339558575</v>
+        <v>1826.6553480475382</v>
       </c>
       <c r="F78" t="n">
-        <v>405.27665544332217</v>
+        <v>410.7166105499439</v>
       </c>
       <c r="G78" t="n">
-        <v>298.0</v>
+        <v>302.0</v>
       </c>
       <c r="H78" t="n">
-        <v>165.53553532192032</v>
+        <v>136.9055368499813</v>
       </c>
       <c r="I78" t="n">
-        <v>121.71830985915493</v>
+        <v>100.66666666666667</v>
       </c>
       <c r="J78" t="n">
-        <v>37.25425</v>
+        <v>0.0</v>
       </c>
       <c r="K78" t="n">
-        <v>6.325</v>
+        <v>0.0</v>
       </c>
       <c r="L78" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="M78" t="n">
         <v>2017.0</v>
@@ -3343,31 +3346,31 @@
         <v>5890.0</v>
       </c>
       <c r="D79" t="n">
-        <v>15526.0</v>
+        <v>13864.0</v>
       </c>
       <c r="E79" t="n">
-        <v>2635.9932088285227</v>
+        <v>2353.8200339558575</v>
       </c>
       <c r="F79" t="n">
-        <v>403.91666666666674</v>
+        <v>405.27665544332217</v>
       </c>
       <c r="G79" t="n">
-        <v>297.0</v>
+        <v>298.0</v>
       </c>
       <c r="H79" t="n">
-        <v>166.31862745098042</v>
+        <v>165.53553532192032</v>
       </c>
       <c r="I79" t="n">
-        <v>122.29411764705883</v>
+        <v>121.71830985915493</v>
       </c>
       <c r="J79" t="n">
-        <v>97.5384</v>
+        <v>37.25425</v>
       </c>
       <c r="K79" t="n">
-        <v>16.56</v>
+        <v>6.325</v>
       </c>
       <c r="L79" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="M79" t="n">
         <v>2017.0</v>
@@ -3384,31 +3387,31 @@
         <v>5890.0</v>
       </c>
       <c r="D80" t="n">
-        <v>18529.0</v>
+        <v>15526.0</v>
       </c>
       <c r="E80" t="n">
-        <v>3145.8404074702885</v>
+        <v>2635.9932088285227</v>
       </c>
       <c r="F80" t="n">
-        <v>395.75673400673395</v>
+        <v>403.91666666666674</v>
       </c>
       <c r="G80" t="n">
-        <v>291.0</v>
+        <v>297.0</v>
       </c>
       <c r="H80" t="n">
-        <v>169.61002886002882</v>
+        <v>166.31862745098042</v>
       </c>
       <c r="I80" t="n">
-        <v>124.71428571428571</v>
+        <v>122.29411764705883</v>
       </c>
       <c r="J80" t="n">
-        <v>155.7905</v>
+        <v>97.5384</v>
       </c>
       <c r="K80" t="n">
-        <v>26.450000000000003</v>
+        <v>16.56</v>
       </c>
       <c r="L80" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="M80" t="n">
         <v>2017.0</v>
@@ -3425,31 +3428,31 @@
         <v>5890.0</v>
       </c>
       <c r="D81" t="n">
-        <v>21789.0</v>
+        <v>18529.0</v>
       </c>
       <c r="E81" t="n">
-        <v>3699.320882852292</v>
+        <v>3145.8404074702885</v>
       </c>
       <c r="F81" t="n">
-        <v>391.6767676767677</v>
+        <v>395.75673400673395</v>
       </c>
       <c r="G81" t="n">
-        <v>288.0</v>
+        <v>291.0</v>
       </c>
       <c r="H81" t="n">
-        <v>175.97072170985214</v>
+        <v>169.61002886002882</v>
       </c>
       <c r="I81" t="n">
-        <v>129.3913043478261</v>
+        <v>124.71428571428571</v>
       </c>
       <c r="J81" t="n">
-        <v>250.61950000000002</v>
+        <v>155.7905</v>
       </c>
       <c r="K81" t="n">
-        <v>42.55</v>
+        <v>26.450000000000003</v>
       </c>
       <c r="L81" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="M81" t="n">
         <v>2017.0</v>
@@ -3466,10 +3469,10 @@
         <v>5890.0</v>
       </c>
       <c r="D82" t="n">
-        <v>23589.0</v>
+        <v>21789.0</v>
       </c>
       <c r="E82" t="n">
-        <v>4004.9235993208827</v>
+        <v>3699.320882852292</v>
       </c>
       <c r="F82" t="n">
         <v>391.6767676767677</v>
@@ -3478,19 +3481,19 @@
         <v>288.0</v>
       </c>
       <c r="H82" t="n">
-        <v>184.31847890671423</v>
+        <v>175.97072170985214</v>
       </c>
       <c r="I82" t="n">
-        <v>135.52941176470588</v>
+        <v>129.3913043478261</v>
       </c>
       <c r="J82" t="n">
-        <v>246.5554</v>
+        <v>250.61950000000002</v>
       </c>
       <c r="K82" t="n">
-        <v>41.86</v>
+        <v>42.55</v>
       </c>
       <c r="L82" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="M82" t="n">
         <v>2017.0</v>
@@ -3507,34 +3510,34 @@
         <v>5890.0</v>
       </c>
       <c r="D83" t="n">
-        <v>21498.0</v>
+        <v>23589.0</v>
       </c>
       <c r="E83" t="n">
-        <v>3649.9151103565364</v>
+        <v>4004.9235993208827</v>
       </c>
       <c r="F83" t="n">
-        <v>388.9567901234568</v>
+        <v>391.6767676767677</v>
       </c>
       <c r="G83" t="n">
-        <v>286.0</v>
+        <v>288.0</v>
       </c>
       <c r="H83" t="n">
-        <v>174.74870280908928</v>
+        <v>184.31847890671423</v>
       </c>
       <c r="I83" t="n">
-        <v>128.4927536231884</v>
+        <v>135.52941176470588</v>
       </c>
       <c r="J83" t="n">
-        <v>237.0725</v>
+        <v>246.5554</v>
       </c>
       <c r="K83" t="n">
-        <v>40.25</v>
+        <v>41.86</v>
       </c>
       <c r="L83" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="M83" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="84">
@@ -3548,31 +3551,31 @@
         <v>5890.0</v>
       </c>
       <c r="D84" t="n">
-        <v>17059.0</v>
+        <v>21498.0</v>
       </c>
       <c r="E84" t="n">
-        <v>2896.264855687606</v>
+        <v>3649.9151103565364</v>
       </c>
       <c r="F84" t="n">
-        <v>390.31677890011224</v>
+        <v>388.9567901234568</v>
       </c>
       <c r="G84" t="n">
-        <v>287.0</v>
+        <v>286.0</v>
       </c>
       <c r="H84" t="n">
-        <v>167.27861952861952</v>
+        <v>174.74870280908928</v>
       </c>
       <c r="I84" t="n">
-        <v>123.0</v>
+        <v>128.4927536231884</v>
       </c>
       <c r="J84" t="n">
-        <v>189.65800000000002</v>
+        <v>237.0725</v>
       </c>
       <c r="K84" t="n">
-        <v>32.2</v>
+        <v>40.25</v>
       </c>
       <c r="L84" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="M84" t="n">
         <v>2016.0</v>
@@ -3589,31 +3592,31 @@
         <v>5890.0</v>
       </c>
       <c r="D85" t="n">
-        <v>13859.0</v>
+        <v>17059.0</v>
       </c>
       <c r="E85" t="n">
-        <v>2352.9711375212223</v>
+        <v>2896.264855687606</v>
       </c>
       <c r="F85" t="n">
-        <v>393.03675645342315</v>
+        <v>390.31677890011224</v>
       </c>
       <c r="G85" t="n">
-        <v>289.0</v>
+        <v>287.0</v>
       </c>
       <c r="H85" t="n">
-        <v>168.4443241943242</v>
+        <v>167.27861952861952</v>
       </c>
       <c r="I85" t="n">
-        <v>123.85714285714286</v>
+        <v>123.0</v>
       </c>
       <c r="J85" t="n">
-        <v>97.5384</v>
+        <v>189.65800000000002</v>
       </c>
       <c r="K85" t="n">
-        <v>16.56</v>
+        <v>32.2</v>
       </c>
       <c r="L85" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="M85" t="n">
         <v>2016.0</v>
@@ -3630,31 +3633,31 @@
         <v>4980.0</v>
       </c>
       <c r="D86" t="n">
-        <v>11194.0</v>
+        <v>12098.0</v>
       </c>
       <c r="E86" t="n">
-        <v>2247.7911646586344</v>
+        <v>2429.3172690763054</v>
       </c>
       <c r="F86" t="n">
-        <v>342.66721672167216</v>
+        <v>333.46809680968096</v>
       </c>
       <c r="G86" t="n">
         <v>290.0</v>
       </c>
       <c r="H86" t="n">
-        <v>133.25947316953918</v>
+        <v>142.91489863272042</v>
       </c>
       <c r="I86" t="n">
-        <v>115.88888888888889</v>
+        <v>124.28571428571429</v>
       </c>
       <c r="J86" t="n">
-        <v>69.72</v>
+        <v>132.468</v>
       </c>
       <c r="K86" t="n">
-        <v>14.0</v>
+        <v>26.599999999999998</v>
       </c>
       <c r="L86" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="M86" t="n">
         <v>2017.0</v>
@@ -3671,31 +3674,31 @@
         <v>4980.0</v>
       </c>
       <c r="D87" t="n">
-        <v>4028.0</v>
+        <v>11194.0</v>
       </c>
       <c r="E87" t="n">
-        <v>808.8353413654619</v>
+        <v>2247.7911646586344</v>
       </c>
       <c r="F87" t="n">
-        <v>378.313806380638</v>
+        <v>342.66721672167216</v>
       </c>
       <c r="G87" t="n">
-        <v>329.0</v>
+        <v>290.0</v>
       </c>
       <c r="H87" t="n">
-        <v>100.56442954422023</v>
+        <v>133.25947316953918</v>
       </c>
       <c r="I87" t="n">
-        <v>87.45569620253164</v>
+        <v>115.88888888888889</v>
       </c>
       <c r="J87" t="n">
-        <v>0.0</v>
+        <v>69.72</v>
       </c>
       <c r="K87" t="n">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="L87" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="M87" t="n">
         <v>2017.0</v>
@@ -3712,22 +3715,22 @@
         <v>4980.0</v>
       </c>
       <c r="D88" t="n">
-        <v>5597.0</v>
+        <v>4028.0</v>
       </c>
       <c r="E88" t="n">
-        <v>1123.8955823293172</v>
+        <v>808.8353413654619</v>
       </c>
       <c r="F88" t="n">
-        <v>382.9133663366337</v>
+        <v>378.313806380638</v>
       </c>
       <c r="G88" t="n">
-        <v>333.0</v>
+        <v>329.0</v>
       </c>
       <c r="H88" t="n">
-        <v>116.53885062419288</v>
+        <v>100.56442954422023</v>
       </c>
       <c r="I88" t="n">
-        <v>101.34782608695652</v>
+        <v>87.45569620253164</v>
       </c>
       <c r="J88" t="n">
         <v>0.0</v>
@@ -3736,7 +3739,7 @@
         <v>0.0</v>
       </c>
       <c r="L88" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="M88" t="n">
         <v>2017.0</v>
@@ -3753,22 +3756,22 @@
         <v>4980.0</v>
       </c>
       <c r="D89" t="n">
-        <v>8279.0</v>
+        <v>5597.0</v>
       </c>
       <c r="E89" t="n">
-        <v>1662.4497991967871</v>
+        <v>1123.8955823293172</v>
       </c>
       <c r="F89" t="n">
-        <v>366.8149064906491</v>
+        <v>382.9133663366337</v>
       </c>
       <c r="G89" t="n">
-        <v>319.0</v>
+        <v>333.0</v>
       </c>
       <c r="H89" t="n">
-        <v>122.27163549688302</v>
+        <v>116.53885062419288</v>
       </c>
       <c r="I89" t="n">
-        <v>106.33333333333333</v>
+        <v>101.34782608695652</v>
       </c>
       <c r="J89" t="n">
         <v>0.0</v>
@@ -3777,7 +3780,7 @@
         <v>0.0</v>
       </c>
       <c r="L89" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="M89" t="n">
         <v>2017.0</v>
@@ -3794,31 +3797,31 @@
         <v>4980.0</v>
       </c>
       <c r="D90" t="n">
-        <v>11299.0</v>
+        <v>8279.0</v>
       </c>
       <c r="E90" t="n">
-        <v>2268.875502008032</v>
+        <v>1662.4497991967871</v>
       </c>
       <c r="F90" t="n">
-        <v>358.7656765676568</v>
+        <v>366.8149064906491</v>
       </c>
       <c r="G90" t="n">
-        <v>312.0</v>
+        <v>319.0</v>
       </c>
       <c r="H90" t="n">
-        <v>146.53809324594434</v>
+        <v>122.27163549688302</v>
       </c>
       <c r="I90" t="n">
-        <v>127.43661971830986</v>
+        <v>106.33333333333333</v>
       </c>
       <c r="J90" t="n">
-        <v>47.061</v>
+        <v>0.0</v>
       </c>
       <c r="K90" t="n">
-        <v>9.45</v>
+        <v>0.0</v>
       </c>
       <c r="L90" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="M90" t="n">
         <v>2017.0</v>
@@ -3835,31 +3838,31 @@
         <v>4980.0</v>
       </c>
       <c r="D91" t="n">
-        <v>14038.0</v>
+        <v>11299.0</v>
       </c>
       <c r="E91" t="n">
-        <v>2818.875502008032</v>
+        <v>2268.875502008032</v>
       </c>
       <c r="F91" t="n">
-        <v>344.96699669967</v>
+        <v>358.7656765676568</v>
       </c>
       <c r="G91" t="n">
-        <v>300.0</v>
+        <v>312.0</v>
       </c>
       <c r="H91" t="n">
-        <v>142.04523393515825</v>
+        <v>146.53809324594434</v>
       </c>
       <c r="I91" t="n">
-        <v>123.52941176470588</v>
+        <v>127.43661971830986</v>
       </c>
       <c r="J91" t="n">
-        <v>104.58</v>
+        <v>47.061</v>
       </c>
       <c r="K91" t="n">
-        <v>21.0</v>
+        <v>9.45</v>
       </c>
       <c r="L91" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="M91" t="n">
         <v>2017.0</v>
@@ -3876,31 +3879,31 @@
         <v>4980.0</v>
       </c>
       <c r="D92" t="n">
-        <v>16199.0</v>
+        <v>14038.0</v>
       </c>
       <c r="E92" t="n">
-        <v>3252.8112449799196</v>
+        <v>2818.875502008032</v>
       </c>
       <c r="F92" t="n">
-        <v>338.06765676567653</v>
+        <v>344.96699669967</v>
       </c>
       <c r="G92" t="n">
-        <v>294.0</v>
+        <v>300.0</v>
       </c>
       <c r="H92" t="n">
-        <v>144.88613861386136</v>
+        <v>142.04523393515825</v>
       </c>
       <c r="I92" t="n">
-        <v>126.0</v>
+        <v>123.52941176470588</v>
       </c>
       <c r="J92" t="n">
-        <v>174.3</v>
+        <v>104.58</v>
       </c>
       <c r="K92" t="n">
-        <v>35.0</v>
+        <v>21.0</v>
       </c>
       <c r="L92" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="M92" t="n">
         <v>2017.0</v>
@@ -3917,31 +3920,31 @@
         <v>4980.0</v>
       </c>
       <c r="D93" t="n">
-        <v>19789.0</v>
+        <v>16199.0</v>
       </c>
       <c r="E93" t="n">
-        <v>3973.6947791164657</v>
+        <v>3252.8112449799196</v>
       </c>
       <c r="F93" t="n">
-        <v>334.61798679867985</v>
+        <v>338.06765676567653</v>
       </c>
       <c r="G93" t="n">
-        <v>291.0</v>
+        <v>294.0</v>
       </c>
       <c r="H93" t="n">
-        <v>150.33561725737792</v>
+        <v>144.88613861386136</v>
       </c>
       <c r="I93" t="n">
-        <v>130.7391304347826</v>
+        <v>126.0</v>
       </c>
       <c r="J93" t="n">
-        <v>313.74</v>
+        <v>174.3</v>
       </c>
       <c r="K93" t="n">
-        <v>63.0</v>
+        <v>35.0</v>
       </c>
       <c r="L93" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="M93" t="n">
         <v>2017.0</v>
@@ -3958,31 +3961,31 @@
         <v>4980.0</v>
       </c>
       <c r="D94" t="n">
-        <v>21498.0</v>
+        <v>19789.0</v>
       </c>
       <c r="E94" t="n">
-        <v>4316.8674698795185</v>
+        <v>3973.6947791164657</v>
       </c>
       <c r="F94" t="n">
-        <v>332.318206820682</v>
+        <v>334.61798679867985</v>
       </c>
       <c r="G94" t="n">
-        <v>289.0</v>
+        <v>291.0</v>
       </c>
       <c r="H94" t="n">
-        <v>156.38503850385035</v>
+        <v>150.33561725737792</v>
       </c>
       <c r="I94" t="n">
-        <v>136.0</v>
+        <v>130.7391304347826</v>
       </c>
       <c r="J94" t="n">
-        <v>329.427</v>
+        <v>313.74</v>
       </c>
       <c r="K94" t="n">
-        <v>66.15</v>
+        <v>63.0</v>
       </c>
       <c r="L94" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="M94" t="n">
         <v>2017.0</v>
@@ -3999,34 +4002,34 @@
         <v>4980.0</v>
       </c>
       <c r="D95" t="n">
-        <v>18898.0</v>
+        <v>21498.0</v>
       </c>
       <c r="E95" t="n">
-        <v>3794.7791164658634</v>
+        <v>4316.8674698795185</v>
       </c>
       <c r="F95" t="n">
-        <v>333.46809680968096</v>
+        <v>332.318206820682</v>
       </c>
       <c r="G95" t="n">
-        <v>290.0</v>
+        <v>289.0</v>
       </c>
       <c r="H95" t="n">
-        <v>149.8190000159436</v>
+        <v>156.38503850385035</v>
       </c>
       <c r="I95" t="n">
-        <v>130.28985507246378</v>
+        <v>136.0</v>
       </c>
       <c r="J95" t="n">
-        <v>311.997</v>
+        <v>329.427</v>
       </c>
       <c r="K95" t="n">
-        <v>62.65</v>
+        <v>66.15</v>
       </c>
       <c r="L95" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="M95" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="96">
@@ -4040,31 +4043,31 @@
         <v>4980.0</v>
       </c>
       <c r="D96" t="n">
-        <v>15074.0</v>
+        <v>18898.0</v>
       </c>
       <c r="E96" t="n">
-        <v>3026.9076305220883</v>
+        <v>3794.7791164658634</v>
       </c>
       <c r="F96" t="n">
-        <v>334.61798679867985</v>
+        <v>333.46809680968096</v>
       </c>
       <c r="G96" t="n">
-        <v>291.0</v>
+        <v>290.0</v>
       </c>
       <c r="H96" t="n">
-        <v>143.40770862800565</v>
+        <v>149.8190000159436</v>
       </c>
       <c r="I96" t="n">
-        <v>124.71428571428571</v>
+        <v>130.28985507246378</v>
       </c>
       <c r="J96" t="n">
-        <v>259.707</v>
+        <v>311.997</v>
       </c>
       <c r="K96" t="n">
-        <v>52.15</v>
+        <v>62.65</v>
       </c>
       <c r="L96" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="M96" t="n">
         <v>2016.0</v>
@@ -4081,31 +4084,31 @@
         <v>4980.0</v>
       </c>
       <c r="D97" t="n">
-        <v>12098.0</v>
+        <v>15074.0</v>
       </c>
       <c r="E97" t="n">
-        <v>2429.3172690763054</v>
+        <v>3026.9076305220883</v>
       </c>
       <c r="F97" t="n">
-        <v>333.46809680968096</v>
+        <v>334.61798679867985</v>
       </c>
       <c r="G97" t="n">
-        <v>290.0</v>
+        <v>291.0</v>
       </c>
       <c r="H97" t="n">
-        <v>142.91489863272042</v>
+        <v>143.40770862800565</v>
       </c>
       <c r="I97" t="n">
-        <v>124.28571428571429</v>
+        <v>124.71428571428571</v>
       </c>
       <c r="J97" t="n">
-        <v>132.468</v>
+        <v>259.707</v>
       </c>
       <c r="K97" t="n">
-        <v>26.599999999999998</v>
+        <v>52.15</v>
       </c>
       <c r="L97" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="M97" t="n">
         <v>2016.0</v>
@@ -4122,31 +4125,31 @@
         <v>7020.0</v>
       </c>
       <c r="D98" t="n">
-        <v>15520.0</v>
+        <v>18128.0</v>
       </c>
       <c r="E98" t="n">
-        <v>2210.8262108262106</v>
+        <v>2582.3361823361824</v>
       </c>
       <c r="F98" t="n">
-        <v>712.52</v>
+        <v>674.92</v>
       </c>
       <c r="G98" t="n">
         <v>359.0</v>
       </c>
       <c r="H98" t="n">
-        <v>277.0911111111111</v>
+        <v>289.25142857142856</v>
       </c>
       <c r="I98" t="n">
-        <v>147.38888888888889</v>
+        <v>153.85714285714286</v>
       </c>
       <c r="J98" t="n">
-        <v>69.2172</v>
+        <v>154.7208</v>
       </c>
       <c r="K98" t="n">
-        <v>9.860000000000001</v>
+        <v>22.04</v>
       </c>
       <c r="L98" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="M98" t="n">
         <v>2017.0</v>
@@ -4163,31 +4166,31 @@
         <v>7020.0</v>
       </c>
       <c r="D99" t="n">
-        <v>6123.0</v>
+        <v>15520.0</v>
       </c>
       <c r="E99" t="n">
-        <v>872.2222222222222</v>
+        <v>2210.8262108262106</v>
       </c>
       <c r="F99" t="n">
-        <v>746.36</v>
+        <v>712.52</v>
       </c>
       <c r="G99" t="n">
-        <v>397.0</v>
+        <v>359.0</v>
       </c>
       <c r="H99" t="n">
-        <v>198.39949367088607</v>
+        <v>277.0911111111111</v>
       </c>
       <c r="I99" t="n">
-        <v>105.53164556962025</v>
+        <v>147.38888888888889</v>
       </c>
       <c r="J99" t="n">
-        <v>0.0</v>
+        <v>69.2172</v>
       </c>
       <c r="K99" t="n">
-        <v>0.0</v>
+        <v>9.860000000000001</v>
       </c>
       <c r="L99" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="M99" t="n">
         <v>2017.0</v>
@@ -4204,22 +4207,22 @@
         <v>7020.0</v>
       </c>
       <c r="D100" t="n">
-        <v>9216.0</v>
+        <v>6123.0</v>
       </c>
       <c r="E100" t="n">
-        <v>1312.820512820513</v>
+        <v>872.2222222222222</v>
       </c>
       <c r="F100" t="n">
-        <v>753.88</v>
+        <v>746.36</v>
       </c>
       <c r="G100" t="n">
-        <v>401.0</v>
+        <v>397.0</v>
       </c>
       <c r="H100" t="n">
-        <v>229.44173913043477</v>
+        <v>198.39949367088607</v>
       </c>
       <c r="I100" t="n">
-        <v>122.04347826086956</v>
+        <v>105.53164556962025</v>
       </c>
       <c r="J100" t="n">
         <v>0.0</v>
@@ -4228,7 +4231,7 @@
         <v>0.0</v>
       </c>
       <c r="L100" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="M100" t="n">
         <v>2017.0</v>
@@ -4245,22 +4248,22 @@
         <v>7020.0</v>
       </c>
       <c r="D101" t="n">
-        <v>13016.0</v>
+        <v>9216.0</v>
       </c>
       <c r="E101" t="n">
-        <v>1854.131054131054</v>
+        <v>1312.820512820513</v>
       </c>
       <c r="F101" t="n">
-        <v>735.08</v>
+        <v>753.88</v>
       </c>
       <c r="G101" t="n">
-        <v>391.0</v>
+        <v>401.0</v>
       </c>
       <c r="H101" t="n">
-        <v>245.02666666666667</v>
+        <v>229.44173913043477</v>
       </c>
       <c r="I101" t="n">
-        <v>130.33333333333334</v>
+        <v>122.04347826086956</v>
       </c>
       <c r="J101" t="n">
         <v>0.0</v>
@@ -4269,7 +4272,7 @@
         <v>0.0</v>
       </c>
       <c r="L101" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="M101" t="n">
         <v>2017.0</v>
@@ -4286,31 +4289,31 @@
         <v>7020.0</v>
       </c>
       <c r="D102" t="n">
-        <v>15823.0</v>
+        <v>13016.0</v>
       </c>
       <c r="E102" t="n">
-        <v>2253.988603988604</v>
+        <v>1854.131054131054</v>
       </c>
       <c r="F102" t="n">
-        <v>723.8</v>
+        <v>735.08</v>
       </c>
       <c r="G102" t="n">
-        <v>385.0</v>
+        <v>391.0</v>
       </c>
       <c r="H102" t="n">
-        <v>295.6366197183098</v>
+        <v>245.02666666666667</v>
       </c>
       <c r="I102" t="n">
-        <v>157.25352112676057</v>
+        <v>130.33333333333334</v>
       </c>
       <c r="J102" t="n">
-        <v>61.074</v>
+        <v>0.0</v>
       </c>
       <c r="K102" t="n">
-        <v>8.7</v>
+        <v>0.0</v>
       </c>
       <c r="L102" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="M102" t="n">
         <v>2017.0</v>
@@ -4327,31 +4330,31 @@
         <v>7020.0</v>
       </c>
       <c r="D103" t="n">
-        <v>19024.0</v>
+        <v>15823.0</v>
       </c>
       <c r="E103" t="n">
-        <v>2709.97150997151</v>
+        <v>2253.988603988604</v>
       </c>
       <c r="F103" t="n">
-        <v>714.4</v>
+        <v>723.8</v>
       </c>
       <c r="G103" t="n">
-        <v>380.0</v>
+        <v>385.0</v>
       </c>
       <c r="H103" t="n">
-        <v>294.16470588235296</v>
+        <v>295.6366197183098</v>
       </c>
       <c r="I103" t="n">
-        <v>156.47058823529412</v>
+        <v>157.25352112676057</v>
       </c>
       <c r="J103" t="n">
-        <v>132.327</v>
+        <v>61.074</v>
       </c>
       <c r="K103" t="n">
-        <v>18.85</v>
+        <v>8.7</v>
       </c>
       <c r="L103" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="M103" t="n">
         <v>2017.0</v>
@@ -4368,31 +4371,31 @@
         <v>7020.0</v>
       </c>
       <c r="D104" t="n">
-        <v>21526.0</v>
+        <v>19024.0</v>
       </c>
       <c r="E104" t="n">
-        <v>3066.3817663817663</v>
+        <v>2709.97150997151</v>
       </c>
       <c r="F104" t="n">
-        <v>682.44</v>
+        <v>714.4</v>
       </c>
       <c r="G104" t="n">
-        <v>363.0</v>
+        <v>380.0</v>
       </c>
       <c r="H104" t="n">
-        <v>292.4742857142857</v>
+        <v>294.16470588235296</v>
       </c>
       <c r="I104" t="n">
-        <v>155.57142857142858</v>
+        <v>156.47058823529412</v>
       </c>
       <c r="J104" t="n">
-        <v>234.11700000000002</v>
+        <v>132.327</v>
       </c>
       <c r="K104" t="n">
-        <v>33.35</v>
+        <v>18.85</v>
       </c>
       <c r="L104" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="M104" t="n">
         <v>2017.0</v>
@@ -4409,31 +4412,31 @@
         <v>7020.0</v>
       </c>
       <c r="D105" t="n">
-        <v>25126.0</v>
+        <v>21526.0</v>
       </c>
       <c r="E105" t="n">
-        <v>3579.202279202279</v>
+        <v>3066.3817663817663</v>
       </c>
       <c r="F105" t="n">
-        <v>676.8</v>
+        <v>682.44</v>
       </c>
       <c r="G105" t="n">
-        <v>360.0</v>
+        <v>363.0</v>
       </c>
       <c r="H105" t="n">
-        <v>304.0695652173913</v>
+        <v>292.4742857142857</v>
       </c>
       <c r="I105" t="n">
-        <v>161.7391304347826</v>
+        <v>155.57142857142858</v>
       </c>
       <c r="J105" t="n">
-        <v>407.16</v>
+        <v>234.11700000000002</v>
       </c>
       <c r="K105" t="n">
-        <v>58.0</v>
+        <v>33.35</v>
       </c>
       <c r="L105" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="M105" t="n">
         <v>2017.0</v>
@@ -4450,31 +4453,31 @@
         <v>7020.0</v>
       </c>
       <c r="D106" t="n">
-        <v>25925.0</v>
+        <v>25126.0</v>
       </c>
       <c r="E106" t="n">
-        <v>3693.019943019943</v>
+        <v>3579.202279202279</v>
       </c>
       <c r="F106" t="n">
-        <v>682.44</v>
+        <v>676.8</v>
       </c>
       <c r="G106" t="n">
-        <v>363.0</v>
+        <v>360.0</v>
       </c>
       <c r="H106" t="n">
-        <v>321.1482352941177</v>
+        <v>304.0695652173913</v>
       </c>
       <c r="I106" t="n">
-        <v>170.8235294117647</v>
+        <v>161.7391304347826</v>
       </c>
       <c r="J106" t="n">
-        <v>356.265</v>
+        <v>407.16</v>
       </c>
       <c r="K106" t="n">
-        <v>50.75</v>
+        <v>58.0</v>
       </c>
       <c r="L106" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="M106" t="n">
         <v>2017.0</v>
@@ -4491,34 +4494,34 @@
         <v>7020.0</v>
       </c>
       <c r="D107" t="n">
-        <v>23210.0</v>
+        <v>25925.0</v>
       </c>
       <c r="E107" t="n">
-        <v>3306.2678062678065</v>
+        <v>3693.019943019943</v>
       </c>
       <c r="F107" t="n">
-        <v>678.68</v>
+        <v>682.44</v>
       </c>
       <c r="G107" t="n">
-        <v>361.0</v>
+        <v>363.0</v>
       </c>
       <c r="H107" t="n">
-        <v>304.9142028985507</v>
+        <v>321.1482352941177</v>
       </c>
       <c r="I107" t="n">
-        <v>162.18840579710144</v>
+        <v>170.8235294117647</v>
       </c>
       <c r="J107" t="n">
-        <v>335.907</v>
+        <v>356.265</v>
       </c>
       <c r="K107" t="n">
-        <v>47.85</v>
+        <v>50.75</v>
       </c>
       <c r="L107" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="M107" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="108">
@@ -4532,10 +4535,10 @@
         <v>7020.0</v>
       </c>
       <c r="D108" t="n">
-        <v>20629.0</v>
+        <v>23210.0</v>
       </c>
       <c r="E108" t="n">
-        <v>2938.6039886039885</v>
+        <v>3306.2678062678065</v>
       </c>
       <c r="F108" t="n">
         <v>678.68</v>
@@ -4544,19 +4547,19 @@
         <v>361.0</v>
       </c>
       <c r="H108" t="n">
-        <v>290.86285714285714</v>
+        <v>304.9142028985507</v>
       </c>
       <c r="I108" t="n">
-        <v>154.71428571428572</v>
+        <v>162.18840579710144</v>
       </c>
       <c r="J108" t="n">
-        <v>285.012</v>
+        <v>335.907</v>
       </c>
       <c r="K108" t="n">
-        <v>40.6</v>
+        <v>47.85</v>
       </c>
       <c r="L108" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="M108" t="n">
         <v>2016.0</v>
@@ -4573,31 +4576,31 @@
         <v>7020.0</v>
       </c>
       <c r="D109" t="n">
-        <v>18128.0</v>
+        <v>20629.0</v>
       </c>
       <c r="E109" t="n">
-        <v>2582.3361823361824</v>
+        <v>2938.6039886039885</v>
       </c>
       <c r="F109" t="n">
-        <v>674.92</v>
+        <v>678.68</v>
       </c>
       <c r="G109" t="n">
-        <v>359.0</v>
+        <v>361.0</v>
       </c>
       <c r="H109" t="n">
-        <v>289.25142857142856</v>
+        <v>290.86285714285714</v>
       </c>
       <c r="I109" t="n">
-        <v>153.85714285714286</v>
+        <v>154.71428571428572</v>
       </c>
       <c r="J109" t="n">
-        <v>154.7208</v>
+        <v>285.012</v>
       </c>
       <c r="K109" t="n">
-        <v>22.04</v>
+        <v>40.6</v>
       </c>
       <c r="L109" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="M109" t="n">
         <v>2016.0</v>
@@ -4614,31 +4617,31 @@
         <v>5320.0</v>
       </c>
       <c r="D110" t="n">
-        <v>10026.0</v>
+        <v>12396.0</v>
       </c>
       <c r="E110" t="n">
-        <v>1884.5864661654136</v>
+        <v>2330.0751879699246</v>
       </c>
       <c r="F110" t="n">
-        <v>337.6469135802469</v>
+        <v>332.60740740740744</v>
       </c>
       <c r="G110" t="n">
         <v>264.0</v>
       </c>
       <c r="H110" t="n">
-        <v>131.30713305898493</v>
+        <v>142.54603174603176</v>
       </c>
       <c r="I110" t="n">
-        <v>104.22222222222223</v>
+        <v>113.14285714285714</v>
       </c>
       <c r="J110" t="n">
-        <v>55.1152</v>
+        <v>96.82400000000001</v>
       </c>
       <c r="K110" t="n">
-        <v>10.360000000000001</v>
+        <v>18.200000000000003</v>
       </c>
       <c r="L110" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="M110" t="n">
         <v>2017.0</v>
@@ -4655,31 +4658,31 @@
         <v>5320.0</v>
       </c>
       <c r="D111" t="n">
-        <v>5365.0</v>
+        <v>10026.0</v>
       </c>
       <c r="E111" t="n">
-        <v>1008.4586466165414</v>
+        <v>1884.5864661654136</v>
       </c>
       <c r="F111" t="n">
-        <v>364.1043209876544</v>
+        <v>337.6469135802469</v>
       </c>
       <c r="G111" t="n">
-        <v>289.0</v>
+        <v>264.0</v>
       </c>
       <c r="H111" t="n">
-        <v>96.7872245663385</v>
+        <v>131.30713305898493</v>
       </c>
       <c r="I111" t="n">
-        <v>76.82278481012658</v>
+        <v>104.22222222222223</v>
       </c>
       <c r="J111" t="n">
-        <v>0.0</v>
+        <v>55.1152</v>
       </c>
       <c r="K111" t="n">
-        <v>0.0</v>
+        <v>10.360000000000001</v>
       </c>
       <c r="L111" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="M111" t="n">
         <v>2017.0</v>
@@ -4696,22 +4699,22 @@
         <v>5320.0</v>
       </c>
       <c r="D112" t="n">
-        <v>6765.0</v>
+        <v>5365.0</v>
       </c>
       <c r="E112" t="n">
-        <v>1271.6165413533834</v>
+        <v>1008.4586466165414</v>
       </c>
       <c r="F112" t="n">
-        <v>367.8839506172839</v>
+        <v>364.1043209876544</v>
       </c>
       <c r="G112" t="n">
-        <v>292.0</v>
+        <v>289.0</v>
       </c>
       <c r="H112" t="n">
-        <v>111.96468062265163</v>
+        <v>96.7872245663385</v>
       </c>
       <c r="I112" t="n">
-        <v>88.8695652173913</v>
+        <v>76.82278481012658</v>
       </c>
       <c r="J112" t="n">
         <v>0.0</v>
@@ -4720,7 +4723,7 @@
         <v>0.0</v>
       </c>
       <c r="L112" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="M112" t="n">
         <v>2017.0</v>
@@ -4737,22 +4740,22 @@
         <v>5320.0</v>
       </c>
       <c r="D113" t="n">
-        <v>9365.0</v>
+        <v>6765.0</v>
       </c>
       <c r="E113" t="n">
-        <v>1760.3383458646617</v>
+        <v>1271.6165413533834</v>
       </c>
       <c r="F113" t="n">
-        <v>352.76543209876536</v>
+        <v>367.8839506172839</v>
       </c>
       <c r="G113" t="n">
-        <v>280.0</v>
+        <v>292.0</v>
       </c>
       <c r="H113" t="n">
-        <v>117.58847736625512</v>
+        <v>111.96468062265163</v>
       </c>
       <c r="I113" t="n">
-        <v>93.33333333333333</v>
+        <v>88.8695652173913</v>
       </c>
       <c r="J113" t="n">
         <v>0.0</v>
@@ -4761,7 +4764,7 @@
         <v>0.0</v>
       </c>
       <c r="L113" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="M113" t="n">
         <v>2017.0</v>
@@ -4778,31 +4781,31 @@
         <v>5320.0</v>
       </c>
       <c r="D114" t="n">
-        <v>12028.0</v>
+        <v>9365.0</v>
       </c>
       <c r="E114" t="n">
-        <v>2260.902255639098</v>
+        <v>1760.3383458646617</v>
       </c>
       <c r="F114" t="n">
-        <v>347.72592592592594</v>
+        <v>352.76543209876536</v>
       </c>
       <c r="G114" t="n">
-        <v>276.0</v>
+        <v>280.0</v>
       </c>
       <c r="H114" t="n">
-        <v>142.0288993218571</v>
+        <v>117.58847736625512</v>
       </c>
       <c r="I114" t="n">
-        <v>112.73239436619718</v>
+        <v>93.33333333333333</v>
       </c>
       <c r="J114" t="n">
-        <v>41.41088</v>
+        <v>0.0</v>
       </c>
       <c r="K114" t="n">
-        <v>7.784000000000001</v>
+        <v>0.0</v>
       </c>
       <c r="L114" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="M114" t="n">
         <v>2017.0</v>
@@ -4819,31 +4822,31 @@
         <v>5320.0</v>
       </c>
       <c r="D115" t="n">
-        <v>13836.0</v>
+        <v>12028.0</v>
       </c>
       <c r="E115" t="n">
-        <v>2600.751879699248</v>
+        <v>2260.902255639098</v>
       </c>
       <c r="F115" t="n">
-        <v>336.38703703703703</v>
+        <v>347.72592592592594</v>
       </c>
       <c r="G115" t="n">
-        <v>267.0</v>
+        <v>276.0</v>
       </c>
       <c r="H115" t="n">
-        <v>138.51230936819172</v>
+        <v>142.0288993218571</v>
       </c>
       <c r="I115" t="n">
-        <v>109.94117647058823</v>
+        <v>112.73239436619718</v>
       </c>
       <c r="J115" t="n">
-        <v>104.27200000000002</v>
+        <v>41.41088</v>
       </c>
       <c r="K115" t="n">
-        <v>19.600000000000005</v>
+        <v>7.784000000000001</v>
       </c>
       <c r="L115" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="M115" t="n">
         <v>2017.0</v>
@@ -4860,31 +4863,31 @@
         <v>5320.0</v>
       </c>
       <c r="D116" t="n">
-        <v>16821.0</v>
+        <v>13836.0</v>
       </c>
       <c r="E116" t="n">
-        <v>3161.842105263158</v>
+        <v>2600.751879699248</v>
       </c>
       <c r="F116" t="n">
-        <v>332.60740740740744</v>
+        <v>336.38703703703703</v>
       </c>
       <c r="G116" t="n">
-        <v>264.0</v>
+        <v>267.0</v>
       </c>
       <c r="H116" t="n">
-        <v>142.54603174603176</v>
+        <v>138.51230936819172</v>
       </c>
       <c r="I116" t="n">
-        <v>113.14285714285714</v>
+        <v>109.94117647058823</v>
       </c>
       <c r="J116" t="n">
-        <v>171.30400000000003</v>
+        <v>104.27200000000002</v>
       </c>
       <c r="K116" t="n">
-        <v>32.20000000000001</v>
+        <v>19.600000000000005</v>
       </c>
       <c r="L116" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="M116" t="n">
         <v>2017.0</v>
@@ -4901,31 +4904,31 @@
         <v>5320.0</v>
       </c>
       <c r="D117" t="n">
-        <v>20485.0</v>
+        <v>16821.0</v>
       </c>
       <c r="E117" t="n">
-        <v>3850.563909774436</v>
+        <v>3161.842105263158</v>
       </c>
       <c r="F117" t="n">
-        <v>330.08765432098767</v>
+        <v>332.60740740740744</v>
       </c>
       <c r="G117" t="n">
-        <v>262.0</v>
+        <v>264.0</v>
       </c>
       <c r="H117" t="n">
-        <v>148.30025049203795</v>
+        <v>142.54603174603176</v>
       </c>
       <c r="I117" t="n">
-        <v>117.71014492753623</v>
+        <v>113.14285714285714</v>
       </c>
       <c r="J117" t="n">
-        <v>283.024</v>
+        <v>171.30400000000003</v>
       </c>
       <c r="K117" t="n">
-        <v>53.20000000000001</v>
+        <v>32.20000000000001</v>
       </c>
       <c r="L117" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="M117" t="n">
         <v>2017.0</v>
@@ -4942,31 +4945,31 @@
         <v>5320.0</v>
       </c>
       <c r="D118" t="n">
-        <v>21603.0</v>
+        <v>20485.0</v>
       </c>
       <c r="E118" t="n">
-        <v>4060.714285714286</v>
+        <v>3850.563909774436</v>
       </c>
       <c r="F118" t="n">
-        <v>327.5679012345679</v>
+        <v>330.08765432098767</v>
       </c>
       <c r="G118" t="n">
-        <v>260.0</v>
+        <v>262.0</v>
       </c>
       <c r="H118" t="n">
-        <v>154.14960058097313</v>
+        <v>148.30025049203795</v>
       </c>
       <c r="I118" t="n">
-        <v>122.3529411764706</v>
+        <v>117.71014492753623</v>
       </c>
       <c r="J118" t="n">
-        <v>275.576</v>
+        <v>283.024</v>
       </c>
       <c r="K118" t="n">
-        <v>51.80000000000001</v>
+        <v>53.20000000000001</v>
       </c>
       <c r="L118" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="M118" t="n">
         <v>2017.0</v>
@@ -4983,34 +4986,34 @@
         <v>5320.0</v>
       </c>
       <c r="D119" t="n">
-        <v>19503.0</v>
+        <v>21603.0</v>
       </c>
       <c r="E119" t="n">
-        <v>3665.9774436090224</v>
+        <v>4060.714285714286</v>
       </c>
       <c r="F119" t="n">
-        <v>325.04814814814813</v>
+        <v>327.5679012345679</v>
       </c>
       <c r="G119" t="n">
-        <v>258.0</v>
+        <v>260.0</v>
       </c>
       <c r="H119" t="n">
-        <v>146.03612453032744</v>
+        <v>154.14960058097313</v>
       </c>
       <c r="I119" t="n">
-        <v>115.91304347826087</v>
+        <v>122.3529411764706</v>
       </c>
       <c r="J119" t="n">
-        <v>260.68</v>
+        <v>275.576</v>
       </c>
       <c r="K119" t="n">
-        <v>49.00000000000001</v>
+        <v>51.80000000000001</v>
       </c>
       <c r="L119" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="M119" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="120">
@@ -5024,31 +5027,31 @@
         <v>5320.0</v>
       </c>
       <c r="D120" t="n">
-        <v>15249.0</v>
+        <v>19503.0</v>
       </c>
       <c r="E120" t="n">
-        <v>2866.3533834586465</v>
+        <v>3665.9774436090224</v>
       </c>
       <c r="F120" t="n">
-        <v>327.5679012345679</v>
+        <v>325.04814814814813</v>
       </c>
       <c r="G120" t="n">
-        <v>260.0</v>
+        <v>258.0</v>
       </c>
       <c r="H120" t="n">
-        <v>140.38624338624336</v>
+        <v>146.03612453032744</v>
       </c>
       <c r="I120" t="n">
-        <v>111.42857142857143</v>
+        <v>115.91304347826087</v>
       </c>
       <c r="J120" t="n">
-        <v>201.39392</v>
+        <v>260.68</v>
       </c>
       <c r="K120" t="n">
-        <v>37.856</v>
+        <v>49.00000000000001</v>
       </c>
       <c r="L120" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="M120" t="n">
         <v>2016.0</v>
@@ -5065,31 +5068,31 @@
         <v>5320.0</v>
       </c>
       <c r="D121" t="n">
-        <v>12396.0</v>
+        <v>15249.0</v>
       </c>
       <c r="E121" t="n">
-        <v>2330.0751879699246</v>
+        <v>2866.3533834586465</v>
       </c>
       <c r="F121" t="n">
-        <v>332.60740740740744</v>
+        <v>327.5679012345679</v>
       </c>
       <c r="G121" t="n">
-        <v>264.0</v>
+        <v>260.0</v>
       </c>
       <c r="H121" t="n">
-        <v>142.54603174603176</v>
+        <v>140.38624338624336</v>
       </c>
       <c r="I121" t="n">
-        <v>113.14285714285714</v>
+        <v>111.42857142857143</v>
       </c>
       <c r="J121" t="n">
-        <v>96.82400000000001</v>
+        <v>201.39392</v>
       </c>
       <c r="K121" t="n">
-        <v>18.200000000000003</v>
+        <v>37.856</v>
       </c>
       <c r="L121" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="M121" t="n">
         <v>2016.0</v>
@@ -5106,31 +5109,31 @@
         <v>3570.0</v>
       </c>
       <c r="D122" t="n">
-        <v>9652.0</v>
+        <v>12089.0</v>
       </c>
       <c r="E122" t="n">
-        <v>2703.641456582633</v>
+        <v>3386.274509803922</v>
       </c>
       <c r="F122" t="n">
-        <v>231.6792339916218</v>
+        <v>221.10831837223216</v>
       </c>
       <c r="G122" t="n">
         <v>251.0</v>
       </c>
       <c r="H122" t="n">
-        <v>90.09747988563069</v>
+        <v>94.76070787381379</v>
       </c>
       <c r="I122" t="n">
-        <v>102.27777777777777</v>
+        <v>107.57142857142857</v>
       </c>
       <c r="J122" t="n">
-        <v>37.152</v>
+        <v>66.8736</v>
       </c>
       <c r="K122" t="n">
-        <v>9.6</v>
+        <v>17.279999999999998</v>
       </c>
       <c r="L122" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="M122" t="n">
         <v>2017.0</v>
@@ -5147,31 +5150,31 @@
         <v>3570.0</v>
       </c>
       <c r="D123" t="n">
-        <v>2889.0</v>
+        <v>9652.0</v>
       </c>
       <c r="E123" t="n">
-        <v>809.2436974789916</v>
+        <v>2703.641456582633</v>
       </c>
       <c r="F123" t="n">
-        <v>310.0801915020946</v>
+        <v>231.6792339916218</v>
       </c>
       <c r="G123" t="n">
-        <v>352.0</v>
+        <v>251.0</v>
       </c>
       <c r="H123" t="n">
-        <v>82.42638001954413</v>
+        <v>90.09747988563069</v>
       </c>
       <c r="I123" t="n">
-        <v>93.56962025316456</v>
+        <v>102.27777777777777</v>
       </c>
       <c r="J123" t="n">
-        <v>0.0</v>
+        <v>37.152</v>
       </c>
       <c r="K123" t="n">
-        <v>0.0</v>
+        <v>9.6</v>
       </c>
       <c r="L123" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="M123" t="n">
         <v>2017.0</v>
@@ -5188,22 +5191,22 @@
         <v>3570.0</v>
       </c>
       <c r="D124" t="n">
-        <v>4423.0</v>
+        <v>2889.0</v>
       </c>
       <c r="E124" t="n">
-        <v>1238.9355742296918</v>
+        <v>809.2436974789916</v>
       </c>
       <c r="F124" t="n">
-        <v>298.6283662477558</v>
+        <v>310.0801915020946</v>
       </c>
       <c r="G124" t="n">
-        <v>339.0</v>
+        <v>352.0</v>
       </c>
       <c r="H124" t="n">
-        <v>90.88689407540396</v>
+        <v>82.42638001954413</v>
       </c>
       <c r="I124" t="n">
-        <v>103.17391304347827</v>
+        <v>93.56962025316456</v>
       </c>
       <c r="J124" t="n">
         <v>0.0</v>
@@ -5212,7 +5215,7 @@
         <v>0.0</v>
       </c>
       <c r="L124" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="M124" t="n">
         <v>2017.0</v>
@@ -5229,22 +5232,22 @@
         <v>3570.0</v>
       </c>
       <c r="D125" t="n">
-        <v>7162.0</v>
+        <v>4423.0</v>
       </c>
       <c r="E125" t="n">
-        <v>2006.1624649859943</v>
+        <v>1238.9355742296918</v>
       </c>
       <c r="F125" t="n">
-        <v>284.53381208856973</v>
+        <v>298.6283662477558</v>
       </c>
       <c r="G125" t="n">
-        <v>323.0</v>
+        <v>339.0</v>
       </c>
       <c r="H125" t="n">
-        <v>94.84460402952324</v>
+        <v>90.88689407540396</v>
       </c>
       <c r="I125" t="n">
-        <v>107.66666666666667</v>
+        <v>103.17391304347827</v>
       </c>
       <c r="J125" t="n">
         <v>0.0</v>
@@ -5253,7 +5256,7 @@
         <v>0.0</v>
       </c>
       <c r="L125" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="M125" t="n">
         <v>2017.0</v>
@@ -5270,31 +5273,31 @@
         <v>3570.0</v>
       </c>
       <c r="D126" t="n">
-        <v>10256.0</v>
+        <v>7162.0</v>
       </c>
       <c r="E126" t="n">
-        <v>2872.829131652661</v>
+        <v>2006.1624649859943</v>
       </c>
       <c r="F126" t="n">
-        <v>257.2256134051466</v>
+        <v>284.53381208856973</v>
       </c>
       <c r="G126" t="n">
-        <v>292.0</v>
+        <v>323.0</v>
       </c>
       <c r="H126" t="n">
-        <v>105.0639829401303</v>
+        <v>94.84460402952324</v>
       </c>
       <c r="I126" t="n">
-        <v>119.26760563380282</v>
+        <v>107.66666666666667</v>
       </c>
       <c r="J126" t="n">
-        <v>27.863999999999997</v>
+        <v>0.0</v>
       </c>
       <c r="K126" t="n">
-        <v>7.199999999999999</v>
+        <v>0.0</v>
       </c>
       <c r="L126" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="M126" t="n">
         <v>2017.0</v>
@@ -5311,31 +5314,31 @@
         <v>3570.0</v>
       </c>
       <c r="D127" t="n">
-        <v>12859.0</v>
+        <v>10256.0</v>
       </c>
       <c r="E127" t="n">
-        <v>3601.9607843137255</v>
+        <v>2872.829131652661</v>
       </c>
       <c r="F127" t="n">
-        <v>233.44105326152004</v>
+        <v>257.2256134051466</v>
       </c>
       <c r="G127" t="n">
-        <v>265.0</v>
+        <v>292.0</v>
       </c>
       <c r="H127" t="n">
-        <v>96.1227866370965</v>
+        <v>105.0639829401303</v>
       </c>
       <c r="I127" t="n">
-        <v>109.11764705882354</v>
+        <v>119.26760563380282</v>
       </c>
       <c r="J127" t="n">
-        <v>74.304</v>
+        <v>27.863999999999997</v>
       </c>
       <c r="K127" t="n">
-        <v>19.2</v>
+        <v>7.199999999999999</v>
       </c>
       <c r="L127" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="M127" t="n">
         <v>2017.0</v>
@@ -5352,31 +5355,31 @@
         <v>3570.0</v>
       </c>
       <c r="D128" t="n">
-        <v>15123.0</v>
+        <v>12859.0</v>
       </c>
       <c r="E128" t="n">
-        <v>4236.134453781513</v>
+        <v>3601.9607843137255</v>
       </c>
       <c r="F128" t="n">
-        <v>223.7510472770796</v>
+        <v>233.44105326152004</v>
       </c>
       <c r="G128" t="n">
-        <v>254.0</v>
+        <v>265.0</v>
       </c>
       <c r="H128" t="n">
-        <v>95.89330597589127</v>
+        <v>96.1227866370965</v>
       </c>
       <c r="I128" t="n">
-        <v>108.85714285714286</v>
+        <v>109.11764705882354</v>
       </c>
       <c r="J128" t="n">
-        <v>83.592</v>
+        <v>74.304</v>
       </c>
       <c r="K128" t="n">
-        <v>21.599999999999998</v>
+        <v>19.2</v>
       </c>
       <c r="L128" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="M128" t="n">
         <v>2017.0</v>
@@ -5393,31 +5396,31 @@
         <v>3570.0</v>
       </c>
       <c r="D129" t="n">
-        <v>18636.0</v>
+        <v>15123.0</v>
       </c>
       <c r="E129" t="n">
-        <v>5220.16806722689</v>
+        <v>4236.134453781513</v>
       </c>
       <c r="F129" t="n">
-        <v>220.22740873728304</v>
+        <v>223.7510472770796</v>
       </c>
       <c r="G129" t="n">
-        <v>250.0</v>
+        <v>254.0</v>
       </c>
       <c r="H129" t="n">
-        <v>98.94274885298223</v>
+        <v>95.89330597589127</v>
       </c>
       <c r="I129" t="n">
-        <v>112.31884057971014</v>
+        <v>108.85714285714286</v>
       </c>
       <c r="J129" t="n">
-        <v>167.184</v>
+        <v>83.592</v>
       </c>
       <c r="K129" t="n">
-        <v>43.199999999999996</v>
+        <v>21.599999999999998</v>
       </c>
       <c r="L129" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="M129" t="n">
         <v>2017.0</v>
@@ -5434,31 +5437,31 @@
         <v>3570.0</v>
       </c>
       <c r="D130" t="n">
-        <v>19256.0</v>
+        <v>18636.0</v>
       </c>
       <c r="E130" t="n">
-        <v>5393.837535014006</v>
+        <v>5220.16806722689</v>
       </c>
       <c r="F130" t="n">
-        <v>221.10831837223216</v>
+        <v>220.22740873728304</v>
       </c>
       <c r="G130" t="n">
-        <v>251.0</v>
+        <v>250.0</v>
       </c>
       <c r="H130" t="n">
-        <v>104.05097335163866</v>
+        <v>98.94274885298223</v>
       </c>
       <c r="I130" t="n">
-        <v>118.11764705882354</v>
+        <v>112.31884057971014</v>
       </c>
       <c r="J130" t="n">
-        <v>175.54319999999998</v>
+        <v>167.184</v>
       </c>
       <c r="K130" t="n">
-        <v>45.36</v>
+        <v>43.199999999999996</v>
       </c>
       <c r="L130" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="M130" t="n">
         <v>2017.0</v>
@@ -5475,34 +5478,34 @@
         <v>3570.0</v>
       </c>
       <c r="D131" t="n">
-        <v>17396.0</v>
+        <v>19256.0</v>
       </c>
       <c r="E131" t="n">
-        <v>4872.829131652661</v>
+        <v>5393.837535014006</v>
       </c>
       <c r="F131" t="n">
-        <v>222.87013764213046</v>
+        <v>221.10831837223216</v>
       </c>
       <c r="G131" t="n">
-        <v>253.0</v>
+        <v>251.0</v>
       </c>
       <c r="H131" t="n">
-        <v>100.13006183921803</v>
+        <v>104.05097335163866</v>
       </c>
       <c r="I131" t="n">
-        <v>113.66666666666667</v>
+        <v>118.11764705882354</v>
       </c>
       <c r="J131" t="n">
-        <v>166.25519999999997</v>
+        <v>175.54319999999998</v>
       </c>
       <c r="K131" t="n">
-        <v>42.96</v>
+        <v>45.36</v>
       </c>
       <c r="L131" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="M131" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="132">
@@ -5516,31 +5519,31 @@
         <v>3570.0</v>
       </c>
       <c r="D132" t="n">
-        <v>15514.0</v>
+        <v>17396.0</v>
       </c>
       <c r="E132" t="n">
-        <v>4345.658263305322</v>
+        <v>4872.829131652661</v>
       </c>
       <c r="F132" t="n">
-        <v>219.34649910233392</v>
+        <v>222.87013764213046</v>
       </c>
       <c r="G132" t="n">
-        <v>249.0</v>
+        <v>253.0</v>
       </c>
       <c r="H132" t="n">
-        <v>94.00564247242883</v>
+        <v>100.13006183921803</v>
       </c>
       <c r="I132" t="n">
-        <v>106.71428571428571</v>
+        <v>113.66666666666667</v>
       </c>
       <c r="J132" t="n">
-        <v>130.032</v>
+        <v>166.25519999999997</v>
       </c>
       <c r="K132" t="n">
-        <v>33.6</v>
+        <v>42.96</v>
       </c>
       <c r="L132" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="M132" t="n">
         <v>2016.0</v>
@@ -5557,33 +5560,525 @@
         <v>3570.0</v>
       </c>
       <c r="D133" t="n">
-        <v>12089.0</v>
+        <v>15514.0</v>
       </c>
       <c r="E133" t="n">
-        <v>3386.274509803922</v>
+        <v>4345.658263305322</v>
       </c>
       <c r="F133" t="n">
-        <v>221.10831837223216</v>
+        <v>219.34649910233392</v>
       </c>
       <c r="G133" t="n">
-        <v>251.0</v>
+        <v>249.0</v>
       </c>
       <c r="H133" t="n">
-        <v>94.76070787381379</v>
+        <v>94.00564247242883</v>
       </c>
       <c r="I133" t="n">
-        <v>107.57142857142857</v>
+        <v>106.71428571428571</v>
       </c>
       <c r="J133" t="n">
-        <v>66.8736</v>
+        <v>130.032</v>
       </c>
       <c r="K133" t="n">
-        <v>17.279999999999998</v>
+        <v>33.6</v>
       </c>
       <c r="L133" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="M133" t="n">
+        <v>2016.0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>24</v>
+      </c>
+      <c r="B134" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="C134" t="n">
+        <v>7356.0</v>
+      </c>
+      <c r="D134" t="n">
+        <v>18596.0</v>
+      </c>
+      <c r="E134" t="n">
+        <v>2528.004350190321</v>
+      </c>
+      <c r="F134" t="n">
+        <v>467.04419889502765</v>
+      </c>
+      <c r="G134" t="n">
+        <v>232.0</v>
+      </c>
+      <c r="H134" t="n">
+        <v>200.1617995264404</v>
+      </c>
+      <c r="I134" t="n">
+        <v>99.42857142857143</v>
+      </c>
+      <c r="J134" t="n">
+        <v>106.58844</v>
+      </c>
+      <c r="K134" t="n">
+        <v>14.490000000000002</v>
+      </c>
+      <c r="L134" t="n">
         <v>10.0</v>
       </c>
-      <c r="M133" t="n">
+      <c r="M134" t="n">
+        <v>2017.0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>24</v>
+      </c>
+      <c r="B135" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="C135" t="n">
+        <v>7356.0</v>
+      </c>
+      <c r="D135" t="n">
+        <v>16267.0</v>
+      </c>
+      <c r="E135" t="n">
+        <v>2211.3920609026645</v>
+      </c>
+      <c r="F135" t="n">
+        <v>477.1098066298342</v>
+      </c>
+      <c r="G135" t="n">
+        <v>232.0</v>
+      </c>
+      <c r="H135" t="n">
+        <v>185.54270257826886</v>
+      </c>
+      <c r="I135" t="n">
+        <v>92.16666666666667</v>
+      </c>
+      <c r="J135" t="n">
+        <v>84.9618</v>
+      </c>
+      <c r="K135" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="L135" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="M135" t="n">
+        <v>2017.0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>24</v>
+      </c>
+      <c r="B136" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="C136" t="n">
+        <v>7356.0</v>
+      </c>
+      <c r="D136" t="n">
+        <v>7896.0</v>
+      </c>
+      <c r="E136" t="n">
+        <v>1073.4094616639477</v>
+      </c>
+      <c r="F136" t="n">
+        <v>513.345994475138</v>
+      </c>
+      <c r="G136" t="n">
+        <v>255.0</v>
+      </c>
+      <c r="H136" t="n">
+        <v>136.45906182250505</v>
+      </c>
+      <c r="I136" t="n">
+        <v>67.78481012658227</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K136" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L136" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M136" t="n">
+        <v>2017.0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>24</v>
+      </c>
+      <c r="B137" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="C137" t="n">
+        <v>7356.0</v>
+      </c>
+      <c r="D137" t="n">
+        <v>10298.0</v>
+      </c>
+      <c r="E137" t="n">
+        <v>1399.9456226209898</v>
+      </c>
+      <c r="F137" t="n">
+        <v>507.3066298342542</v>
+      </c>
+      <c r="G137" t="n">
+        <v>252.0</v>
+      </c>
+      <c r="H137" t="n">
+        <v>154.39766994955562</v>
+      </c>
+      <c r="I137" t="n">
+        <v>76.69565217391305</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K137" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L137" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="M137" t="n">
+        <v>2017.0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>24</v>
+      </c>
+      <c r="B138" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="C138" t="n">
+        <v>7356.0</v>
+      </c>
+      <c r="D138" t="n">
+        <v>15002.0</v>
+      </c>
+      <c r="E138" t="n">
+        <v>2039.4235997824906</v>
+      </c>
+      <c r="F138" t="n">
+        <v>489.1885359116022</v>
+      </c>
+      <c r="G138" t="n">
+        <v>243.0</v>
+      </c>
+      <c r="H138" t="n">
+        <v>163.0628453038674</v>
+      </c>
+      <c r="I138" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K138" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L138" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="M138" t="n">
+        <v>2017.0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>24</v>
+      </c>
+      <c r="B139" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="C139" t="n">
+        <v>7356.0</v>
+      </c>
+      <c r="D139" t="n">
+        <v>16493.0</v>
+      </c>
+      <c r="E139" t="n">
+        <v>2242.115280043502</v>
+      </c>
+      <c r="F139" t="n">
+        <v>481.13604972375686</v>
+      </c>
+      <c r="G139" t="n">
+        <v>239.0</v>
+      </c>
+      <c r="H139" t="n">
+        <v>196.5203583378725</v>
+      </c>
+      <c r="I139" t="n">
+        <v>97.61971830985915</v>
+      </c>
+      <c r="J139" t="n">
+        <v>43.253280000000004</v>
+      </c>
+      <c r="K139" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="L139" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M139" t="n">
+        <v>2017.0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>24</v>
+      </c>
+      <c r="B140" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="C140" t="n">
+        <v>7356.0</v>
+      </c>
+      <c r="D140" t="n">
+        <v>20569.0</v>
+      </c>
+      <c r="E140" t="n">
+        <v>2796.220772158782</v>
+      </c>
+      <c r="F140" t="n">
+        <v>535.4903314917127</v>
+      </c>
+      <c r="G140" t="n">
+        <v>266.0</v>
+      </c>
+      <c r="H140" t="n">
+        <v>220.49601884952875</v>
+      </c>
+      <c r="I140" t="n">
+        <v>109.52941176470588</v>
+      </c>
+      <c r="J140" t="n">
+        <v>108.13320000000002</v>
+      </c>
+      <c r="K140" t="n">
+        <v>14.700000000000001</v>
+      </c>
+      <c r="L140" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="M140" t="n">
+        <v>2017.0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>24</v>
+      </c>
+      <c r="B141" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="C141" t="n">
+        <v>7356.0</v>
+      </c>
+      <c r="D141" t="n">
+        <v>22569.0</v>
+      </c>
+      <c r="E141" t="n">
+        <v>3068.1076672104405</v>
+      </c>
+      <c r="F141" t="n">
+        <v>509.31975138121544</v>
+      </c>
+      <c r="G141" t="n">
+        <v>253.0</v>
+      </c>
+      <c r="H141" t="n">
+        <v>218.27989344909233</v>
+      </c>
+      <c r="I141" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>169.9236</v>
+      </c>
+      <c r="K141" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="L141" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="M141" t="n">
+        <v>2017.0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>24</v>
+      </c>
+      <c r="B142" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="C142" t="n">
+        <v>7356.0</v>
+      </c>
+      <c r="D142" t="n">
+        <v>26998.0</v>
+      </c>
+      <c r="E142" t="n">
+        <v>3670.2011963023383</v>
+      </c>
+      <c r="F142" t="n">
+        <v>461.00483425414365</v>
+      </c>
+      <c r="G142" t="n">
+        <v>229.0</v>
+      </c>
+      <c r="H142" t="n">
+        <v>207.11811394026745</v>
+      </c>
+      <c r="I142" t="n">
+        <v>102.8840579710145</v>
+      </c>
+      <c r="J142" t="n">
+        <v>293.5044</v>
+      </c>
+      <c r="K142" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="L142" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M142" t="n">
+        <v>2017.0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>24</v>
+      </c>
+      <c r="B143" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="C143" t="n">
+        <v>7356.0</v>
+      </c>
+      <c r="D143" t="n">
+        <v>26832.0</v>
+      </c>
+      <c r="E143" t="n">
+        <v>3647.6345840130507</v>
+      </c>
+      <c r="F143" t="n">
+        <v>458.99171270718233</v>
+      </c>
+      <c r="G143" t="n">
+        <v>228.0</v>
+      </c>
+      <c r="H143" t="n">
+        <v>215.99610009749756</v>
+      </c>
+      <c r="I143" t="n">
+        <v>107.29411764705883</v>
+      </c>
+      <c r="J143" t="n">
+        <v>278.0568</v>
+      </c>
+      <c r="K143" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="L143" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M143" t="n">
+        <v>2017.0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>24</v>
+      </c>
+      <c r="B144" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="C144" t="n">
+        <v>7356.0</v>
+      </c>
+      <c r="D144" t="n">
+        <v>23985.0</v>
+      </c>
+      <c r="E144" t="n">
+        <v>3260.6035889070145</v>
+      </c>
+      <c r="F144" t="n">
+        <v>467.04419889502765</v>
+      </c>
+      <c r="G144" t="n">
+        <v>232.0</v>
+      </c>
+      <c r="H144" t="n">
+        <v>209.8314516774762</v>
+      </c>
+      <c r="I144" t="n">
+        <v>104.23188405797102</v>
+      </c>
+      <c r="J144" t="n">
+        <v>247.1616</v>
+      </c>
+      <c r="K144" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="L144" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="M144" t="n">
+        <v>2016.0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>24</v>
+      </c>
+      <c r="B145" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="C145" t="n">
+        <v>7356.0</v>
+      </c>
+      <c r="D145" t="n">
+        <v>21231.0</v>
+      </c>
+      <c r="E145" t="n">
+        <v>2886.215334420881</v>
+      </c>
+      <c r="F145" t="n">
+        <v>463.01795580110496</v>
+      </c>
+      <c r="G145" t="n">
+        <v>230.0</v>
+      </c>
+      <c r="H145" t="n">
+        <v>198.43626677190213</v>
+      </c>
+      <c r="I145" t="n">
+        <v>98.57142857142857</v>
+      </c>
+      <c r="J145" t="n">
+        <v>213.17688</v>
+      </c>
+      <c r="K145" t="n">
+        <v>28.980000000000004</v>
+      </c>
+      <c r="L145" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="M145" t="n">
         <v>2016.0</v>
       </c>
     </row>
